--- a/customDIctionary.xlsx
+++ b/customDIctionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\claptrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404B51C4-CBF7-4E9D-A0CC-51332E66EFA4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CF37A0-5F2B-4DFC-8F84-5CA57FB4C97D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9375" xr2:uid="{065E9CA2-EFF7-4AAA-8B1A-5CE3FAFF6ACD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="823">
   <si>
     <t>Word</t>
   </si>
@@ -1755,14 +1755,766 @@
   </si>
   <si>
     <t>a knighthood</t>
+  </si>
+  <si>
+    <t>In1</t>
+  </si>
+  <si>
+    <t>In2</t>
+  </si>
+  <si>
+    <t>In3</t>
+  </si>
+  <si>
+    <t>On1</t>
+  </si>
+  <si>
+    <t>On2</t>
+  </si>
+  <si>
+    <t>On3</t>
+  </si>
+  <si>
+    <t>a forest</t>
+  </si>
+  <si>
+    <t>From1</t>
+  </si>
+  <si>
+    <t>From2</t>
+  </si>
+  <si>
+    <t>From3</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>a cat</t>
+  </si>
+  <si>
+    <t>a kitten</t>
+  </si>
+  <si>
+    <t>a cave</t>
+  </si>
+  <si>
+    <t>a recipe</t>
+  </si>
+  <si>
+    <t>the kitchen</t>
+  </si>
+  <si>
+    <t>your head</t>
+  </si>
+  <si>
+    <t>front of a door</t>
+  </si>
+  <si>
+    <t>your leg</t>
+  </si>
+  <si>
+    <t>prison</t>
+  </si>
+  <si>
+    <t>jail</t>
+  </si>
+  <si>
+    <t>the mafia</t>
+  </si>
+  <si>
+    <t>the ocean</t>
+  </si>
+  <si>
+    <t>the sea</t>
+  </si>
+  <si>
+    <t>a river</t>
+  </si>
+  <si>
+    <t>a kennel</t>
+  </si>
+  <si>
+    <t>your sofa</t>
+  </si>
+  <si>
+    <t>the pound</t>
+  </si>
+  <si>
+    <t>a clinic</t>
+  </si>
+  <si>
+    <t>a casino</t>
+  </si>
+  <si>
+    <t>a racecourse</t>
+  </si>
+  <si>
+    <t>a tree</t>
+  </si>
+  <si>
+    <t>the sky</t>
+  </si>
+  <si>
+    <t>a panel show</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>a court</t>
+  </si>
+  <si>
+    <t>a courtroom</t>
+  </si>
+  <si>
+    <t>your chest</t>
+  </si>
+  <si>
+    <t>an olive</t>
+  </si>
+  <si>
+    <t>the ground</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>a good shot</t>
+  </si>
+  <si>
+    <t>a teenager</t>
+  </si>
+  <si>
+    <t>your face</t>
+  </si>
+  <si>
+    <t>your chin</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>the UK</t>
+  </si>
+  <si>
+    <t>Britain</t>
+  </si>
+  <si>
+    <t>your hair</t>
+  </si>
+  <si>
+    <t>a kid's head</t>
+  </si>
+  <si>
+    <t>your hand</t>
+  </si>
+  <si>
+    <t>the toilet</t>
+  </si>
+  <si>
+    <t>an arse</t>
+  </si>
+  <si>
+    <t>the bottom of your shoe</t>
+  </si>
+  <si>
+    <t>your mouth</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>your porridge</t>
+  </si>
+  <si>
+    <t>a flapjack</t>
+  </si>
+  <si>
+    <t>granola</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>the high seas</t>
+  </si>
+  <si>
+    <t>a lake</t>
+  </si>
+  <si>
+    <t>a shipwright</t>
+  </si>
+  <si>
+    <t>writing</t>
+  </si>
+  <si>
+    <t>a guru</t>
+  </si>
+  <si>
+    <t>Shakespeare</t>
+  </si>
+  <si>
+    <t>a farm</t>
+  </si>
+  <si>
+    <t>a ballot box</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>a secret admirer</t>
+  </si>
+  <si>
+    <t>the air</t>
+  </si>
+  <si>
+    <t>a burrow</t>
+  </si>
+  <si>
+    <t>the countryside</t>
+  </si>
+  <si>
+    <t>a farmyard</t>
+  </si>
+  <si>
+    <t>a trap</t>
+  </si>
+  <si>
+    <t>a fishing hook</t>
+  </si>
+  <si>
+    <t>a hook</t>
+  </si>
+  <si>
+    <t>valentine's day</t>
+  </si>
+  <si>
+    <t>a fence</t>
+  </si>
+  <si>
+    <t>a gallery</t>
+  </si>
+  <si>
+    <t>the wall</t>
+  </si>
+  <si>
+    <t>a painter</t>
+  </si>
+  <si>
+    <t>a dartboard</t>
+  </si>
+  <si>
+    <t>a lot of beans</t>
+  </si>
+  <si>
+    <t>your trousers</t>
+  </si>
+  <si>
+    <t>a curry</t>
+  </si>
+  <si>
+    <t>mexican food</t>
+  </si>
+  <si>
+    <t>the beginning</t>
+  </si>
+  <si>
+    <t>a fish</t>
+  </si>
+  <si>
+    <t>a foot</t>
+  </si>
+  <si>
+    <t>a shoe</t>
+  </si>
+  <si>
+    <t>a bakery</t>
+  </si>
+  <si>
+    <t>a field</t>
+  </si>
+  <si>
+    <t>a dark alley</t>
+  </si>
+  <si>
+    <t>a brothel</t>
+  </si>
+  <si>
+    <t>the streets</t>
+  </si>
+  <si>
+    <t>a street corner</t>
+  </si>
+  <si>
+    <t>a moment</t>
+  </si>
+  <si>
+    <t>a mountain</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>a pitcher</t>
+  </si>
+  <si>
+    <t>a bowler</t>
+  </si>
+  <si>
+    <t>Broadway</t>
+  </si>
+  <si>
+    <t>an altar</t>
+  </si>
+  <si>
+    <t>a torch</t>
+  </si>
+  <si>
+    <t>a wild animal</t>
+  </si>
+  <si>
+    <t>a dog</t>
+  </si>
+  <si>
+    <t>the evening</t>
+  </si>
+  <si>
+    <t>the middle ages</t>
+  </si>
+  <si>
+    <t>a chess-board</t>
+  </si>
+  <si>
+    <t>a joust</t>
+  </si>
+  <si>
+    <t>pairs</t>
+  </si>
+  <si>
+    <t>a wood</t>
+  </si>
+  <si>
+    <t>the woods</t>
+  </si>
+  <si>
+    <t>a church</t>
+  </si>
+  <si>
+    <t>a chapel</t>
+  </si>
+  <si>
+    <t>the grass</t>
+  </si>
+  <si>
+    <t>the morning</t>
+  </si>
+  <si>
+    <t>a colour palette</t>
+  </si>
+  <si>
+    <t>a synagogue</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>a circumcision</t>
+  </si>
+  <si>
+    <t>a bathroom</t>
+  </si>
+  <si>
+    <t>a restroom</t>
+  </si>
+  <si>
+    <t>a mountain top</t>
+  </si>
+  <si>
+    <t>an overlook</t>
+  </si>
+  <si>
+    <t>a beauty spot</t>
+  </si>
+  <si>
+    <t>a skyscraper</t>
+  </si>
+  <si>
+    <t>a ghost</t>
+  </si>
+  <si>
+    <t>a drunk</t>
+  </si>
+  <si>
+    <t>the pavement</t>
+  </si>
+  <si>
+    <t>your foot</t>
+  </si>
+  <si>
+    <t>terrible shape</t>
+  </si>
+  <si>
+    <t>a jewellers</t>
+  </si>
+  <si>
+    <t>your finger</t>
+  </si>
+  <si>
+    <t>a finger</t>
+  </si>
+  <si>
+    <t>a network</t>
+  </si>
+  <si>
+    <t>a throne</t>
+  </si>
+  <si>
+    <t>the palace</t>
+  </si>
+  <si>
+    <t>the throne room</t>
+  </si>
+  <si>
+    <t>your phone</t>
+  </si>
+  <si>
+    <t>a phone</t>
+  </si>
+  <si>
+    <t>the radio</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>a small dog</t>
+  </si>
+  <si>
+    <t>a puppy</t>
+  </si>
+  <si>
+    <t>the audience</t>
+  </si>
+  <si>
+    <t>a bottle</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>the sofa</t>
+  </si>
+  <si>
+    <t>an atlas</t>
+  </si>
+  <si>
+    <t>a hunter</t>
+  </si>
+  <si>
+    <t>a jar</t>
+  </si>
+  <si>
+    <t>toast</t>
+  </si>
+  <si>
+    <t>your inbox</t>
+  </si>
+  <si>
+    <t>a scammer</t>
+  </si>
+  <si>
+    <t>a spammer</t>
+  </si>
+  <si>
+    <t>a conman</t>
+  </si>
+  <si>
+    <t>the river</t>
+  </si>
+  <si>
+    <t>a sinner</t>
+  </si>
+  <si>
+    <t>a sandwich</t>
+  </si>
+  <si>
+    <t>a fishmonger</t>
+  </si>
+  <si>
+    <t>the afternoon</t>
+  </si>
+  <si>
+    <t>grinder</t>
+  </si>
+  <si>
+    <t>a bale</t>
+  </si>
+  <si>
+    <t>tinder</t>
+  </si>
+  <si>
+    <t>a prostitute</t>
+  </si>
+  <si>
+    <t>a cove</t>
+  </si>
+  <si>
+    <t>front of the tv</t>
+  </si>
+  <si>
+    <t>a hotel</t>
+  </si>
+  <si>
+    <t>a hostel</t>
+  </si>
+  <si>
+    <t>a resort</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>vacation</t>
+  </si>
+  <si>
+    <t>an ice rink</t>
+  </si>
+  <si>
+    <t>a hockey match</t>
+  </si>
+  <si>
+    <t>a restaurant</t>
+  </si>
+  <si>
+    <t>a tip jar</t>
+  </si>
+  <si>
+    <t>a textbook</t>
+  </si>
+  <si>
+    <t>an equation</t>
+  </si>
+  <si>
+    <t>a calculator</t>
+  </si>
+  <si>
+    <t>your eye</t>
+  </si>
+  <si>
+    <t>your eyelid</t>
+  </si>
+  <si>
+    <t>your genitals</t>
+  </si>
+  <si>
+    <t>a hooker</t>
+  </si>
+  <si>
+    <t>a politician</t>
+  </si>
+  <si>
+    <t>an advert</t>
+  </si>
+  <si>
+    <t>a pride parade</t>
+  </si>
+  <si>
+    <t>a steeple</t>
+  </si>
+  <si>
+    <t>a football fan</t>
+  </si>
+  <si>
+    <t>someone in trouble</t>
+  </si>
+  <si>
+    <t>the beach</t>
+  </si>
+  <si>
+    <t>an oyster</t>
+  </si>
+  <si>
+    <t>a clam</t>
+  </si>
+  <si>
+    <t>the bathroom</t>
+  </si>
+  <si>
+    <t>a play</t>
+  </si>
+  <si>
+    <t>a diplomat</t>
+  </si>
+  <si>
+    <t>a patient</t>
+  </si>
+  <si>
+    <t>the upper classes</t>
+  </si>
+  <si>
+    <t>a rich family</t>
+  </si>
+  <si>
+    <t>a fairground</t>
+  </si>
+  <si>
+    <t>an amusement park</t>
+  </si>
+  <si>
+    <t>a hike</t>
+  </si>
+  <si>
+    <t>a tour</t>
+  </si>
+  <si>
+    <t>an animal</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>a classroom</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>the periodic table</t>
+  </si>
+  <si>
+    <t>a pincushion</t>
+  </si>
+  <si>
+    <t>a voodoo doll</t>
+  </si>
+  <si>
+    <t>an accordian</t>
+  </si>
+  <si>
+    <t>bagpipes</t>
+  </si>
+  <si>
+    <t>a drumkit</t>
+  </si>
+  <si>
+    <t>a cocktail</t>
+  </si>
+  <si>
+    <t>a bar</t>
+  </si>
+  <si>
+    <t>the family</t>
+  </si>
+  <si>
+    <t>a family</t>
+  </si>
+  <si>
+    <t>your body</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>the oven</t>
+  </si>
+  <si>
+    <t>the bakery</t>
+  </si>
+  <si>
+    <t>your pants</t>
+  </si>
+  <si>
+    <t>a condom</t>
+  </si>
+  <si>
+    <t>your dick</t>
+  </si>
+  <si>
+    <t>your cock</t>
+  </si>
+  <si>
+    <t>a closet</t>
+  </si>
+  <si>
+    <t>a wardrobe</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
+    <t>a dog's leg</t>
+  </si>
+  <si>
+    <t>a toolbox</t>
+  </si>
+  <si>
+    <t>a workshop</t>
+  </si>
+  <si>
+    <t>a workbench</t>
+  </si>
+  <si>
+    <t>a face</t>
+  </si>
+  <si>
+    <t>a raven</t>
+  </si>
+  <si>
+    <t>a crow</t>
+  </si>
+  <si>
+    <t>a blackbird</t>
+  </si>
+  <si>
+    <t>a house</t>
+  </si>
+  <si>
+    <t>a mansion</t>
+  </si>
+  <si>
+    <t>a pitch</t>
+  </si>
+  <si>
+    <t>a stadium</t>
+  </si>
+  <si>
+    <t>an arsenal</t>
+  </si>
+  <si>
+    <t>an old lady</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>the stove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdccc </t>
+  </si>
+  <si>
+    <t>the summer</t>
+  </si>
+  <si>
+    <t>the pantry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1790,8 +2542,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2106,20 +2859,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5D9654-EC04-466C-B743-C6A3C5F36A0A}">
-  <dimension ref="A1:I262"/>
+  <dimension ref="A1:R262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A262" sqref="A262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="7" max="9" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="7" max="9" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>572</v>
       </c>
@@ -2129,7 +2885,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
@@ -2147,8 +2903,35 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>575</v>
+      </c>
+      <c r="K1" t="s">
+        <v>576</v>
+      </c>
+      <c r="L1" t="s">
+        <v>577</v>
+      </c>
+      <c r="M1" t="s">
+        <v>578</v>
+      </c>
+      <c r="N1" t="s">
+        <v>579</v>
+      </c>
+      <c r="O1" t="s">
+        <v>580</v>
+      </c>
+      <c r="P1" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>583</v>
+      </c>
+      <c r="R1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">CONCATENATE("{""spelling"": """,D2,""", ""group"": """,C2,""", ""pos"": """,F2,""", ""adult"": ",IF(E2=TRUE,"true","false"),", ""has"": [",B2,"]},")</f>
         <v>{"spelling": "her", "group": "_er", "pos": "Noun", "adult": false, "has": ["a gender"]},</v>
@@ -2160,7 +2943,7 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
@@ -2169,8 +2952,11 @@
       <c r="G2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "fir", "group": "_er", "pos": "Noun", "adult": false, "has": ["leaves","pinecones","bark"]},</v>
@@ -2182,7 +2968,7 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
@@ -2197,8 +2983,17 @@
       <c r="I3" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>581</v>
+      </c>
+      <c r="K3" t="s">
+        <v>687</v>
+      </c>
+      <c r="L3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "purr", "group": "_er", "pos": "Noun", "adult": false, "has": []},</v>
@@ -2210,14 +3005,20 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "burr", "group": "_er", "pos": "Noun", "adult": false, "has": ["spikes"]},</v>
@@ -2229,7 +3030,7 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
@@ -2239,7 +3040,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "sir", "group": "_er", "pos": "Noun", "adult": false, "has": ["a knighthood","a sword","manners"]},</v>
@@ -2251,7 +3052,7 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
@@ -2267,7 +3068,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "year", "group": "_er", "pos": "Noun", "adult": false, "has": ["a date","dates","time"]},</v>
@@ -2279,7 +3080,7 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
@@ -2295,7 +3096,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "cur", "group": "_er", "pos": "Noun", "adult": false, "has": ["a bad attitude","no morals","no breeding"]},</v>
@@ -2307,7 +3108,7 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
@@ -2323,7 +3124,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "cat", "group": "_at", "pos": "Noun", "adult": false, "has": ["whiskers","a tail","claws"]},</v>
@@ -2335,7 +3136,7 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
@@ -2351,7 +3152,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "bat", "group": "_at", "pos": "Noun", "adult": false, "has": ["good hearing"]},</v>
@@ -2363,7 +3164,7 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
@@ -2372,8 +3173,11 @@
       <c r="G10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "fat", "group": "_at", "pos": "Noun", "adult": false, "has": []},</v>
@@ -2385,14 +3189,20 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>589</v>
+      </c>
+      <c r="K11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "hat", "group": "_at", "pos": "Noun", "adult": false, "has": ["a brim"]},</v>
@@ -2404,7 +3214,7 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
@@ -2413,8 +3223,14 @@
       <c r="G12" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>533</v>
+      </c>
+      <c r="N12" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "that", "group": "_at", "pos": "Noun", "adult": false, "has": []},</v>
@@ -2426,14 +3242,14 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "pat", "group": "_at", "pos": "Noun", "adult": false, "has": []},</v>
@@ -2445,14 +3261,14 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "prat", "group": "_at", "pos": "Noun", "adult": true, "has": ["no brains","bad ideas"]},</v>
@@ -2464,7 +3280,7 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="b">
@@ -2480,7 +3296,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "at", "group": "_at", "pos": "Noun", "adult": false, "has": []},</v>
@@ -2492,14 +3308,14 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "spat", "group": "_at", "pos": "Noun", "adult": false, "has": []},</v>
@@ -2511,14 +3327,14 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>239</v>
       </c>
       <c r="F17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "vat", "group": "_at", "pos": "Noun", "adult": false, "has": ["a lot in it"]},</v>
@@ -2530,7 +3346,7 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F18" t="s">
@@ -2539,8 +3355,11 @@
       <c r="G18" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "mat", "group": "_at", "pos": "Noun", "adult": false, "has": []},</v>
@@ -2552,14 +3371,17 @@
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F19" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "gnat", "group": "_at", "pos": "Noun", "adult": false, "has": ["wings"]},</v>
@@ -2571,7 +3393,7 @@
       <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
@@ -2580,8 +3402,11 @@
       <c r="G20" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "twat", "group": "_at", "pos": "Noun", "adult": true, "has": ["labia","bad ideas","a clitoris"]},</v>
@@ -2593,7 +3418,7 @@
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E21" t="b">
@@ -2612,7 +3437,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "con", "group": "_on", "pos": "Noun", "adult": false, "has": ["people confused","a jail sentence"]},</v>
@@ -2624,7 +3449,7 @@
       <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F22" t="s">
@@ -2636,11 +3461,23 @@
       <c r="H22" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>595</v>
+      </c>
+      <c r="K22" t="s">
+        <v>594</v>
+      </c>
+      <c r="P22" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>{"spelling": "on", "group": "_on", "pos": "Noun", "adult": false, "has": []},</v>
+        <v>{"spelling": "on", "group": "_on", "pos": "Adj", "adult": false, "has": []},</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
@@ -2649,14 +3486,14 @@
       <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "don", "group": "_on", "pos": "Noun", "adult": false, "has": ["mafiosos","a horses head","hired goons"]},</v>
@@ -2668,7 +3505,7 @@
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
@@ -2683,8 +3520,14 @@
       <c r="I24" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>596</v>
+      </c>
+      <c r="P24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "none", "group": "_on", "pos": "Noun", "adult": false, "has": ["nothing","nobody"]},</v>
@@ -2696,7 +3539,7 @@
       <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F25" t="s">
@@ -2709,7 +3552,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "one", "group": "_on", "pos": "Noun", "adult": false, "has": []},</v>
@@ -2721,14 +3564,14 @@
       <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "son", "group": "_on", "pos": "Noun", "adult": false, "has": ["parents"]},</v>
@@ -2740,7 +3583,7 @@
       <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>319</v>
       </c>
       <c r="F27" t="s">
@@ -2750,7 +3593,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "net", "group": "_et", "pos": "Noun", "adult": false, "has": ["fish in it"]},</v>
@@ -2762,7 +3605,7 @@
       <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F28" t="s">
@@ -2771,11 +3614,20 @@
       <c r="G28" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>597</v>
+      </c>
+      <c r="K28" t="s">
+        <v>598</v>
+      </c>
+      <c r="L28" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>{"spelling": "wet", "group": "_et", "pos": "Noun", "adult": false, "has": []},</v>
+        <v>{"spelling": "wet", "group": "_et", "pos": "Adj", "adult": false, "has": []},</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
@@ -2784,14 +3636,14 @@
       <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "pet", "group": "_et", "pos": "Noun", "adult": false, "has": ["an owner","a tail"]},</v>
@@ -2803,7 +3655,7 @@
       <c r="C30" t="s">
         <v>33</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F30" t="s">
@@ -2815,8 +3667,17 @@
       <c r="H30" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>600</v>
+      </c>
+      <c r="M30" t="s">
+        <v>601</v>
+      </c>
+      <c r="P30" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "set", "group": "_et", "pos": "Noun", "adult": false, "has": []},</v>
@@ -2828,14 +3689,14 @@
       <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F31" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "vet", "group": "_et", "pos": "Noun", "adult": false, "has": ["animals","tiny bandages","medical training"]},</v>
@@ -2847,7 +3708,7 @@
       <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F32" t="s">
@@ -2862,8 +3723,11 @@
       <c r="I32" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "bet", "group": "_et", "pos": "Noun", "adult": false, "has": ["money on it","a risk","a chance of winning"]},</v>
@@ -2875,7 +3739,7 @@
       <c r="C33" t="s">
         <v>33</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F33" t="s">
@@ -2890,8 +3754,14 @@
       <c r="I33" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>604</v>
+      </c>
+      <c r="K33" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "jay", "group": "_et", "pos": "Noun", "adult": false, "has": ["a beak","a nest"]},</v>
@@ -2903,7 +3773,7 @@
       <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>256</v>
       </c>
       <c r="F34" t="s">
@@ -2915,8 +3785,14 @@
       <c r="H34" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>606</v>
+      </c>
+      <c r="K34" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "kit", "group": "_it", "pos": "Noun", "adult": false, "has": []},</v>
@@ -2928,14 +3804,14 @@
       <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F35" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "wit", "group": "_it", "pos": "Noun", "adult": false, "has": ["funny ideas","good conversation"]},</v>
@@ -2947,7 +3823,7 @@
       <c r="C36" t="s">
         <v>40</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F36" t="s">
@@ -2959,8 +3835,14 @@
       <c r="H36" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>608</v>
+      </c>
+      <c r="N36" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "writ", "group": "_it", "pos": "Noun", "adult": false, "has": ["a signature","made a lawyer a lot of money","legal groundings"]},</v>
@@ -2972,7 +3854,7 @@
       <c r="C37" t="s">
         <v>40</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F37" t="s">
@@ -2987,8 +3869,14 @@
       <c r="I37" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>610</v>
+      </c>
+      <c r="K37" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "tit", "group": "_it", "pos": "Noun", "adult": true, "has": ["a nipple","a bra"]},</v>
@@ -3000,7 +3888,7 @@
       <c r="C38" t="s">
         <v>40</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E38" t="b">
@@ -3015,8 +3903,14 @@
       <c r="H38" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>265</v>
+      </c>
+      <c r="M38" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "pit", "group": "_it", "pos": "Noun", "adult": false, "has": ["spikes in it"]},</v>
@@ -3028,7 +3922,7 @@
       <c r="C39" t="s">
         <v>40</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F39" t="s">
@@ -3037,8 +3931,17 @@
       <c r="G39" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>226</v>
+      </c>
+      <c r="K39" t="s">
+        <v>613</v>
+      </c>
+      <c r="M39" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "it", "group": "_it", "pos": "Noun", "adult": false, "has": []},</v>
@@ -3050,14 +3953,14 @@
       <c r="C40" t="s">
         <v>40</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F40" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "fit", "group": "_it", "pos": "Noun", "adult": false, "has": []},</v>
@@ -3069,14 +3972,14 @@
       <c r="C41" t="s">
         <v>40</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F41" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "git", "group": "_it", "pos": "Noun", "adult": true, "has": ["no friends","a bad attitude"]},</v>
@@ -3088,7 +3991,7 @@
       <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E42" t="b">
@@ -3104,7 +4007,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "hit", "group": "_it", "pos": "Noun", "adult": false, "has": ["been spot on","worked well","succeeded"]},</v>
@@ -3116,7 +4019,7 @@
       <c r="C43" t="s">
         <v>40</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F43" t="s">
@@ -3131,8 +4034,14 @@
       <c r="I43" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>615</v>
+      </c>
+      <c r="P43" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "zit", "group": "_it", "pos": "Noun", "adult": false, "has": ["pus"]},</v>
@@ -3144,7 +4053,7 @@
       <c r="C44" t="s">
         <v>40</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F44" t="s">
@@ -3153,8 +4062,17 @@
       <c r="G44" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>617</v>
+      </c>
+      <c r="N44" t="s">
+        <v>618</v>
+      </c>
+      <c r="O44" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "Brit", "group": "_it", "pos": "Noun", "adult": false, "has": ["a drinking problem","bad teeth","a great accent"]},</v>
@@ -3166,7 +4084,7 @@
       <c r="C45" t="s">
         <v>40</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>272</v>
       </c>
       <c r="F45" t="s">
@@ -3181,8 +4099,26 @@
       <c r="I45" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>620</v>
+      </c>
+      <c r="K45" t="s">
+        <v>621</v>
+      </c>
+      <c r="L45" t="s">
+        <v>622</v>
+      </c>
+      <c r="P45" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>621</v>
+      </c>
+      <c r="R45" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "twit", "group": "_it", "pos": "Noun", "adult": true, "has": ["bad ideas"]},</v>
@@ -3194,7 +4130,7 @@
       <c r="C46" t="s">
         <v>40</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E46" t="b">
@@ -3207,7 +4143,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "nit", "group": "_it", "pos": "Noun", "adult": false, "has": ["shut down a school"]},</v>
@@ -3219,7 +4155,7 @@
       <c r="C47" t="s">
         <v>40</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F47" t="s">
@@ -3228,8 +4164,17 @@
       <c r="G47" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>623</v>
+      </c>
+      <c r="K47" t="s">
+        <v>591</v>
+      </c>
+      <c r="M47" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "mit", "group": "_it", "pos": "Noun", "adult": false, "has": ["fingers"]},</v>
@@ -3241,7 +4186,7 @@
       <c r="C48" t="s">
         <v>40</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F48" t="s">
@@ -3250,8 +4195,11 @@
       <c r="G48" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "shit", "group": "_it", "pos": "Noun", "adult": true, "has": ["a bad smell","a bit of sweetcorn in it"]},</v>
@@ -3263,7 +4211,7 @@
       <c r="C49" t="s">
         <v>40</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E49" t="b">
@@ -3278,8 +4226,17 @@
       <c r="H49" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>626</v>
+      </c>
+      <c r="M49" t="s">
+        <v>628</v>
+      </c>
+      <c r="P49" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "chit", "group": "_it", "pos": "Noun", "adult": false, "has": ["a signature"]},</v>
@@ -3291,7 +4248,7 @@
       <c r="C50" t="s">
         <v>40</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F50" t="s">
@@ -3301,7 +4258,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "spit", "group": "_it", "pos": "Noun", "adult": false, "has": ["come out of someones mouth"]},</v>
@@ -3313,7 +4270,7 @@
       <c r="C51" t="s">
         <v>40</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F51" t="s">
@@ -3322,8 +4279,14 @@
       <c r="G51" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>629</v>
+      </c>
+      <c r="P51" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "skit", "group": "_it", "pos": "Noun", "adult": false, "has": ["comedians in it","an audience"]},</v>
@@ -3335,7 +4298,7 @@
       <c r="C52" t="s">
         <v>40</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F52" t="s">
@@ -3347,8 +4310,14 @@
       <c r="H52" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>609</v>
+      </c>
+      <c r="N52" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "oat", "group": "_ote", "pos": "Noun", "adult": false, "has": []},</v>
@@ -3360,14 +4329,23 @@
       <c r="C53" t="s">
         <v>69</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F53" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>631</v>
+      </c>
+      <c r="K53" t="s">
+        <v>632</v>
+      </c>
+      <c r="L53" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "boat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a mast","sails","a captain"]},</v>
@@ -3379,7 +4357,7 @@
       <c r="C54" t="s">
         <v>69</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F54" t="s">
@@ -3394,8 +4372,23 @@
       <c r="I54" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>634</v>
+      </c>
+      <c r="K54" t="s">
+        <v>636</v>
+      </c>
+      <c r="M54" t="s">
+        <v>635</v>
+      </c>
+      <c r="N54" t="s">
+        <v>636</v>
+      </c>
+      <c r="P54" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "coat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a zip","a hood"]},</v>
@@ -3407,7 +4400,7 @@
       <c r="C55" t="s">
         <v>69</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F55" t="s">
@@ -3420,7 +4413,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "moat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a drawbridge"]},</v>
@@ -3432,7 +4425,7 @@
       <c r="C56" t="s">
         <v>69</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F56" t="s">
@@ -3442,7 +4435,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "quote", "group": "_ote", "pos": "Noun", "adult": false, "has": ["been written down","an attribution"]},</v>
@@ -3454,7 +4447,7 @@
       <c r="C57" t="s">
         <v>69</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F57" t="s">
@@ -3466,8 +4459,20 @@
       <c r="H57" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>638</v>
+      </c>
+      <c r="P57" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>297</v>
+      </c>
+      <c r="R57" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "tote", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a drawstring","clothes in it"]},</v>
@@ -3479,7 +4484,7 @@
       <c r="C58" t="s">
         <v>69</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F58" t="s">
@@ -3492,7 +4497,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "goat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["horns","hooves"]},</v>
@@ -3504,7 +4509,7 @@
       <c r="C59" t="s">
         <v>69</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F59" t="s">
@@ -3516,8 +4521,14 @@
       <c r="H59" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "vote", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a party","political leanings"]},</v>
@@ -3529,7 +4540,7 @@
       <c r="C60" t="s">
         <v>69</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F60" t="s">
@@ -3541,8 +4552,11 @@
       <c r="H60" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "note", "group": "_ote", "pos": "Noun", "adult": false, "has": ["an author"]},</v>
@@ -3554,7 +4568,7 @@
       <c r="C61" t="s">
         <v>69</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F61" t="s">
@@ -3563,8 +4577,14 @@
       <c r="G61" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>643</v>
+      </c>
+      <c r="P61" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "mote", "group": "_ote", "pos": "Noun", "adult": false, "has": []},</v>
@@ -3576,14 +4596,17 @@
       <c r="C62" t="s">
         <v>69</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F62" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "stoat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["whiskers","a tail"]},</v>
@@ -3595,7 +4618,7 @@
       <c r="C63" t="s">
         <v>69</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F63" t="s">
@@ -3607,11 +4630,17 @@
       <c r="H63" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>646</v>
+      </c>
+      <c r="K63" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>{"spelling": "ate", "group": "_ate", "pos": "Noun", "adult": false, "has": []},</v>
+        <v>{"spelling": "ate", "group": "_ate", "pos": "Verb", "adult": false, "has": []},</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="1"/>
@@ -3620,14 +4649,14 @@
       <c r="C64" t="s">
         <v>78</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F64" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "bait", "group": "_ate", "pos": "Noun", "adult": false, "has": []},</v>
@@ -3639,14 +4668,23 @@
       <c r="C65" t="s">
         <v>78</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F65" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>649</v>
+      </c>
+      <c r="M65" t="s">
+        <v>650</v>
+      </c>
+      <c r="N65" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="2">CONCATENATE("{""spelling"": """,D66,""", ""group"": """,C66,""", ""pos"": """,F66,""", ""adult"": ",IF(E66=TRUE,"true","false"),", ""has"": [",B66,"]},")</f>
         <v>{"spelling": "date", "group": "_ate", "pos": "Noun", "adult": false, "has": ["a pit"]},</v>
@@ -3658,7 +4696,7 @@
       <c r="C66" t="s">
         <v>78</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F66" t="s">
@@ -3667,8 +4705,14 @@
       <c r="G66" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>652</v>
+      </c>
+      <c r="N66" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "fate", "group": "_ate", "pos": "Noun", "adult": false, "has": ["been predestined"]},</v>
@@ -3680,7 +4724,7 @@
       <c r="C67" t="s">
         <v>78</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F67" t="s">
@@ -3690,7 +4734,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "gait", "group": "_ate", "pos": "Noun", "adult": false, "has": ["a funny way of walking","taken steps"]},</v>
@@ -3702,7 +4746,7 @@
       <c r="C68" t="s">
         <v>78</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F68" t="s">
@@ -3715,7 +4759,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "gate", "group": "_ate", "pos": "Noun", "adult": false, "has": ["handle","fence"]},</v>
@@ -3727,7 +4771,7 @@
       <c r="C69" t="s">
         <v>78</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F69" t="s">
@@ -3739,8 +4783,11 @@
       <c r="H69" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "wait", "group": "_ate", "pos": "Noun", "adult": false, "has": ["a pause","time"]},</v>
@@ -3752,7 +4799,7 @@
       <c r="C70" t="s">
         <v>78</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F70" t="s">
@@ -3765,7 +4812,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "mate", "group": "_ate", "pos": "Noun", "adult": false, "has": ["friends","a friend","pals"]},</v>
@@ -3777,7 +4824,7 @@
       <c r="C71" t="s">
         <v>78</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F71" t="s">
@@ -3793,7 +4840,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "state", "group": "_ate", "pos": "Noun", "adult": false, "has": ["a capital"]},</v>
@@ -3805,7 +4852,7 @@
       <c r="C72" t="s">
         <v>78</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F72" t="s">
@@ -3815,19 +4862,19 @@
         <v>390</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
-        <v>{"spelling": "art", "group": "_art", "pos": "Noun", "adult": false, "has": ["brush strokes","a frame","an artist"]},</v>
+        <v>{"spelling": "art", "group": "_art", "pos": "Noun", "adult": false, "has": ["brush strokes","a frame"]},</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="3"/>
-        <v>"brush strokes","a frame","an artist"</v>
+        <v>"brush strokes","a frame"</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F73" t="s">
@@ -3839,11 +4886,23 @@
       <c r="H73" t="s">
         <v>392</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
+        <v>654</v>
+      </c>
+      <c r="M73" t="s">
+        <v>655</v>
+      </c>
+      <c r="P73" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>656</v>
+      </c>
+      <c r="R73" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "tart", "group": "_art", "pos": "Noun", "adult": false, "has": ["a filling","pastry"]},</v>
@@ -3855,7 +4914,7 @@
       <c r="C74" t="s">
         <v>80</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F74" t="s">
@@ -3867,8 +4926,11 @@
       <c r="H74" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P74" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "part", "group": "_art", "pos": "Noun", "adult": false, "has": []},</v>
@@ -3880,14 +4942,14 @@
       <c r="C75" t="s">
         <v>80</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F75" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "dart", "group": "_art", "pos": "Noun", "adult": false, "has": ["a board","fins","a tip"]},</v>
@@ -3899,7 +4961,7 @@
       <c r="C76" t="s">
         <v>80</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F76" t="s">
@@ -3914,8 +4976,11 @@
       <c r="I76" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "fart", "group": "_art", "pos": "Noun", "adult": true, "has": ["a smell","a bad smell"]},</v>
@@ -3927,7 +4992,7 @@
       <c r="C77" t="s">
         <v>80</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E77" t="b">
@@ -3942,8 +5007,14 @@
       <c r="H77" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P77" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "heart", "group": "_art", "pos": "Noun", "adult": false, "has": ["blood","ventricles"]},</v>
@@ -3955,7 +5026,7 @@
       <c r="C78" t="s">
         <v>80</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F78" t="s">
@@ -3968,7 +5039,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "shart", "group": "_art", "pos": "Noun", "adult": true, "has": ["a smell","a bad smell","a stain"]},</v>
@@ -3980,7 +5051,7 @@
       <c r="C79" t="s">
         <v>80</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E79" t="b">
@@ -3998,8 +5069,20 @@
       <c r="I79" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>659</v>
+      </c>
+      <c r="P79" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>660</v>
+      </c>
+      <c r="R79" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "mart", "group": "_art", "pos": "Noun", "adult": false, "has": ["a shopkeeper","goods"]},</v>
@@ -4011,7 +5094,7 @@
       <c r="C80" t="s">
         <v>80</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F80" t="s">
@@ -4024,7 +5107,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "start", "group": "_art", "pos": "Noun", "adult": false, "has": []},</v>
@@ -4036,14 +5119,20 @@
       <c r="C81" t="s">
         <v>80</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F81" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>662</v>
+      </c>
+      <c r="P81" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "woe", "group": "_o", "pos": "Noun", "adult": false, "has": ["depression","tears"]},</v>
@@ -4055,7 +5144,7 @@
       <c r="C82" t="s">
         <v>91</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F82" t="s">
@@ -4068,7 +5157,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "roe", "group": "_o", "pos": "Noun", "adult": false, "has": ["eggs","a fishy smell"]},</v>
@@ -4080,7 +5169,7 @@
       <c r="C83" t="s">
         <v>91</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F83" t="s">
@@ -4092,8 +5181,11 @@
       <c r="H83" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P83" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "toe", "group": "_o", "pos": "Noun", "adult": false, "has": ["a nail"]},</v>
@@ -4105,7 +5197,7 @@
       <c r="C84" t="s">
         <v>91</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F84" t="s">
@@ -4114,8 +5206,14 @@
       <c r="G84" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>665</v>
+      </c>
+      <c r="M84" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "doe", "group": "_o", "pos": "Noun", "adult": false, "has": ["hooves"]},</v>
@@ -4127,7 +5225,7 @@
       <c r="C85" t="s">
         <v>91</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F85" t="s">
@@ -4137,7 +5235,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "dough", "group": "_o", "pos": "Noun", "adult": false, "has": ["yeast","flour"]},</v>
@@ -4149,7 +5247,7 @@
       <c r="C86" t="s">
         <v>91</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F86" t="s">
@@ -4161,8 +5259,14 @@
       <c r="H86" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>666</v>
+      </c>
+      <c r="P86" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "hoe", "group": "_o", "pos": "Noun", "adult": false, "has": ["a handle"]},</v>
@@ -4174,7 +5278,7 @@
       <c r="C87" t="s">
         <v>91</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F87" t="s">
@@ -4183,8 +5287,26 @@
       <c r="G87" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>641</v>
+      </c>
+      <c r="K87" t="s">
+        <v>648</v>
+      </c>
+      <c r="L87" t="s">
+        <v>667</v>
+      </c>
+      <c r="P87" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>648</v>
+      </c>
+      <c r="R87" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "ho", "group": "_o", "pos": "Noun", "adult": true, "has": ["a pimp","fishnets"]},</v>
@@ -4196,7 +5318,7 @@
       <c r="C88" t="s">
         <v>91</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E88" t="b">
@@ -4211,8 +5333,23 @@
       <c r="H88" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>668</v>
+      </c>
+      <c r="K88" t="s">
+        <v>669</v>
+      </c>
+      <c r="M88" t="s">
+        <v>670</v>
+      </c>
+      <c r="N88" t="s">
+        <v>671</v>
+      </c>
+      <c r="P88" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "beau", "group": "_o", "pos": "Noun", "adult": false, "has": ["a lover"]},</v>
@@ -4224,7 +5361,7 @@
       <c r="C89" t="s">
         <v>91</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F89" t="s">
@@ -4234,7 +5371,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "no", "group": "_o", "pos": "Noun", "adult": false, "has": []},</v>
@@ -4246,14 +5383,14 @@
       <c r="C90" t="s">
         <v>91</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F90" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "mo", "group": "_o", "pos": "Noun", "adult": false, "has": []},</v>
@@ -4265,14 +5402,17 @@
       <c r="C91" t="s">
         <v>91</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F91" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "snow", "group": "_o", "pos": "Noun", "adult": false, "has": []},</v>
@@ -4284,14 +5424,20 @@
       <c r="C92" t="s">
         <v>91</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F92" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>674</v>
+      </c>
+      <c r="M92" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "throw", "group": "_o", "pos": "Noun", "adult": false, "has": ["gone a long way"]},</v>
@@ -4303,7 +5449,7 @@
       <c r="C93" t="s">
         <v>91</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F93" t="s">
@@ -4312,8 +5458,14 @@
       <c r="G93" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P93" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "show", "group": "_o", "pos": "Noun", "adult": false, "has": ["actors","an audience","a stage"]},</v>
@@ -4325,7 +5477,7 @@
       <c r="C94" t="s">
         <v>91</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F94" t="s">
@@ -4340,8 +5492,17 @@
       <c r="I94" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M94" t="s">
+        <v>609</v>
+      </c>
+      <c r="N94" t="s">
+        <v>630</v>
+      </c>
+      <c r="O94" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "foe", "group": "_o", "pos": "Noun", "adult": false, "has": ["a vendetta"]},</v>
@@ -4353,7 +5514,7 @@
       <c r="C95" t="s">
         <v>91</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F95" t="s">
@@ -4363,10 +5524,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="2"/>
-        <v>{"spelling": "white", "group": "_ite", "pos": "Noun", "adult": false, "has": []},</v>
+        <v>{"spelling": "white", "group": "_ite", "pos": "Adj", "adult": false, "has": []},</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="3"/>
@@ -4375,14 +5536,14 @@
       <c r="C96" t="s">
         <v>105</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F96" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "rite", "group": "_ite", "pos": "Noun", "adult": false, "has": ["candles","cultists","a sacrifice"]},</v>
@@ -4394,7 +5555,7 @@
       <c r="C97" t="s">
         <v>105</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F97" t="s">
@@ -4409,8 +5570,11 @@
       <c r="I97" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M97" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "right", "group": "_ite", "pos": "Noun", "adult": false, "has": []},</v>
@@ -4422,14 +5586,14 @@
       <c r="C98" t="s">
         <v>105</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F98" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "site", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a location","a URL"]},</v>
@@ -4441,7 +5605,7 @@
       <c r="C99" t="s">
         <v>105</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F99" t="s">
@@ -4454,7 +5618,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "sight", "group": "_ite", "pos": "Noun", "adult": false, "has": ["eyes"]},</v>
@@ -4466,7 +5630,7 @@
       <c r="C100" t="s">
         <v>105</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F100" t="s">
@@ -4476,7 +5640,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "fight", "group": "_ite", "pos": "Noun", "adult": false, "has": ["combatants","warriors","punches"]},</v>
@@ -4488,7 +5652,7 @@
       <c r="C101" t="s">
         <v>105</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F101" t="s">
@@ -4504,7 +5668,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "kite", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a string"]},</v>
@@ -4516,7 +5680,7 @@
       <c r="C102" t="s">
         <v>105</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F102" t="s">
@@ -4525,8 +5689,11 @@
       <c r="G102" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "light", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a switch"]},</v>
@@ -4538,7 +5705,7 @@
       <c r="C103" t="s">
         <v>105</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F103" t="s">
@@ -4547,8 +5714,17 @@
       <c r="G103" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P103" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>537</v>
+      </c>
+      <c r="R103" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "bite", "group": "_ite", "pos": "Noun", "adult": false, "has": ["teeth","teethmarks"]},</v>
@@ -4560,7 +5736,7 @@
       <c r="C104" t="s">
         <v>105</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F104" t="s">
@@ -4572,8 +5748,14 @@
       <c r="H104" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P104" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "night", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a moon","stars"]},</v>
@@ -4585,7 +5767,7 @@
       <c r="C105" t="s">
         <v>105</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F105" t="s">
@@ -4597,8 +5779,11 @@
       <c r="H105" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "knight", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a horse","a sword","a shield"]},</v>
@@ -4610,7 +5795,7 @@
       <c r="C106" t="s">
         <v>105</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F106" t="s">
@@ -4625,8 +5810,23 @@
       <c r="I106" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>683</v>
+      </c>
+      <c r="K106" t="s">
+        <v>685</v>
+      </c>
+      <c r="M106" t="s">
+        <v>684</v>
+      </c>
+      <c r="N106" t="s">
+        <v>223</v>
+      </c>
+      <c r="P106" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "mite", "group": "_ite", "pos": "Noun", "adult": false, "has": ["lots of legs"]},</v>
@@ -4638,7 +5838,7 @@
       <c r="C107" t="s">
         <v>105</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F107" t="s">
@@ -4648,7 +5848,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "shite", "group": "_ite", "pos": "Noun", "adult": true, "has": ["a bad smell","a bit of sweetcorn in it"]},</v>
@@ -4660,7 +5860,7 @@
       <c r="C108" t="s">
         <v>105</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E108" t="b">
@@ -4675,8 +5875,11 @@
       <c r="H108" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "new", "group": "_ew", "pos": "Adj", "adult": false, "has": []},</v>
@@ -4688,14 +5891,14 @@
       <c r="C109" t="s">
         <v>121</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F109" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "two", "group": "_ew", "pos": "Noun", "adult": false, "has": []},</v>
@@ -4707,14 +5910,17 @@
       <c r="C110" t="s">
         <v>121</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F110" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "yew", "group": "_ew", "pos": "Noun", "adult": false, "has": ["leaves","bark","branches"]},</v>
@@ -4726,7 +5932,7 @@
       <c r="C111" t="s">
         <v>121</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F111" t="s">
@@ -4741,8 +5947,17 @@
       <c r="I111" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" t="s">
+        <v>581</v>
+      </c>
+      <c r="K111" t="s">
+        <v>687</v>
+      </c>
+      <c r="L111" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "pew", "group": "_ew", "pos": "Noun", "adult": false, "has": ["bibles"]},</v>
@@ -4754,7 +5969,7 @@
       <c r="C112" t="s">
         <v>121</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F112" t="s">
@@ -4763,8 +5978,14 @@
       <c r="G112" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" t="s">
+        <v>689</v>
+      </c>
+      <c r="K112" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "sue", "group": "_ew", "pos": "Verb", "adult": false, "has": []},</v>
@@ -4776,14 +5997,14 @@
       <c r="C113" t="s">
         <v>121</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F113" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "dew", "group": "_ew", "pos": "Noun", "adult": false, "has": []},</v>
@@ -4795,14 +6016,20 @@
       <c r="C114" t="s">
         <v>121</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F114" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M114" t="s">
+        <v>691</v>
+      </c>
+      <c r="N114" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "few", "group": "_ew", "pos": "Noun", "adult": false, "has": []},</v>
@@ -4814,14 +6041,14 @@
       <c r="C115" t="s">
         <v>121</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F115" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "hue", "group": "_ew", "pos": "Noun", "adult": false, "has": []},</v>
@@ -4833,26 +6060,29 @@
       <c r="C116" t="s">
         <v>121</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F116" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="2"/>
-        <v>{"spelling": "jew", "group": "_ew", "pos": "Noun", "adult": true, "has": []},</v>
+        <v>{"spelling": "jew", "group": "_ew", "pos": "Noun", "adult": true, "has": ["a circumcision"]},</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>"a circumcision"</v>
       </c>
       <c r="C117" t="s">
         <v>121</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E117" t="b">
@@ -4861,8 +6091,17 @@
       <c r="F117" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>696</v>
+      </c>
+      <c r="J117" t="s">
+        <v>694</v>
+      </c>
+      <c r="P117" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "loo", "group": "_ew", "pos": "Noun", "adult": false, "has": ["a flush"]},</v>
@@ -4874,7 +6113,7 @@
       <c r="C118" t="s">
         <v>121</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F118" t="s">
@@ -4883,8 +6122,14 @@
       <c r="G118" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" t="s">
+        <v>697</v>
+      </c>
+      <c r="K118" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "zoo", "group": "_ew", "pos": "Noun", "adult": false, "has": ["animals","lions","tigers"]},</v>
@@ -4896,7 +6141,7 @@
       <c r="C119" t="s">
         <v>121</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F119" t="s">
@@ -4912,7 +6157,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "view", "group": "_ew", "pos": "Noun", "adult": false, "has": []},</v>
@@ -4924,14 +6169,26 @@
       <c r="C120" t="s">
         <v>121</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F120" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M120" t="s">
+        <v>699</v>
+      </c>
+      <c r="P120" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>701</v>
+      </c>
+      <c r="R120" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "boo", "group": "_ew", "pos": "Noun", "adult": false, "has": ["scared people"]},</v>
@@ -4943,7 +6200,7 @@
       <c r="C121" t="s">
         <v>121</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F121" t="s">
@@ -4952,8 +6209,11 @@
       <c r="G121" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P121" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "spew", "group": "_ew", "pos": "Noun", "adult": true, "has": ["a bit of sweetcorn in it","a bad smell"]},</v>
@@ -4965,7 +6225,7 @@
       <c r="C122" t="s">
         <v>121</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E122" t="b">
@@ -4980,8 +6240,14 @@
       <c r="H122" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M122" t="s">
+        <v>705</v>
+      </c>
+      <c r="P122" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "shoe", "group": "_ew", "pos": "Noun", "adult": false, "has": ["laces","a sole"]},</v>
@@ -4993,7 +6259,7 @@
       <c r="C123" t="s">
         <v>121</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F123" t="s">
@@ -5005,8 +6271,14 @@
       <c r="H123" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M123" t="s">
+        <v>706</v>
+      </c>
+      <c r="N123" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "stew", "group": "_ew", "pos": "Noun", "adult": false, "has": ["meat in it","carrots"]},</v>
@@ -5018,7 +6290,7 @@
       <c r="C124" t="s">
         <v>121</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F124" t="s">
@@ -5030,8 +6302,14 @@
       <c r="H124" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P124" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "you", "group": "_ew", "pos": "Noun", "adult": false, "has": ["no friends","a bad attitude","a bad smell"]},</v>
@@ -5043,7 +6321,7 @@
       <c r="C125" t="s">
         <v>121</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F125" t="s">
@@ -5058,8 +6336,11 @@
       <c r="I125" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "ring", "group": "_ing", "pos": "Noun", "adult": false, "has": ["an inscription"]},</v>
@@ -5071,7 +6352,7 @@
       <c r="C126" t="s">
         <v>139</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F126" t="s">
@@ -5080,8 +6361,17 @@
       <c r="G126" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M126" t="s">
+        <v>709</v>
+      </c>
+      <c r="N126" t="s">
+        <v>710</v>
+      </c>
+      <c r="P126" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "wing", "group": "_ing", "pos": "Noun", "adult": false, "has": ["feathers"]},</v>
@@ -5093,7 +6383,7 @@
       <c r="C127" t="s">
         <v>139</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F127" t="s">
@@ -5103,7 +6393,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "thing", "group": "_ing", "pos": "Noun", "adult": false, "has": []},</v>
@@ -5115,14 +6405,14 @@
       <c r="C128" t="s">
         <v>139</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F128" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="2"/>
         <v>{"spelling": "ying", "group": "_ing", "pos": "Noun", "adult": false, "has": ["a yang"]},</v>
@@ -5134,7 +6424,7 @@
       <c r="C129" t="s">
         <v>139</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F129" t="s">
@@ -5144,7 +6434,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="4">CONCATENATE("{""spelling"": """,D130,""", ""group"": """,C130,""", ""pos"": """,F130,""", ""adult"": ",IF(E130=TRUE,"true","false"),", ""has"": [",B130,"]},")</f>
         <v>{"spelling": "ping", "group": "_ing", "pos": "Noun", "adult": false, "has": ["lag"]},</v>
@@ -5156,7 +6446,7 @@
       <c r="C130" t="s">
         <v>139</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="1" t="s">
         <v>143</v>
       </c>
       <c r="F130" t="s">
@@ -5165,8 +6455,11 @@
       <c r="G130" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M130" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "ding", "group": "_ing", "pos": "Noun", "adult": false, "has": []},</v>
@@ -5178,14 +6471,14 @@
       <c r="C131" t="s">
         <v>139</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F131" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "king", "group": "_ing", "pos": "Noun", "adult": false, "has": ["subjects","a country","a crown"]},</v>
@@ -5197,7 +6490,7 @@
       <c r="C132" t="s">
         <v>139</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="1" t="s">
         <v>145</v>
       </c>
       <c r="F132" t="s">
@@ -5212,8 +6505,20 @@
       <c r="I132" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" t="s">
+        <v>714</v>
+      </c>
+      <c r="K132" t="s">
+        <v>713</v>
+      </c>
+      <c r="M132" t="s">
+        <v>712</v>
+      </c>
+      <c r="P132" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "app", "group": "_ap", "pos": "Noun", "adult": false, "has": ["developers","a developer"]},</v>
@@ -5225,7 +6530,7 @@
       <c r="C133" t="s">
         <v>147</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="1" t="s">
         <v>146</v>
       </c>
       <c r="F133" t="s">
@@ -5237,8 +6542,14 @@
       <c r="H133" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M133" t="s">
+        <v>715</v>
+      </c>
+      <c r="N133" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "rap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["lyrics"]},</v>
@@ -5250,7 +6561,7 @@
       <c r="C134" t="s">
         <v>147</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="1" t="s">
         <v>148</v>
       </c>
       <c r="F134" t="s">
@@ -5259,8 +6570,14 @@
       <c r="G134" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M134" t="s">
+        <v>717</v>
+      </c>
+      <c r="N134" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "tap", "group": "_ap", "pos": "Noun", "adult": false, "has": []},</v>
@@ -5272,14 +6589,17 @@
       <c r="C135" t="s">
         <v>147</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="1" t="s">
         <v>149</v>
       </c>
       <c r="F135" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "yap", "group": "_ap", "pos": "Noun", "adult": false, "has": []},</v>
@@ -5291,14 +6611,23 @@
       <c r="C136" t="s">
         <v>147</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="1" t="s">
         <v>150</v>
       </c>
       <c r="F136" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P136" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>720</v>
+      </c>
+      <c r="R136" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "sap", "group": "_ap", "pos": "Noun", "adult": false, "has": []},</v>
@@ -5310,14 +6639,20 @@
       <c r="C137" t="s">
         <v>147</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="1" t="s">
         <v>151</v>
       </c>
       <c r="F137" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M137" t="s">
+        <v>606</v>
+      </c>
+      <c r="P137" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "gap", "group": "_ap", "pos": "Noun", "adult": false, "has": []},</v>
@@ -5329,14 +6664,14 @@
       <c r="C138" t="s">
         <v>147</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="1" t="s">
         <v>152</v>
       </c>
       <c r="F138" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "lap", "group": "_ap", "pos": "Noun", "adult": false, "has": []},</v>
@@ -5348,14 +6683,14 @@
       <c r="C139" t="s">
         <v>147</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F139" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "clap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a noise","two hands"]},</v>
@@ -5367,7 +6702,7 @@
       <c r="C140" t="s">
         <v>147</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F140" t="s">
@@ -5379,8 +6714,14 @@
       <c r="H140" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P140" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "cap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a brim"]},</v>
@@ -5392,7 +6733,7 @@
       <c r="C141" t="s">
         <v>147</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="1" t="s">
         <v>155</v>
       </c>
       <c r="F141" t="s">
@@ -5401,8 +6742,14 @@
       <c r="G141" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M141" t="s">
+        <v>591</v>
+      </c>
+      <c r="N141" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "bap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a filling","bread"]},</v>
@@ -5414,7 +6761,7 @@
       <c r="C142" t="s">
         <v>147</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="1" t="s">
         <v>156</v>
       </c>
       <c r="F142" t="s">
@@ -5426,8 +6773,11 @@
       <c r="H142" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P142" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "nap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a pillow"]},</v>
@@ -5439,7 +6789,7 @@
       <c r="C143" t="s">
         <v>147</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="1" t="s">
         <v>157</v>
       </c>
       <c r="F143" t="s">
@@ -5448,8 +6798,14 @@
       <c r="G143" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" t="s">
+        <v>723</v>
+      </c>
+      <c r="M143" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "map", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a landscape","oceans","continents"]},</v>
@@ -5461,7 +6817,7 @@
       <c r="C144" t="s">
         <v>147</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F144" t="s">
@@ -5476,8 +6832,11 @@
       <c r="I144" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "trap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["bait"]},</v>
@@ -5489,7 +6848,7 @@
       <c r="C145" t="s">
         <v>147</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F145" t="s">
@@ -5498,8 +6857,11 @@
       <c r="G145" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P145" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "chap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["tophat","monocle"]},</v>
@@ -5511,7 +6873,7 @@
       <c r="C146" t="s">
         <v>147</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="1" t="s">
         <v>160</v>
       </c>
       <c r="F146" t="s">
@@ -5523,8 +6885,14 @@
       <c r="H146" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" t="s">
+        <v>620</v>
+      </c>
+      <c r="P146" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "snap", "group": "_ap", "pos": "Noun", "adult": false, "has": []},</v>
@@ -5536,14 +6904,14 @@
       <c r="C147" t="s">
         <v>147</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="1" t="s">
         <v>161</v>
       </c>
       <c r="F147" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "jam", "group": "_am", "pos": "Noun", "adult": false, "has": ["fruit","sugar","strawberries"]},</v>
@@ -5555,7 +6923,7 @@
       <c r="C148" t="s">
         <v>163</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F148" t="s">
@@ -5570,8 +6938,17 @@
       <c r="I148" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" t="s">
+        <v>590</v>
+      </c>
+      <c r="K148" t="s">
+        <v>727</v>
+      </c>
+      <c r="M148" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "ram", "group": "_am", "pos": "Noun", "adult": false, "has": ["horns","wool","hooves"]},</v>
@@ -5583,7 +6960,7 @@
       <c r="C149" t="s">
         <v>163</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="1" t="s">
         <v>164</v>
       </c>
       <c r="F149" t="s">
@@ -5598,8 +6975,17 @@
       <c r="I149" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" t="s">
+        <v>667</v>
+      </c>
+      <c r="P149" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "tram", "group": "_am", "pos": "Noun", "adult": false, "has": ["passengers","rails"]},</v>
@@ -5611,7 +6997,7 @@
       <c r="C150" t="s">
         <v>163</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F150" t="s">
@@ -5623,8 +7009,11 @@
       <c r="H150" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M150" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "spam", "group": "_am", "pos": "Noun", "adult": false, "has": []},</v>
@@ -5636,14 +7025,20 @@
       <c r="C151" t="s">
         <v>163</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F151" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" t="s">
+        <v>729</v>
+      </c>
+      <c r="P151" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "slam", "group": "_am", "pos": "Noun", "adult": false, "has": []},</v>
@@ -5655,14 +7050,14 @@
       <c r="C152" t="s">
         <v>163</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="1" t="s">
         <v>167</v>
       </c>
       <c r="F152" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "scam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a victim"]},</v>
@@ -5674,7 +7069,7 @@
       <c r="C153" t="s">
         <v>163</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="1" t="s">
         <v>168</v>
       </c>
       <c r="F153" t="s">
@@ -5683,8 +7078,14 @@
       <c r="G153" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P153" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "dam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a lot of water"]},</v>
@@ -5696,7 +7097,7 @@
       <c r="C154" t="s">
         <v>163</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="1" t="s">
         <v>169</v>
       </c>
       <c r="F154" t="s">
@@ -5705,8 +7106,14 @@
       <c r="G154" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" t="s">
+        <v>733</v>
+      </c>
+      <c r="K154" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "damn", "group": "_am", "pos": "Noun", "adult": true, "has": []},</v>
@@ -5718,7 +7125,7 @@
       <c r="C155" t="s">
         <v>163</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E155" t="b">
@@ -5727,8 +7134,11 @@
       <c r="F155" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P155" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "ham", "group": "_am", "pos": "Noun", "adult": false, "has": ["bone"]},</v>
@@ -5740,7 +7150,7 @@
       <c r="C156" t="s">
         <v>163</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="1" t="s">
         <v>171</v>
       </c>
       <c r="F156" t="s">
@@ -5749,8 +7159,14 @@
       <c r="G156" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" t="s">
+        <v>735</v>
+      </c>
+      <c r="P156" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "lamb", "group": "_am", "pos": "Noun", "adult": false, "has": ["wool","hooves"]},</v>
@@ -5762,7 +7178,7 @@
       <c r="C157" t="s">
         <v>163</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="1" t="s">
         <v>172</v>
       </c>
       <c r="F157" t="s">
@@ -5774,8 +7190,17 @@
       <c r="H157" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" t="s">
+        <v>667</v>
+      </c>
+      <c r="P157" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "clam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a shell","a pearl"]},</v>
@@ -5787,7 +7212,7 @@
       <c r="C158" t="s">
         <v>163</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="1" t="s">
         <v>216</v>
       </c>
       <c r="F158" t="s">
@@ -5799,8 +7224,17 @@
       <c r="H158" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" t="s">
+        <v>597</v>
+      </c>
+      <c r="K158" t="s">
+        <v>598</v>
+      </c>
+      <c r="P158" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "day", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a morning","an afternoon","the sun"]},</v>
@@ -5812,7 +7246,7 @@
       <c r="C159" t="s">
         <v>174</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F159" t="s">
@@ -5827,11 +7261,17 @@
       <c r="I159" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" t="s">
+        <v>692</v>
+      </c>
+      <c r="K159" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="4"/>
-        <v>{"spelling": "weigh", "group": "_ay", "pos": "Noun", "adult": false, "has": []},</v>
+        <v>{"spelling": "weigh", "group": "_ay", "pos": "Verb", "adult": false, "has": []},</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="5"/>
@@ -5840,14 +7280,14 @@
       <c r="C160" t="s">
         <v>174</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F160" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "way", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a signpost"]},</v>
@@ -5859,7 +7299,7 @@
       <c r="C161" t="s">
         <v>174</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="1" t="s">
         <v>176</v>
       </c>
       <c r="F161" t="s">
@@ -5869,7 +7309,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "ray", "group": "_ay", "pos": "Noun", "adult": false, "has": ["gills"]},</v>
@@ -5881,7 +7321,7 @@
       <c r="C162" t="s">
         <v>174</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="1" t="s">
         <v>177</v>
       </c>
       <c r="F162" t="s">
@@ -5890,8 +7330,20 @@
       <c r="G162" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" t="s">
+        <v>598</v>
+      </c>
+      <c r="K162" t="s">
+        <v>597</v>
+      </c>
+      <c r="P162" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "fey", "group": "_ay", "pos": "Noun", "adult": false, "has": ["magical powers"]},</v>
@@ -5903,7 +7355,7 @@
       <c r="C163" t="s">
         <v>174</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="1" t="s">
         <v>178</v>
       </c>
       <c r="F163" t="s">
@@ -5913,7 +7365,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "gay", "group": "_ay", "pos": "Noun", "adult": true, "has": ["a husband"]},</v>
@@ -5925,7 +7377,7 @@
       <c r="C164" t="s">
         <v>174</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E164" t="b">
@@ -5937,8 +7389,14 @@
       <c r="G164" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" t="s">
+        <v>762</v>
+      </c>
+      <c r="M164" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "hay", "group": "_ay", "pos": "Noun", "adult": false, "has": []},</v>
@@ -5950,14 +7408,20 @@
       <c r="C165" t="s">
         <v>174</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="1" t="s">
         <v>180</v>
       </c>
       <c r="F165" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" t="s">
+        <v>667</v>
+      </c>
+      <c r="K165" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "hey", "group": "_ay", "pos": "Noun", "adult": false, "has": []},</v>
@@ -5969,14 +7433,14 @@
       <c r="C166" t="s">
         <v>174</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="1" t="s">
         <v>181</v>
       </c>
       <c r="F166" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "lay", "group": "_ay", "pos": "Noun", "adult": true, "has": ["foreplay","a climax","an orgasm"]},</v>
@@ -5988,7 +7452,7 @@
       <c r="C167" t="s">
         <v>174</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E167" t="b">
@@ -6006,8 +7470,14 @@
       <c r="I167" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M167" t="s">
+        <v>740</v>
+      </c>
+      <c r="P167" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "bay", "group": "_ay", "pos": "Noun", "adult": false, "has": ["ships","a pier","a beach"]},</v>
@@ -6019,7 +7489,7 @@
       <c r="C168" t="s">
         <v>174</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="1" t="s">
         <v>183</v>
       </c>
       <c r="F168" t="s">
@@ -6034,8 +7504,11 @@
       <c r="I168" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "tray", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a rim"]},</v>
@@ -6047,7 +7520,7 @@
       <c r="C169" t="s">
         <v>174</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="1" t="s">
         <v>184</v>
       </c>
       <c r="F169" t="s">
@@ -6056,8 +7529,11 @@
       <c r="G169" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "stay", "group": "_ay", "pos": "Noun", "adult": false, "has": []},</v>
@@ -6069,14 +7545,29 @@
       <c r="C170" t="s">
         <v>174</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="1" t="s">
         <v>185</v>
       </c>
       <c r="F170" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" t="s">
+        <v>744</v>
+      </c>
+      <c r="K170" t="s">
+        <v>745</v>
+      </c>
+      <c r="L170" t="s">
+        <v>746</v>
+      </c>
+      <c r="M170" t="s">
+        <v>747</v>
+      </c>
+      <c r="N170" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "duck", "group": "_uck", "pos": "Noun", "adult": false, "has": ["feathers","a beak","wings"]},</v>
@@ -6088,7 +7579,7 @@
       <c r="C171" t="s">
         <v>187</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="1" t="s">
         <v>186</v>
       </c>
       <c r="F171" t="s">
@@ -6103,8 +7594,14 @@
       <c r="I171" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" t="s">
+        <v>733</v>
+      </c>
+      <c r="K171" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "puck", "group": "_uck", "pos": "Noun", "adult": false, "has": []},</v>
@@ -6116,14 +7613,20 @@
       <c r="C172" t="s">
         <v>187</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F172" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" t="s">
+        <v>750</v>
+      </c>
+      <c r="M172" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "fuck", "group": "_uck", "pos": "Noun", "adult": true, "has": ["foreplay","a climax","an orgasm"]},</v>
@@ -6135,7 +7638,7 @@
       <c r="C173" t="s">
         <v>187</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E173" t="b">
@@ -6153,8 +7656,20 @@
       <c r="I173" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M173" t="s">
+        <v>740</v>
+      </c>
+      <c r="P173" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>741</v>
+      </c>
+      <c r="R173" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "luck", "group": "_uck", "pos": "Noun", "adult": false, "has": []},</v>
@@ -6166,14 +7681,14 @@
       <c r="C174" t="s">
         <v>187</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="1" t="s">
         <v>190</v>
       </c>
       <c r="F174" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "cook", "group": "_uck", "pos": "Noun", "adult": false, "has": ["ingredients","knives","a kitchen"]},</v>
@@ -6185,7 +7700,7 @@
       <c r="C175" t="s">
         <v>187</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="1" t="s">
         <v>191</v>
       </c>
       <c r="F175" t="s">
@@ -6200,8 +7715,17 @@
       <c r="I175" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" t="s">
+        <v>590</v>
+      </c>
+      <c r="K175" t="s">
+        <v>496</v>
+      </c>
+      <c r="L175" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "buck", "group": "_uck", "pos": "Noun", "adult": false, "has": ["antlers","hooves"]},</v>
@@ -6213,7 +7737,7 @@
       <c r="C176" t="s">
         <v>187</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="1" t="s">
         <v>192</v>
       </c>
       <c r="F176" t="s">
@@ -6225,8 +7749,14 @@
       <c r="H176" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" t="s">
+        <v>688</v>
+      </c>
+      <c r="K176" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "muck", "group": "_uck", "pos": "Noun", "adult": false, "has": []},</v>
@@ -6238,14 +7768,23 @@
       <c r="C177" t="s">
         <v>187</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="1" t="s">
         <v>193</v>
       </c>
       <c r="F177" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" t="s">
+        <v>648</v>
+      </c>
+      <c r="K177" t="s">
+        <v>667</v>
+      </c>
+      <c r="M177" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "sky", "group": "_ie", "pos": "Noun", "adult": false, "has": ["clouds","birds","an atmosphere"]},</v>
@@ -6257,7 +7796,7 @@
       <c r="C178" t="s">
         <v>195</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="1" t="s">
         <v>194</v>
       </c>
       <c r="F178" t="s">
@@ -6273,7 +7812,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "rye", "group": "_ie", "pos": "Noun", "adult": false, "has": []},</v>
@@ -6285,14 +7824,14 @@
       <c r="C179" t="s">
         <v>195</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F179" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "tie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pattern","a knot"]},</v>
@@ -6304,7 +7843,7 @@
       <c r="C180" t="s">
         <v>195</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F180" t="s">
@@ -6317,7 +7856,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "try", "group": "_ie", "pos": "Noun", "adult": false, "has": []},</v>
@@ -6329,14 +7868,14 @@
       <c r="C181" t="s">
         <v>195</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F181" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "pie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a crust","a filling","a baker"]},</v>
@@ -6348,7 +7887,7 @@
       <c r="C182" t="s">
         <v>195</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="1" t="s">
         <v>199</v>
       </c>
       <c r="F182" t="s">
@@ -6363,8 +7902,11 @@
       <c r="I182" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P182" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "pi", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a lot of numbers"]},</v>
@@ -6376,7 +7918,7 @@
       <c r="C183" t="s">
         <v>195</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F183" t="s">
@@ -6385,8 +7927,17 @@
       <c r="G183" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" t="s">
+        <v>753</v>
+      </c>
+      <c r="K183" t="s">
+        <v>754</v>
+      </c>
+      <c r="M183" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "sigh", "group": "_ie", "pos": "Noun", "adult": false, "has": []},</v>
@@ -6398,14 +7949,14 @@
       <c r="C184" t="s">
         <v>195</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F184" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "sty", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pig","muck","a trough"]},</v>
@@ -6417,7 +7968,7 @@
       <c r="C185" t="s">
         <v>195</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F185" t="s">
@@ -6432,8 +7983,17 @@
       <c r="I185" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" t="s">
+        <v>641</v>
+      </c>
+      <c r="M185" t="s">
+        <v>756</v>
+      </c>
+      <c r="N185" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "STI", "group": "_ie", "pos": "Noun", "adult": true, "has": ["pus"]},</v>
@@ -6445,7 +8005,7 @@
       <c r="C186" t="s">
         <v>195</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E186" t="b">
@@ -6457,8 +8017,17 @@
       <c r="G186" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M186" t="s">
+        <v>758</v>
+      </c>
+      <c r="P186" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "dye", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a colour"]},</v>
@@ -6470,7 +8039,7 @@
       <c r="C187" t="s">
         <v>195</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F187" t="s">
@@ -6479,8 +8048,11 @@
       <c r="G187" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M187" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "guy", "group": "_ie", "pos": "Noun", "adult": false, "has": ["arms","legs","a body"]},</v>
@@ -6492,7 +8064,7 @@
       <c r="C188" t="s">
         <v>195</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F188" t="s">
@@ -6508,7 +8080,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "lie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["never happened"]},</v>
@@ -6520,7 +8092,7 @@
       <c r="C189" t="s">
         <v>195</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F189" t="s">
@@ -6529,8 +8101,17 @@
       <c r="G189" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P189" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>761</v>
+      </c>
+      <c r="R189" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "eye", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pupil","a lens","lashes"]},</v>
@@ -6542,7 +8123,7 @@
       <c r="C190" t="s">
         <v>195</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="1" t="s">
         <v>336</v>
       </c>
       <c r="F190" t="s">
@@ -6558,7 +8139,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "bell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["a clapper"]},</v>
@@ -6570,7 +8151,7 @@
       <c r="C191" t="s">
         <v>208</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F191" t="s">
@@ -6579,8 +8160,14 @@
       <c r="G191" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" t="s">
+        <v>689</v>
+      </c>
+      <c r="K191" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "well", "group": "_ell", "pos": "Noun", "adult": false, "has": ["a bucket","water"]},</v>
@@ -6592,7 +8179,7 @@
       <c r="C192" t="s">
         <v>208</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="1" t="s">
         <v>209</v>
       </c>
       <c r="F192" t="s">
@@ -6605,7 +8192,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="4"/>
         <v>{"spelling": "yell", "group": "_ell", "pos": "Noun", "adult": false, "has": []},</v>
@@ -6617,14 +8204,20 @@
       <c r="C193" t="s">
         <v>208</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F193" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P193" t="s">
+        <v>764</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A257" si="6">CONCATENATE("{""spelling"": """,D194,""", ""group"": """,C194,""", ""pos"": """,F194,""", ""adult"": ",IF(E194=TRUE,"true","false"),", ""has"": [",B194,"]},")</f>
         <v>{"spelling": "sell", "group": "_ell", "pos": "Verb", "adult": false, "has": []},</v>
@@ -6636,14 +8229,14 @@
       <c r="C194" t="s">
         <v>208</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F194" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "shell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["an inside"]},</v>
@@ -6655,7 +8248,7 @@
       <c r="C195" t="s">
         <v>208</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F195" t="s">
@@ -6664,8 +8257,23 @@
       <c r="G195" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" t="s">
+        <v>598</v>
+      </c>
+      <c r="K195" t="s">
+        <v>597</v>
+      </c>
+      <c r="M195" t="s">
+        <v>766</v>
+      </c>
+      <c r="P195" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "gel", "group": "_ell", "pos": "Noun", "adult": false, "has": []},</v>
@@ -6677,14 +8285,17 @@
       <c r="C196" t="s">
         <v>208</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F196" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P196" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "hell", "group": "_ell", "pos": "Noun", "adult": true, "has": ["flames","sinners","pitchforks"]},</v>
@@ -6696,7 +8307,7 @@
       <c r="C197" t="s">
         <v>208</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="1" t="s">
         <v>214</v>
       </c>
       <c r="E197" t="b">
@@ -6715,7 +8326,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "smell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["an origin"]},</v>
@@ -6727,7 +8338,7 @@
       <c r="C198" t="s">
         <v>208</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F198" t="s">
@@ -6736,8 +8347,14 @@
       <c r="G198" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" t="s">
+        <v>769</v>
+      </c>
+      <c r="K198" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "act", "group": "_act", "pos": "Noun", "adult": false, "has": []},</v>
@@ -6749,14 +8366,20 @@
       <c r="C199" t="s">
         <v>302</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="1" t="s">
         <v>303</v>
       </c>
       <c r="F199" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" t="s">
+        <v>770</v>
+      </c>
+      <c r="M199" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "tact", "group": "_act", "pos": "Noun", "adult": false, "has": []},</v>
@@ -6768,14 +8391,17 @@
       <c r="C200" t="s">
         <v>302</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="1" t="s">
         <v>304</v>
       </c>
       <c r="F200" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P200" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "pact", "group": "_act", "pos": "Noun", "adult": false, "has": ["signatures"]},</v>
@@ -6787,7 +8413,7 @@
       <c r="C201" t="s">
         <v>302</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F201" t="s">
@@ -6796,8 +8422,14 @@
       <c r="G201" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" t="s">
+        <v>638</v>
+      </c>
+      <c r="P201" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "fact", "group": "_act", "pos": "Noun", "adult": false, "has": ["proof"]},</v>
@@ -6809,7 +8441,7 @@
       <c r="C202" t="s">
         <v>302</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="1" t="s">
         <v>306</v>
       </c>
       <c r="F202" t="s">
@@ -6819,7 +8451,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "off", "group": "_off", "pos": "Adj", "adult": false, "has": []},</v>
@@ -6831,14 +8463,14 @@
       <c r="C203" t="s">
         <v>308</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="1" t="s">
         <v>307</v>
       </c>
       <c r="F203" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "cough", "group": "_off", "pos": "Noun", "adult": false, "has": []},</v>
@@ -6850,14 +8482,17 @@
       <c r="C204" t="s">
         <v>308</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="1" t="s">
         <v>309</v>
       </c>
       <c r="F204" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P204" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "toff", "group": "_off", "pos": "Noun", "adult": false, "has": ["a tophat","riches","a monocle"]},</v>
@@ -6869,7 +8504,7 @@
       <c r="C205" t="s">
         <v>308</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="1" t="s">
         <v>310</v>
       </c>
       <c r="F205" t="s">
@@ -6884,8 +8519,14 @@
       <c r="I205" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" t="s">
+        <v>773</v>
+      </c>
+      <c r="P205" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "wide", "group": "_ide", "pos": "Adj", "adult": false, "has": []},</v>
@@ -6897,14 +8538,14 @@
       <c r="C206" t="s">
         <v>312</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="1" t="s">
         <v>311</v>
       </c>
       <c r="F206" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "ride", "group": "_ide", "pos": "Noun", "adult": false, "has": ["tracks"]},</v>
@@ -6916,7 +8557,7 @@
       <c r="C207" t="s">
         <v>312</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="1" t="s">
         <v>313</v>
       </c>
       <c r="F207" t="s">
@@ -6925,8 +8566,14 @@
       <c r="G207" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" t="s">
+        <v>775</v>
+      </c>
+      <c r="K207" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "tide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["waves","a lot of water"]},</v>
@@ -6938,7 +8585,7 @@
       <c r="C208" t="s">
         <v>312</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="1" t="s">
         <v>314</v>
       </c>
       <c r="F208" t="s">
@@ -6950,8 +8597,14 @@
       <c r="H208" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" t="s">
+        <v>597</v>
+      </c>
+      <c r="M208" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "side", "group": "_ide", "pos": "Noun", "adult": false, "has": []},</v>
@@ -6963,14 +8616,14 @@
       <c r="C209" t="s">
         <v>312</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="1" t="s">
         <v>315</v>
       </c>
       <c r="F209" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "pride", "group": "_ide", "pos": "Noun", "adult": false, "has": ["lions"]},</v>
@@ -6982,7 +8635,7 @@
       <c r="C210" t="s">
         <v>312</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="1" t="s">
         <v>316</v>
       </c>
       <c r="F210" t="s">
@@ -6992,7 +8645,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "guide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["expertise"]},</v>
@@ -7004,7 +8657,7 @@
       <c r="C211" t="s">
         <v>312</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="1" t="s">
         <v>317</v>
       </c>
       <c r="F211" t="s">
@@ -7013,8 +8666,17 @@
       <c r="G211" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M211" t="s">
+        <v>777</v>
+      </c>
+      <c r="N211" t="s">
+        <v>778</v>
+      </c>
+      <c r="P211" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "hide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["hunters"]},</v>
@@ -7026,7 +8688,7 @@
       <c r="C212" t="s">
         <v>312</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="1" t="s">
         <v>318</v>
       </c>
       <c r="F212" t="s">
@@ -7035,8 +8697,11 @@
       <c r="G212" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M212" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "child", "group": "_ild", "pos": "Noun", "adult": false, "has": ["parents"]},</v>
@@ -7048,7 +8713,7 @@
       <c r="C213" t="s">
         <v>321</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="1" t="s">
         <v>320</v>
       </c>
       <c r="F213" t="s">
@@ -7057,8 +8722,14 @@
       <c r="G213" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" t="s">
+        <v>780</v>
+      </c>
+      <c r="K213" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "wild", "group": "_ild", "pos": "Adj", "adult": false, "has": []},</v>
@@ -7070,14 +8741,14 @@
       <c r="C214" t="s">
         <v>321</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="1" t="s">
         <v>322</v>
       </c>
       <c r="F214" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "fin", "group": "_in", "pos": "Noun", "adult": false, "has": []},</v>
@@ -7089,14 +8760,17 @@
       <c r="C215" t="s">
         <v>323</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="1" t="s">
         <v>324</v>
       </c>
       <c r="F215" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M215" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "win", "group": "_in", "pos": "Noun", "adult": false, "has": []},</v>
@@ -7108,14 +8782,17 @@
       <c r="C216" t="s">
         <v>323</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="1" t="s">
         <v>325</v>
       </c>
       <c r="F216" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "tin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lid","a filling","an opener"]},</v>
@@ -7127,7 +8804,7 @@
       <c r="C217" t="s">
         <v>323</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F217" t="s">
@@ -7142,8 +8819,14 @@
       <c r="I217" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" t="s">
+        <v>783</v>
+      </c>
+      <c r="M217" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "pin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a head","a point"]},</v>
@@ -7155,7 +8838,7 @@
       <c r="C218" t="s">
         <v>323</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F218" t="s">
@@ -7167,8 +8850,14 @@
       <c r="H218" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" t="s">
+        <v>784</v>
+      </c>
+      <c r="K218" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "sin", "group": "_in", "pos": "Noun", "adult": false, "has": []},</v>
@@ -7180,14 +8869,17 @@
       <c r="C219" t="s">
         <v>323</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="1" t="s">
         <v>328</v>
       </c>
       <c r="F219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P219" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "din", "group": "_in", "pos": "Noun", "adult": false, "has": []},</v>
@@ -7199,14 +8891,23 @@
       <c r="C220" t="s">
         <v>323</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="1" t="s">
         <v>329</v>
       </c>
       <c r="F220" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P220" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>786</v>
+      </c>
+      <c r="R220" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "gin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lot of alcohol in it","juniper berries"]},</v>
@@ -7218,7 +8919,7 @@
       <c r="C221" t="s">
         <v>323</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="1" t="s">
         <v>330</v>
       </c>
       <c r="F221" t="s">
@@ -7230,8 +8931,14 @@
       <c r="H221" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" t="s">
+        <v>789</v>
+      </c>
+      <c r="K221" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "djinn", "group": "_in", "pos": "Noun", "adult": false, "has": ["magical powers","a lamp"]},</v>
@@ -7243,7 +8950,7 @@
       <c r="C222" t="s">
         <v>323</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="1" t="s">
         <v>331</v>
       </c>
       <c r="F222" t="s">
@@ -7255,8 +8962,11 @@
       <c r="H222" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "kin", "group": "_in", "pos": "Noun", "adult": false, "has": []},</v>
@@ -7268,14 +8978,20 @@
       <c r="C223" t="s">
         <v>323</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="1" t="s">
         <v>332</v>
       </c>
       <c r="F223" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" t="s">
+        <v>791</v>
+      </c>
+      <c r="P223" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "bin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lid","rubbish"]},</v>
@@ -7287,7 +9003,7 @@
       <c r="C224" t="s">
         <v>323</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="1" t="s">
         <v>333</v>
       </c>
       <c r="F224" t="s">
@@ -7300,7 +9016,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "shin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a bone"]},</v>
@@ -7312,7 +9028,7 @@
       <c r="C225" t="s">
         <v>323</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="1" t="s">
         <v>334</v>
       </c>
       <c r="F225" t="s">
@@ -7321,8 +9037,14 @@
       <c r="G225" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" t="s">
+        <v>593</v>
+      </c>
+      <c r="K225" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "chin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a beard","a jaw"]},</v>
@@ -7334,7 +9056,7 @@
       <c r="C226" t="s">
         <v>323</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="1" t="s">
         <v>335</v>
       </c>
       <c r="F226" t="s">
@@ -7346,8 +9068,11 @@
       <c r="H226" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M226" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "pun", "group": "_un", "pos": "Noun", "adult": false, "has": ["a setup","a punchline"]},</v>
@@ -7359,7 +9084,7 @@
       <c r="C227" t="s">
         <v>338</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="1" t="s">
         <v>337</v>
       </c>
       <c r="F227" t="s">
@@ -7372,7 +9097,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "ton", "group": "_un", "pos": "Noun", "adult": false, "has": ["a lot in it"]},</v>
@@ -7384,7 +9109,7 @@
       <c r="C228" t="s">
         <v>338</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F228" t="s">
@@ -7394,7 +9119,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "sun", "group": "_un", "pos": "Noun", "adult": false, "has": ["rays","light"]},</v>
@@ -7406,7 +9131,7 @@
       <c r="C229" t="s">
         <v>338</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="1" t="s">
         <v>339</v>
       </c>
       <c r="F229" t="s">
@@ -7418,8 +9143,14 @@
       <c r="H229" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229" t="s">
+        <v>794</v>
+      </c>
+      <c r="K229" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "bun", "group": "_un", "pos": "Noun", "adult": false, "has": ["currants","dough"]},</v>
@@ -7431,7 +9162,7 @@
       <c r="C230" t="s">
         <v>338</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="1" t="s">
         <v>340</v>
       </c>
       <c r="F230" t="s">
@@ -7443,8 +9174,17 @@
       <c r="H230" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J230" t="s">
+        <v>795</v>
+      </c>
+      <c r="P230" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "mum", "group": "_um", "pos": "Noun", "adult": false, "has": ["a child","kids"]},</v>
@@ -7456,7 +9196,7 @@
       <c r="C231" t="s">
         <v>342</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="1" t="s">
         <v>341</v>
       </c>
       <c r="F231" t="s">
@@ -7469,7 +9209,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "bum", "group": "_um", "pos": "Noun", "adult": false, "has": ["cheeks"]},</v>
@@ -7481,7 +9221,7 @@
       <c r="C232" t="s">
         <v>342</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="1" t="s">
         <v>343</v>
       </c>
       <c r="F232" t="s">
@@ -7490,8 +9230,11 @@
       <c r="G232" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "sum", "group": "_um", "pos": "Noun", "adult": false, "has": ["numbers","an answer"]},</v>
@@ -7503,7 +9246,7 @@
       <c r="C233" t="s">
         <v>342</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="1" t="s">
         <v>344</v>
       </c>
       <c r="F233" t="s">
@@ -7516,7 +9259,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "gum", "group": "_um", "pos": "Noun", "adult": false, "has": []},</v>
@@ -7528,14 +9271,17 @@
       <c r="C234" t="s">
         <v>342</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="1" t="s">
         <v>345</v>
       </c>
       <c r="F234" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M234" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "cum", "group": "_um", "pos": "Noun", "adult": true, "has": []},</v>
@@ -7547,7 +9293,7 @@
       <c r="C235" t="s">
         <v>342</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="1" t="s">
         <v>346</v>
       </c>
       <c r="E235" t="b">
@@ -7556,8 +9302,17 @@
       <c r="F235" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J235" t="s">
+        <v>798</v>
+      </c>
+      <c r="P235" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "up", "group": "_up", "pos": "Adj", "adult": false, "has": []},</v>
@@ -7569,14 +9324,14 @@
       <c r="C236" t="s">
         <v>348</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="1" t="s">
         <v>347</v>
       </c>
       <c r="F236" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "pup", "group": "_up", "pos": "Noun", "adult": false, "has": ["a tail","paws"]},</v>
@@ -7588,7 +9343,7 @@
       <c r="C237" t="s">
         <v>348</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="1" t="s">
         <v>349</v>
       </c>
       <c r="F237" t="s">
@@ -7600,8 +9355,11 @@
       <c r="H237" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J237" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "cup", "group": "_up", "pos": "Noun", "adult": false, "has": ["a handle","a saucer"]},</v>
@@ -7613,7 +9371,7 @@
       <c r="C238" t="s">
         <v>348</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="1" t="s">
         <v>350</v>
       </c>
       <c r="F238" t="s">
@@ -7626,7 +9384,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "down", "group": "_own", "pos": "Adj", "adult": false, "has": []},</v>
@@ -7638,14 +9396,14 @@
       <c r="C239" t="s">
         <v>352</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F239" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "town", "group": "_own", "pos": "Noun", "adult": false, "has": ["inhabitants","buildings","a mayor"]},</v>
@@ -7657,7 +9415,7 @@
       <c r="C240" t="s">
         <v>352</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="1" t="s">
         <v>353</v>
       </c>
       <c r="F240" t="s">
@@ -7673,7 +9431,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "gown", "group": "_own", "pos": "Noun", "adult": false, "has": ["seams","material"]},</v>
@@ -7685,7 +9443,7 @@
       <c r="C241" t="s">
         <v>352</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F241" t="s">
@@ -7697,8 +9455,14 @@
       <c r="H241" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J241" t="s">
+        <v>801</v>
+      </c>
+      <c r="K241" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "law", "group": "_aw", "pos": "Noun", "adult": false, "has": ["rules"]},</v>
@@ -7710,7 +9474,7 @@
       <c r="C242" t="s">
         <v>356</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="1" t="s">
         <v>355</v>
       </c>
       <c r="F242" t="s">
@@ -7719,8 +9483,11 @@
       <c r="G242" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "awe", "group": "_aw", "pos": "Noun", "adult": false, "has": []},</v>
@@ -7732,14 +9499,14 @@
       <c r="C243" t="s">
         <v>356</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="1" t="s">
         <v>357</v>
       </c>
       <c r="F243" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "paw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["claws"]},</v>
@@ -7751,7 +9518,7 @@
       <c r="C244" t="s">
         <v>356</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="1" t="s">
         <v>358</v>
       </c>
       <c r="F244" t="s">
@@ -7760,8 +9527,11 @@
       <c r="G244" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M244" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "saw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth"]},</v>
@@ -7773,7 +9543,7 @@
       <c r="C245" t="s">
         <v>356</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="1" t="s">
         <v>359</v>
       </c>
       <c r="F245" t="s">
@@ -7782,8 +9552,17 @@
       <c r="G245" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J245" t="s">
+        <v>805</v>
+      </c>
+      <c r="K245" t="s">
+        <v>806</v>
+      </c>
+      <c r="M245" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "jaw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth","bones"]},</v>
@@ -7795,7 +9574,7 @@
       <c r="C246" t="s">
         <v>356</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="1" t="s">
         <v>360</v>
       </c>
       <c r="F246" t="s">
@@ -7807,8 +9586,11 @@
       <c r="H246" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M246" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "caw", "group": "_aw", "pos": "Noun", "adult": false, "has": []},</v>
@@ -7820,14 +9602,23 @@
       <c r="C247" t="s">
         <v>356</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="1" t="s">
         <v>361</v>
       </c>
       <c r="F247" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P247" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>810</v>
+      </c>
+      <c r="R247" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "maw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth","a tongue"]},</v>
@@ -7839,7 +9630,7 @@
       <c r="C248" t="s">
         <v>356</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="1" t="s">
         <v>362</v>
       </c>
       <c r="F248" t="s">
@@ -7852,7 +9643,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "call", "group": "_all", "pos": "Noun", "adult": false, "has": []},</v>
@@ -7864,14 +9655,14 @@
       <c r="C249" t="s">
         <v>367</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="1" t="s">
         <v>366</v>
       </c>
       <c r="F249" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "wall", "group": "_all", "pos": "Noun", "adult": false, "has": ["bricks","mortar"]},</v>
@@ -7883,7 +9674,7 @@
       <c r="C250" t="s">
         <v>367</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F250" t="s">
@@ -7896,7 +9687,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "drawl", "group": "_all", "pos": "Noun", "adult": false, "has": ["an accent"]},</v>
@@ -7908,7 +9699,7 @@
       <c r="C251" t="s">
         <v>367</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F251" t="s">
@@ -7918,7 +9709,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "hall", "group": "_all", "pos": "Noun", "adult": false, "has": ["rooms"]},</v>
@@ -7930,7 +9721,7 @@
       <c r="C252" t="s">
         <v>367</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F252" t="s">
@@ -7939,8 +9730,14 @@
       <c r="G252" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J252" t="s">
+        <v>812</v>
+      </c>
+      <c r="K252" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "ball", "group": "_all", "pos": "Noun", "adult": false, "has": []},</v>
@@ -7952,14 +9749,26 @@
       <c r="C253" t="s">
         <v>367</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F253" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M253" t="s">
+        <v>814</v>
+      </c>
+      <c r="N253" t="s">
+        <v>815</v>
+      </c>
+      <c r="P253" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "maul", "group": "_all", "pos": "Noun", "adult": false, "has": []},</v>
@@ -7971,14 +9780,17 @@
       <c r="C254" t="s">
         <v>367</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="1" t="s">
         <v>372</v>
       </c>
       <c r="F254" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J254" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "shawl", "group": "_all", "pos": "Noun", "adult": false, "has": ["fabric"]},</v>
@@ -7990,7 +9802,7 @@
       <c r="C255" t="s">
         <v>367</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F255" t="s">
@@ -7999,8 +9811,11 @@
       <c r="G255" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M255" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "man", "group": "_an", "pos": "Noun", "adult": false, "has": ["arms","legs","a body"]},</v>
@@ -8012,7 +9827,7 @@
       <c r="C256" t="s">
         <v>381</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="1" t="s">
         <v>382</v>
       </c>
       <c r="F256" t="s">
@@ -8027,8 +9842,11 @@
       <c r="I256" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P256" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f t="shared" si="6"/>
         <v>{"spelling": "tan", "group": "_an", "pos": "Noun", "adult": false, "has": ["skin","freckles"]},</v>
@@ -8040,7 +9858,7 @@
       <c r="C257" t="s">
         <v>381</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="1" t="s">
         <v>383</v>
       </c>
       <c r="F257" t="s">
@@ -8052,8 +9870,14 @@
       <c r="H257" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P257" t="s">
+        <v>747</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
         <f t="shared" ref="A258:A262" si="8">CONCATENATE("{""spelling"": """,D258,""", ""group"": """,C258,""", ""pos"": """,F258,""", ""adult"": ",IF(E258=TRUE,"true","false"),", ""has"": [",B258,"]},")</f>
         <v>{"spelling": "pan", "group": "_an", "pos": "Noun", "adult": false, "has": ["a handle"]},</v>
@@ -8065,7 +9889,7 @@
       <c r="C258" t="s">
         <v>381</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="1" t="s">
         <v>384</v>
       </c>
       <c r="F258" t="s">
@@ -8074,8 +9898,20 @@
       <c r="G258" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J258" t="s">
+        <v>590</v>
+      </c>
+      <c r="K258" t="s">
+        <v>496</v>
+      </c>
+      <c r="M258" t="s">
+        <v>819</v>
+      </c>
+      <c r="N258" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
         <f t="shared" si="8"/>
         <v>{"spelling": "fan", "group": "_an", "pos": "Noun", "adult": false, "has": ["blades"]},</v>
@@ -8087,7 +9923,7 @@
       <c r="C259" t="s">
         <v>381</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="1" t="s">
         <v>385</v>
       </c>
       <c r="F259" t="s">
@@ -8096,8 +9932,11 @@
       <c r="G259" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J259" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
         <f t="shared" si="8"/>
         <v>{"spelling": "can", "group": "_an", "pos": "Noun", "adult": false, "has": ["a lid","an opener","a filling"]},</v>
@@ -8109,7 +9948,7 @@
       <c r="C260" t="s">
         <v>381</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="1" t="s">
         <v>386</v>
       </c>
       <c r="F260" t="s">
@@ -8124,8 +9963,11 @@
       <c r="I260" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J260" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f t="shared" si="8"/>
         <v>{"spelling": "ban", "group": "_an", "pos": "Noun", "adult": false, "has": []},</v>
@@ -8137,14 +9979,14 @@
       <c r="C261" t="s">
         <v>381</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="1" t="s">
         <v>387</v>
       </c>
       <c r="F261" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f t="shared" si="8"/>
         <v>{"spelling": "nan", "group": "_an", "pos": "Noun", "adult": false, "has": ["grandchildren","grandkids"]},</v>
@@ -8156,7 +9998,7 @@
       <c r="C262" t="s">
         <v>381</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F262" t="s">
@@ -8171,5 +10013,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/customDIctionary.xlsx
+++ b/customDIctionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\claptrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AF99FE-BAC5-467F-9A15-158AB3D56548}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FF1329-6F4E-46D6-BA08-6FA7E9C1FEFF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9375" xr2:uid="{065E9CA2-EFF7-4AAA-8B1A-5CE3FAFF6ACD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="1484">
   <si>
     <t>Word</t>
   </si>
@@ -2504,9 +2504,6 @@
     <t>the stove</t>
   </si>
   <si>
-    <t xml:space="preserve">sdccc </t>
-  </si>
-  <si>
     <t>the summer</t>
   </si>
   <si>
@@ -3404,6 +3401,9 @@
     <t>a cake</t>
   </si>
   <si>
+    <t>a pastry</t>
+  </si>
+  <si>
     <t>a dessert</t>
   </si>
   <si>
@@ -3798,6 +3798,690 @@
   </si>
   <si>
     <t>a streetcar</t>
+  </si>
+  <si>
+    <t>an email</t>
+  </si>
+  <si>
+    <t>junkmail</t>
+  </si>
+  <si>
+    <t>a smash</t>
+  </si>
+  <si>
+    <t>a con</t>
+  </si>
+  <si>
+    <t>a lie</t>
+  </si>
+  <si>
+    <t>a ploy</t>
+  </si>
+  <si>
+    <t>a blockade</t>
+  </si>
+  <si>
+    <t>swearing</t>
+  </si>
+  <si>
+    <t>a curse</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>a shellfish</t>
+  </si>
+  <si>
+    <t>a sea creature</t>
+  </si>
+  <si>
+    <t>a crustacean</t>
+  </si>
+  <si>
+    <t>a path</t>
+  </si>
+  <si>
+    <t>a route</t>
+  </si>
+  <si>
+    <t>a trail</t>
+  </si>
+  <si>
+    <t>a beam</t>
+  </si>
+  <si>
+    <t>a sunbeam</t>
+  </si>
+  <si>
+    <t>a manta</t>
+  </si>
+  <si>
+    <t>an elf</t>
+  </si>
+  <si>
+    <t>a pixie</t>
+  </si>
+  <si>
+    <t>a mythical creature</t>
+  </si>
+  <si>
+    <t>a sprite</t>
+  </si>
+  <si>
+    <t>a legend</t>
+  </si>
+  <si>
+    <t>a myth</t>
+  </si>
+  <si>
+    <t>a homosexual</t>
+  </si>
+  <si>
+    <t>a lesbian</t>
+  </si>
+  <si>
+    <t>a sexual preference</t>
+  </si>
+  <si>
+    <t>fodder</t>
+  </si>
+  <si>
+    <t>a hello</t>
+  </si>
+  <si>
+    <t>a salutation</t>
+  </si>
+  <si>
+    <t>a hi</t>
+  </si>
+  <si>
+    <t>a wave</t>
+  </si>
+  <si>
+    <t>a shag</t>
+  </si>
+  <si>
+    <t>a sexual partner</t>
+  </si>
+  <si>
+    <t>a lay</t>
+  </si>
+  <si>
+    <t>a coastline</t>
+  </si>
+  <si>
+    <t>a port</t>
+  </si>
+  <si>
+    <t>a plate</t>
+  </si>
+  <si>
+    <t>a holiday</t>
+  </si>
+  <si>
+    <t>a vacation</t>
+  </si>
+  <si>
+    <t>a mallard</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>misfortune</t>
+  </si>
+  <si>
+    <t>a chef</t>
+  </si>
+  <si>
+    <t>a dollar</t>
+  </si>
+  <si>
+    <t>dirt</t>
+  </si>
+  <si>
+    <t>the atmosphere</t>
+  </si>
+  <si>
+    <t>a flour</t>
+  </si>
+  <si>
+    <t>a cravat</t>
+  </si>
+  <si>
+    <t>formal wear</t>
+  </si>
+  <si>
+    <t>an attempt</t>
+  </si>
+  <si>
+    <t>a pasty</t>
+  </si>
+  <si>
+    <t>a tart</t>
+  </si>
+  <si>
+    <t>a pizza</t>
+  </si>
+  <si>
+    <t>a gasp</t>
+  </si>
+  <si>
+    <t>a whisper</t>
+  </si>
+  <si>
+    <t>a mark</t>
+  </si>
+  <si>
+    <t>a venereal disease</t>
+  </si>
+  <si>
+    <t>crotch rot</t>
+  </si>
+  <si>
+    <t>syphillis</t>
+  </si>
+  <si>
+    <t>chlamydia</t>
+  </si>
+  <si>
+    <t>herpes</t>
+  </si>
+  <si>
+    <t>a disease</t>
+  </si>
+  <si>
+    <t>a colouring</t>
+  </si>
+  <si>
+    <t>a boy</t>
+  </si>
+  <si>
+    <t>a lad</t>
+  </si>
+  <si>
+    <t>a deception</t>
+  </si>
+  <si>
+    <t>an untruth</t>
+  </si>
+  <si>
+    <t>a centre-point</t>
+  </si>
+  <si>
+    <t>a chime</t>
+  </si>
+  <si>
+    <t>an instrument</t>
+  </si>
+  <si>
+    <t>a resevoir</t>
+  </si>
+  <si>
+    <t>an exclamation</t>
+  </si>
+  <si>
+    <t>a screech</t>
+  </si>
+  <si>
+    <t>a holler</t>
+  </si>
+  <si>
+    <t>a casing</t>
+  </si>
+  <si>
+    <t>an exterior</t>
+  </si>
+  <si>
+    <t>a conch</t>
+  </si>
+  <si>
+    <t>a liquid</t>
+  </si>
+  <si>
+    <t>a paste</t>
+  </si>
+  <si>
+    <t>a body-wash</t>
+  </si>
+  <si>
+    <t>hades</t>
+  </si>
+  <si>
+    <t>a nightmare</t>
+  </si>
+  <si>
+    <t>an underworld</t>
+  </si>
+  <si>
+    <t>an afterlife</t>
+  </si>
+  <si>
+    <t>inferno</t>
+  </si>
+  <si>
+    <t>a scent</t>
+  </si>
+  <si>
+    <t>an odour</t>
+  </si>
+  <si>
+    <t>an odor</t>
+  </si>
+  <si>
+    <t>a chapter</t>
+  </si>
+  <si>
+    <t>a manner</t>
+  </si>
+  <si>
+    <t>a politeness</t>
+  </si>
+  <si>
+    <t>an agreement</t>
+  </si>
+  <si>
+    <t>a treaty</t>
+  </si>
+  <si>
+    <t>a truth</t>
+  </si>
+  <si>
+    <t>a hiccup</t>
+  </si>
+  <si>
+    <t>a snob</t>
+  </si>
+  <si>
+    <t>an attraction</t>
+  </si>
+  <si>
+    <t>a rollercoaster</t>
+  </si>
+  <si>
+    <t>a log flume</t>
+  </si>
+  <si>
+    <t>an edge</t>
+  </si>
+  <si>
+    <t>a leader</t>
+  </si>
+  <si>
+    <t>a pelt</t>
+  </si>
+  <si>
+    <t>a covering</t>
+  </si>
+  <si>
+    <t>a skin</t>
+  </si>
+  <si>
+    <t>a baby</t>
+  </si>
+  <si>
+    <t>a toddler</t>
+  </si>
+  <si>
+    <t>an urchin</t>
+  </si>
+  <si>
+    <t>a youth</t>
+  </si>
+  <si>
+    <t>a flipper</t>
+  </si>
+  <si>
+    <t>a wing</t>
+  </si>
+  <si>
+    <t>a victory</t>
+  </si>
+  <si>
+    <t>a can</t>
+  </si>
+  <si>
+    <t>packaging</t>
+  </si>
+  <si>
+    <t>a needle</t>
+  </si>
+  <si>
+    <t>a spike</t>
+  </si>
+  <si>
+    <t>a tack</t>
+  </si>
+  <si>
+    <t>a thumbtack</t>
+  </si>
+  <si>
+    <t>a fastening</t>
+  </si>
+  <si>
+    <t>a crime</t>
+  </si>
+  <si>
+    <t>murder</t>
+  </si>
+  <si>
+    <t>theft</t>
+  </si>
+  <si>
+    <t>a cacophony</t>
+  </si>
+  <si>
+    <t>a clatter</t>
+  </si>
+  <si>
+    <t>a drink</t>
+  </si>
+  <si>
+    <t>a spirit</t>
+  </si>
+  <si>
+    <t>booze</t>
+  </si>
+  <si>
+    <t>a genie</t>
+  </si>
+  <si>
+    <t>a family member</t>
+  </si>
+  <si>
+    <t>a relative</t>
+  </si>
+  <si>
+    <t>an aunt</t>
+  </si>
+  <si>
+    <t>an uncle</t>
+  </si>
+  <si>
+    <t>a cousin</t>
+  </si>
+  <si>
+    <t>a dumpster</t>
+  </si>
+  <si>
+    <t>a skip</t>
+  </si>
+  <si>
+    <t>a riddle</t>
+  </si>
+  <si>
+    <t>a weight</t>
+  </si>
+  <si>
+    <t>a star</t>
+  </si>
+  <si>
+    <t>a bakery product</t>
+  </si>
+  <si>
+    <t>a bap</t>
+  </si>
+  <si>
+    <t>a roll</t>
+  </si>
+  <si>
+    <t>a mother</t>
+  </si>
+  <si>
+    <t>a parent</t>
+  </si>
+  <si>
+    <t>a tramp</t>
+  </si>
+  <si>
+    <t>a rear</t>
+  </si>
+  <si>
+    <t>a total</t>
+  </si>
+  <si>
+    <t>spunk</t>
+  </si>
+  <si>
+    <t>jizz</t>
+  </si>
+  <si>
+    <t>sperm</t>
+  </si>
+  <si>
+    <t>a pet</t>
+  </si>
+  <si>
+    <t>a mug</t>
+  </si>
+  <si>
+    <t>a glass</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>a village</t>
+  </si>
+  <si>
+    <t>a city</t>
+  </si>
+  <si>
+    <t>a settlement</t>
+  </si>
+  <si>
+    <t>a rule</t>
+  </si>
+  <si>
+    <t>amazement</t>
+  </si>
+  <si>
+    <t>worship</t>
+  </si>
+  <si>
+    <t>a mouth</t>
+  </si>
+  <si>
+    <t>a chin</t>
+  </si>
+  <si>
+    <t>a birdcall</t>
+  </si>
+  <si>
+    <t>a squawk</t>
+  </si>
+  <si>
+    <t>a request</t>
+  </si>
+  <si>
+    <t>a room</t>
+  </si>
+  <si>
+    <t>a throne-room</t>
+  </si>
+  <si>
+    <t>a sphere</t>
+  </si>
+  <si>
+    <t>a hammer</t>
+  </si>
+  <si>
+    <t>a weapon</t>
+  </si>
+  <si>
+    <t>a club</t>
+  </si>
+  <si>
+    <t>a chap</t>
+  </si>
+  <si>
+    <t>a colouration</t>
+  </si>
+  <si>
+    <t>a wok</t>
+  </si>
+  <si>
+    <t>an air conditioner</t>
+  </si>
+  <si>
+    <t>an appliance</t>
+  </si>
+  <si>
+    <t>a tin</t>
+  </si>
+  <si>
+    <t>a restriction</t>
+  </si>
+  <si>
+    <t>a law</t>
+  </si>
+  <si>
+    <t>a grandma</t>
+  </si>
+  <si>
+    <t>a grandmother</t>
+  </si>
+  <si>
+    <t>a grandparent</t>
+  </si>
+  <si>
+    <t>a hound</t>
+  </si>
+  <si>
+    <t>a pup</t>
+  </si>
+  <si>
+    <t>a cloud</t>
+  </si>
+  <si>
+    <t>a piglet</t>
+  </si>
+  <si>
+    <t>a boar</t>
+  </si>
+  <si>
+    <t>a run</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>a plank</t>
+  </si>
+  <si>
+    <t>firewood</t>
+  </si>
+  <si>
+    <t>a gear</t>
+  </si>
+  <si>
+    <t>a wheel</t>
+  </si>
+  <si>
+    <t>a mechanism</t>
+  </si>
+  <si>
+    <t>a swamp</t>
+  </si>
+  <si>
+    <t>a mire</t>
+  </si>
+  <si>
+    <t>a sprog</t>
+  </si>
+  <si>
+    <t>a drudgery</t>
+  </si>
+  <si>
+    <t>a hardship</t>
+  </si>
+  <si>
+    <t>a kiss</t>
+  </si>
+  <si>
+    <t>a fog</t>
+  </si>
+  <si>
+    <t>a smog</t>
+  </si>
+  <si>
+    <t>a measurement</t>
+  </si>
+  <si>
+    <t>a unit</t>
+  </si>
+  <si>
+    <t>a boat</t>
+  </si>
+  <si>
+    <t>a sailboat</t>
+  </si>
+  <si>
+    <t>weed</t>
+  </si>
+  <si>
+    <t>marijuana</t>
+  </si>
+  <si>
+    <t>a pot</t>
+  </si>
+  <si>
+    <t>a drug</t>
+  </si>
+  <si>
+    <t>a scheme</t>
+  </si>
+  <si>
+    <t>a load</t>
+  </si>
+  <si>
+    <t>masses</t>
+  </si>
+  <si>
+    <t>a bed</t>
+  </si>
+  <si>
+    <t>an AI</t>
+  </si>
+  <si>
+    <t>an artificial intelligence</t>
+  </si>
+  <si>
+    <t>a Brit</t>
+  </si>
+  <si>
+    <t>a limb</t>
+  </si>
+  <si>
+    <t>a cask</t>
+  </si>
+  <si>
+    <t>a gap</t>
+  </si>
+  <si>
+    <t>a vapour</t>
+  </si>
+  <si>
+    <t>a lady</t>
+  </si>
+  <si>
+    <t>a harbour</t>
+  </si>
+  <si>
+    <t>a keep</t>
+  </si>
+  <si>
+    <t>a guardpost</t>
   </si>
 </sst>
 </file>
@@ -4160,9 +4844,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5D9654-EC04-466C-B743-C6A3C5F36A0A}">
   <dimension ref="A1:AL301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z151" sqref="Z151"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4189,25 +4873,25 @@
         <v>573</v>
       </c>
       <c r="C1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E1" t="s">
         <v>828</v>
       </c>
-      <c r="D1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E1" t="s">
-        <v>829</v>
-      </c>
       <c r="F1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G1" t="s">
         <v>1073</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1074</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1075</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1076</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
@@ -4258,40 +4942,40 @@
         <v>584</v>
       </c>
       <c r="Z1" t="s">
+        <v>945</v>
+      </c>
+      <c r="AA1" t="s">
         <v>946</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>947</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>948</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>949</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>950</v>
       </c>
-      <c r="AE1" t="s">
-        <v>951</v>
-      </c>
       <c r="AF1" t="s">
+        <v>957</v>
+      </c>
+      <c r="AG1" t="s">
         <v>958</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>959</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>960</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>961</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>962</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
@@ -4347,10 +5031,10 @@
         <v>585</v>
       </c>
       <c r="Z2" t="s">
+        <v>943</v>
+      </c>
+      <c r="AF2" t="s">
         <v>944</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -4474,7 +5158,7 @@
         <v>587</v>
       </c>
       <c r="Z4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -4583,13 +5267,13 @@
         <v>225</v>
       </c>
       <c r="Z6" t="s">
+        <v>952</v>
+      </c>
+      <c r="AA6" t="s">
         <v>953</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>954</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -4704,10 +5388,10 @@
         <v>231</v>
       </c>
       <c r="Z8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AA8" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AI8" t="s">
         <v>684</v>
@@ -4769,10 +5453,10 @@
         <v>234</v>
       </c>
       <c r="Z9" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC9" t="s">
         <v>967</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>968</v>
       </c>
       <c r="AD9" t="s">
         <v>783</v>
@@ -4781,10 +5465,10 @@
         <v>587</v>
       </c>
       <c r="AG9" t="s">
+        <v>964</v>
+      </c>
+      <c r="AH9" t="s">
         <v>965</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -4843,7 +5527,7 @@
         <v>783</v>
       </c>
       <c r="AI10" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -4899,19 +5583,19 @@
         <v>590</v>
       </c>
       <c r="Z11" t="s">
+        <v>969</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>972</v>
+      </c>
+      <c r="AF11" t="s">
         <v>970</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AG11" t="s">
+        <v>971</v>
+      </c>
+      <c r="AI11" t="s">
         <v>973</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>971</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>972</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -4970,19 +5654,19 @@
         <v>591</v>
       </c>
       <c r="AC12" t="s">
+        <v>974</v>
+      </c>
+      <c r="AD12" t="s">
         <v>975</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>976</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>977</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>978</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -5032,13 +5716,13 @@
         <v>218</v>
       </c>
       <c r="AI13" t="s">
+        <v>990</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>991</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>992</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -5088,10 +5772,10 @@
         <v>218</v>
       </c>
       <c r="AC14" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -5150,13 +5834,13 @@
         <v>238</v>
       </c>
       <c r="Z15" t="s">
+        <v>981</v>
+      </c>
+      <c r="AA15" t="s">
         <v>982</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>983</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -5253,13 +5937,13 @@
         <v>218</v>
       </c>
       <c r="Z17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AC17" t="s">
+        <v>985</v>
+      </c>
+      <c r="AD17" t="s">
         <v>986</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
@@ -5312,13 +5996,13 @@
         <v>240</v>
       </c>
       <c r="AC18" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AD18" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AI18" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
@@ -5371,13 +6055,13 @@
         <v>592</v>
       </c>
       <c r="AC19" t="s">
+        <v>997</v>
+      </c>
+      <c r="AD19" t="s">
         <v>998</v>
       </c>
-      <c r="AD19" t="s">
-        <v>999</v>
-      </c>
       <c r="AI19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -5433,16 +6117,16 @@
         <v>593</v>
       </c>
       <c r="AC20" t="s">
+        <v>999</v>
+      </c>
+      <c r="AD20" t="s">
         <v>1000</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AF20" t="s">
         <v>1001</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>1002</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -5504,25 +6188,25 @@
         <v>378</v>
       </c>
       <c r="Z21" t="s">
+        <v>981</v>
+      </c>
+      <c r="AA21" t="s">
         <v>982</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>983</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>984</v>
       </c>
-      <c r="AC21" t="s">
-        <v>985</v>
-      </c>
       <c r="AD21" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AI21" t="s">
+        <v>993</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>994</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -5590,16 +6274,16 @@
         <v>595</v>
       </c>
       <c r="Z22" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AA22" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AC22" t="s">
         <v>1004</v>
       </c>
-      <c r="AC22" t="s">
-        <v>1005</v>
-      </c>
       <c r="AD22" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
@@ -5711,22 +6395,22 @@
         <v>596</v>
       </c>
       <c r="Z24" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AA24" t="s">
         <v>1010</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>1011</v>
       </c>
-      <c r="AB24" t="s">
-        <v>1012</v>
-      </c>
       <c r="AC24" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AD24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AE24" t="s">
         <v>1008</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
@@ -5785,16 +6469,16 @@
         <v>247</v>
       </c>
       <c r="AC25" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AI25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>1013</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AK25" t="s">
         <v>1014</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
@@ -5844,19 +6528,19 @@
         <v>218</v>
       </c>
       <c r="Z26" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AI26" t="s">
         <v>1019</v>
       </c>
-      <c r="AC26" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>1018</v>
-      </c>
-      <c r="AI26" t="s">
+      <c r="AJ26" t="s">
         <v>1020</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
@@ -5915,7 +6599,7 @@
         <v>625</v>
       </c>
       <c r="AI27" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
@@ -5977,10 +6661,10 @@
         <v>599</v>
       </c>
       <c r="AC28" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AF28" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
@@ -6101,7 +6785,7 @@
         <v>684</v>
       </c>
       <c r="AH30" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
@@ -6151,13 +6835,13 @@
         <v>218</v>
       </c>
       <c r="Z31" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AI31" t="s">
         <v>1026</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>1028</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
@@ -6219,16 +6903,16 @@
         <v>603</v>
       </c>
       <c r="AC32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AD32" t="s">
         <v>1029</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AF32" t="s">
         <v>1030</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AI32" t="s">
         <v>1031</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
@@ -6293,16 +6977,16 @@
         <v>605</v>
       </c>
       <c r="Z33" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AA33" t="s">
         <v>1033</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>1034</v>
       </c>
       <c r="AI33" t="s">
         <v>255</v>
       </c>
       <c r="AJ33" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
@@ -6364,7 +7048,7 @@
         <v>607</v>
       </c>
       <c r="AC34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AD34" t="s">
         <v>783</v>
@@ -6420,7 +7104,7 @@
         <v>809</v>
       </c>
       <c r="AL35" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
@@ -6482,16 +7166,16 @@
         <v>609</v>
       </c>
       <c r="Z36" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AC36" t="s">
         <v>1037</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>1038</v>
       </c>
       <c r="AD36" t="s">
         <v>297</v>
       </c>
       <c r="AI36" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
@@ -6556,7 +7240,7 @@
         <v>611</v>
       </c>
       <c r="AL37" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
@@ -6621,16 +7305,16 @@
         <v>612</v>
       </c>
       <c r="Z38" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AA38" t="s">
         <v>1041</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AC38" t="s">
+        <v>984</v>
+      </c>
+      <c r="AD38" t="s">
         <v>1042</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>985</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -6692,7 +7376,7 @@
         <v>614</v>
       </c>
       <c r="AC39" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AD39" t="s">
         <v>652</v>
@@ -6745,13 +7429,13 @@
         <v>218</v>
       </c>
       <c r="AI40" t="s">
+        <v>990</v>
+      </c>
+      <c r="AJ40" t="s">
         <v>991</v>
       </c>
-      <c r="AJ40" t="s">
+      <c r="AK40" t="s">
         <v>992</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
@@ -6801,7 +7485,7 @@
         <v>218</v>
       </c>
       <c r="AL41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
@@ -6860,7 +7544,7 @@
         <v>229</v>
       </c>
       <c r="AL42" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
@@ -6925,10 +7609,10 @@
         <v>616</v>
       </c>
       <c r="AC43" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AD43" t="s">
         <v>1045</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
@@ -6990,19 +7674,19 @@
         <v>619</v>
       </c>
       <c r="Z44" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AC44" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AD44" t="s">
         <v>1047</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AI44" t="s">
         <v>1048</v>
       </c>
-      <c r="AI44" t="s">
+      <c r="AJ44" t="s">
         <v>1049</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
@@ -7079,16 +7763,16 @@
         <v>623</v>
       </c>
       <c r="AC45" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AF45" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AG45" t="s">
         <v>1052</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AH45" t="s">
         <v>1053</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
@@ -7144,13 +7828,13 @@
         <v>238</v>
       </c>
       <c r="Z46" t="s">
+        <v>981</v>
+      </c>
+      <c r="AA46" t="s">
         <v>982</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>983</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
@@ -7212,13 +7896,13 @@
         <v>626</v>
       </c>
       <c r="AC47" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AE47" t="s">
         <v>1056</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
@@ -7274,10 +7958,10 @@
         <v>627</v>
       </c>
       <c r="AC48" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AD48" t="s">
         <v>1059</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.25">
@@ -7345,31 +8029,31 @@
         <v>629</v>
       </c>
       <c r="Z49" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AC49" t="s">
         <v>1061</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AD49" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AF49" t="s">
         <v>1063</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>1062</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>1069</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>1064</v>
       </c>
       <c r="AI49" t="s">
         <v>538</v>
       </c>
       <c r="AJ49" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
@@ -7422,7 +8106,7 @@
         <v>261</v>
       </c>
       <c r="AL50" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
@@ -7481,10 +8165,10 @@
         <v>631</v>
       </c>
       <c r="AC51" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AD51" t="s">
         <v>1068</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
@@ -7546,13 +8230,13 @@
         <v>632</v>
       </c>
       <c r="AC52" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AD52" t="s">
         <v>1070</v>
       </c>
-      <c r="AD52" t="s">
+      <c r="AI52" t="s">
         <v>1071</v>
-      </c>
-      <c r="AI52" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
@@ -7611,10 +8295,10 @@
         <v>635</v>
       </c>
       <c r="AC53" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AD53" t="s">
         <v>1077</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
@@ -7688,19 +8372,19 @@
         <v>639</v>
       </c>
       <c r="Z54" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AF54" t="s">
         <v>1079</v>
       </c>
-      <c r="AC54" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AF54" t="s">
+      <c r="AG54" t="s">
         <v>1080</v>
       </c>
-      <c r="AG54" t="s">
+      <c r="AH54" t="s">
         <v>1081</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
@@ -7756,19 +8440,19 @@
         <v>286</v>
       </c>
       <c r="Z55" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>974</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AI55" t="s">
         <v>1085</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>975</v>
-      </c>
-      <c r="AF55" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
@@ -7821,10 +8505,10 @@
         <v>288</v>
       </c>
       <c r="AC56" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AI56" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
@@ -7892,7 +8576,7 @@
         <v>642</v>
       </c>
       <c r="AI57" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
@@ -7948,7 +8632,7 @@
         <v>292</v>
       </c>
       <c r="AC58" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
@@ -8013,16 +8697,16 @@
         <v>783</v>
       </c>
       <c r="AD59" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AE59" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AF59" t="s">
         <v>625</v>
       </c>
       <c r="AI59" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
@@ -8081,13 +8765,13 @@
         <v>645</v>
       </c>
       <c r="Z60" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AF60" t="s">
         <v>1095</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
@@ -8149,10 +8833,10 @@
         <v>641</v>
       </c>
       <c r="AF61" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AI61" t="s">
         <v>1097</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
@@ -8205,7 +8889,7 @@
         <v>648</v>
       </c>
       <c r="AL62" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
@@ -8267,16 +8951,16 @@
         <v>650</v>
       </c>
       <c r="AC63" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AD63" t="s">
         <v>783</v>
       </c>
       <c r="AE63" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AI63" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
@@ -8382,7 +9066,7 @@
         <v>654</v>
       </c>
       <c r="Z65" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
@@ -8441,13 +9125,13 @@
         <v>606</v>
       </c>
       <c r="AC66" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AD66" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AI66" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
@@ -8500,7 +9184,7 @@
         <v>299</v>
       </c>
       <c r="Z67" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
@@ -8556,13 +9240,13 @@
         <v>301</v>
       </c>
       <c r="Z68" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AC68" t="s">
         <v>1105</v>
       </c>
-      <c r="AC68" t="s">
+      <c r="AI68" t="s">
         <v>1106</v>
-      </c>
-      <c r="AI68" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
@@ -8621,13 +9305,13 @@
         <v>656</v>
       </c>
       <c r="AC69" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD69" t="s">
         <v>767</v>
       </c>
       <c r="AF69" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
@@ -8745,16 +9429,16 @@
         <v>375</v>
       </c>
       <c r="AA71" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AB71" t="s">
         <v>1110</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AF71" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AI71" t="s">
         <v>1111</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>1113</v>
-      </c>
-      <c r="AI71" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
@@ -8807,19 +9491,19 @@
         <v>390</v>
       </c>
       <c r="AC72" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AD72" t="s">
         <v>1116</v>
       </c>
-      <c r="AD72" t="s">
+      <c r="AE72" t="s">
         <v>1117</v>
       </c>
-      <c r="AE72" t="s">
-        <v>1118</v>
-      </c>
       <c r="AI72" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AJ72" t="s">
         <v>1114</v>
-      </c>
-      <c r="AJ72" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
@@ -8890,16 +9574,16 @@
         <v>393</v>
       </c>
       <c r="Z73" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AF73" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AG73" t="s">
         <v>1119</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AH73" t="s">
         <v>1120</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
@@ -8958,7 +9642,7 @@
         <v>505</v>
       </c>
       <c r="AC74" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AD74" t="s">
         <v>1124</v>
@@ -9469,7 +10153,7 @@
         <v>406</v>
       </c>
       <c r="AC82" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.25">
@@ -9593,7 +10277,7 @@
         <v>667</v>
       </c>
       <c r="AC84" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AI84" t="s">
         <v>713</v>
@@ -9658,7 +10342,7 @@
         <v>783</v>
       </c>
       <c r="AE85" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.25">
@@ -9720,7 +10404,7 @@
         <v>505</v>
       </c>
       <c r="AC86" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AI86" t="s">
         <v>1146</v>
@@ -9794,7 +10478,7 @@
         <v>670</v>
       </c>
       <c r="AC87" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AD87" t="s">
         <v>1147</v>
@@ -10039,7 +10723,7 @@
         <v>1150</v>
       </c>
       <c r="AC91" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.25">
@@ -10532,7 +11216,7 @@
         <v>1168</v>
       </c>
       <c r="AC99" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
@@ -10647,7 +11331,7 @@
         <v>428</v>
       </c>
       <c r="AC101" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AD101" t="s">
         <v>1174</v>
@@ -10718,7 +11402,7 @@
         <v>1175</v>
       </c>
       <c r="AD102" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.25">
@@ -10969,7 +11653,7 @@
         <v>685</v>
       </c>
       <c r="AC106" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AF106" t="s">
         <v>1183</v>
@@ -11061,7 +11745,7 @@
         <v>1187</v>
       </c>
       <c r="AI107" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
@@ -11114,7 +11798,7 @@
         <v>436</v>
       </c>
       <c r="AC108" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.25">
@@ -11176,31 +11860,31 @@
         <v>628</v>
       </c>
       <c r="Z109" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AC109" t="s">
         <v>1061</v>
       </c>
-      <c r="AA109" t="s">
+      <c r="AD109" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AF109" t="s">
         <v>1063</v>
-      </c>
-      <c r="AB109" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AC109" t="s">
-        <v>1062</v>
-      </c>
-      <c r="AD109" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AE109" t="s">
-        <v>1069</v>
-      </c>
-      <c r="AF109" t="s">
-        <v>1064</v>
       </c>
       <c r="AI109" t="s">
         <v>538</v>
       </c>
       <c r="AJ109" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
@@ -11309,7 +11993,7 @@
         <v>1191</v>
       </c>
       <c r="AC111" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.25">
@@ -11445,7 +12129,7 @@
         <v>1194</v>
       </c>
       <c r="AE113" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
@@ -11607,10 +12291,10 @@
         <v>1196</v>
       </c>
       <c r="AC116" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AD116" t="s">
         <v>1016</v>
-      </c>
-      <c r="AD116" t="s">
-        <v>1017</v>
       </c>
       <c r="AI116" t="s">
         <v>1191</v>
@@ -12251,10 +12935,10 @@
         <v>710</v>
       </c>
       <c r="Z126" t="s">
+        <v>981</v>
+      </c>
+      <c r="AA126" t="s">
         <v>982</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>983</v>
       </c>
       <c r="AB126" t="s">
         <v>1215</v>
@@ -12425,10 +13109,10 @@
         <v>218</v>
       </c>
       <c r="Z129" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA129" t="s">
         <v>992</v>
-      </c>
-      <c r="AA129" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
@@ -12868,7 +13552,7 @@
         <v>590</v>
       </c>
       <c r="AC136" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AI136" t="s">
         <v>1233</v>
@@ -13535,7 +14219,7 @@
         <v>1248</v>
       </c>
       <c r="AC147" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.25">
@@ -13727,10 +14411,10 @@
         <v>644</v>
       </c>
       <c r="AC150" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AD150" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AE150" t="s">
         <v>783</v>
@@ -13792,7 +14476,7 @@
         <v>474</v>
       </c>
       <c r="AC151" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AF151" t="s">
         <v>1255</v>
@@ -13807,7 +14491,7 @@
     <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "spam", "group": "_am", "pos": "Noun", "adult": false, "has": [], "in": ["your inbox"], "on": [], "from": ["a scammer"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "spam", "group": "_am", "pos": "Noun", "adult": false, "has": [], "in": ["your inbox"], "on": [], "from": ["a scammer"], "is": ["junkmail"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["an email"]},</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="28"/>
@@ -13827,7 +14511,7 @@
       </c>
       <c r="F152" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"junkmail"</v>
       </c>
       <c r="G152" t="str">
         <f t="shared" si="33"/>
@@ -13839,7 +14523,7 @@
       </c>
       <c r="I152" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>"an email"</v>
       </c>
       <c r="J152" t="s">
         <v>163</v>
@@ -13855,12 +14539,18 @@
       </c>
       <c r="W152" t="s">
         <v>733</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AI152" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "slam", "group": "_am", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "slam", "group": "_am", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a smash"], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="28"/>
@@ -13880,7 +14570,7 @@
       </c>
       <c r="F153" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"a smash"</v>
       </c>
       <c r="G153" t="str">
         <f t="shared" si="33"/>
@@ -13902,12 +14592,15 @@
       </c>
       <c r="M153" t="s">
         <v>218</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "scam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a victim"], "in": [], "on": [], "from": ["a spammer","a conman"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "scam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a victim"], "in": [], "on": [], "from": ["a spammer","a conman"], "is": ["a con"], "typeOf": ["a lie","a ploy"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="28"/>
@@ -13927,11 +14620,11 @@
       </c>
       <c r="F154" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"a con"</v>
       </c>
       <c r="G154" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a lie","a ploy"</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="34"/>
@@ -13958,12 +14651,21 @@
       </c>
       <c r="X154" t="s">
         <v>735</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>1259</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AD154" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "dam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a lot of water"], "in": ["the river","a river"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "dam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a lot of water"], "in": ["the river","a river"], "on": [], "from": [], "is": [], "typeOf": ["a blockade"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="28"/>
@@ -13987,7 +14689,7 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a blockade"</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="34"/>
@@ -14014,12 +14716,15 @@
       </c>
       <c r="R155" t="s">
         <v>599</v>
+      </c>
+      <c r="AC155" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "damn", "group": "_am", "pos": "Noun", "adult": true, "has": [], "in": [], "on": [], "from": ["a sinner"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "damn", "group": "_am", "pos": "Noun", "adult": true, "has": [], "in": [], "on": [], "from": ["a sinner"], "is": [], "typeOf": ["swearing","a curse"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="28"/>
@@ -14043,7 +14748,7 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"swearing","a curse"</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="34"/>
@@ -14067,12 +14772,18 @@
       </c>
       <c r="W156" t="s">
         <v>737</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AD156" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "ham", "group": "_am", "pos": "Noun", "adult": false, "has": ["bone"], "in": ["a sandwich"], "on": [], "from": ["a pig"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "ham", "group": "_am", "pos": "Noun", "adult": false, "has": ["bone"], "in": ["a sandwich"], "on": [], "from": ["a pig"], "is": [], "typeOf": ["pork","meat"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="28"/>
@@ -14096,7 +14807,7 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"pork","meat"</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="34"/>
@@ -14123,12 +14834,18 @@
       </c>
       <c r="W157" t="s">
         <v>507</v>
+      </c>
+      <c r="AC157" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AD157" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "lamb", "group": "_am", "pos": "Noun", "adult": false, "has": ["wool","hooves"], "in": ["a field"], "on": [], "from": ["a field","a farm"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "lamb", "group": "_am", "pos": "Noun", "adult": false, "has": ["wool","hooves"], "in": ["a field"], "on": [], "from": ["a field","a farm"], "is": [], "typeOf": ["sheep","meat","a farm animal"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="28"/>
@@ -14152,7 +14869,7 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"sheep","meat","a farm animal"</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="34"/>
@@ -14185,12 +14902,21 @@
       </c>
       <c r="X158" t="s">
         <v>644</v>
+      </c>
+      <c r="AC158" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AD158" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AE158" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "clam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a shell","a pearl"], "in": ["the ocean","the sea"], "on": [], "from": ["a fishmonger"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "clam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a shell","a pearl"], "in": ["the ocean","the sea"], "on": [], "from": ["a fishmonger"], "is": [], "typeOf": ["a shellfish","a sea creature","a crustacean"], "supertypeOf": [], "nearlyIs": ["an oyster"]},</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="28"/>
@@ -14214,7 +14940,7 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a shellfish","a sea creature","a crustacean"</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="34"/>
@@ -14222,7 +14948,7 @@
       </c>
       <c r="I159" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>"an oyster"</v>
       </c>
       <c r="J159" t="s">
         <v>163</v>
@@ -14247,12 +14973,24 @@
       </c>
       <c r="W159" t="s">
         <v>739</v>
+      </c>
+      <c r="AC159" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AD159" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AE159" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AI159" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "day", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a morning","an afternoon","the sun"], "in": ["the morning","the afternoon"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "day", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a morning","an afternoon","the sun"], "in": ["the morning","the afternoon"], "on": [], "from": [], "is": [], "typeOf": ["a time period"], "supertypeOf": [], "nearlyIs": ["a morning","an afternoon"]},</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="28"/>
@@ -14276,7 +15014,7 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a time period"</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="34"/>
@@ -14284,7 +15022,7 @@
       </c>
       <c r="I160" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>"a morning","an afternoon"</v>
       </c>
       <c r="J160" t="s">
         <v>174</v>
@@ -14310,8 +15048,17 @@
       <c r="R160" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC160" t="s">
+        <v>955</v>
+      </c>
+      <c r="AI160" t="s">
+        <v>481</v>
+      </c>
+      <c r="AJ160" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="27"/>
         <v>{"spelling": "weigh", "group": "_ay", "pos": "Verb", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -14358,10 +15105,10 @@
         <v>441</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "way", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a signpost"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "way", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a signpost"], "in": [], "on": [], "from": [], "is": ["a path","a route","a trail"], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="28"/>
@@ -14381,7 +15128,7 @@
       </c>
       <c r="F162" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"a path","a route","a trail"</v>
       </c>
       <c r="G162" t="str">
         <f t="shared" si="33"/>
@@ -14407,11 +15154,20 @@
       <c r="N162" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z162" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AA162" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "ray", "group": "_ay", "pos": "Noun", "adult": false, "has": ["gills"], "in": ["the sea","the ocean"], "on": [], "from": ["the sun","a fishmonger"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "ray", "group": "_ay", "pos": "Noun", "adult": false, "has": ["gills"], "in": ["the sea","the ocean"], "on": [], "from": ["the sun","a fishmonger"], "is": [], "typeOf": ["a fish","a beam"], "supertypeOf": ["a sunbeam","a manta"], "nearlyIs": []},</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="28"/>
@@ -14435,11 +15191,11 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a fish","a beam"</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>"a sunbeam","a manta"</v>
       </c>
       <c r="I163" t="str">
         <f t="shared" si="35"/>
@@ -14469,11 +15225,23 @@
       <c r="X163" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC163" t="s">
+        <v>666</v>
+      </c>
+      <c r="AD163" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AF163" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AG163" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "fey", "group": "_ay", "pos": "Noun", "adult": false, "has": ["magical powers"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "fey", "group": "_ay", "pos": "Noun", "adult": false, "has": ["magical powers"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a mythical creature","a legend","a myth"], "supertypeOf": ["an elf","a pixie","a sprite"], "nearlyIs": []},</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="28"/>
@@ -14497,11 +15265,11 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a mythical creature","a legend","a myth"</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>"an elf","a pixie","a sprite"</v>
       </c>
       <c r="I164" t="str">
         <f t="shared" si="35"/>
@@ -14519,11 +15287,29 @@
       <c r="N164" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC164" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AE164" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AF164" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AG164" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AH164" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "gay", "group": "_ay", "pos": "Noun", "adult": true, "has": ["a husband"], "in": ["a pride parade"], "on": ["grinder"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "gay", "group": "_ay", "pos": "Noun", "adult": true, "has": ["a husband"], "in": ["a pride parade"], "on": ["grinder"], "from": [], "is": ["a homosexual"], "typeOf": ["a sexual preference"], "supertypeOf": ["a lesbian"], "nearlyIs": []},</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="28"/>
@@ -14543,15 +15329,15 @@
       </c>
       <c r="F165" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"a homosexual"</v>
       </c>
       <c r="G165" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a sexual preference"</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>"a lesbian"</v>
       </c>
       <c r="I165" t="str">
         <f t="shared" si="35"/>
@@ -14578,11 +15364,20 @@
       <c r="T165" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z165" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AF165" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "hay", "group": "_ay", "pos": "Noun", "adult": false, "has": [], "in": ["a field","a bale"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "hay", "group": "_ay", "pos": "Noun", "adult": false, "has": [], "in": ["a field","a bale"], "on": [], "from": [], "is": [], "typeOf": ["fodder"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="28"/>
@@ -14606,7 +15401,7 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"fodder"</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="34"/>
@@ -14631,11 +15426,14 @@
       <c r="R166" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC166" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "hey", "group": "_ay", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "hey", "group": "_ay", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a hello","a hi"], "typeOf": ["a salutation"], "supertypeOf": [], "nearlyIs": ["a wave"]},</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="28"/>
@@ -14655,11 +15453,11 @@
       </c>
       <c r="F167" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"a hello","a hi"</v>
       </c>
       <c r="G167" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a salutation"</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="34"/>
@@ -14667,7 +15465,7 @@
       </c>
       <c r="I167" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>"a wave"</v>
       </c>
       <c r="J167" t="s">
         <v>174</v>
@@ -14678,11 +15476,23 @@
       <c r="M167" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z167" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AI167" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "lay", "group": "_ay", "pos": "Noun", "adult": true, "has": ["foreplay","a climax","an orgasm"], "in": [], "on": ["tinder"], "from": ["tinder"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "lay", "group": "_ay", "pos": "Noun", "adult": true, "has": ["foreplay","a climax","an orgasm"], "in": [], "on": ["tinder"], "from": ["tinder"], "is": ["a shag","a sexual partner","a lay"], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="28"/>
@@ -14702,7 +15512,7 @@
       </c>
       <c r="F168" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"a shag","a sexual partner","a lay"</v>
       </c>
       <c r="G168" t="str">
         <f t="shared" si="33"/>
@@ -14743,11 +15553,20 @@
       <c r="W168" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z168" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "bay", "group": "_ay", "pos": "Noun", "adult": false, "has": ["ships","a pier","a beach"], "in": ["a cove"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "bay", "group": "_ay", "pos": "Noun", "adult": false, "has": ["ships","a pier","a beach"], "in": ["a cove"], "on": [], "from": [], "is": ["a cove"], "typeOf": ["a coastline"], "supertypeOf": [], "nearlyIs": ["a port"]},</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="28"/>
@@ -14767,11 +15586,11 @@
       </c>
       <c r="F169" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"a cove"</v>
       </c>
       <c r="G169" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a coastline"</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="34"/>
@@ -14779,7 +15598,7 @@
       </c>
       <c r="I169" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>"a port"</v>
       </c>
       <c r="J169" t="s">
         <v>174</v>
@@ -14802,11 +15621,20 @@
       <c r="Q169" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z169" t="s">
+        <v>745</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AI169" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "tray", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a rim"], "in": ["front of the tv"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "tray", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a rim"], "in": ["front of the tv"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a plate"]},</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="28"/>
@@ -14838,7 +15666,7 @@
       </c>
       <c r="I170" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>"a plate"</v>
       </c>
       <c r="J170" t="s">
         <v>174</v>
@@ -14855,11 +15683,14 @@
       <c r="Q170" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AI170" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "stay", "group": "_ay", "pos": "Noun", "adult": false, "has": [], "in": ["a hotel","a hostel","a resort"], "on": ["holiday","vacation"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "stay", "group": "_ay", "pos": "Noun", "adult": false, "has": [], "in": ["a hotel","a hostel","a resort"], "on": ["holiday","vacation"], "from": [], "is": [], "typeOf": ["a holiday","a vacation"], "supertypeOf": ["a hotel","a hostel","a resort"], "nearlyIs": []},</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="28"/>
@@ -14883,11 +15714,11 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a holiday","a vacation"</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>"a hotel","a hostel","a resort"</v>
       </c>
       <c r="I171" t="str">
         <f t="shared" si="35"/>
@@ -14917,11 +15748,26 @@
       <c r="U171" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC171" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AD171" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AF171" t="s">
+        <v>747</v>
+      </c>
+      <c r="AG171" t="s">
+        <v>748</v>
+      </c>
+      <c r="AH171" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "duck", "group": "_uck", "pos": "Noun", "adult": false, "has": ["feathers","a beak","wings"], "in": ["the river","a river"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "duck", "group": "_uck", "pos": "Noun", "adult": false, "has": ["feathers","a beak","wings"], "in": ["the river","a river"], "on": [], "from": [], "is": [], "typeOf": ["a bird","an animal"], "supertypeOf": ["a mallard"], "nearlyIs": []},</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="28"/>
@@ -14945,11 +15791,11 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a bird","an animal"</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>"a mallard"</v>
       </c>
       <c r="I172" t="str">
         <f t="shared" si="35"/>
@@ -14979,8 +15825,17 @@
       <c r="R172" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC172" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>783</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="27"/>
         <v>{"spelling": "puck", "group": "_uck", "pos": "Noun", "adult": false, "has": [], "in": ["a hockey match"], "on": ["an ice rink"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -15033,10 +15888,10 @@
         <v>752</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "fuck", "group": "_uck", "pos": "Noun", "adult": true, "has": ["foreplay","a climax","an orgasm"], "in": [], "on": ["tinder"], "from": ["tinder","a prostitute","a hooker"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "fuck", "group": "_uck", "pos": "Noun", "adult": true, "has": ["foreplay","a climax","an orgasm"], "in": [], "on": ["tinder"], "from": ["tinder","a prostitute","a hooker"], "is": ["a shag","a lay","a sexual partner"], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="28"/>
@@ -15056,7 +15911,7 @@
       </c>
       <c r="F174" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"a shag","a lay","a sexual partner"</v>
       </c>
       <c r="G174" t="str">
         <f t="shared" si="33"/>
@@ -15103,11 +15958,20 @@
       <c r="Y174" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z174" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>1293</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "luck", "group": "_uck", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "luck", "group": "_uck", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["chance"], "typeOf": [], "supertypeOf": ["fortune","misfortune"], "nearlyIs": []},</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="28"/>
@@ -15127,7 +15991,7 @@
       </c>
       <c r="F175" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"chance"</v>
       </c>
       <c r="G175" t="str">
         <f t="shared" si="33"/>
@@ -15135,7 +15999,7 @@
       </c>
       <c r="H175" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>"fortune","misfortune"</v>
       </c>
       <c r="I175" t="str">
         <f t="shared" si="35"/>
@@ -15150,11 +16014,20 @@
       <c r="M175" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z175" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AF175" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AG175" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "cook", "group": "_uck", "pos": "Noun", "adult": false, "has": ["ingredients","knives","a kitchen"], "in": ["the kitchen","a kitchen","a restaurant"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "cook", "group": "_uck", "pos": "Noun", "adult": false, "has": ["ingredients","knives","a kitchen"], "in": ["the kitchen","a kitchen","a restaurant"], "on": [], "from": [], "is": ["a chef"], "typeOf": [], "supertypeOf": ["a baker"], "nearlyIs": []},</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="28"/>
@@ -15174,7 +16047,7 @@
       </c>
       <c r="F176" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"a chef"</v>
       </c>
       <c r="G176" t="str">
         <f t="shared" si="33"/>
@@ -15182,7 +16055,7 @@
       </c>
       <c r="H176" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>"a baker"</v>
       </c>
       <c r="I176" t="str">
         <f t="shared" si="35"/>
@@ -15215,11 +16088,17 @@
       <c r="S176" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z176" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AF176" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="177" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "buck", "group": "_uck", "pos": "Noun", "adult": false, "has": ["antlers","hooves"], "in": ["the woods","a tip jar"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "buck", "group": "_uck", "pos": "Noun", "adult": false, "has": ["antlers","hooves"], "in": ["the woods","a tip jar"], "on": [], "from": [], "is": ["a dollar"], "typeOf": ["a deer","an animal","a wild animal"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="28"/>
@@ -15239,11 +16118,11 @@
       </c>
       <c r="F177" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"a dollar"</v>
       </c>
       <c r="G177" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a deer","an animal","a wild animal"</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="34"/>
@@ -15274,11 +16153,23 @@
       <c r="R177" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z177" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AC177" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AD177" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="178" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "muck", "group": "_uck", "pos": "Noun", "adult": false, "has": [], "in": ["a farmyard","a field"], "on": ["the bottom of your shoe"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "muck", "group": "_uck", "pos": "Noun", "adult": false, "has": [], "in": ["a farmyard","a field"], "on": ["the bottom of your shoe"], "from": [], "is": ["dirt"], "typeOf": ["a stain"], "supertypeOf": [], "nearlyIs": ["rubbish"]},</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="28"/>
@@ -15298,11 +16189,11 @@
       </c>
       <c r="F178" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"dirt"</v>
       </c>
       <c r="G178" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a stain"</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="34"/>
@@ -15310,7 +16201,7 @@
       </c>
       <c r="I178" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>"rubbish"</v>
       </c>
       <c r="J178" t="s">
         <v>187</v>
@@ -15330,11 +16221,20 @@
       <c r="T178" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z178" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI178" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="179" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "sky", "group": "_ie", "pos": "Noun", "adult": false, "has": ["clouds","birds","an atmosphere"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "sky", "group": "_ie", "pos": "Noun", "adult": false, "has": ["clouds","birds","an atmosphere"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["space","the atmosphere"]},</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="28"/>
@@ -15366,7 +16266,7 @@
       </c>
       <c r="I179" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>"space","the atmosphere"</v>
       </c>
       <c r="J179" t="s">
         <v>195</v>
@@ -15386,11 +16286,17 @@
       <c r="P179" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AI179" t="s">
+        <v>798</v>
+      </c>
+      <c r="AJ179" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="180" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "rye", "group": "_ie", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "rye", "group": "_ie", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a grain","a cereal","a flour"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="28"/>
@@ -15414,7 +16320,7 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a grain","a cereal","a flour"</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="34"/>
@@ -15433,11 +16339,20 @@
       <c r="M180" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC180" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="181" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "tie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pattern","a knot"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "tie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pattern","a knot"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["clothing","a garment","formal wear"], "supertypeOf": ["a cravat"], "nearlyIs": []},</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="28"/>
@@ -15461,11 +16376,11 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"clothing","a garment","formal wear"</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>"a cravat"</v>
       </c>
       <c r="I181" t="str">
         <f t="shared" si="35"/>
@@ -15486,11 +16401,23 @@
       <c r="O181" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC181" t="s">
+        <v>974</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="182" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "try", "group": "_ie", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "try", "group": "_ie", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an attempt"], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="28"/>
@@ -15510,7 +16437,7 @@
       </c>
       <c r="F182" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"an attempt"</v>
       </c>
       <c r="G182" t="str">
         <f t="shared" si="33"/>
@@ -15533,11 +16460,14 @@
       <c r="M182" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z182" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="183" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "pie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a crust","a filling","a baker"], "in": [], "on": [], "from": ["a baker"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "pie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a crust","a filling","a baker"], "in": [], "on": [], "from": ["a baker"], "is": [], "typeOf": ["a pastry"], "supertypeOf": [], "nearlyIs": ["a pasty","a tart","a pizza"]},</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="28"/>
@@ -15561,7 +16491,7 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a pastry"</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="34"/>
@@ -15569,7 +16499,7 @@
       </c>
       <c r="I183" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>"a pasty","a tart","a pizza"</v>
       </c>
       <c r="J183" t="s">
         <v>195</v>
@@ -15592,11 +16522,23 @@
       <c r="W183" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC183" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AI183" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AJ183" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AK183" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="184" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "pi", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a lot of numbers"], "in": ["a textbook","an equation"], "on": ["a calculator"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "pi", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a lot of numbers"], "in": ["a textbook","an equation"], "on": ["a calculator"], "from": [], "is": [], "typeOf": ["a number"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="28"/>
@@ -15620,7 +16562,7 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a number"</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="34"/>
@@ -15651,11 +16593,14 @@
       <c r="T184" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC184" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="185" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "sigh", "group": "_ie", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "sigh", "group": "_ie", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a noise","a sound"], "supertypeOf": [], "nearlyIs": ["a gasp","a whisper"]},</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="28"/>
@@ -15679,7 +16624,7 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a noise","a sound"</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" si="34"/>
@@ -15687,7 +16632,7 @@
       </c>
       <c r="I185" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>"a gasp","a whisper"</v>
       </c>
       <c r="J185" t="s">
         <v>195</v>
@@ -15698,11 +16643,23 @@
       <c r="M185" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC185" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD185" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AI185" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AJ185" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="186" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "sty", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pig","muck","a trough"], "in": ["a farm"], "on": ["your eye","your eyelid"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "sty", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pig","muck","a trough"], "in": ["a farm"], "on": ["your eye","your eyelid"], "from": [], "is": [], "typeOf": ["a mark","a blemish"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="28"/>
@@ -15726,7 +16683,7 @@
       </c>
       <c r="G186" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a mark","a blemish"</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="34"/>
@@ -15763,11 +16720,17 @@
       <c r="U186" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC186" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="187" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "STI", "group": "_ie", "pos": "Noun", "adult": true, "has": ["pus"], "in": [], "on": ["your genitals"], "from": ["a prostitute","a hooker"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "STI", "group": "_ie", "pos": "Noun", "adult": true, "has": ["pus"], "in": [], "on": ["your genitals"], "from": ["a prostitute","a hooker"], "is": ["a venereal disease","crotch rot"], "typeOf": ["a disease"], "supertypeOf": ["syphillis","chlamydia","herpes"], "nearlyIs": []},</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="28"/>
@@ -15787,15 +16750,15 @@
       </c>
       <c r="F187" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"a venereal disease","crotch rot"</v>
       </c>
       <c r="G187" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a disease"</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>"syphillis","chlamydia","herpes"</v>
       </c>
       <c r="I187" t="str">
         <f t="shared" si="35"/>
@@ -15825,11 +16788,29 @@
       <c r="X187" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z187" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AH187" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="188" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "dye", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a colour"], "in": [], "on": ["your hair"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "dye", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a colour"], "in": [], "on": ["your hair"], "from": [], "is": [], "typeOf": ["a colouring"], "supertypeOf": [], "nearlyIs": ["a stain"]},</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="28"/>
@@ -15853,7 +16834,7 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a colouring"</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="34"/>
@@ -15861,7 +16842,7 @@
       </c>
       <c r="I188" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>"a stain"</v>
       </c>
       <c r="J188" t="s">
         <v>195</v>
@@ -15878,11 +16859,17 @@
       <c r="T188" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC188" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AI188" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="189" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "guy", "group": "_ie", "pos": "Noun", "adult": false, "has": ["arms","legs","a body"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "guy", "group": "_ie", "pos": "Noun", "adult": false, "has": ["arms","legs","a body"], "in": [], "on": [], "from": [], "is": ["a man"], "typeOf": ["a person"], "supertypeOf": ["a boy","a lad"], "nearlyIs": []},</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="28"/>
@@ -15902,15 +16889,15 @@
       </c>
       <c r="F189" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"a man"</v>
       </c>
       <c r="G189" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a person"</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>"a boy","a lad"</v>
       </c>
       <c r="I189" t="str">
         <f t="shared" si="35"/>
@@ -15934,11 +16921,23 @@
       <c r="P189" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z189" t="s">
+        <v>954</v>
+      </c>
+      <c r="AC189" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="190" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "lie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["never happened"], "in": [], "on": [], "from": ["a politician","an advert","a conman"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "lie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["never happened"], "in": [], "on": [], "from": ["a politician","an advert","a conman"], "is": ["an untruth"], "typeOf": [], "supertypeOf": ["a deception"], "nearlyIs": []},</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="28"/>
@@ -15958,7 +16957,7 @@
       </c>
       <c r="F190" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"an untruth"</v>
       </c>
       <c r="G190" t="str">
         <f t="shared" si="33"/>
@@ -15966,7 +16965,7 @@
       </c>
       <c r="H190" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>"a deception"</v>
       </c>
       <c r="I190" t="str">
         <f t="shared" si="35"/>
@@ -15993,11 +16992,17 @@
       <c r="Y190" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z190" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="191" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "eye", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pupil","a lens","lashes"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "eye", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pupil","a lens","lashes"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a body part"], "supertypeOf": [], "nearlyIs": ["a centre-point"]},</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="28"/>
@@ -16021,7 +17026,7 @@
       </c>
       <c r="G191" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a body part"</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" si="34"/>
@@ -16029,7 +17034,7 @@
       </c>
       <c r="I191" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>"a centre-point"</v>
       </c>
       <c r="J191" t="s">
         <v>195</v>
@@ -16049,11 +17054,17 @@
       <c r="P191" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC191" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AI191" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="192" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "bell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["a clapper"], "in": ["a church","a steeple"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "bell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["a clapper"], "in": ["a church","a steeple"], "on": [], "from": [], "is": [], "typeOf": ["an instrument"], "supertypeOf": [], "nearlyIs": ["a chime"]},</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="28"/>
@@ -16077,7 +17088,7 @@
       </c>
       <c r="G192" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"an instrument"</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="34"/>
@@ -16085,7 +17096,7 @@
       </c>
       <c r="I192" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>"a chime"</v>
       </c>
       <c r="J192" t="s">
         <v>208</v>
@@ -16105,11 +17116,17 @@
       <c r="R192" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC192" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AI192" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "well", "group": "_ell", "pos": "Noun", "adult": false, "has": ["a bucket","water"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "well", "group": "_ell", "pos": "Noun", "adult": false, "has": ["a bucket","water"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a resevoir"]},</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="28"/>
@@ -16141,7 +17158,7 @@
       </c>
       <c r="I193" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>"a resevoir"</v>
       </c>
       <c r="J193" t="s">
         <v>208</v>
@@ -16158,11 +17175,14 @@
       <c r="O193" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AI193" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" si="27"/>
-        <v>{"spelling": "yell", "group": "_ell", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a football fan","someone in trouble"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "yell", "group": "_ell", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a football fan","someone in trouble"], "is": ["a shout"], "typeOf": ["a noise","an exclamation"], "supertypeOf": ["a scream","a screech","a holler"], "nearlyIs": []},</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" si="28"/>
@@ -16182,15 +17202,15 @@
       </c>
       <c r="F194" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>"a shout"</v>
       </c>
       <c r="G194" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>"a noise","an exclamation"</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>"a scream","a screech","a holler"</v>
       </c>
       <c r="I194" t="str">
         <f t="shared" si="35"/>
@@ -16211,8 +17231,26 @@
       <c r="X194" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z194" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AC194" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD194" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AG194" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AH194" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" si="27"/>
         <v>{"spelling": "sell", "group": "_ell", "pos": "Verb", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -16259,10 +17297,10 @@
         <v>441</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" ref="A196:A259" si="36">CONCATENATE("{""spelling"": """,K196,""", ""group"": """,J196,""", ""pos"": """,M196,""", ""adult"": ",IF(L196=TRUE,"true","false"),", ""has"": [",B196,"]",", ""in"": [",C196,"]",", ""on"": [",D196,"]",", ""from"": [",E196,"]",", ""is"": [",F196,"]",", ""typeOf"": [",G196,"]",", ""supertypeOf"": [",H196,"]",", ""nearlyIs"": [",I196,"]},")</f>
-        <v>{"spelling": "shell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["an inside"], "in": ["the sea","the ocean"], "on": ["the beach"], "from": ["an oyster","a clam"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "shell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["an inside"], "in": ["the sea","the ocean"], "on": ["the beach"], "from": ["an oyster","a clam"], "is": [], "typeOf": ["a casing","an exterior"], "supertypeOf": ["a conch"], "nearlyIs": []},</v>
       </c>
       <c r="B196" t="str">
         <f t="shared" ref="B196:B259" si="37">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",N196,""",""",O196,""",""",P196,""""),",""""",""),"""""","")</f>
@@ -16286,11 +17324,11 @@
       </c>
       <c r="G196" t="str">
         <f t="shared" ref="G196:G259" si="42">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AC196,""",""",AD196,""",""",AE196,""""),",""""",""),"""""","")</f>
-        <v/>
+        <v>"a casing","an exterior"</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" ref="H196:H259" si="43">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AF196,""",""",AG196,""",""",AH196,""""),",""""",""),"""""","")</f>
-        <v/>
+        <v>"a conch"</v>
       </c>
       <c r="I196" t="str">
         <f t="shared" ref="I196:I259" si="44">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AI196,""",""",AJ196,""",""",AK196,""""),",""""",""),"""""","")</f>
@@ -16323,11 +17361,20 @@
       <c r="X196" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC196" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "gel", "group": "_ell", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a bottle"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "gel", "group": "_ell", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a bottle"], "is": [], "typeOf": [], "supertypeOf": ["a body-wash"], "nearlyIs": ["a liquid","a paste"]},</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" si="37"/>
@@ -16355,11 +17402,11 @@
       </c>
       <c r="H197" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"a body-wash"</v>
       </c>
       <c r="I197" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a liquid","a paste"</v>
       </c>
       <c r="J197" t="s">
         <v>208</v>
@@ -16373,11 +17420,20 @@
       <c r="W197" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AF197" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AI197" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AJ197" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "hell", "group": "_ell", "pos": "Noun", "adult": true, "has": ["flames","sinners","pitchforks"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "hell", "group": "_ell", "pos": "Noun", "adult": true, "has": ["flames","sinners","pitchforks"], "in": [], "on": [], "from": [], "is": ["hades","inferno"], "typeOf": ["a nightmare","an underworld","an afterlife"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="37"/>
@@ -16397,11 +17453,11 @@
       </c>
       <c r="F198" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"hades","inferno"</v>
       </c>
       <c r="G198" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a nightmare","an underworld","an afterlife"</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="43"/>
@@ -16432,11 +17488,26 @@
       <c r="P198" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z198" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AD198" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AE198" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "smell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["an origin"], "in": ["the bathroom","the toilet"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "smell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["an origin"], "in": ["the bathroom","the toilet"], "on": [], "from": [], "is": ["an odour","an odor"], "typeOf": ["an emission"], "supertypeOf": ["a scent","a stench"], "nearlyIs": []},</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="37"/>
@@ -16456,15 +17527,15 @@
       </c>
       <c r="F199" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"an odour","an odor"</v>
       </c>
       <c r="G199" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"an emission"</v>
       </c>
       <c r="H199" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"a scent","a stench"</v>
       </c>
       <c r="I199" t="str">
         <f t="shared" si="44"/>
@@ -16488,11 +17559,26 @@
       <c r="R199" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z199" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AA199" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AF199" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AG199" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "act", "group": "_act", "pos": "Noun", "adult": false, "has": [], "in": ["a play"], "on": ["stage"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "act", "group": "_act", "pos": "Noun", "adult": false, "has": [], "in": ["a play"], "on": ["stage"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a chapter"]},</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="37"/>
@@ -16524,7 +17610,7 @@
       </c>
       <c r="I200" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a chapter"</v>
       </c>
       <c r="J200" t="s">
         <v>302</v>
@@ -16541,11 +17627,14 @@
       <c r="T200" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AI200" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "tact", "group": "_act", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a diplomat"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "tact", "group": "_act", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a diplomat"], "is": [], "typeOf": ["a manner"], "supertypeOf": [], "nearlyIs": ["a politeness"]},</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="37"/>
@@ -16569,7 +17658,7 @@
       </c>
       <c r="G201" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a manner"</v>
       </c>
       <c r="H201" t="str">
         <f t="shared" si="43"/>
@@ -16577,7 +17666,7 @@
       </c>
       <c r="I201" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a politeness"</v>
       </c>
       <c r="J201" t="s">
         <v>302</v>
@@ -16591,11 +17680,17 @@
       <c r="W201" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC201" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AI201" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "pact", "group": "_act", "pos": "Noun", "adult": false, "has": ["signatures"], "in": ["writing"], "on": [], "from": ["a diplomat"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "pact", "group": "_act", "pos": "Noun", "adult": false, "has": ["signatures"], "in": ["writing"], "on": [], "from": ["a diplomat"], "is": [], "typeOf": ["an agreement","a treaty"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="37"/>
@@ -16619,7 +17714,7 @@
       </c>
       <c r="G202" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"an agreement","a treaty"</v>
       </c>
       <c r="H202" t="str">
         <f t="shared" si="43"/>
@@ -16647,11 +17742,17 @@
       <c r="W202" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC202" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AD202" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "fact", "group": "_act", "pos": "Noun", "adult": false, "has": ["proof"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "fact", "group": "_act", "pos": "Noun", "adult": false, "has": ["proof"], "in": [], "on": [], "from": [], "is": ["a truth"], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="37"/>
@@ -16671,7 +17772,7 @@
       </c>
       <c r="F203" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"a truth"</v>
       </c>
       <c r="G203" t="str">
         <f t="shared" si="42"/>
@@ -16697,8 +17798,11 @@
       <c r="N203" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z203" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="36"/>
         <v>{"spelling": "off", "group": "_off", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -16745,10 +17849,10 @@
         <v>437</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "cough", "group": "_off", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a patient"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "cough", "group": "_off", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a patient"], "is": [], "typeOf": ["a sound"], "supertypeOf": [], "nearlyIs": ["a hiccup"]},</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="37"/>
@@ -16772,7 +17876,7 @@
       </c>
       <c r="G205" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a sound"</v>
       </c>
       <c r="H205" t="str">
         <f t="shared" si="43"/>
@@ -16780,7 +17884,7 @@
       </c>
       <c r="I205" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a hiccup"</v>
       </c>
       <c r="J205" t="s">
         <v>308</v>
@@ -16794,11 +17898,17 @@
       <c r="W205" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC205" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AI205" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "toff", "group": "_off", "pos": "Noun", "adult": false, "has": ["a tophat","riches","a monocle"], "in": ["the upper classes"], "on": [], "from": ["a rich family"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "toff", "group": "_off", "pos": "Noun", "adult": false, "has": ["a tophat","riches","a monocle"], "in": ["the upper classes"], "on": [], "from": ["a rich family"], "is": ["a snob"], "typeOf": ["a gentleman"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="37"/>
@@ -16818,11 +17928,11 @@
       </c>
       <c r="F206" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"a snob"</v>
       </c>
       <c r="G206" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a gentleman"</v>
       </c>
       <c r="H206" t="str">
         <f t="shared" si="43"/>
@@ -16856,8 +17966,14 @@
       <c r="W206" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z206" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AC206" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="36"/>
         <v>{"spelling": "wide", "group": "_ide", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -16904,10 +18020,10 @@
         <v>437</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "ride", "group": "_ide", "pos": "Noun", "adult": false, "has": ["tracks"], "in": ["a fairground","an amusement park"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "ride", "group": "_ide", "pos": "Noun", "adult": false, "has": ["tracks"], "in": ["a fairground","an amusement park"], "on": [], "from": [], "is": [], "typeOf": ["an attraction"], "supertypeOf": ["a rollercoaster","a log flume"], "nearlyIs": []},</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="37"/>
@@ -16931,11 +18047,11 @@
       </c>
       <c r="G208" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"an attraction"</v>
       </c>
       <c r="H208" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"a rollercoaster","a log flume"</v>
       </c>
       <c r="I208" t="str">
         <f t="shared" si="44"/>
@@ -16959,11 +18075,20 @@
       <c r="R208" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC208" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "tide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["waves","a lot of water"], "in": ["the ocean"], "on": ["the beach"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "tide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["waves","a lot of water"], "in": ["the ocean"], "on": ["the beach"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a wave"]},</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="37"/>
@@ -16995,7 +18120,7 @@
       </c>
       <c r="I209" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a wave"</v>
       </c>
       <c r="J209" t="s">
         <v>312</v>
@@ -17018,11 +18143,14 @@
       <c r="T209" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AI209" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "side", "group": "_ide", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "side", "group": "_ide", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["an edge"]},</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="37"/>
@@ -17054,7 +18182,7 @@
       </c>
       <c r="I210" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"an edge"</v>
       </c>
       <c r="J210" t="s">
         <v>312</v>
@@ -17065,8 +18193,11 @@
       <c r="M210" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AI210" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="36"/>
         <v>{"spelling": "pride", "group": "_ide", "pos": "Noun", "adult": false, "has": ["lions"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -17116,10 +18247,10 @@
         <v>444</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "guide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["expertise"], "in": [], "on": ["a hike","a tour"], "from": ["a gallery"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "guide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["expertise"], "in": [], "on": ["a hike","a tour"], "from": ["a gallery"], "is": [], "typeOf": ["a leader"], "supertypeOf": ["a guru"], "nearlyIs": []},</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="37"/>
@@ -17143,11 +18274,11 @@
       </c>
       <c r="G212" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a leader"</v>
       </c>
       <c r="H212" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"a guru"</v>
       </c>
       <c r="I212" t="str">
         <f t="shared" si="44"/>
@@ -17174,11 +18305,17 @@
       <c r="W212" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC212" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="213" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "hide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["hunters"], "in": [], "on": ["an animal"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "hide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["hunters"], "in": [], "on": ["an animal"], "from": [], "is": ["a pelt"], "typeOf": ["a covering","a skin"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="37"/>
@@ -17198,11 +18335,11 @@
       </c>
       <c r="F213" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"a pelt"</v>
       </c>
       <c r="G213" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a covering","a skin"</v>
       </c>
       <c r="H213" t="str">
         <f t="shared" si="43"/>
@@ -17227,11 +18364,20 @@
       <c r="T213" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z213" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AC213" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="214" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "child", "group": "_ild", "pos": "Noun", "adult": false, "has": ["parents"], "in": ["school","a classroom"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "child", "group": "_ild", "pos": "Noun", "adult": false, "has": ["parents"], "in": ["school","a classroom"], "on": [], "from": [], "is": ["a kid","a youth","a sprog"], "typeOf": ["a person"], "supertypeOf": ["a baby","a toddler","an urchin"], "nearlyIs": []},</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="37"/>
@@ -17251,15 +18397,15 @@
       </c>
       <c r="F214" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"a kid","a youth","a sprog"</v>
       </c>
       <c r="G214" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a person"</v>
       </c>
       <c r="H214" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"a baby","a toddler","an urchin"</v>
       </c>
       <c r="I214" t="str">
         <f t="shared" si="44"/>
@@ -17283,8 +18429,29 @@
       <c r="R214" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z214" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="36"/>
         <v>{"spelling": "wild", "group": "_ild", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -17331,10 +18498,10 @@
         <v>437</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "fin", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a fish"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "fin", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a fish"], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a flipper"], "nearlyIs": ["a wing"]},</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="37"/>
@@ -17362,11 +18529,11 @@
       </c>
       <c r="H216" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"a flipper"</v>
       </c>
       <c r="I216" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a wing"</v>
       </c>
       <c r="J216" t="s">
         <v>323</v>
@@ -17380,11 +18547,17 @@
       <c r="T216" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AF216" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AI216" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="217" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "win", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": ["sports"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "win", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": ["sports"], "on": [], "from": [], "is": ["a victory"], "typeOf": ["a success"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B217" t="str">
         <f t="shared" si="37"/>
@@ -17404,11 +18577,11 @@
       </c>
       <c r="F217" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"a victory"</v>
       </c>
       <c r="G217" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a success"</v>
       </c>
       <c r="H217" t="str">
         <f t="shared" si="43"/>
@@ -17430,11 +18603,17 @@
       <c r="Q217" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z217" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AC217" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="218" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "tin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lid","a filling","an opener"], "in": ["the periodic table"], "on": ["the periodic table"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "tin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lid","a filling","an opener"], "in": ["the periodic table"], "on": ["the periodic table"], "from": [], "is": ["a can"], "typeOf": ["packaging"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="37"/>
@@ -17454,11 +18633,11 @@
       </c>
       <c r="F218" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"a can"</v>
       </c>
       <c r="G218" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"packaging"</v>
       </c>
       <c r="H218" t="str">
         <f t="shared" si="43"/>
@@ -17492,11 +18671,17 @@
       <c r="T218" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z218" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="219" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "pin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a head","a point"], "in": ["a pincushion","a voodoo doll"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "pin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a head","a point"], "in": ["a pincushion","a voodoo doll"], "on": [], "from": [], "is": [], "typeOf": ["a spike","a fastening"], "supertypeOf": ["a tack","a thumbtack"], "nearlyIs": ["a needle"]},</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="37"/>
@@ -17520,15 +18705,15 @@
       </c>
       <c r="G219" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a spike","a fastening"</v>
       </c>
       <c r="H219" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"a tack","a thumbtack"</v>
       </c>
       <c r="I219" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a needle"</v>
       </c>
       <c r="J219" t="s">
         <v>323</v>
@@ -17551,11 +18736,26 @@
       <c r="R219" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC219" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AI219" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="220" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "sin", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a sinner"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "sin", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a sinner"], "is": [], "typeOf": [], "supertypeOf": ["murder","theft"], "nearlyIs": ["a crime"]},</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="37"/>
@@ -17583,11 +18783,11 @@
       </c>
       <c r="H220" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"murder","theft"</v>
       </c>
       <c r="I220" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a crime"</v>
       </c>
       <c r="J220" t="s">
         <v>323</v>
@@ -17601,11 +18801,20 @@
       <c r="W220" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AF220" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AI220" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="221" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "din", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a drumkit","an accordian","bagpipes"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "din", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a drumkit","an accordian","bagpipes"], "is": ["a cacophony"], "typeOf": ["a noise"], "supertypeOf": ["a clatter"], "nearlyIs": []},</v>
       </c>
       <c r="B221" t="str">
         <f t="shared" si="37"/>
@@ -17625,15 +18834,15 @@
       </c>
       <c r="F221" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"a cacophony"</v>
       </c>
       <c r="G221" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a noise"</v>
       </c>
       <c r="H221" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"a clatter"</v>
       </c>
       <c r="I221" t="str">
         <f t="shared" si="44"/>
@@ -17657,11 +18866,20 @@
       <c r="Y221" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z221" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AC221" t="s">
+        <v>460</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="222" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "gin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lot of alcohol in it","juniper berries"], "in": ["a cocktail","a bar"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "gin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lot of alcohol in it","juniper berries"], "in": ["a cocktail","a bar"], "on": [], "from": [], "is": [], "typeOf": ["a drink","a spirit","booze"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B222" t="str">
         <f t="shared" si="37"/>
@@ -17685,7 +18903,7 @@
       </c>
       <c r="G222" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a drink","a spirit","booze"</v>
       </c>
       <c r="H222" t="str">
         <f t="shared" si="43"/>
@@ -17716,11 +18934,20 @@
       <c r="R222" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC222" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AD222" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AE222" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="223" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "djinn", "group": "_in", "pos": "Noun", "adult": false, "has": ["magical powers","a lamp"], "in": ["a lamp"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "djinn", "group": "_in", "pos": "Noun", "adult": false, "has": ["magical powers","a lamp"], "in": ["a lamp"], "on": [], "from": [], "is": ["a genie"], "typeOf": ["a spirit"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B223" t="str">
         <f t="shared" si="37"/>
@@ -17740,11 +18967,11 @@
       </c>
       <c r="F223" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"a genie"</v>
       </c>
       <c r="G223" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a spirit"</v>
       </c>
       <c r="H223" t="str">
         <f t="shared" si="43"/>
@@ -17772,11 +18999,17 @@
       <c r="Q223" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z223" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="224" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "kin", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": ["the family"], "on": [], "from": ["a family"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "kin", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": ["the family"], "on": [], "from": ["a family"], "is": ["a family member","a relative"], "typeOf": [], "supertypeOf": ["an aunt","an uncle","a cousin"], "nearlyIs": []},</v>
       </c>
       <c r="B224" t="str">
         <f t="shared" si="37"/>
@@ -17796,7 +19029,7 @@
       </c>
       <c r="F224" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"a family member","a relative"</v>
       </c>
       <c r="G224" t="str">
         <f t="shared" si="42"/>
@@ -17804,7 +19037,7 @@
       </c>
       <c r="H224" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"an aunt","an uncle","a cousin"</v>
       </c>
       <c r="I224" t="str">
         <f t="shared" si="44"/>
@@ -17825,11 +19058,26 @@
       <c r="W224" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z224" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AF224" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AG224" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AH224" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="225" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "bin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lid","rubbish"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "bin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lid","rubbish"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a dumpster","a skip"], "nearlyIs": []},</v>
       </c>
       <c r="B225" t="str">
         <f t="shared" si="37"/>
@@ -17857,7 +19105,7 @@
       </c>
       <c r="H225" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"a dumpster","a skip"</v>
       </c>
       <c r="I225" t="str">
         <f t="shared" si="44"/>
@@ -17878,11 +19126,17 @@
       <c r="O225" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AF225" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AG225" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="226" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "shin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a bone"], "in": ["your leg","your body"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "shin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a bone"], "in": ["your leg","your body"], "on": [], "from": [], "is": [], "typeOf": ["a body part","a bone"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B226" t="str">
         <f t="shared" si="37"/>
@@ -17906,7 +19160,7 @@
       </c>
       <c r="G226" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a body part","a bone"</v>
       </c>
       <c r="H226" t="str">
         <f t="shared" si="43"/>
@@ -17934,11 +19188,17 @@
       <c r="R226" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC226" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AD226" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="227" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "chin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a beard","a jaw"], "in": [], "on": ["your face"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "chin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a beard","a jaw"], "in": [], "on": ["your face"], "from": [], "is": [], "typeOf": ["a body part"], "supertypeOf": [], "nearlyIs": ["a jaw"]},</v>
       </c>
       <c r="B227" t="str">
         <f t="shared" si="37"/>
@@ -17962,7 +19222,7 @@
       </c>
       <c r="G227" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a body part"</v>
       </c>
       <c r="H227" t="str">
         <f t="shared" si="43"/>
@@ -17970,7 +19230,7 @@
       </c>
       <c r="I227" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a jaw"</v>
       </c>
       <c r="J227" t="s">
         <v>323</v>
@@ -17990,11 +19250,17 @@
       <c r="T227" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC227" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AI227" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="228" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "pun", "group": "_un", "pos": "Noun", "adult": false, "has": ["a setup","a punchline"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "pun", "group": "_un", "pos": "Noun", "adult": false, "has": ["a setup","a punchline"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a joke","a riddle"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B228" t="str">
         <f t="shared" si="37"/>
@@ -18018,7 +19284,7 @@
       </c>
       <c r="G228" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a joke","a riddle"</v>
       </c>
       <c r="H228" t="str">
         <f t="shared" si="43"/>
@@ -18043,11 +19309,17 @@
       <c r="O228" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC228" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AD228" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="229" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "ton", "group": "_un", "pos": "Noun", "adult": false, "has": ["a lot in it"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "ton", "group": "_un", "pos": "Noun", "adult": false, "has": ["a lot in it"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a weight"], "supertypeOf": [], "nearlyIs": ["a lot"]},</v>
       </c>
       <c r="B229" t="str">
         <f t="shared" si="37"/>
@@ -18071,7 +19343,7 @@
       </c>
       <c r="G229" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a weight"</v>
       </c>
       <c r="H229" t="str">
         <f t="shared" si="43"/>
@@ -18079,7 +19351,7 @@
       </c>
       <c r="I229" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a lot"</v>
       </c>
       <c r="J229" t="s">
         <v>338</v>
@@ -18093,11 +19365,17 @@
       <c r="N229" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC229" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AI229" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="230" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "sun", "group": "_un", "pos": "Noun", "adult": false, "has": ["rays","light"], "in": ["space","the sky"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "sun", "group": "_un", "pos": "Noun", "adult": false, "has": ["rays","light"], "in": ["space","the sky"], "on": [], "from": [], "is": [], "typeOf": ["a star"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B230" t="str">
         <f t="shared" si="37"/>
@@ -18121,7 +19399,7 @@
       </c>
       <c r="G230" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a star"</v>
       </c>
       <c r="H230" t="str">
         <f t="shared" si="43"/>
@@ -18152,11 +19430,14 @@
       <c r="R230" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC230" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="231" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "bun", "group": "_un", "pos": "Noun", "adult": false, "has": ["currants","dough"], "in": ["the oven"], "on": [], "from": ["the bakery","a baker"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "bun", "group": "_un", "pos": "Noun", "adult": false, "has": ["currants","dough"], "in": ["the oven"], "on": [], "from": ["the bakery","a baker"], "is": [], "typeOf": ["a bread","a bakery product"], "supertypeOf": ["a bap","a roll"], "nearlyIs": []},</v>
       </c>
       <c r="B231" t="str">
         <f t="shared" si="37"/>
@@ -18180,11 +19461,11 @@
       </c>
       <c r="G231" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a bread","a bakery product"</v>
       </c>
       <c r="H231" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"a bap","a roll"</v>
       </c>
       <c r="I231" t="str">
         <f t="shared" si="44"/>
@@ -18214,11 +19495,23 @@
       <c r="X231" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC231" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AD231" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AF231" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AG231" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="232" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "mum", "group": "_um", "pos": "Noun", "adult": false, "has": ["a child","kids"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "mum", "group": "_um", "pos": "Noun", "adult": false, "has": ["a child","kids"], "in": [], "on": [], "from": [], "is": ["a mother"], "typeOf": ["a parent"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B232" t="str">
         <f t="shared" si="37"/>
@@ -18238,11 +19531,11 @@
       </c>
       <c r="F232" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"a mother"</v>
       </c>
       <c r="G232" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a parent"</v>
       </c>
       <c r="H232" t="str">
         <f t="shared" si="43"/>
@@ -18267,11 +19560,17 @@
       <c r="O232" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z232" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AC232" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="233" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "bum", "group": "_um", "pos": "Noun", "adult": false, "has": ["cheeks"], "in": ["your pants"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "bum", "group": "_um", "pos": "Noun", "adult": false, "has": ["cheeks"], "in": ["your pants"], "on": [], "from": [], "is": ["a tramp"], "typeOf": ["a body part","a rear"], "supertypeOf": [], "nearlyIs": ["a seat"]},</v>
       </c>
       <c r="B233" t="str">
         <f t="shared" si="37"/>
@@ -18291,11 +19590,11 @@
       </c>
       <c r="F233" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"a tramp"</v>
       </c>
       <c r="G233" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a body part","a rear"</v>
       </c>
       <c r="H233" t="str">
         <f t="shared" si="43"/>
@@ -18303,7 +19602,7 @@
       </c>
       <c r="I233" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a seat"</v>
       </c>
       <c r="J233" t="s">
         <v>342</v>
@@ -18320,11 +19619,23 @@
       <c r="Q233" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z233" t="s">
+        <v>1403</v>
+      </c>
+      <c r="AC233" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AD233" t="s">
+        <v>1404</v>
+      </c>
+      <c r="AI233" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="234" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "sum", "group": "_um", "pos": "Noun", "adult": false, "has": ["numbers","an answer"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "sum", "group": "_um", "pos": "Noun", "adult": false, "has": ["numbers","an answer"], "in": [], "on": [], "from": [], "is": ["a total"], "typeOf": ["an equation"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B234" t="str">
         <f t="shared" si="37"/>
@@ -18344,11 +19655,11 @@
       </c>
       <c r="F234" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"a total"</v>
       </c>
       <c r="G234" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"an equation"</v>
       </c>
       <c r="H234" t="str">
         <f t="shared" si="43"/>
@@ -18373,8 +19684,14 @@
       <c r="O234" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z234" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AC234" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="235" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="36"/>
         <v>{"spelling": "gum", "group": "_um", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["the bottom of your shoe"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -18424,10 +19741,10 @@
         <v>630</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "cum", "group": "_um", "pos": "Noun", "adult": true, "has": [], "in": ["a condom"], "on": [], "from": ["your dick","your cock"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "cum", "group": "_um", "pos": "Noun", "adult": true, "has": [], "in": ["a condom"], "on": [], "from": ["your dick","your cock"], "is": ["spunk","jizz","sperm"], "typeOf": ["an emission"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B236" t="str">
         <f t="shared" si="37"/>
@@ -18447,11 +19764,11 @@
       </c>
       <c r="F236" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"spunk","jizz","sperm"</v>
       </c>
       <c r="G236" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"an emission"</v>
       </c>
       <c r="H236" t="str">
         <f t="shared" si="43"/>
@@ -18482,8 +19799,20 @@
       <c r="X236" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z236" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AA236" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AB236" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AC236" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="237" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="36"/>
         <v>{"spelling": "up", "group": "_up", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -18530,10 +19859,10 @@
         <v>437</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "pup", "group": "_up", "pos": "Noun", "adult": false, "has": ["a tail","paws"], "in": ["a kennel"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "pup", "group": "_up", "pos": "Noun", "adult": false, "has": ["a tail","paws"], "in": ["a kennel"], "on": [], "from": [], "is": [], "typeOf": ["a dog","a pet","an animal"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B238" t="str">
         <f t="shared" si="37"/>
@@ -18557,7 +19886,7 @@
       </c>
       <c r="G238" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a dog","a pet","an animal"</v>
       </c>
       <c r="H238" t="str">
         <f t="shared" si="43"/>
@@ -18585,11 +19914,20 @@
       <c r="Q238" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC238" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD238" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AE238" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="239" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "cup", "group": "_up", "pos": "Noun", "adult": false, "has": ["a handle","a saucer"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "cup", "group": "_up", "pos": "Noun", "adult": false, "has": ["a handle","a saucer"], "in": [], "on": [], "from": [], "is": ["a mug"], "typeOf": ["china"], "supertypeOf": [], "nearlyIs": ["a glass"]},</v>
       </c>
       <c r="B239" t="str">
         <f t="shared" si="37"/>
@@ -18609,11 +19947,11 @@
       </c>
       <c r="F239" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"a mug"</v>
       </c>
       <c r="G239" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"china"</v>
       </c>
       <c r="H239" t="str">
         <f t="shared" si="43"/>
@@ -18621,7 +19959,7 @@
       </c>
       <c r="I239" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a glass"</v>
       </c>
       <c r="J239" t="s">
         <v>348</v>
@@ -18638,8 +19976,17 @@
       <c r="O239" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z239" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AC239" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AI239" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="240" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="36"/>
         <v>{"spelling": "down", "group": "_own", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -18686,10 +20033,10 @@
         <v>437</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "town", "group": "_own", "pos": "Noun", "adult": false, "has": ["inhabitants","buildings","a mayor"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "town", "group": "_own", "pos": "Noun", "adult": false, "has": ["inhabitants","buildings","a mayor"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a settlement"], "supertypeOf": [], "nearlyIs": ["a village","a city"]},</v>
       </c>
       <c r="B241" t="str">
         <f t="shared" si="37"/>
@@ -18713,7 +20060,7 @@
       </c>
       <c r="G241" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a settlement"</v>
       </c>
       <c r="H241" t="str">
         <f t="shared" si="43"/>
@@ -18721,7 +20068,7 @@
       </c>
       <c r="I241" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a village","a city"</v>
       </c>
       <c r="J241" t="s">
         <v>352</v>
@@ -18741,11 +20088,20 @@
       <c r="P241" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC241" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AI241" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AJ241" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "gown", "group": "_own", "pos": "Noun", "adult": false, "has": ["seams","material"], "in": ["a closet","a wardrobe"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "gown", "group": "_own", "pos": "Noun", "adult": false, "has": ["seams","material"], "in": ["a closet","a wardrobe"], "on": [], "from": [], "is": [], "typeOf": ["a garment","clothing"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B242" t="str">
         <f t="shared" si="37"/>
@@ -18769,7 +20125,7 @@
       </c>
       <c r="G242" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a garment","clothing"</v>
       </c>
       <c r="H242" t="str">
         <f t="shared" si="43"/>
@@ -18800,11 +20156,17 @@
       <c r="R242" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC242" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AD242" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "law", "group": "_aw", "pos": "Noun", "adult": false, "has": ["rules"], "in": ["court"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "law", "group": "_aw", "pos": "Noun", "adult": false, "has": ["rules"], "in": ["court"], "on": [], "from": [], "is": [], "typeOf": ["a rule"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B243" t="str">
         <f t="shared" si="37"/>
@@ -18828,7 +20190,7 @@
       </c>
       <c r="G243" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a rule"</v>
       </c>
       <c r="H243" t="str">
         <f t="shared" si="43"/>
@@ -18853,11 +20215,14 @@
       <c r="Q243" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC243" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "awe", "group": "_aw", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "awe", "group": "_aw", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["amazement"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["worship"]},</v>
       </c>
       <c r="B244" t="str">
         <f t="shared" si="37"/>
@@ -18877,7 +20242,7 @@
       </c>
       <c r="F244" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>"amazement"</v>
       </c>
       <c r="G244" t="str">
         <f t="shared" si="42"/>
@@ -18889,7 +20254,7 @@
       </c>
       <c r="I244" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"worship"</v>
       </c>
       <c r="J244" t="s">
         <v>356</v>
@@ -18900,11 +20265,17 @@
       <c r="M244" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z244" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AI244" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "paw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["claws"], "in": [], "on": ["a dog's leg"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "paw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["claws"], "in": [], "on": ["a dog's leg"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a hand"]},</v>
       </c>
       <c r="B245" t="str">
         <f t="shared" si="37"/>
@@ -18936,7 +20307,7 @@
       </c>
       <c r="I245" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a hand"</v>
       </c>
       <c r="J245" t="s">
         <v>356</v>
@@ -18953,11 +20324,14 @@
       <c r="T245" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AI245" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "saw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth"], "in": ["a toolbox","a workshop"], "on": ["a workbench"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "saw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth"], "in": ["a toolbox","a workshop"], "on": ["a workbench"], "from": [], "is": [], "typeOf": ["a tool"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B246" t="str">
         <f t="shared" si="37"/>
@@ -18981,7 +20355,7 @@
       </c>
       <c r="G246" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a tool"</v>
       </c>
       <c r="H246" t="str">
         <f t="shared" si="43"/>
@@ -19012,11 +20386,14 @@
       <c r="T246" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC246" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "jaw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth","bones"], "in": [], "on": ["a face"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "jaw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth","bones"], "in": [], "on": ["a face"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a mouth","a chin"]},</v>
       </c>
       <c r="B247" t="str">
         <f t="shared" si="37"/>
@@ -19048,7 +20425,7 @@
       </c>
       <c r="I247" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a mouth","a chin"</v>
       </c>
       <c r="J247" t="s">
         <v>356</v>
@@ -19068,11 +20445,17 @@
       <c r="T247" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AI247" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AJ247" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "caw", "group": "_aw", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a raven","a crow","a blackbird"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "caw", "group": "_aw", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a raven","a crow","a blackbird"], "is": [], "typeOf": ["a noise","a birdcall"], "supertypeOf": [], "nearlyIs": ["a squawk"]},</v>
       </c>
       <c r="B248" t="str">
         <f t="shared" si="37"/>
@@ -19096,7 +20479,7 @@
       </c>
       <c r="G248" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a noise","a birdcall"</v>
       </c>
       <c r="H248" t="str">
         <f t="shared" si="43"/>
@@ -19104,7 +20487,7 @@
       </c>
       <c r="I248" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a squawk"</v>
       </c>
       <c r="J248" t="s">
         <v>356</v>
@@ -19124,11 +20507,20 @@
       <c r="Y248" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC248" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD248" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AI248" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "maw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth","a tongue"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "maw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth","a tongue"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a mouth"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B249" t="str">
         <f t="shared" si="37"/>
@@ -19152,7 +20544,7 @@
       </c>
       <c r="G249" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a mouth"</v>
       </c>
       <c r="H249" t="str">
         <f t="shared" si="43"/>
@@ -19177,11 +20569,14 @@
       <c r="O249" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC249" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "call", "group": "_all", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "call", "group": "_all", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a noise","a request"], "supertypeOf": [], "nearlyIs": ["a shout"]},</v>
       </c>
       <c r="B250" t="str">
         <f t="shared" si="37"/>
@@ -19205,7 +20600,7 @@
       </c>
       <c r="G250" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a noise","a request"</v>
       </c>
       <c r="H250" t="str">
         <f t="shared" si="43"/>
@@ -19213,7 +20608,7 @@
       </c>
       <c r="I250" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a shout"</v>
       </c>
       <c r="J250" t="s">
         <v>367</v>
@@ -19224,11 +20619,20 @@
       <c r="M250" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC250" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD250" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AI250" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "wall", "group": "_all", "pos": "Noun", "adult": false, "has": ["bricks","mortar"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "wall", "group": "_all", "pos": "Noun", "adult": false, "has": ["bricks","mortar"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a fence"], "nearlyIs": []},</v>
       </c>
       <c r="B251" t="str">
         <f t="shared" si="37"/>
@@ -19256,7 +20660,7 @@
       </c>
       <c r="H251" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"a fence"</v>
       </c>
       <c r="I251" t="str">
         <f t="shared" si="44"/>
@@ -19277,11 +20681,14 @@
       <c r="O251" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AF251" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "drawl", "group": "_all", "pos": "Noun", "adult": false, "has": ["an accent"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "drawl", "group": "_all", "pos": "Noun", "adult": false, "has": ["an accent"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["an accent"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B252" t="str">
         <f t="shared" si="37"/>
@@ -19305,7 +20712,7 @@
       </c>
       <c r="G252" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"an accent"</v>
       </c>
       <c r="H252" t="str">
         <f t="shared" si="43"/>
@@ -19327,11 +20734,14 @@
       <c r="N252" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC252" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "hall", "group": "_all", "pos": "Noun", "adult": false, "has": ["rooms"], "in": ["a house","a mansion"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "hall", "group": "_all", "pos": "Noun", "adult": false, "has": ["rooms"], "in": ["a house","a mansion"], "on": [], "from": [], "is": [], "typeOf": ["a room"], "supertypeOf": ["a throne-room"], "nearlyIs": []},</v>
       </c>
       <c r="B253" t="str">
         <f t="shared" si="37"/>
@@ -19355,11 +20765,11 @@
       </c>
       <c r="G253" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a room"</v>
       </c>
       <c r="H253" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"a throne-room"</v>
       </c>
       <c r="I253" t="str">
         <f t="shared" si="44"/>
@@ -19383,11 +20793,17 @@
       <c r="R253" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC253" t="s">
+        <v>1424</v>
+      </c>
+      <c r="AF253" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "ball", "group": "_all", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a pitch","a stadium"], "from": ["a bowler","a pitcher"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "ball", "group": "_all", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a pitch","a stadium"], "from": ["a bowler","a pitcher"], "is": [], "typeOf": ["a sphere"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B254" t="str">
         <f t="shared" si="37"/>
@@ -19411,7 +20827,7 @@
       </c>
       <c r="G254" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a sphere"</v>
       </c>
       <c r="H254" t="str">
         <f t="shared" si="43"/>
@@ -19442,11 +20858,14 @@
       <c r="X254" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC254" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "maul", "group": "_all", "pos": "Noun", "adult": false, "has": [], "in": ["an arsenal"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "maul", "group": "_all", "pos": "Noun", "adult": false, "has": [], "in": ["an arsenal"], "on": [], "from": [], "is": [], "typeOf": ["a hammer","a weapon","a club"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B255" t="str">
         <f t="shared" si="37"/>
@@ -19470,7 +20889,7 @@
       </c>
       <c r="G255" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a hammer","a weapon","a club"</v>
       </c>
       <c r="H255" t="str">
         <f t="shared" si="43"/>
@@ -19492,11 +20911,20 @@
       <c r="Q255" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC255" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AD255" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AE255" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "shawl", "group": "_all", "pos": "Noun", "adult": false, "has": ["fabric"], "in": [], "on": ["an old lady"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "shawl", "group": "_all", "pos": "Noun", "adult": false, "has": ["fabric"], "in": [], "on": ["an old lady"], "from": [], "is": [], "typeOf": ["clothing","a garment"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B256" t="str">
         <f t="shared" si="37"/>
@@ -19520,7 +20948,7 @@
       </c>
       <c r="G256" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"clothing","a garment"</v>
       </c>
       <c r="H256" t="str">
         <f t="shared" si="43"/>
@@ -19545,11 +20973,17 @@
       <c r="T256" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC256" t="s">
+        <v>974</v>
+      </c>
+      <c r="AD256" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "man", "group": "_an", "pos": "Noun", "adult": false, "has": ["arms","legs","a body"], "in": [], "on": [], "from": ["Mars"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "man", "group": "_an", "pos": "Noun", "adult": false, "has": ["arms","legs","a body"], "in": [], "on": [], "from": ["Mars"], "is": [], "typeOf": ["a person"], "supertypeOf": ["a boy","a chap","a gent"], "nearlyIs": []},</v>
       </c>
       <c r="B257" t="str">
         <f t="shared" si="37"/>
@@ -19573,11 +21007,11 @@
       </c>
       <c r="G257" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a person"</v>
       </c>
       <c r="H257" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"a boy","a chap","a gent"</v>
       </c>
       <c r="I257" t="str">
         <f t="shared" si="44"/>
@@ -19604,11 +21038,23 @@
       <c r="W257" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC257" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AF257" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AG257" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AH257" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "tan", "group": "_an", "pos": "Noun", "adult": false, "has": ["skin","freckles"], "in": [], "on": [], "from": ["holiday","vacation"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "tan", "group": "_an", "pos": "Noun", "adult": false, "has": ["skin","freckles"], "in": [], "on": [], "from": ["holiday","vacation"], "is": [], "typeOf": ["a colouration","a colour"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B258" t="str">
         <f t="shared" si="37"/>
@@ -19632,7 +21078,7 @@
       </c>
       <c r="G258" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>"a colouration","a colour"</v>
       </c>
       <c r="H258" t="str">
         <f t="shared" si="43"/>
@@ -19663,11 +21109,17 @@
       <c r="X258" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC258" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AD258" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
         <f t="shared" si="36"/>
-        <v>{"spelling": "pan", "group": "_an", "pos": "Noun", "adult": false, "has": ["a handle"], "in": ["the kitchen","a kitchen"], "on": ["the stove","sdccc "], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "pan", "group": "_an", "pos": "Noun", "adult": false, "has": ["a handle"], "in": ["the kitchen","a kitchen"], "on": ["the stove"], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a wok"], "nearlyIs": ["a pot"]},</v>
       </c>
       <c r="B259" t="str">
         <f t="shared" si="37"/>
@@ -19679,7 +21131,7 @@
       </c>
       <c r="D259" t="str">
         <f t="shared" si="39"/>
-        <v>"the stove","sdccc "</v>
+        <v>"the stove"</v>
       </c>
       <c r="E259" t="str">
         <f t="shared" si="40"/>
@@ -19695,11 +21147,11 @@
       </c>
       <c r="H259" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>"a wok"</v>
       </c>
       <c r="I259" t="str">
         <f t="shared" si="44"/>
-        <v/>
+        <v>"a pot"</v>
       </c>
       <c r="J259" t="s">
         <v>381</v>
@@ -19722,14 +21174,17 @@
       <c r="T259" t="s">
         <v>823</v>
       </c>
-      <c r="U259" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AF259" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AI259" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
         <f t="shared" ref="A260:A301" si="45">CONCATENATE("{""spelling"": """,K260,""", ""group"": """,J260,""", ""pos"": """,M260,""", ""adult"": ",IF(L260=TRUE,"true","false"),", ""has"": [",B260,"]",", ""in"": [",C260,"]",", ""on"": [",D260,"]",", ""from"": [",E260,"]",", ""is"": [",F260,"]",", ""typeOf"": [",G260,"]",", ""supertypeOf"": [",H260,"]",", ""nearlyIs"": [",I260,"]},")</f>
-        <v>{"spelling": "fan", "group": "_an", "pos": "Noun", "adult": false, "has": ["blades"], "in": ["the summer"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "fan", "group": "_an", "pos": "Noun", "adult": false, "has": ["blades"], "in": ["the summer"], "on": [], "from": [], "is": [], "typeOf": ["an appliance"], "supertypeOf": [], "nearlyIs": ["an air conditioner"]},</v>
       </c>
       <c r="B260" t="str">
         <f t="shared" ref="B260:B301" si="46">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",N260,""",""",O260,""",""",P260,""""),",""""",""),"""""","")</f>
@@ -19753,7 +21208,7 @@
       </c>
       <c r="G260" t="str">
         <f t="shared" ref="G260:G301" si="51">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AC260,""",""",AD260,""",""",AE260,""""),",""""",""),"""""","")</f>
-        <v/>
+        <v>"an appliance"</v>
       </c>
       <c r="H260" t="str">
         <f t="shared" ref="H260:H301" si="52">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AF260,""",""",AG260,""",""",AH260,""""),",""""",""),"""""","")</f>
@@ -19761,7 +21216,7 @@
       </c>
       <c r="I260" t="str">
         <f t="shared" ref="I260:I301" si="53">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AI260,""",""",AJ260,""",""",AK260,""""),",""""",""),"""""","")</f>
-        <v/>
+        <v>"an air conditioner"</v>
       </c>
       <c r="J260" t="s">
         <v>381</v>
@@ -19776,13 +21231,19 @@
         <v>568</v>
       </c>
       <c r="Q260" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AI260" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "can", "group": "_an", "pos": "Noun", "adult": false, "has": ["a lid","an opener","a filling"], "in": ["the pantry"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "can", "group": "_an", "pos": "Noun", "adult": false, "has": ["a lid","an opener","a filling"], "in": ["the pantry"], "on": [], "from": [], "is": ["a tin"], "typeOf": ["packaging"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B261" t="str">
         <f t="shared" si="46"/>
@@ -19802,11 +21263,11 @@
       </c>
       <c r="F261" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a tin"</v>
       </c>
       <c r="G261" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"packaging"</v>
       </c>
       <c r="H261" t="str">
         <f t="shared" si="52"/>
@@ -19835,13 +21296,19 @@
         <v>395</v>
       </c>
       <c r="Q261" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Z261" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AC261" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "ban", "group": "_an", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "ban", "group": "_an", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a restriction","a law","a rule"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B262" t="str">
         <f t="shared" si="46"/>
@@ -19865,7 +21332,7 @@
       </c>
       <c r="G262" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a restriction","a law","a rule"</v>
       </c>
       <c r="H262" t="str">
         <f t="shared" si="52"/>
@@ -19884,11 +21351,20 @@
       <c r="M262" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC262" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AD262" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AE262" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="263" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "nan", "group": "_an", "pos": "Noun", "adult": false, "has": ["grandchildren","grandkids"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "nan", "group": "_an", "pos": "Noun", "adult": false, "has": ["grandchildren","grandkids"], "in": [], "on": [], "from": [], "is": ["a grandma","a grandmother"], "typeOf": ["a grandparent","a relative","a woman"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B263" t="str">
         <f t="shared" si="46"/>
@@ -19908,11 +21384,11 @@
       </c>
       <c r="F263" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a grandma","a grandmother"</v>
       </c>
       <c r="G263" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a grandparent","a relative","a woman"</v>
       </c>
       <c r="H263" t="str">
         <f t="shared" si="52"/>
@@ -19937,11 +21413,26 @@
       <c r="O263" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z263" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AA263" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AC263" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AD263" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AE263" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="264" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "dog", "group": "_og", "pos": "Noun", "adult": false, "has": ["a tail","paws","a collar"], "in": ["a kennel","the pound"], "on": [], "from": ["the pound"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "dog", "group": "_og", "pos": "Noun", "adult": false, "has": ["a tail","paws","a collar"], "in": ["a kennel","the pound"], "on": [], "from": ["the pound"], "is": ["a hound"], "typeOf": ["a pet","an animal","a mammal"], "supertypeOf": ["a pup","a puppy"], "nearlyIs": []},</v>
       </c>
       <c r="B264" t="str">
         <f t="shared" si="46"/>
@@ -19961,25 +21452,25 @@
       </c>
       <c r="F264" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a hound"</v>
       </c>
       <c r="G264" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a pet","an animal","a mammal"</v>
       </c>
       <c r="H264" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>"a pup","a puppy"</v>
       </c>
       <c r="I264" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="J264" t="s">
+        <v>829</v>
+      </c>
+      <c r="K264" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="K264" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="M264" t="s">
         <v>218</v>
@@ -19991,7 +21482,7 @@
         <v>551</v>
       </c>
       <c r="P264" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Q264" t="s">
         <v>600</v>
@@ -20002,11 +21493,29 @@
       <c r="W264" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z264" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AC264" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AD264" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE264" t="s">
+        <v>967</v>
+      </c>
+      <c r="AF264" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AG264" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="265" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "fog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "fog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a mist"], "typeOf": [], "supertypeOf": ["a smog"], "nearlyIs": ["a cloud"]},</v>
       </c>
       <c r="B265" t="str">
         <f t="shared" si="46"/>
@@ -20026,7 +21535,7 @@
       </c>
       <c r="F265" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a mist"</v>
       </c>
       <c r="G265" t="str">
         <f t="shared" si="51"/>
@@ -20034,26 +21543,35 @@
       </c>
       <c r="H265" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>"a smog"</v>
       </c>
       <c r="I265" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>"a cloud"</v>
       </c>
       <c r="J265" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M265" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z265" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AF265" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AI265" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "hog", "group": "_og", "pos": "Noun", "adult": false, "has": ["a snout","a curly tail","bristles"], "in": ["a sty","a farmyard","a farm"], "on": [], "from": ["a farmyard","a farm"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "hog", "group": "_og", "pos": "Noun", "adult": false, "has": ["a snout","a curly tail","bristles"], "in": ["a sty","a farmyard","a farm"], "on": [], "from": ["a farmyard","a farm"], "is": ["a pig"], "typeOf": ["an animal","a farm animal","a mammal"], "supertypeOf": ["a piglet","a boar"], "nearlyIs": []},</v>
       </c>
       <c r="B266" t="str">
         <f t="shared" si="46"/>
@@ -20073,40 +21591,40 @@
       </c>
       <c r="F266" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a pig"</v>
       </c>
       <c r="G266" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"an animal","a farm animal","a mammal"</v>
       </c>
       <c r="H266" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>"a piglet","a boar"</v>
       </c>
       <c r="I266" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="J266" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M266" t="s">
         <v>218</v>
       </c>
       <c r="N266" t="s">
+        <v>843</v>
+      </c>
+      <c r="O266" t="s">
         <v>844</v>
       </c>
-      <c r="O266" t="s">
+      <c r="P266" t="s">
         <v>845</v>
       </c>
-      <c r="P266" t="s">
+      <c r="Q266" t="s">
         <v>846</v>
-      </c>
-      <c r="Q266" t="s">
-        <v>847</v>
       </c>
       <c r="R266" t="s">
         <v>651</v>
@@ -20120,11 +21638,29 @@
       <c r="X266" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z266" t="s">
+        <v>507</v>
+      </c>
+      <c r="AC266" t="s">
+        <v>783</v>
+      </c>
+      <c r="AD266" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AE266" t="s">
+        <v>967</v>
+      </c>
+      <c r="AF266" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AG266" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "jog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "jog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a run"], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B267" t="str">
         <f t="shared" si="46"/>
@@ -20144,7 +21680,7 @@
       </c>
       <c r="F267" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a run"</v>
       </c>
       <c r="G267" t="str">
         <f t="shared" si="51"/>
@@ -20159,19 +21695,22 @@
         <v/>
       </c>
       <c r="J267" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="M267" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z267" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A268" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "log", "group": "_og", "pos": "Noun", "adult": false, "has": ["rings","bark"], "in": ["a fireplace","a bonfire"], "on": ["a bonfire","a fire"], "from": ["a woodcutter","a lumberjack"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "log", "group": "_og", "pos": "Noun", "adult": false, "has": ["rings","bark"], "in": ["a fireplace","a bonfire"], "on": ["a bonfire","a fire"], "from": ["a woodcutter","a lumberjack"], "is": [], "typeOf": ["wood","firewood"], "supertypeOf": [], "nearlyIs": ["a plank"]},</v>
       </c>
       <c r="B268" t="str">
         <f t="shared" si="46"/>
@@ -20195,7 +21734,7 @@
       </c>
       <c r="G268" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"wood","firewood"</v>
       </c>
       <c r="H268" t="str">
         <f t="shared" si="52"/>
@@ -20203,46 +21742,55 @@
       </c>
       <c r="I268" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>"a plank"</v>
       </c>
       <c r="J268" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M268" t="s">
         <v>218</v>
       </c>
       <c r="N268" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="O268" t="s">
         <v>438</v>
       </c>
       <c r="Q268" t="s">
+        <v>849</v>
+      </c>
+      <c r="R268" t="s">
         <v>850</v>
       </c>
-      <c r="R268" t="s">
+      <c r="T268" t="s">
+        <v>850</v>
+      </c>
+      <c r="U268" t="s">
         <v>851</v>
       </c>
-      <c r="T268" t="s">
-        <v>851</v>
-      </c>
-      <c r="U268" t="s">
+      <c r="W268" t="s">
+        <v>848</v>
+      </c>
+      <c r="X268" t="s">
         <v>852</v>
       </c>
-      <c r="W268" t="s">
-        <v>849</v>
-      </c>
-      <c r="X268" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC268" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AD268" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AI268" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "cog", "group": "_og", "pos": "Noun", "adult": false, "has": ["teeth"], "in": ["a clock","a machine"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "cog", "group": "_og", "pos": "Noun", "adult": false, "has": ["teeth"], "in": ["a clock","a machine"], "on": [], "from": [], "is": ["a gear"], "typeOf": ["a wheel","a mechanism"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B269" t="str">
         <f t="shared" si="46"/>
@@ -20262,11 +21810,11 @@
       </c>
       <c r="F269" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a gear"</v>
       </c>
       <c r="G269" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a wheel","a mechanism"</v>
       </c>
       <c r="H269" t="str">
         <f t="shared" si="52"/>
@@ -20277,10 +21825,10 @@
         <v/>
       </c>
       <c r="J269" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="M269" t="s">
         <v>218</v>
@@ -20289,16 +21837,25 @@
         <v>431</v>
       </c>
       <c r="Q269" t="s">
+        <v>853</v>
+      </c>
+      <c r="R269" t="s">
         <v>854</v>
       </c>
-      <c r="R269" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z269" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AC269" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AD269" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "bog", "group": "_og", "pos": "Noun", "adult": false, "has": ["reeds","mosquitos","crocodiles"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "bog", "group": "_og", "pos": "Noun", "adult": false, "has": ["reeds","mosquitos","crocodiles"], "in": [], "on": [], "from": [], "is": ["a swamp","a mire"], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B270" t="str">
         <f t="shared" si="46"/>
@@ -20318,7 +21875,7 @@
       </c>
       <c r="F270" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a swamp","a mire"</v>
       </c>
       <c r="G270" t="str">
         <f t="shared" si="51"/>
@@ -20333,25 +21890,31 @@
         <v/>
       </c>
       <c r="J270" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="M270" t="s">
         <v>218</v>
       </c>
       <c r="N270" t="s">
+        <v>855</v>
+      </c>
+      <c r="O270" t="s">
         <v>856</v>
       </c>
-      <c r="O270" t="s">
+      <c r="P270" t="s">
         <v>857</v>
       </c>
-      <c r="P270" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z270" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AA270" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
         <f t="shared" si="45"/>
         <v>{"spelling": "blog", "group": "_og", "pos": "Noun", "adult": false, "has": ["articles","pictures"], "in": [], "on": ["the internet","Wordpress","Tumblr"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -20389,34 +21952,34 @@
         <v/>
       </c>
       <c r="J271" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="M271" t="s">
         <v>218</v>
       </c>
       <c r="N271" t="s">
+        <v>858</v>
+      </c>
+      <c r="O271" t="s">
         <v>859</v>
       </c>
-      <c r="O271" t="s">
+      <c r="T271" t="s">
         <v>860</v>
       </c>
-      <c r="T271" t="s">
+      <c r="U271" t="s">
         <v>861</v>
       </c>
-      <c r="U271" t="s">
+      <c r="V271" t="s">
         <v>862</v>
       </c>
-      <c r="V271" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "sprog", "group": "_og", "pos": "Noun", "adult": false, "has": ["parents","a diaper","a dummy"], "in": ["diapers","school","kindergarten"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "sprog", "group": "_og", "pos": "Noun", "adult": false, "has": ["parents","a diaper","a dummy"], "in": ["diapers","school","kindergarten"], "on": [], "from": [], "is": ["a child","a kid","a youth"], "typeOf": ["a person"], "supertypeOf": ["a baby","a toddler","an urchin"], "nearlyIs": []},</v>
       </c>
       <c r="B272" t="str">
         <f t="shared" si="46"/>
@@ -20436,25 +21999,25 @@
       </c>
       <c r="F272" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a child","a kid","a youth"</v>
       </c>
       <c r="G272" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a person"</v>
       </c>
       <c r="H272" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>"a baby","a toddler","an urchin"</v>
       </c>
       <c r="I272" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="J272" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M272" t="s">
         <v>218</v>
@@ -20463,25 +22026,46 @@
         <v>379</v>
       </c>
       <c r="O272" t="s">
+        <v>864</v>
+      </c>
+      <c r="P272" t="s">
         <v>865</v>
       </c>
-      <c r="P272" t="s">
-        <v>866</v>
-      </c>
       <c r="Q272" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="R272" t="s">
         <v>784</v>
       </c>
       <c r="S272" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+      <c r="Z272" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA272" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB272" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AC272" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AF272" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AG272" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AH272" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="273" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "slog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "slog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a drudgery"], "typeOf": ["a hardship"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B273" t="str">
         <f t="shared" si="46"/>
@@ -20501,11 +22085,11 @@
       </c>
       <c r="F273" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a drudgery"</v>
       </c>
       <c r="G273" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a hardship"</v>
       </c>
       <c r="H273" t="str">
         <f t="shared" si="52"/>
@@ -20516,19 +22100,25 @@
         <v/>
       </c>
       <c r="J273" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M273" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z273" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AC273" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="274" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "snog", "group": "_og", "pos": "Noun", "adult": false, "has": ["tongues"], "in": [], "on": [], "from": ["two lovers"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "snog", "group": "_og", "pos": "Noun", "adult": false, "has": ["tongues"], "in": [], "on": [], "from": ["two lovers"], "is": [], "typeOf": ["a kiss"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B274" t="str">
         <f t="shared" si="46"/>
@@ -20552,7 +22142,7 @@
       </c>
       <c r="G274" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a kiss"</v>
       </c>
       <c r="H274" t="str">
         <f t="shared" si="52"/>
@@ -20563,25 +22153,28 @@
         <v/>
       </c>
       <c r="J274" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="M274" t="s">
         <v>218</v>
       </c>
       <c r="N274" t="s">
+        <v>867</v>
+      </c>
+      <c r="W274" t="s">
         <v>868</v>
       </c>
-      <c r="W274" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC274" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="275" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "smog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a chimney","a factory"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "smog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a chimney","a factory"], "is": [], "typeOf": ["a fog"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B275" t="str">
         <f t="shared" si="46"/>
@@ -20605,7 +22198,7 @@
       </c>
       <c r="G275" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a fog"</v>
       </c>
       <c r="H275" t="str">
         <f t="shared" si="52"/>
@@ -20616,22 +22209,25 @@
         <v/>
       </c>
       <c r="J275" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="M275" t="s">
         <v>218</v>
       </c>
       <c r="W275" t="s">
+        <v>869</v>
+      </c>
+      <c r="X275" t="s">
         <v>870</v>
       </c>
-      <c r="X275" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC275" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="276" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
         <f t="shared" si="45"/>
         <v>{"spelling": "hot", "group": "_ot", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -20669,19 +22265,19 @@
         <v/>
       </c>
       <c r="J276" t="s">
+        <v>871</v>
+      </c>
+      <c r="K276" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="K276" s="1" t="s">
-        <v>873</v>
       </c>
       <c r="M276" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "watt", "group": "_ot", "pos": "Noun", "adult": false, "has": ["power"], "in": ["a circuit","a wire"], "on": [], "from": ["a generator"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "watt", "group": "_ot", "pos": "Noun", "adult": false, "has": ["power"], "in": ["a circuit","a wire"], "on": [], "from": ["a generator"], "is": [], "typeOf": ["a measurement","a unit"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B277" t="str">
         <f t="shared" si="46"/>
@@ -20705,7 +22301,7 @@
       </c>
       <c r="G277" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a measurement","a unit"</v>
       </c>
       <c r="H277" t="str">
         <f t="shared" si="52"/>
@@ -20716,31 +22312,37 @@
         <v/>
       </c>
       <c r="J277" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M277" t="s">
         <v>218</v>
       </c>
       <c r="N277" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>886</v>
+      </c>
+      <c r="R277" t="s">
         <v>888</v>
       </c>
-      <c r="Q277" t="s">
-        <v>887</v>
-      </c>
-      <c r="R277" t="s">
+      <c r="W277" t="s">
         <v>889</v>
       </c>
-      <c r="W277" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC277" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AD277" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "tot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["parents","a diaper","a dummy"], "in": ["diapers","school","kindergarten"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "tot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["parents","a diaper","a dummy"], "in": ["diapers","school","kindergarten"], "on": [], "from": [], "is": ["a child","a kid","a youth"], "typeOf": ["a person"], "supertypeOf": ["a baby","a toddler","an urchin"], "nearlyIs": []},</v>
       </c>
       <c r="B278" t="str">
         <f t="shared" si="46"/>
@@ -20760,25 +22362,25 @@
       </c>
       <c r="F278" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a child","a kid","a youth"</v>
       </c>
       <c r="G278" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a person"</v>
       </c>
       <c r="H278" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>"a baby","a toddler","an urchin"</v>
       </c>
       <c r="I278" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="J278" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M278" t="s">
         <v>218</v>
@@ -20787,25 +22389,46 @@
         <v>379</v>
       </c>
       <c r="O278" t="s">
+        <v>864</v>
+      </c>
+      <c r="P278" t="s">
         <v>865</v>
       </c>
-      <c r="P278" t="s">
-        <v>866</v>
-      </c>
       <c r="Q278" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="R278" t="s">
         <v>784</v>
       </c>
       <c r="S278" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+      <c r="Z278" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA278" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB278" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AC278" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AF278" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AG278" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AH278" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "yacht", "group": "_ot", "pos": "Noun", "adult": false, "has": ["sails","a mast","a skipper"], "in": ["port"], "on": ["the seas","a lake"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "yacht", "group": "_ot", "pos": "Noun", "adult": false, "has": ["sails","a mast","a skipper"], "in": ["port"], "on": ["the seas","a lake"], "from": [], "is": [], "typeOf": ["a boat","a ship","a vehicle"], "supertypeOf": [], "nearlyIs": ["a sailboat"]},</v>
       </c>
       <c r="B279" t="str">
         <f t="shared" si="46"/>
@@ -20829,7 +22452,7 @@
       </c>
       <c r="G279" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a boat","a ship","a vehicle"</v>
       </c>
       <c r="H279" t="str">
         <f t="shared" si="52"/>
@@ -20837,13 +22460,13 @@
       </c>
       <c r="I279" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>"a sailboat"</v>
       </c>
       <c r="J279" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M279" t="s">
         <v>218</v>
@@ -20855,22 +22478,34 @@
         <v>283</v>
       </c>
       <c r="P279" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="Q279" t="s">
         <v>636</v>
       </c>
       <c r="T279" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="U279" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC279" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AD279" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AE279" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AI279" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "pot", "group": "_ot", "pos": "Noun", "adult": true, "has": ["a lid","a handle"], "in": ["a kitchen","a bong","a joint"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "pot", "group": "_ot", "pos": "Noun", "adult": true, "has": ["a lid","a handle"], "in": ["a kitchen","a bong","a joint"], "on": [], "from": [], "is": ["weed","marijuana"], "typeOf": ["a drug"], "supertypeOf": ["a joint"], "nearlyIs": ["a pan"]},</v>
       </c>
       <c r="B280" t="str">
         <f t="shared" si="46"/>
@@ -20890,25 +22525,25 @@
       </c>
       <c r="F280" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"weed","marijuana"</v>
       </c>
       <c r="G280" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a drug"</v>
       </c>
       <c r="H280" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>"a joint"</v>
       </c>
       <c r="I280" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>"a pan"</v>
       </c>
       <c r="J280" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L280" t="b">
         <v>1</v>
@@ -20926,16 +22561,31 @@
         <v>496</v>
       </c>
       <c r="R280" t="s">
+        <v>892</v>
+      </c>
+      <c r="S280" t="s">
         <v>893</v>
       </c>
-      <c r="S280" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z280" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AA280" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AC280" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AF280" t="s">
+        <v>893</v>
+      </c>
+      <c r="AI280" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "plot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["conspirators"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "plot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["conspirators"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a plan"], "supertypeOf": ["a scheme"], "nearlyIs": []},</v>
       </c>
       <c r="B281" t="str">
         <f t="shared" si="46"/>
@@ -20959,33 +22609,39 @@
       </c>
       <c r="G281" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a plan"</v>
       </c>
       <c r="H281" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>"a scheme"</v>
       </c>
       <c r="I281" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="J281" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M281" t="s">
         <v>218</v>
       </c>
       <c r="N281" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+      <c r="AC281" t="s">
+        <v>1244</v>
+      </c>
+      <c r="AF281" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "snot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": ["a nostril","a tissue","a nose"], "on": [], "from": ["a nose","a nostril"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "snot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": ["a nostril","a tissue","a nose"], "on": [], "from": ["a nose","a nostril"], "is": [], "typeOf": ["an emission"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B282" t="str">
         <f t="shared" si="46"/>
@@ -21009,7 +22665,7 @@
       </c>
       <c r="G282" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"an emission"</v>
       </c>
       <c r="H282" t="str">
         <f t="shared" si="52"/>
@@ -21020,34 +22676,37 @@
         <v/>
       </c>
       <c r="J282" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M282" t="s">
         <v>218</v>
       </c>
       <c r="Q282" t="s">
+        <v>895</v>
+      </c>
+      <c r="R282" t="s">
         <v>896</v>
       </c>
-      <c r="R282" t="s">
+      <c r="S282" t="s">
         <v>897</v>
       </c>
-      <c r="S282" t="s">
-        <v>898</v>
-      </c>
       <c r="W282" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="X282" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
+        <v>895</v>
+      </c>
+      <c r="AC282" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "dot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "dot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a spot"], "typeOf": ["a mark"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B283" t="str">
         <f t="shared" si="46"/>
@@ -21067,11 +22726,11 @@
       </c>
       <c r="F283" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a spot"</v>
       </c>
       <c r="G283" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a mark"</v>
       </c>
       <c r="H283" t="str">
         <f t="shared" si="52"/>
@@ -21082,19 +22741,25 @@
         <v/>
       </c>
       <c r="J283" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M283" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z283" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "lot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "lot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a load","masses"], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B284" t="str">
         <f t="shared" si="46"/>
@@ -21114,7 +22779,7 @@
       </c>
       <c r="F284" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a load","masses"</v>
       </c>
       <c r="G284" t="str">
         <f t="shared" si="51"/>
@@ -21129,19 +22794,25 @@
         <v/>
       </c>
       <c r="J284" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M284" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z284" t="s">
+        <v>1470</v>
+      </c>
+      <c r="AA284" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "cot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["a pillow","a blanker"], "in": ["a bedroom","a jail cell","a prison cell"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "cot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["a pillow","a blanker"], "in": ["a bedroom","a jail cell","a prison cell"], "on": [], "from": [], "is": [], "typeOf": ["a bed"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B285" t="str">
         <f t="shared" si="46"/>
@@ -21165,7 +22836,7 @@
       </c>
       <c r="G285" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a bed"</v>
       </c>
       <c r="H285" t="str">
         <f t="shared" si="52"/>
@@ -21176,10 +22847,10 @@
         <v/>
       </c>
       <c r="J285" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="M285" t="s">
         <v>218</v>
@@ -21188,22 +22859,25 @@
         <v>463</v>
       </c>
       <c r="O285" t="s">
+        <v>898</v>
+      </c>
+      <c r="Q285" t="s">
         <v>899</v>
       </c>
-      <c r="Q285" t="s">
+      <c r="R285" t="s">
         <v>900</v>
       </c>
-      <c r="R285" t="s">
+      <c r="S285" t="s">
         <v>901</v>
       </c>
-      <c r="S285" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC285" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="286" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "bot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["AI"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "bot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["AI"], "in": [], "on": [], "from": [], "is": ["an AI","an artificial intelligence"], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B286" t="str">
         <f t="shared" si="46"/>
@@ -21223,7 +22897,7 @@
       </c>
       <c r="F286" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"an AI","an artificial intelligence"</v>
       </c>
       <c r="G286" t="str">
         <f t="shared" si="51"/>
@@ -21238,22 +22912,28 @@
         <v/>
       </c>
       <c r="J286" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="M286" t="s">
         <v>218</v>
       </c>
       <c r="N286" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+      <c r="Z286" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AA286" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="287" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "knot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": ["a piece of rope","a tie","a string"], "on": [], "from": ["a boyscout"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "knot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": ["a piece of rope","a tie","a string"], "on": [], "from": ["a boyscout"], "is": [], "typeOf": ["a tie","a fastening"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B287" t="str">
         <f t="shared" si="46"/>
@@ -21277,7 +22957,7 @@
       </c>
       <c r="G287" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a tie","a fastening"</v>
       </c>
       <c r="H287" t="str">
         <f t="shared" si="52"/>
@@ -21288,28 +22968,34 @@
         <v/>
       </c>
       <c r="J287" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="M287" t="s">
         <v>218</v>
       </c>
       <c r="Q287" t="s">
+        <v>904</v>
+      </c>
+      <c r="R287" t="s">
         <v>905</v>
-      </c>
-      <c r="R287" t="s">
-        <v>906</v>
       </c>
       <c r="S287" t="s">
         <v>429</v>
       </c>
       <c r="W287" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+      <c r="AC287" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD287" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
         <f t="shared" si="45"/>
         <v>{"spelling": "clot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -21347,19 +23033,19 @@
         <v/>
       </c>
       <c r="J288" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M288" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "Scot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["bagpipes","a tartan","a kilt"], "in": ["Scotland","Edinburgh","Glasgow"], "on": [], "from": ["Scotland"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "Scot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["bagpipes","a tartan","a kilt"], "in": ["Scotland","Edinburgh","Glasgow"], "on": [], "from": ["Scotland"], "is": [], "typeOf": ["a Brit","a European"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B289" t="str">
         <f t="shared" si="46"/>
@@ -21383,7 +23069,7 @@
       </c>
       <c r="G289" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a Brit","a European"</v>
       </c>
       <c r="H289" t="str">
         <f t="shared" si="52"/>
@@ -21394,10 +23080,10 @@
         <v/>
       </c>
       <c r="J289" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M289" t="s">
         <v>218</v>
@@ -21406,28 +23092,34 @@
         <v>791</v>
       </c>
       <c r="O289" t="s">
+        <v>906</v>
+      </c>
+      <c r="P289" t="s">
         <v>907</v>
-      </c>
-      <c r="P289" t="s">
-        <v>908</v>
       </c>
       <c r="Q289" t="s">
         <v>621</v>
       </c>
       <c r="R289" t="s">
+        <v>908</v>
+      </c>
+      <c r="S289" t="s">
         <v>909</v>
-      </c>
-      <c r="S289" t="s">
-        <v>910</v>
       </c>
       <c r="W289" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AC289" t="s">
+        <v>1475</v>
+      </c>
+      <c r="AD289" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="290" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "leg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["a foot","a knee","a shin"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "leg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["a foot","a knee","a shin"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a limb","a body part"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B290" t="str">
         <f t="shared" si="46"/>
@@ -21451,7 +23143,7 @@
       </c>
       <c r="G290" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a limb","a body part"</v>
       </c>
       <c r="H290" t="str">
         <f t="shared" si="52"/>
@@ -21462,10 +23154,10 @@
         <v/>
       </c>
       <c r="J290" t="s">
+        <v>910</v>
+      </c>
+      <c r="K290" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="K290" s="1" t="s">
-        <v>912</v>
       </c>
       <c r="M290" t="s">
         <v>218</v>
@@ -21474,13 +23166,19 @@
         <v>667</v>
       </c>
       <c r="O290" t="s">
+        <v>914</v>
+      </c>
+      <c r="P290" t="s">
         <v>915</v>
       </c>
-      <c r="P290" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AC290" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AD290" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="291" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
         <f t="shared" si="45"/>
         <v>{"spelling": "peg", "group": "_eg", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a washing line"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -21518,22 +23216,22 @@
         <v/>
       </c>
       <c r="J291" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M291" t="s">
         <v>218</v>
       </c>
       <c r="T291" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="292" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "keg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["beer","ale"], "in": ["a brewery","a pub","a bar"], "on": [], "from": ["a brewery"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "keg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["beer","ale"], "in": ["a brewery","a pub","a bar"], "on": [], "from": ["a brewery"], "is": ["a cask"], "typeOf": ["a container"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B292" t="str">
         <f t="shared" si="46"/>
@@ -21553,11 +23251,11 @@
       </c>
       <c r="F292" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a cask"</v>
       </c>
       <c r="G292" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a container"</v>
       </c>
       <c r="H292" t="str">
         <f t="shared" si="52"/>
@@ -21568,37 +23266,43 @@
         <v/>
       </c>
       <c r="J292" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="M292" t="s">
         <v>218</v>
       </c>
       <c r="N292" t="s">
+        <v>917</v>
+      </c>
+      <c r="O292" t="s">
         <v>918</v>
       </c>
-      <c r="O292" t="s">
+      <c r="Q292" t="s">
         <v>919</v>
       </c>
-      <c r="Q292" t="s">
+      <c r="R292" t="s">
         <v>920</v>
-      </c>
-      <c r="R292" t="s">
-        <v>921</v>
       </c>
       <c r="S292" t="s">
         <v>794</v>
       </c>
       <c r="W292" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+      <c r="Z292" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AC292" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="293" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "pass", "group": "_ass", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "pass", "group": "_ass", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a gap"], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B293" t="str">
         <f t="shared" si="46"/>
@@ -21622,7 +23326,7 @@
       </c>
       <c r="G293" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a gap"</v>
       </c>
       <c r="H293" t="str">
         <f t="shared" si="52"/>
@@ -21633,19 +23337,22 @@
         <v/>
       </c>
       <c r="J293" t="s">
+        <v>921</v>
+      </c>
+      <c r="K293" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="K293" s="1" t="s">
-        <v>923</v>
-      </c>
       <c r="M293" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AC293" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="294" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "gas", "group": "_ass", "pos": "Noun", "adult": false, "has": ["a smell"], "in": ["a canister"], "on": [], "from": ["a fart"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "gas", "group": "_ass", "pos": "Noun", "adult": false, "has": ["a smell"], "in": ["a canister"], "on": [], "from": ["a fart"], "is": [], "typeOf": [], "supertypeOf": ["a fart","a vapour"], "nearlyIs": []},</v>
       </c>
       <c r="B294" t="str">
         <f t="shared" si="46"/>
@@ -21673,17 +23380,17 @@
       </c>
       <c r="H294" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>"a fart","a vapour"</v>
       </c>
       <c r="I294" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="J294" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="M294" t="s">
         <v>218</v>
@@ -21692,16 +23399,22 @@
         <v>399</v>
       </c>
       <c r="Q294" t="s">
+        <v>926</v>
+      </c>
+      <c r="W294" t="s">
         <v>927</v>
       </c>
-      <c r="W294" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AF294" t="s">
+        <v>927</v>
+      </c>
+      <c r="AG294" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="295" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "lass", "group": "_ass", "pos": "Noun", "adult": false, "has": ["a skirt"], "in": ["a dress","a skirt","pigtails"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "lass", "group": "_ass", "pos": "Noun", "adult": false, "has": ["a skirt"], "in": ["a dress","a skirt","pigtails"], "on": [], "from": [], "is": ["a girl"], "typeOf": ["a woman"], "supertypeOf": [], "nearlyIs": ["a lady"]},</v>
       </c>
       <c r="B295" t="str">
         <f t="shared" si="46"/>
@@ -21721,11 +23434,11 @@
       </c>
       <c r="F295" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a girl"</v>
       </c>
       <c r="G295" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a woman"</v>
       </c>
       <c r="H295" t="str">
         <f t="shared" si="52"/>
@@ -21733,34 +23446,43 @@
       </c>
       <c r="I295" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>"a lady"</v>
       </c>
       <c r="J295" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K295" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="M295" t="s">
         <v>218</v>
       </c>
       <c r="N295" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q295" t="s">
         <v>929</v>
       </c>
-      <c r="Q295" t="s">
+      <c r="R295" t="s">
+        <v>928</v>
+      </c>
+      <c r="S295" t="s">
         <v>930</v>
       </c>
-      <c r="R295" t="s">
-        <v>929</v>
-      </c>
-      <c r="S295" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z295" t="s">
+        <v>944</v>
+      </c>
+      <c r="AC295" t="s">
+        <v>943</v>
+      </c>
+      <c r="AI295" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="296" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "mass", "group": "_ass", "pos": "Noun", "adult": false, "has": ["weight"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "mass", "group": "_ass", "pos": "Noun", "adult": false, "has": ["weight"], "in": [], "on": [], "from": [], "is": ["a weight"], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
       </c>
       <c r="B296" t="str">
         <f t="shared" si="46"/>
@@ -21780,7 +23502,7 @@
       </c>
       <c r="F296" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a weight"</v>
       </c>
       <c r="G296" t="str">
         <f t="shared" si="51"/>
@@ -21795,22 +23517,25 @@
         <v/>
       </c>
       <c r="J296" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K296" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="M296" t="s">
         <v>218</v>
       </c>
       <c r="N296" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+      <c r="Z296" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="297" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "port", "group": "_ort", "pos": "Noun", "adult": false, "has": ["ships","boats","yachts"], "in": [], "on": ["the coast"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "port", "group": "_ort", "pos": "Noun", "adult": false, "has": ["ships","boats","yachts"], "in": [], "on": ["the coast"], "from": [], "is": ["a harbour"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a cove"]},</v>
       </c>
       <c r="B297" t="str">
         <f t="shared" si="46"/>
@@ -21830,7 +23555,7 @@
       </c>
       <c r="F297" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a harbour"</v>
       </c>
       <c r="G297" t="str">
         <f t="shared" si="51"/>
@@ -21842,10 +23567,10 @@
       </c>
       <c r="I297" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>"a cove"</v>
       </c>
       <c r="J297" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>636</v>
@@ -21857,19 +23582,25 @@
         <v>488</v>
       </c>
       <c r="O297" t="s">
+        <v>936</v>
+      </c>
+      <c r="P297" t="s">
         <v>937</v>
       </c>
-      <c r="P297" t="s">
+      <c r="T297" t="s">
         <v>938</v>
       </c>
-      <c r="T297" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z297" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AI297" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="298" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "wart", "group": "_ort", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "wart", "group": "_ort", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a blemish"], "supertypeOf": [], "nearlyIs": ["a mole","a spot"]},</v>
       </c>
       <c r="B298" t="str">
         <f t="shared" si="46"/>
@@ -21893,7 +23624,7 @@
       </c>
       <c r="G298" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a blemish"</v>
       </c>
       <c r="H298" t="str">
         <f t="shared" si="52"/>
@@ -21901,22 +23632,31 @@
       </c>
       <c r="I298" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>"a mole","a spot"</v>
       </c>
       <c r="J298" t="s">
+        <v>932</v>
+      </c>
+      <c r="K298" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="K298" s="1" t="s">
-        <v>934</v>
-      </c>
       <c r="M298" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AC298" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AI298" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AJ298" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="299" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "tort", "group": "_ort", "pos": "Noun", "adult": false, "has": ["a filling","pastry"], "in": [], "on": [], "from": ["a baker"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "tort", "group": "_ort", "pos": "Noun", "adult": false, "has": ["a filling","pastry"], "in": [], "on": [], "from": ["a baker"], "is": [], "typeOf": ["a cake","a dessert"], "supertypeOf": [], "nearlyIs": ["a pie"]},</v>
       </c>
       <c r="B299" t="str">
         <f t="shared" si="46"/>
@@ -21940,7 +23680,7 @@
       </c>
       <c r="G299" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a cake","a dessert"</v>
       </c>
       <c r="H299" t="str">
         <f t="shared" si="52"/>
@@ -21948,13 +23688,13 @@
       </c>
       <c r="I299" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>"a pie"</v>
       </c>
       <c r="J299" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="M299" t="s">
         <v>218</v>
@@ -21968,11 +23708,20 @@
       <c r="W299" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AC299" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AD299" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AI299" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="300" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
         <f t="shared" si="45"/>
-        <v>{"spelling": "fort", "group": "_ort", "pos": "Noun", "adult": false, "has": ["a drawbridge","walls","towers"], "in": ["a castle"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
+        <v>{"spelling": "fort", "group": "_ort", "pos": "Noun", "adult": false, "has": ["a drawbridge","walls","towers"], "in": ["a castle"], "on": [], "from": [], "is": ["a keep","a castle"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a guardpost"]},</v>
       </c>
       <c r="B300" t="str">
         <f t="shared" si="46"/>
@@ -21992,7 +23741,7 @@
       </c>
       <c r="F300" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a keep","a castle"</v>
       </c>
       <c r="G300" t="str">
         <f t="shared" si="51"/>
@@ -22004,13 +23753,13 @@
       </c>
       <c r="I300" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>"a guardpost"</v>
       </c>
       <c r="J300" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K300" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="M300" t="s">
         <v>218</v>
@@ -22019,16 +23768,25 @@
         <v>288</v>
       </c>
       <c r="O300" t="s">
+        <v>939</v>
+      </c>
+      <c r="P300" t="s">
         <v>940</v>
-      </c>
-      <c r="P300" t="s">
-        <v>941</v>
       </c>
       <c r="Q300" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z300" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AA300" t="s">
+        <v>640</v>
+      </c>
+      <c r="AI300" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="301" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
         <f t="shared" si="45"/>
         <v>{"spelling": "court", "group": "_ort", "pos": "Noun", "adult": false, "has": ["judges","lawyers"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": []},</v>
@@ -22066,7 +23824,7 @@
         <v/>
       </c>
       <c r="J301" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K301" s="1" t="s">
         <v>807</v>
@@ -22075,10 +23833,10 @@
         <v>218</v>
       </c>
       <c r="N301" t="s">
+        <v>941</v>
+      </c>
+      <c r="O301" t="s">
         <v>942</v>
-      </c>
-      <c r="O301" t="s">
-        <v>943</v>
       </c>
     </row>
   </sheetData>

--- a/customDIctionary.xlsx
+++ b/customDIctionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\claptrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11588D8-5C82-436B-B62F-FF751749352D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81166EE5-298B-49C7-9238-7936FD0130EB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9375" xr2:uid="{065E9CA2-EFF7-4AAA-8B1A-5CE3FAFF6ACD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="1803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="1978">
   <si>
     <t>Word</t>
   </si>
@@ -4928,6 +4928,9 @@
     <t>top</t>
   </si>
   <si>
+    <t>pop</t>
+  </si>
+  <si>
     <t>fop</t>
   </si>
   <si>
@@ -5439,6 +5442,528 @@
   </si>
   <si>
     <t>a zit</t>
+  </si>
+  <si>
+    <t>Acts1</t>
+  </si>
+  <si>
+    <t>Acts2</t>
+  </si>
+  <si>
+    <t>Acts3</t>
+  </si>
+  <si>
+    <t>ActsCont1</t>
+  </si>
+  <si>
+    <t>ActsCont2</t>
+  </si>
+  <si>
+    <t>ActsCont3</t>
+  </si>
+  <si>
+    <t>meows</t>
+  </si>
+  <si>
+    <t>purrs</t>
+  </si>
+  <si>
+    <t>flies</t>
+  </si>
+  <si>
+    <t>Recipient1</t>
+  </si>
+  <si>
+    <t>Recipient2</t>
+  </si>
+  <si>
+    <t>Recipient3</t>
+  </si>
+  <si>
+    <t>chop down</t>
+  </si>
+  <si>
+    <t>RecipientPast1</t>
+  </si>
+  <si>
+    <t>RecipientPast2</t>
+  </si>
+  <si>
+    <t>RecipientPast3</t>
+  </si>
+  <si>
+    <t>cook with</t>
+  </si>
+  <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>acts stupid</t>
+  </si>
+  <si>
+    <t>says stupid things</t>
+  </si>
+  <si>
+    <t>fill</t>
+  </si>
+  <si>
+    <t>swat</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>lies</t>
+  </si>
+  <si>
+    <t>imprison</t>
+  </si>
+  <si>
+    <t>schemes</t>
+  </si>
+  <si>
+    <t>catches fish</t>
+  </si>
+  <si>
+    <t>barks</t>
+  </si>
+  <si>
+    <t>barking</t>
+  </si>
+  <si>
+    <t>play with</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>treats animals</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>caws</t>
+  </si>
+  <si>
+    <t>jokes</t>
+  </si>
+  <si>
+    <t>lactates</t>
+  </si>
+  <si>
+    <t>jiggles</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>a yolk</t>
+  </si>
+  <si>
+    <t>a carton</t>
+  </si>
+  <si>
+    <t>an omlette</t>
+  </si>
+  <si>
+    <t>a chicken</t>
+  </si>
+  <si>
+    <t>a food</t>
+  </si>
+  <si>
+    <t>a fragile</t>
+  </si>
+  <si>
+    <t>fall in to</t>
+  </si>
+  <si>
+    <t>drinks tea</t>
+  </si>
+  <si>
+    <t>talks about the weather</t>
+  </si>
+  <si>
+    <t>scratch</t>
+  </si>
+  <si>
+    <t>queues</t>
+  </si>
+  <si>
+    <t>stinks</t>
+  </si>
+  <si>
+    <t>flush</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>perform</t>
+  </si>
+  <si>
+    <t>floats</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>bleats</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>befriend</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>sculpt</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>bake</t>
+  </si>
+  <si>
+    <t>smells</t>
+  </si>
+  <si>
+    <t>beats</t>
+  </si>
+  <si>
+    <t>stains</t>
+  </si>
+  <si>
+    <t>shop at</t>
+  </si>
+  <si>
+    <t>buy from</t>
+  </si>
+  <si>
+    <t>knead</t>
+  </si>
+  <si>
+    <t>a meowing</t>
+  </si>
+  <si>
+    <t>a purring</t>
+  </si>
+  <si>
+    <t>a lying</t>
+  </si>
+  <si>
+    <t>a scheming</t>
+  </si>
+  <si>
+    <t>a cawing</t>
+  </si>
+  <si>
+    <t>a joking</t>
+  </si>
+  <si>
+    <t>a lactating</t>
+  </si>
+  <si>
+    <t>a jiggling</t>
+  </si>
+  <si>
+    <t>a queuing</t>
+  </si>
+  <si>
+    <t>a stinking</t>
+  </si>
+  <si>
+    <t>a sailing</t>
+  </si>
+  <si>
+    <t>a floating</t>
+  </si>
+  <si>
+    <t>a bleating</t>
+  </si>
+  <si>
+    <t>a beating</t>
+  </si>
+  <si>
+    <t>a staining</t>
+  </si>
+  <si>
+    <t>a knighted</t>
+  </si>
+  <si>
+    <t>a cooked with</t>
+  </si>
+  <si>
+    <t>a worn</t>
+  </si>
+  <si>
+    <t>a filled</t>
+  </si>
+  <si>
+    <t>a fucked</t>
+  </si>
+  <si>
+    <t>an imprisoned</t>
+  </si>
+  <si>
+    <t>a jailed</t>
+  </si>
+  <si>
+    <t>a popped</t>
+  </si>
+  <si>
+    <t>a flushed</t>
+  </si>
+  <si>
+    <t>a performed</t>
+  </si>
+  <si>
+    <t>a cooked</t>
+  </si>
+  <si>
+    <t>a spoken</t>
+  </si>
+  <si>
+    <t>a cast</t>
+  </si>
+  <si>
+    <t>an opened</t>
+  </si>
+  <si>
+    <t>a befriended</t>
+  </si>
+  <si>
+    <t>a painted</t>
+  </si>
+  <si>
+    <t>a drawn</t>
+  </si>
+  <si>
+    <t>a sculpted</t>
+  </si>
+  <si>
+    <t>a baked</t>
+  </si>
+  <si>
+    <t>a thrown</t>
+  </si>
+  <si>
+    <t>a stubbed</t>
+  </si>
+  <si>
+    <t>a kneaded</t>
+  </si>
+  <si>
+    <t>shag</t>
+  </si>
+  <si>
+    <t>shags</t>
+  </si>
+  <si>
+    <t>fucks</t>
+  </si>
+  <si>
+    <t>a shagging</t>
+  </si>
+  <si>
+    <t>a fucking</t>
+  </si>
+  <si>
+    <t>sleep with</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>a loving</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>a beloved</t>
+  </si>
+  <si>
+    <t>a missing</t>
+  </si>
+  <si>
+    <t>a lacking</t>
+  </si>
+  <si>
+    <t>thaws</t>
+  </si>
+  <si>
+    <t>freezes</t>
+  </si>
+  <si>
+    <t>forecast</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>misses</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>a watched</t>
+  </si>
+  <si>
+    <t>an acted</t>
+  </si>
+  <si>
+    <t>defeat</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>a viewed</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>shines</t>
+  </si>
+  <si>
+    <t>glows</t>
+  </si>
+  <si>
+    <t>put out</t>
+  </si>
+  <si>
+    <t>fights</t>
+  </si>
+  <si>
+    <t>rides</t>
+  </si>
+  <si>
+    <t>a fighting</t>
+  </si>
+  <si>
+    <t>a riding</t>
+  </si>
+  <si>
+    <t>sit on</t>
+  </si>
+  <si>
+    <t>pee in</t>
+  </si>
+  <si>
+    <t>poop on</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>a visited</t>
+  </si>
+  <si>
+    <t>look at</t>
+  </si>
+  <si>
+    <t>a seen</t>
+  </si>
+  <si>
+    <t>scares people</t>
+  </si>
+  <si>
+    <t>clean up</t>
+  </si>
+  <si>
+    <t>simmers</t>
+  </si>
+  <si>
+    <t>a simmering</t>
+  </si>
+  <si>
+    <t>boils</t>
+  </si>
+  <si>
+    <t>a boiling</t>
+  </si>
+  <si>
+    <t>flaps</t>
+  </si>
+  <si>
+    <t>a flapping</t>
+  </si>
+  <si>
+    <t>a ruling</t>
+  </si>
+  <si>
+    <t>reigns</t>
+  </si>
+  <si>
+    <t>a reigning</t>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>an installed</t>
+  </si>
+  <si>
+    <t>uninstall</t>
+  </si>
+  <si>
+    <t>listen to</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>drips</t>
+  </si>
+  <si>
+    <t>a dripping</t>
+  </si>
+  <si>
+    <t>navigate with</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>shear</t>
+  </si>
+  <si>
+    <t>a sheared</t>
+  </si>
+  <si>
+    <t>drives</t>
+  </si>
+  <si>
+    <t>a driving</t>
+  </si>
+  <si>
+    <t>board</t>
   </si>
 </sst>
 </file>
@@ -5799,31 +6324,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5D9654-EC04-466C-B743-C6A3C5F36A0A}">
-  <dimension ref="A1:AQ339"/>
+  <dimension ref="A1:BA340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AF283" sqref="AF283"/>
+      <selection pane="bottomLeft" activeCell="AP153" sqref="AP153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="10" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="17" width="18.42578125" customWidth="1"/>
-    <col min="18" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" customWidth="1"/>
-    <col min="23" max="38" width="9.140625" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="17" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="18" max="21" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="23" max="41" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>562</v>
       </c>
@@ -5852,7 +6377,7 @@
         <v>1067</v>
       </c>
       <c r="J1" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="K1" t="s">
         <v>90</v>
@@ -5939,16 +6464,52 @@
         <v>954</v>
       </c>
       <c r="AM1" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="AN1" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="AO1" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1661</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("{""spelling"": """,L2,""", ""group"": """,K2,""", ""pos"": """,N2,""", ""adult"": ",IF(M2=TRUE,"true","false"),", ""has"": [",B2,"]",", ""in"": [",C2,"]",", ""on"": [",D2,"]",", ""from"": [",E2,"]",", ""is"": [",F2,"]",", ""typeOf"": [",G2,"]",", ""supertypeOf"": [",H2,"]",", ""nearlyIs"": [",I2,"]",", ""property"": [",J2,"]},")</f>
         <v>{"spelling": "her", "group": "_er", "pos": "Noun", "adult": false, "has": ["a gender"], "in": [], "on": [], "from": ["Venus"], "is": ["a woman"], "typeOf": [], "supertypeOf": ["a girl"], "nearlyIs": [], "property": ["a feminine","a female"]},</v>
@@ -6011,13 +6572,13 @@
         <v>936</v>
       </c>
       <c r="AM2" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="AN2" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">CONCATENATE("{""spelling"": """,L3,""", ""group"": """,K3,""", ""pos"": """,N3,""", ""adult"": ",IF(M3=TRUE,"true","false"),", ""has"": [",B3,"]",", ""in"": [",C3,"]",", ""on"": [",D3,"]",", ""from"": [",E3,"]",", ""is"": [",F3,"]",", ""typeOf"": [",G3,"]",", ""supertypeOf"": [",H3,"]",", ""nearlyIs"": [",I3,"]",", ""property"": [",J3,"]},")</f>
         <v>{"spelling": "fir", "group": "_er", "pos": "Noun", "adult": false, "has": ["leaves","pinecones","bark"], "in": ["a forest","a wood","the woods"], "on": [], "from": [], "is": [], "typeOf": ["a tree","an evergreen","a pine"], "supertypeOf": [], "nearlyIs": [], "property": ["an evergreen"]},</v>
@@ -6097,8 +6658,11 @@
       <c r="AM3" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV3" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "purr", "group": "_er", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a cat","a kitten"], "is": ["a meow"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -6158,7 +6722,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "burr", "group": "_er", "pos": "Noun", "adult": false, "has": ["spikes"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a spiky"]},</v>
@@ -6212,10 +6776,10 @@
         <v>221</v>
       </c>
       <c r="AM5" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "sir", "group": "_er", "pos": "Noun", "adult": false, "has": ["a knighthood","a sword","manners"], "in": [], "on": [], "from": [], "is": ["a knight","a gentleman"], "typeOf": ["a man"], "supertypeOf": [], "nearlyIs": [], "property": ["an honorable"]},</v>
@@ -6284,10 +6848,13 @@
         <v>946</v>
       </c>
       <c r="AM6" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1664</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "year", "group": "_er", "pos": "Noun", "adult": false, "has": ["a date","dates","time"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -6347,7 +6914,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "cur", "group": "_er", "pos": "Noun", "adult": false, "has": ["a bad attitude","no morals","no breeding"], "in": [], "on": [], "from": [], "is": ["a swine","a scoundrel"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a dog"], "property": ["a despicable","a mangy"]},</v>
@@ -6416,13 +6983,13 @@
         <v>675</v>
       </c>
       <c r="AM8" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="AN8" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "cat", "group": "_at", "pos": "Noun", "adult": false, "has": ["whiskers","a tail","claws"], "in": [], "on": [], "from": [], "is": ["a feline"], "typeOf": ["a mammal","an animal"], "supertypeOf": ["a kitten","a lion","a tiger"], "nearlyIs": [], "property": ["a feline"]},</v>
@@ -6502,8 +7069,20 @@
       <c r="AM9" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP9" t="s">
+        <v>1810</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>1811</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>1878</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "bat", "group": "_at", "pos": "Noun", "adult": false, "has": ["good hearing"], "in": ["a cave"], "on": [], "from": [], "is": [], "typeOf": ["an animal"], "supertypeOf": [], "nearlyIs": ["a vampire"], "property": []},</v>
@@ -6565,8 +7144,14 @@
       <c r="AJ10" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP10" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "fat", "group": "_at", "pos": "Noun", "adult": false, "has": [], "in": ["a recipe","the kitchen"], "on": [], "from": [], "is": ["grease"], "typeOf": ["an ingredient"], "supertypeOf": ["lard","butter"], "nearlyIs": ["oil"], "property": ["a greasy"]},</v>
@@ -6638,10 +7223,16 @@
         <v>965</v>
       </c>
       <c r="AM11" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1667</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>1820</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "hat", "group": "_at", "pos": "Noun", "adult": false, "has": ["a brim"], "in": [], "on": ["a head","your head"], "from": [], "is": [], "typeOf": ["clothing","headgear"], "supertypeOf": ["a cap","a beanie","a beret"], "nearlyIs": [], "property": []},</v>
@@ -6715,8 +7306,14 @@
       <c r="AI12" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV12" t="s">
+        <v>1821</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "that", "group": "_at", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a thing","an item","an object"], "property": []},</v>
@@ -6776,7 +7373,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "pat", "group": "_at", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a touch"], "supertypeOf": [], "nearlyIs": ["a fondle"], "property": []},</v>
@@ -6833,7 +7430,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "prat", "group": "_at", "pos": "Noun", "adult": true, "has": ["no brains","bad ideas"], "in": [], "on": [], "from": [], "is": ["an idiot","a moron","a jackass"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["an idiotic","a stupid","an annoying"]},</v>
@@ -6902,16 +7499,22 @@
         <v>975</v>
       </c>
       <c r="AM15" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="AN15" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="AO15" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1670</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>1822</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "at", "group": "_at", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -6962,7 +7565,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "spat", "group": "_at", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a domestic"], "typeOf": ["a fight","an argument"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -7022,7 +7625,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "vat", "group": "_at", "pos": "Noun", "adult": false, "has": ["a lot in it"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a container","a lot"], "supertypeOf": [], "nearlyIs": ["a pan"], "property": ["a large","a huge"]},</v>
@@ -7085,13 +7688,19 @@
         <v>980</v>
       </c>
       <c r="AM18" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="AN18" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1672</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>1824</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "mat", "group": "_at", "pos": "Noun", "adult": false, "has": [], "in": ["front of a door"], "on": [], "from": [], "is": [], "typeOf": ["furnishing","furniture"], "supertypeOf": [], "nearlyIs": ["a rug"], "property": []},</v>
@@ -7154,7 +7763,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "gnat", "group": "_at", "pos": "Noun", "adult": false, "has": ["wings"], "in": [], "on": ["your leg"], "from": [], "is": [], "typeOf": ["a fly","an insect"], "supertypeOf": ["a midgey","a mosquito"], "nearlyIs": [], "property": []},</v>
@@ -7222,8 +7831,17 @@
       <c r="AH20" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP20" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "twat", "group": "_at", "pos": "Noun", "adult": true, "has": ["labia","bad ideas","a clitoris"], "in": [], "on": [], "from": [], "is": ["an idiot","a moron","a jackass"], "typeOf": ["genitalia","a body part"], "supertypeOf": [], "nearlyIs": ["a pussy","a vagina"], "property": []},</v>
@@ -7306,8 +7924,14 @@
       <c r="AK21" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV21" t="s">
+        <v>1826</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "con", "group": "_on", "pos": "Noun", "adult": false, "has": ["people confused","a jail sentence"], "in": ["jail","prison"], "on": [], "from": ["prison","jail"], "is": ["a scoundrel","a prisoner"], "typeOf": ["a criminal","a liar"], "supertypeOf": [], "nearlyIs": [], "property": ["a deceitful","a criminal"]},</v>
@@ -7388,13 +8012,37 @@
         <v>998</v>
       </c>
       <c r="AM22" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="AN22" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP22" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>1829</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>1828</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>585</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "on", "group": "_on", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -7445,7 +8093,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "don", "group": "_on", "pos": "Noun", "adult": false, "has": ["mafiosos","a horses head","hired goons"], "in": ["the mafia"], "on": [], "from": ["the mafia"], "is": ["a crime lord","a king pin","a mob boss"], "typeOf": ["a criminal","a mafioso","a gang member"], "supertypeOf": [], "nearlyIs": [], "property": ["a criminal"]},</v>
@@ -7532,7 +8180,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "none", "group": "_on", "pos": "Noun", "adult": false, "has": ["nothing","nobody"], "in": [], "on": [], "from": [], "is": ["nothing"], "typeOf": ["an amount"], "supertypeOf": [], "nearlyIs": ["an emptyness","an absence","a lack"], "property": ["an empty"]},</v>
@@ -7604,10 +8252,10 @@
         <v>1006</v>
       </c>
       <c r="AM25" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "one", "group": "_on", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a single"], "typeOf": ["a number","a digit"], "supertypeOf": [], "nearlyIs": ["a lone","an only"], "property": ["a single"]},</v>
@@ -7676,7 +8324,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "son", "group": "_on", "pos": "Noun", "adult": false, "has": ["parents"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a child","a kid"], "supertypeOf": [], "nearlyIs": ["a firstborn"], "property": ["a male"]},</v>
@@ -7739,10 +8387,10 @@
         <v>1013</v>
       </c>
       <c r="AM27" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "net", "group": "_et", "pos": "Noun", "adult": false, "has": ["fish in it"], "in": ["the ocean","the sea","a river"], "on": [], "from": [], "is": [], "typeOf": ["a tool"], "supertypeOf": ["a web"], "nearlyIs": [], "property": []},</v>
@@ -7810,8 +8458,11 @@
       <c r="AG28" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP28" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "wet", "group": "_et", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -7862,7 +8513,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "pet", "group": "_et", "pos": "Noun", "adult": false, "has": ["an owner","a tail"], "in": ["a kennel"], "on": ["your sofa"], "from": ["the pound"], "is": [], "typeOf": ["an animal"], "supertypeOf": ["a cat","a dog","a goldfish"], "nearlyIs": [], "property": ["a fluffy","a canine","a feline"]},</v>
@@ -7940,16 +8591,43 @@
         <v>1016</v>
       </c>
       <c r="AM30" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="AN30" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="AO30" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP30" t="s">
+        <v>1810</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>1811</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>1878</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>1833</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "set", "group": "_et", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a group"], "typeOf": ["a collection"], "supertypeOf": [], "nearlyIs": ["a list"], "property": []},</v>
@@ -8009,7 +8687,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "vet", "group": "_et", "pos": "Noun", "adult": false, "has": ["animals","tiny bandages","medical training"], "in": ["a clinic"], "on": [], "from": [], "is": [], "typeOf": ["a clinician","a medical proffesional"], "supertypeOf": ["a horse doctor"], "nearlyIs": ["a doctor"], "property": []},</v>
@@ -8083,8 +8761,11 @@
       <c r="AJ32" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP32" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "bet", "group": "_et", "pos": "Noun", "adult": false, "has": ["money on it","a risk","a chance of winning"], "in": ["a casino","a racecourse"], "on": [], "from": [], "is": ["a stake","a gamble"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a risk","a chance"], "property": []},</v>
@@ -8161,8 +8842,11 @@
       <c r="AK33" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV33" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "jay", "group": "_et", "pos": "Noun", "adult": false, "has": ["a beak","a nest"], "in": ["a tree","the sky"], "on": [], "from": [], "is": [], "typeOf": ["a bird","an animal"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -8230,8 +8914,20 @@
       <c r="AE34" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP34" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "kit", "group": "_it", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["equipment"], "supertypeOf": [], "nearlyIs": ["a toolbox"], "property": []},</v>
@@ -8282,13 +8978,13 @@
         <v>217</v>
       </c>
       <c r="AD35" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="AJ35" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "wit", "group": "_it", "pos": "Noun", "adult": false, "has": ["funny ideas","good conversation"], "in": [], "on": ["a panel show","stage"], "from": [], "is": ["a comedian"], "typeOf": ["a writer","an author"], "supertypeOf": [], "nearlyIs": ["a joker"], "property": ["an intelligent","a funny","a smart"]},</v>
@@ -8363,16 +9059,22 @@
         <v>1030</v>
       </c>
       <c r="AM36" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="AN36" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="AO36" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1679</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "writ", "group": "_it", "pos": "Noun", "adult": false, "has": ["a signature","legal groundings"], "in": ["a court","a courtroom"], "on": [], "from": [], "is": [], "typeOf": ["a court order"], "supertypeOf": ["a summons","a subpoena"], "nearlyIs": [], "property": ["a legal"]},</v>
@@ -8435,19 +9137,19 @@
         <v>601</v>
       </c>
       <c r="AD37" t="s">
+        <v>1658</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AH37" t="s">
         <v>1657</v>
       </c>
-      <c r="AG37" t="s">
-        <v>1655</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>1656</v>
-      </c>
       <c r="AM37" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "tit", "group": "_it", "pos": "Noun", "adult": true, "has": ["a nipple","a bra"], "in": ["a bra"], "on": ["your chest"], "from": [], "is": ["a breast","a boob"], "typeOf": ["genitalia","a body part"], "supertypeOf": [], "nearlyIs": [], "property": ["a perky"]},</v>
@@ -8525,10 +9227,22 @@
         <v>1033</v>
       </c>
       <c r="AM38" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1681</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>1841</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>1884</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "pit", "group": "_it", "pos": "Noun", "adult": false, "has": ["spikes in it"], "in": ["a date","an olive"], "on": ["the ground"], "from": [], "is": [], "typeOf": ["a hole","a trap"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -8596,8 +9310,11 @@
       <c r="AE39" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV39" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "it", "group": "_it", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a thing","an item","an object"], "property": []},</v>
@@ -8657,7 +9374,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "fit", "group": "_it", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -8708,7 +9425,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "git", "group": "_it", "pos": "Noun", "adult": true, "has": ["no friends","a bad attitude"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -8768,7 +9485,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "hit", "group": "_it", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["target"], "from": ["a good shot"], "is": [], "typeOf": ["a success","a collision"], "supertypeOf": [], "nearlyIs": [], "property": ["a successful"]},</v>
@@ -8831,10 +9548,10 @@
         <v>1036</v>
       </c>
       <c r="AM43" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "zit", "group": "_it", "pos": "Noun", "adult": false, "has": ["pus"], "in": [], "on": ["a teenager","your face","your chin"], "from": [], "is": ["a pimple"], "typeOf": ["a spot","a blemish"], "supertypeOf": [], "nearlyIs": ["a wart","a mole"], "property": ["a spotty"]},</v>
@@ -8912,10 +9629,16 @@
         <v>1040</v>
       </c>
       <c r="AM44" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1683</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>1632</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "Brit", "group": "_it", "pos": "Noun", "adult": false, "has": ["a drinking problem","bad teeth","a great accent"], "in": ["England","the UK","Britain"], "on": [], "from": ["England","the UK","Britain"], "is": [], "typeOf": ["a European"], "supertypeOf": ["an Englishman","a Scotsman","a Welshman"], "nearlyIs": [], "property": ["an English"]},</v>
@@ -9005,10 +9728,22 @@
         <v>1044</v>
       </c>
       <c r="AM45" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1684</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "twit", "group": "_it", "pos": "Noun", "adult": true, "has": ["bad ideas"], "in": [], "on": [], "from": [], "is": ["an idiot","a moron","a jackass"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["an idiotic","a stupid","an annoying"]},</v>
@@ -9074,16 +9809,16 @@
         <v>975</v>
       </c>
       <c r="AM46" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="AN46" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="AO46" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "nit", "group": "_it", "pos": "Noun", "adult": false, "has": [], "in": ["your hair","your head"], "on": ["a kid's head"], "from": [], "is": [], "typeOf": ["an insect","a pest","a hair problem"], "supertypeOf": [], "nearlyIs": [], "property": ["an itchy"]},</v>
@@ -9152,10 +9887,13 @@
         <v>1047</v>
       </c>
       <c r="AM47" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1685</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "mit", "group": "_it", "pos": "Noun", "adult": false, "has": ["fingers"], "in": [], "on": ["your hand"], "from": [], "is": [], "typeOf": ["a hand","a glove"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -9218,7 +9956,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "shit", "group": "_it", "pos": "Noun", "adult": true, "has": ["a bad smell","a bit of sweetcorn in it"], "in": ["the toilet"], "on": ["the bottom of your shoe"], "from": ["an arse"], "is": ["a turd","a crap","faeces"], "typeOf": ["a dump","a floater","a bodily function"], "supertypeOf": ["diarrhea"], "nearlyIs": ["rubbish","junk"], "property": ["a smelly"]},</v>
@@ -9314,10 +10052,25 @@
         <v>1058</v>
       </c>
       <c r="AM49" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1686</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "chit", "group": "_it", "pos": "Noun", "adult": false, "has": ["a signature"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -9370,8 +10123,14 @@
       <c r="O50" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV50" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "spit", "group": "_it", "pos": "Noun", "adult": false, "has": [], "in": ["your mouth"], "on": [], "from": ["your mouth"], "is": [], "typeOf": ["an emission","a bodily function"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -9433,8 +10192,11 @@
       <c r="AE51" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP51" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "skit", "group": "_it", "pos": "Noun", "adult": false, "has": ["comedians in it","an audience"], "in": [], "on": ["stage","tv"], "from": [], "is": [], "typeOf": ["a sketch","a parody"], "supertypeOf": [], "nearlyIs": ["a joke"], "property": ["a funny","a hilarious"]},</v>
@@ -9506,13 +10268,19 @@
         <v>1063</v>
       </c>
       <c r="AM52" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="AN52" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1687</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>1858</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "oat", "group": "_ote", "pos": "Noun", "adult": false, "has": [], "in": ["your porridge","a flapjack","granola"], "on": [], "from": [], "is": [], "typeOf": ["a grain","a cereal"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -9577,8 +10345,14 @@
       <c r="AE53" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV53" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "boat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a mast","sails","a captain"], "in": ["port","a lake"], "on": ["the high seas","a lake"], "from": ["a shipwright"], "is": ["a ship"], "typeOf": ["a vehicle"], "supertypeOf": ["a yacht","a dinghy","a canoe"], "nearlyIs": [], "property": []},</v>
@@ -9667,8 +10441,20 @@
       <c r="AI54" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP54" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>1859</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>1888</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "coat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a zip","a hood"], "in": [], "on": [], "from": [], "is": ["a jacket"], "typeOf": ["a garment","clothing"], "supertypeOf": ["an anorak"], "nearlyIs": ["a fleece"], "property": []},</v>
@@ -9739,8 +10525,14 @@
       <c r="AJ55" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV55" t="s">
+        <v>1821</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "moat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a drawbridge"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a body of water"], "supertypeOf": [], "nearlyIs": ["a pond"], "property": ["a defensive"]},</v>
@@ -9800,10 +10592,13 @@
         <v>1079</v>
       </c>
       <c r="AM56" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1688</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "quote", "group": "_ote", "pos": "Noun", "adult": false, "has": ["been written down","an attribution"], "in": ["writing"], "on": [], "from": ["Shakespeare","an author","a guru"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a saying"], "property": []},</v>
@@ -9874,8 +10669,14 @@
       <c r="AJ57" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AY57" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "tote", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a drawstring","clothes in it"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a bag"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -9935,7 +10736,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "goat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["horns","hooves"], "in": [], "on": [], "from": ["a farm","a farmyard"], "is": [], "typeOf": ["an animal","a farm animal","a mammal"], "supertypeOf": ["a kid"], "nearlyIs": ["a sheep"], "property": ["a horned"]},</v>
@@ -10013,10 +10814,16 @@
         <v>1084</v>
       </c>
       <c r="AM59" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1689</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>1861</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "vote", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a party","political leanings"], "in": ["a ballot box"], "on": [], "from": [], "is": ["a ballot","a poll"], "typeOf": [], "supertypeOf": ["a secret ballot"], "nearlyIs": [], "property": []},</v>
@@ -10084,8 +10891,14 @@
       <c r="AG60" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV60" t="s">
+        <v>1862</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "note", "group": "_ote", "pos": "Noun", "adult": false, "has": ["an author"], "in": [], "on": ["paper"], "from": ["a secret admirer"], "is": [], "typeOf": ["writing"], "supertypeOf": ["a memo"], "nearlyIs": ["a letter"], "property": ["a written"]},</v>
@@ -10154,10 +10967,19 @@
         <v>1089</v>
       </c>
       <c r="AM61" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1690</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AW61" t="s">
+        <v>1863</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "mote", "group": "_ote", "pos": "Noun", "adult": false, "has": [], "in": ["the air"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -10211,7 +11033,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "stoat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["whiskers","a tail"], "in": ["a burrow","the countryside"], "on": [], "from": [], "is": [], "typeOf": ["vermin","an animal","a mammal"], "supertypeOf": [], "nearlyIs": ["a ferret"], "property": ["a furry"]},</v>
@@ -10286,10 +11108,10 @@
         <v>1090</v>
       </c>
       <c r="AM63" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "ate", "group": "_ate", "pos": "Verb", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -10340,7 +11162,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "bait", "group": "_ate", "pos": "Noun", "adult": false, "has": [], "in": ["a trap"], "on": ["a fishing hook","a hook"], "from": [], "is": ["a lure"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -10402,8 +11224,11 @@
       <c r="AA65" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP65" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="66" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "date", "group": "_ate", "pos": "Noun", "adult": false, "has": ["a pit"], "in": [], "on": ["valentine's day","a tree"], "from": [], "is": [], "typeOf": ["a time period","a fruit"], "supertypeOf": [], "nearlyIs": ["a prune"], "property": []},</v>
@@ -10472,7 +11297,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A130" si="10">CONCATENATE("{""spelling"": """,L67,""", ""group"": """,K67,""", ""pos"": """,N67,""", ""adult"": ",IF(M67=TRUE,"true","false"),", ""has"": [",B67,"]",", ""in"": [",C67,"]",", ""on"": [",D67,"]",", ""from"": [",E67,"]",", ""is"": [",F67,"]",", ""typeOf"": [",G67,"]",", ""supertypeOf"": [",H67,"]",", ""nearlyIs"": [",I67,"]",", ""property"": [",J67,"]},")</f>
         <v>{"spelling": "fate", "group": "_ate", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an outcome"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -10526,7 +11351,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "gait", "group": "_ate", "pos": "Noun", "adult": false, "has": ["a funny way of walking","taken steps"], "in": [], "on": [], "from": [], "is": ["a walk"], "typeOf": ["a movement"], "supertypeOf": [], "nearlyIs": ["a step"], "property": []},</v>
@@ -10592,7 +11417,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "gate", "group": "_ate", "pos": "Noun", "adult": false, "has": ["handle","fence"], "in": ["a fence"], "on": [], "from": [], "is": [], "typeOf": ["an entrance","a door"], "supertypeOf": ["a portcullis"], "nearlyIs": [], "property": []},</v>
@@ -10660,8 +11485,20 @@
       <c r="AG69" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV69" t="s">
+        <v>1864</v>
+      </c>
+      <c r="AW69" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AY69" t="s">
+        <v>1906</v>
+      </c>
+      <c r="AZ69" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="70" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "wait", "group": "_ate", "pos": "Noun", "adult": false, "has": ["a pause","time"], "in": [], "on": [], "from": [], "is": ["a pause"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -10721,7 +11558,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "mate", "group": "_ate", "pos": "Noun", "adult": false, "has": ["friends","a friend","pals"], "in": [], "on": [], "from": [], "is": ["a friend","a pal","a buddy"], "typeOf": [], "supertypeOf": ["a BFF"], "nearlyIs": ["an aquaintance"], "property": ["a friendly"]},</v>
@@ -10796,10 +11633,16 @@
         <v>1103</v>
       </c>
       <c r="AM71" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1692</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>1866</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="72" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "state", "group": "_ate", "pos": "Noun", "adult": false, "has": ["a capital"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a region","an area","a place"], "supertypeOf": [], "nearlyIs": ["a situation","a case"], "property": []},</v>
@@ -10868,7 +11711,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "art", "group": "_art", "pos": "Noun", "adult": false, "has": ["brush strokes","a frame"], "in": ["a gallery"], "on": ["the wall"], "from": ["a gallery","a painter","an artist"], "is": ["a decoration"], "typeOf": [], "supertypeOf": ["a painting","a statue","a mural"], "nearlyIs": [], "property": ["a decorative","a beautiful"]},</v>
@@ -10952,13 +11795,31 @@
         <v>1112</v>
       </c>
       <c r="AM73" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="AN73" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1694</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>1869</v>
+      </c>
+      <c r="AY73" t="s">
+        <v>1908</v>
+      </c>
+      <c r="AZ73" t="s">
+        <v>1909</v>
+      </c>
+      <c r="BA73" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="74" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "tart", "group": "_art", "pos": "Noun", "adult": false, "has": ["a filling","pastry"], "in": [], "on": [], "from": ["a baker"], "is": [], "typeOf": ["a cake","a dessert"], "supertypeOf": [], "nearlyIs": ["a pie"], "property": ["a delicious"]},</v>
@@ -11027,10 +11888,19 @@
         <v>1117</v>
       </c>
       <c r="AM74" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1695</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AY74" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="75" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "part", "group": "_art", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a section","a component","a segment"], "typeOf": [], "supertypeOf": ["a half","a quarter"], "nearlyIs": [], "property": []},</v>
@@ -11096,7 +11966,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "dart", "group": "_art", "pos": "Noun", "adult": false, "has": ["a board","fins","a tip"], "in": [], "on": ["a dartboard"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a pointy"]},</v>
@@ -11159,10 +12029,16 @@
         <v>651</v>
       </c>
       <c r="AM76" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1696</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY76" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="77" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "fart", "group": "_art", "pos": "Noun", "adult": true, "has": ["a smell","a bad smell"], "in": [], "on": [], "from": ["an arse","a lot of beans"], "is": [], "typeOf": ["a gas","wind","a stench"], "supertypeOf": [], "nearlyIs": [], "property": ["a smelly"]},</v>
@@ -11237,10 +12113,19 @@
         <v>1125</v>
       </c>
       <c r="AM77" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1686</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="78" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "heart", "group": "_art", "pos": "Noun", "adult": false, "has": ["blood","ventricles"], "in": ["your torso","your chest"], "on": [], "from": [], "is": [], "typeOf": ["an organ","a shape"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -11308,8 +12193,14 @@
       <c r="AE78" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP78" t="s">
+        <v>1873</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="79" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "shart", "group": "_art", "pos": "Noun", "adult": true, "has": ["a smell","a bad smell","a stain"], "in": ["your trousers"], "on": [], "from": ["an arse","a curry","mexican food"], "is": [], "typeOf": ["an accident"], "supertypeOf": [], "nearlyIs": [], "property": ["a smelly"]},</v>
@@ -11387,10 +12278,28 @@
         <v>1129</v>
       </c>
       <c r="AM79" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1686</v>
+      </c>
+      <c r="AP79" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AQ79" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AR79" t="s">
+        <v>1874</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AT79" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="80" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "mart", "group": "_art", "pos": "Noun", "adult": false, "has": ["a shopkeeper","goods"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a shop","a store"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -11452,8 +12361,14 @@
       <c r="AE80" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV80" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AW80" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="81" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "start", "group": "_art", "pos": "Noun", "adult": false, "has": [], "in": ["the beginning"], "on": [], "from": ["the beginning"], "is": ["a beginning"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["an opening"], "property": []},</v>
@@ -11516,7 +12431,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "woe", "group": "_o", "pos": "Noun", "adult": false, "has": ["depression","tears"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a problem"], "supertypeOf": [], "nearlyIs": [], "property": ["a depressing","a sad"]},</v>
@@ -11576,13 +12491,13 @@
         <v>1048</v>
       </c>
       <c r="AM82" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="AN82" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="83" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "roe", "group": "_o", "pos": "Noun", "adult": false, "has": ["eggs","a fishy smell"], "in": [], "on": [], "from": ["a fish"], "is": ["fish eggs"], "typeOf": ["seafood","eggs"], "supertypeOf": [], "nearlyIs": [], "property": ["a fishy"]},</v>
@@ -11651,10 +12566,10 @@
         <v>399</v>
       </c>
       <c r="AM83" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "toe", "group": "_o", "pos": "Noun", "adult": false, "has": ["a nail"], "in": ["a shoe"], "on": ["a foot"], "from": [], "is": [], "typeOf": ["a body part"], "supertypeOf": [], "nearlyIs": ["a finger"], "property": []},</v>
@@ -11719,8 +12634,14 @@
       <c r="AJ84" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV84" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AY84" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="85" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "doe", "group": "_o", "pos": "Noun", "adult": false, "has": ["hooves"], "in": [], "on": [], "from": [], "is": ["a female deer"], "typeOf": ["a deer","an animal","a mammal"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -11786,7 +12707,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "dough", "group": "_o", "pos": "Noun", "adult": false, "has": ["yeast","flour"], "in": ["a bakery"], "on": [], "from": ["a baker"], "is": [], "typeOf": ["an ingredient"], "supertypeOf": [], "nearlyIs": ["a batter"], "property": []},</v>
@@ -11854,8 +12775,17 @@
       <c r="AJ86" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV86" t="s">
+        <v>1877</v>
+      </c>
+      <c r="AW86" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AY86" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="87" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "hoe", "group": "_o", "pos": "Noun", "adult": false, "has": ["a handle"], "in": ["a farm","a farmyard","a field"], "on": [], "from": ["a farm","a farmyard","a field"], "is": [], "typeOf": ["a tool","a farm tool"], "supertypeOf": [], "nearlyIs": ["a plough"], "property": []},</v>
@@ -11936,7 +12866,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "ho", "group": "_o", "pos": "Noun", "adult": true, "has": ["a pimp","fishnets"], "in": ["a dark alley","a brothel"], "on": ["the streets","a street corner"], "from": ["a brothel"], "is": ["a prostitute","a slag","a hooker"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a skanky","a slutty"]},</v>
@@ -12020,13 +12950,34 @@
         <v>754</v>
       </c>
       <c r="AM88" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="AN88" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1701</v>
+      </c>
+      <c r="AP88" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AQ88" t="s">
+        <v>1917</v>
+      </c>
+      <c r="AS88" t="s">
+        <v>1918</v>
+      </c>
+      <c r="AT88" t="s">
+        <v>1919</v>
+      </c>
+      <c r="AV88" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AW88" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX88" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="89" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "beau", "group": "_o", "pos": "Noun", "adult": false, "has": ["a lover"], "in": [], "on": [], "from": [], "is": ["a lover"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -12082,8 +13033,20 @@
       <c r="AA89" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP89" t="s">
+        <v>1921</v>
+      </c>
+      <c r="AS89" t="s">
+        <v>1922</v>
+      </c>
+      <c r="AV89" t="s">
+        <v>1923</v>
+      </c>
+      <c r="AY89" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="90" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "no", "group": "_o", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -12133,8 +13096,14 @@
       <c r="N90" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AS90" t="s">
+        <v>1925</v>
+      </c>
+      <c r="AT90" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="91" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "mo", "group": "_o", "pos": "Noun", "adult": false, "has": [], "in": ["a moment"], "on": [], "from": [], "is": ["a moment","a second"], "typeOf": ["a time period"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -12197,7 +13166,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "snow", "group": "_o", "pos": "Noun", "adult": false, "has": [], "in": ["winter"], "on": ["a mountain"], "from": [], "is": [], "typeOf": ["weather","precipitation"], "supertypeOf": [], "nearlyIs": ["ice"], "property": ["a cold","a chilly"]},</v>
@@ -12263,13 +13232,22 @@
         <v>1143</v>
       </c>
       <c r="AM92" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="AN92" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1703</v>
+      </c>
+      <c r="AP92" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AQ92" t="s">
+        <v>1928</v>
+      </c>
+      <c r="AV92" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="93" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "throw", "group": "_o", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a pitcher","a bowler"], "is": [], "typeOf": ["an action"], "supertypeOf": ["a launch"], "nearlyIs": [], "property": []},</v>
@@ -12331,8 +13309,14 @@
       <c r="AG93" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP93" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AQ93" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="94" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "show", "group": "_o", "pos": "Noun", "adult": false, "has": ["actors","an audience","a stage"], "in": [], "on": ["stage","tv","Broadway"], "from": [], "is": ["a presentation"], "typeOf": ["an event"], "supertypeOf": ["a play","an opera","a circus"], "nearlyIs": [], "property": []},</v>
@@ -12415,8 +13399,23 @@
       <c r="AI94" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV94" t="s">
+        <v>1932</v>
+      </c>
+      <c r="AW94" t="s">
+        <v>1858</v>
+      </c>
+      <c r="AY94" t="s">
+        <v>1933</v>
+      </c>
+      <c r="AZ94" t="s">
+        <v>1934</v>
+      </c>
+      <c r="BA94" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="95" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "foe", "group": "_o", "pos": "Noun", "adult": false, "has": ["a vendetta"], "in": [], "on": [], "from": [], "is": ["an enemy","an adversary","an opponent"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -12478,8 +13477,11 @@
       <c r="AC95" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV95" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="96" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "white", "group": "_ite", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -12530,7 +13532,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "rite", "group": "_ite", "pos": "Noun", "adult": false, "has": ["candles","cultists","a sacrifice"], "in": [], "on": ["an altar"], "from": [], "is": [], "typeOf": ["a ceremony"], "supertypeOf": ["a sacrifice","a blood sacrifice","a funeral"], "nearlyIs": ["a spell"], "property": ["a ceremonial","a religious"]},</v>
@@ -12608,13 +13610,19 @@
         <v>1155</v>
       </c>
       <c r="AM97" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="AN97" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
+        <v>1705</v>
+      </c>
+      <c r="AV97" t="s">
+        <v>1858</v>
+      </c>
+      <c r="AY97" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "right", "group": "_ite", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a permission"], "property": []},</v>
@@ -12668,7 +13676,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "site", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a location","a URL"], "in": [], "on": [], "from": [], "is": ["a plot"], "typeOf": ["an area"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -12731,7 +13739,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "sight", "group": "_ite", "pos": "Noun", "adult": false, "has": ["eyes"], "in": [], "on": [], "from": [], "is": ["a view"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a scene"], "property": ["a beautiful"]},</v>
@@ -12791,10 +13799,25 @@
         <v>1162</v>
       </c>
       <c r="AM100" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
+        <v>1694</v>
+      </c>
+      <c r="AV100" t="s">
+        <v>1936</v>
+      </c>
+      <c r="AW100" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX100" t="s">
+        <v>1932</v>
+      </c>
+      <c r="AY100" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AZ100" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "fight", "group": "_ite", "pos": "Noun", "adult": false, "has": ["combatants","warriors","punches"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["an argument","a disagreement"], "supertypeOf": ["a battle","a spat","combat"], "nearlyIs": [], "property": ["an aggressive"]},</v>
@@ -12869,10 +13892,16 @@
         <v>1165</v>
       </c>
       <c r="AM101" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
+        <v>1706</v>
+      </c>
+      <c r="AV101" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW101" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "kite", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a string"], "in": ["the sky"], "on": [], "from": [], "is": [], "typeOf": ["a toy","a bird"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -12935,10 +13964,13 @@
         <v>1027</v>
       </c>
       <c r="AP102" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
+        <v>1812</v>
+      </c>
+      <c r="AS102" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "light", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a switch"], "in": [], "on": [], "from": ["the sun","a lamp","a torch"], "is": [], "typeOf": [], "supertypeOf": ["a lantern","a torch","a lamp"], "nearlyIs": [], "property": ["a bright"]},</v>
@@ -13010,16 +14042,25 @@
         <v>527</v>
       </c>
       <c r="AM103" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="AP103" t="s">
-        <v>1707</v>
+        <v>1939</v>
       </c>
       <c r="AQ103" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
+        <v>1940</v>
+      </c>
+      <c r="AS103" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AT103" t="s">
+        <v>1710</v>
+      </c>
+      <c r="AV103" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "bite", "group": "_ite", "pos": "Noun", "adult": false, "has": ["teeth","teethmarks"], "in": [], "on": [], "from": ["a wild animal","a dog"], "is": [], "typeOf": [], "supertypeOf": ["a chomp"], "nearlyIs": [], "property": []},</v>
@@ -13085,7 +14126,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "byte", "group": "_ite", "pos": "Noun", "adult": false, "has": ["data","memory"], "in": ["a computer"], "on": ["the computer"], "from": [], "is": [], "typeOf": ["memory"], "supertypeOf": [], "nearlyIs": [], "property": ["an electronic"]},</v>
@@ -13151,10 +14192,10 @@
         <v>1172</v>
       </c>
       <c r="AM105" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "night", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a moon","stars"], "in": ["the evening"], "on": [], "from": [], "is": [], "typeOf": ["a time period"], "supertypeOf": ["an evening"], "nearlyIs": ["darkness","a sunset"], "property": ["a dark"]},</v>
@@ -13226,10 +14267,10 @@
         <v>1177</v>
       </c>
       <c r="AM106" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "knight", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a horse","a sword","a shield"], "in": ["the middle ages","a joust"], "on": ["a chess-board","a horse"], "from": ["the middle ages"], "is": ["a sir"], "typeOf": ["a warrior"], "supertypeOf": ["a cavalier"], "nearlyIs": ["a gentleman"], "property": ["an honorable","a medieval","an armoured"]},</v>
@@ -13316,16 +14357,28 @@
         <v>945</v>
       </c>
       <c r="AM107" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="AN107" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="AO107" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
+        <v>1714</v>
+      </c>
+      <c r="AP107" t="s">
+        <v>1942</v>
+      </c>
+      <c r="AQ107" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AS107" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AT107" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "mite", "group": "_ite", "pos": "Noun", "adult": false, "has": ["lots of legs"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["an insect"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -13382,7 +14435,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "shite", "group": "_ite", "pos": "Noun", "adult": true, "has": ["a bad smell","a bit of sweetcorn in it"], "in": ["the toilet"], "on": [], "from": [], "is": ["a turd","a crap","faeces"], "typeOf": ["a dump","a floater","a bodily function"], "supertypeOf": ["diarrhea"], "nearlyIs": ["rubbish","junk"], "property": ["a smelly","a rubbish"]},</v>
@@ -13472,13 +14525,25 @@
         <v>1058</v>
       </c>
       <c r="AM109" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="AN109" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AP109" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AQ109" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AS109" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AV109" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "new", "group": "_ew", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -13529,7 +14594,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "two", "group": "_ew", "pos": "Noun", "adult": false, "has": [], "in": ["pairs"], "on": [], "from": [], "is": ["a pair","a duo","a couple"], "typeOf": ["a number"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -13595,7 +14660,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "yew", "group": "_ew", "pos": "Noun", "adult": false, "has": ["leaves","bark","branches"], "in": ["a forest","a wood","the woods"], "on": [], "from": [], "is": [], "typeOf": ["a tree","a plant"], "supertypeOf": [], "nearlyIs": [], "property": ["a leafy"]},</v>
@@ -13670,10 +14735,13 @@
         <v>1184</v>
       </c>
       <c r="AM112" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1715</v>
+      </c>
+      <c r="AV112" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "pew", "group": "_ew", "pos": "Noun", "adult": false, "has": ["bibles"], "in": ["a church","a chapel"], "on": [], "from": [], "is": [], "typeOf": ["a seat","a bench","furniture"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -13741,8 +14809,11 @@
       <c r="AF113" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV113" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "sue", "group": "_ew", "pos": "Verb", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -13793,7 +14864,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "dew", "group": "_ew", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["the grass","the morning"], "from": [], "is": [], "typeOf": ["water","precipitation"], "supertypeOf": [], "nearlyIs": ["a mist"], "property": ["a damp"]},</v>
@@ -13859,10 +14930,10 @@
         <v>1187</v>
       </c>
       <c r="AM115" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "few", "group": "_ew", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a handful"], "typeOf": ["an amount","a number"], "supertypeOf": [], "nearlyIs": ["a couple"], "property": []},</v>
@@ -13925,7 +14996,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "hue", "group": "_ew", "pos": "Noun", "adult": false, "has": [], "in": ["a colour palette"], "on": [], "from": [], "is": [], "typeOf": ["a colour","a shade"], "supertypeOf": [], "nearlyIs": [], "property": ["a colourful"]},</v>
@@ -13985,10 +15056,10 @@
         <v>1189</v>
       </c>
       <c r="AM117" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "jew", "group": "_ew", "pos": "Noun", "adult": true, "has": ["a circumcision"], "in": ["a synagogue"], "on": [], "from": ["Israel"], "is": ["a jewish person"], "typeOf": ["a believer"], "supertypeOf": ["a Rabbi"], "nearlyIs": [], "property": ["a religious"]},</v>
@@ -14060,10 +15131,10 @@
         <v>1191</v>
       </c>
       <c r="AM118" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "loo", "group": "_ew", "pos": "Noun", "adult": false, "has": ["a flush"], "in": ["a bathroom","a restroom"], "on": [], "from": [], "is": ["a toilet","a bathroom"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -14128,8 +15199,20 @@
       <c r="AB119" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV119" t="s">
+        <v>1947</v>
+      </c>
+      <c r="AW119" t="s">
+        <v>1948</v>
+      </c>
+      <c r="AX119" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AY119" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "zoo", "group": "_ew", "pos": "Noun", "adult": false, "has": ["animals","lions","tigers"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a stable"], "property": []},</v>
@@ -14191,8 +15274,14 @@
       <c r="AJ120" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV120" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AY120" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "view", "group": "_ew", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a mountain top"], "from": ["an overlook","a beauty spot","a skyscraper"], "is": ["a sight"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a scene"], "property": ["a beautiful"]},</v>
@@ -14261,10 +15350,19 @@
         <v>1162</v>
       </c>
       <c r="AM121" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1694</v>
+      </c>
+      <c r="AV121" t="s">
+        <v>1936</v>
+      </c>
+      <c r="AW121" t="s">
+        <v>1951</v>
+      </c>
+      <c r="AY121" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "boo", "group": "_ew", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a ghost"], "is": [], "typeOf": ["a fright","a scare"], "supertypeOf": [], "nearlyIs": ["a scream","a shout"], "property": ["a frightful","a scary"]},</v>
@@ -14330,13 +15428,16 @@
         <v>1199</v>
       </c>
       <c r="AM122" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="AN122" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1719</v>
+      </c>
+      <c r="AP122" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "spew", "group": "_ew", "pos": "Noun", "adult": true, "has": ["a bit of sweetcorn in it","a bad smell"], "in": [], "on": ["the pavement"], "from": ["a drunk"], "is": ["vomit"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -14404,8 +15505,11 @@
       <c r="AA123" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV123" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "shoe", "group": "_ew", "pos": "Noun", "adult": false, "has": ["laces","a sole"], "in": [], "on": ["your foot","a foot"], "from": [], "is": [], "typeOf": ["footwear"], "supertypeOf": ["a sandal","a high heel","a slipper"], "nearlyIs": [], "property": []},</v>
@@ -14479,8 +15583,14 @@
       <c r="AI124" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV124" t="s">
+        <v>1821</v>
+      </c>
+      <c r="AY124" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "stew", "group": "_ew", "pos": "Noun", "adult": false, "has": ["meat in it","carrots"], "in": [], "on": [], "from": ["a kitchen","the kitchen"], "is": [], "typeOf": ["a meal","a main course"], "supertypeOf": [], "nearlyIs": [], "property": ["a meaty"]},</v>
@@ -14549,10 +15659,31 @@
         <v>1206</v>
       </c>
       <c r="AM125" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1720</v>
+      </c>
+      <c r="AP125" t="s">
+        <v>1955</v>
+      </c>
+      <c r="AQ125" t="s">
+        <v>1957</v>
+      </c>
+      <c r="AS125" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AT125" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AV125" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AW125" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY125" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "you", "group": "_ew", "pos": "Noun", "adult": false, "has": ["no friends","a bad attitude","a bad smell"], "in": ["terrible shape"], "on": [], "from": [], "is": ["an idiot","a moron","a jerk"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a terrible","an awful","an ugly"]},</v>
@@ -14624,16 +15755,25 @@
         <v>1207</v>
       </c>
       <c r="AM126" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="AN126" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="AO126" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1723</v>
+      </c>
+      <c r="AP126" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AQ126" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AS126" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "ring", "group": "_ing", "pos": "Noun", "adult": false, "has": ["an inscription"], "in": [], "on": ["your finger","a finger"], "from": ["a jewellers"], "is": [], "typeOf": ["jewellery"], "supertypeOf": [], "nearlyIs": ["a circle"], "property": []},</v>
@@ -14701,8 +15841,14 @@
       <c r="AJ127" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV127" t="s">
+        <v>1821</v>
+      </c>
+      <c r="AY127" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "wing", "group": "_ing", "pos": "Noun", "adult": false, "has": ["feathers"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a side"], "property": ["a feathered"]},</v>
@@ -14759,10 +15905,16 @@
         <v>1210</v>
       </c>
       <c r="AM128" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
+        <v>1724</v>
+      </c>
+      <c r="AP128" t="s">
+        <v>1959</v>
+      </c>
+      <c r="AS128" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="129" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "thing", "group": "_ing", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an item","an object"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -14819,7 +15971,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="10"/>
         <v>{"spelling": "ying", "group": "_ing", "pos": "Noun", "adult": false, "has": ["a yang"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -14873,7 +16025,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" ref="A131:A194" si="28">CONCATENATE("{""spelling"": """,L131,""", ""group"": """,K131,""", ""pos"": """,N131,""", ""adult"": ",IF(M131=TRUE,"true","false"),", ""has"": [",B131,"]",", ""in"": [",C131,"]",", ""on"": [",D131,"]",", ""from"": [",E131,"]",", ""is"": [",F131,"]",", ""typeOf"": [",G131,"]",", ""supertypeOf"": [",H131,"]",", ""nearlyIs"": [",I131,"]",", ""property"": [",J131,"]},")</f>
         <v>{"spelling": "ping", "group": "_ing", "pos": "Noun", "adult": false, "has": ["lag"], "in": [], "on": ["a network"], "from": [], "is": [], "typeOf": ["a noise","a sound","an alert"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -14938,8 +16090,11 @@
       <c r="AF131" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AV131" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="132" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "ding", "group": "_ing", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a noise","a sound","an alert"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -14998,8 +16153,11 @@
       <c r="AF132" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AV132" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="133" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "king", "group": "_ing", "pos": "Noun", "adult": false, "has": ["subjects","a country","a crown"], "in": ["the throne room","the palace"], "on": ["a throne"], "from": ["the palace"], "is": ["a monarch"], "typeOf": ["a ruler"], "supertypeOf": [], "nearlyIs": ["an emperor","a prince"], "property": ["a royal"]},</v>
@@ -15083,10 +16241,22 @@
         <v>1216</v>
       </c>
       <c r="AM133" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
+        <v>1725</v>
+      </c>
+      <c r="AP133" t="s">
+        <v>548</v>
+      </c>
+      <c r="AQ133" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AS133" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AT133" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="134" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "app", "group": "_ap", "pos": "Noun", "adult": false, "has": ["developers","a developer"], "in": [], "on": ["your phone","a phone"], "from": [], "is": ["an application"], "typeOf": ["a program"], "supertypeOf": ["a mobile game","WhatsApp"], "nearlyIs": ["a game"], "property": ["a digital"]},</v>
@@ -15164,10 +16334,19 @@
         <v>1218</v>
       </c>
       <c r="AM134" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
+        <v>1726</v>
+      </c>
+      <c r="AV134" t="s">
+        <v>1964</v>
+      </c>
+      <c r="AW134" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AY134" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="135" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "rap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["lyrics"], "in": [], "on": ["the radio","Spotify"], "from": [], "is": [], "typeOf": ["music","singing"], "supertypeOf": [], "nearlyIs": ["a song"], "property": ["a musical"]},</v>
@@ -15238,8 +16417,14 @@
       <c r="AM135" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AV135" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AW135" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="136" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "tap", "group": "_ap", "pos": "Noun", "adult": false, "has": [], "in": ["the kitchen"], "on": [], "from": [], "is": [], "typeOf": ["a touch"], "supertypeOf": [], "nearlyIs": ["a prod"], "property": []},</v>
@@ -15298,8 +16483,14 @@
       <c r="AJ136" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AP136" t="s">
+        <v>1969</v>
+      </c>
+      <c r="AS136" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="137" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "yap", "group": "_ap", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a small dog","a puppy","a dog"], "is": [], "typeOf": ["a bark"], "supertypeOf": [], "nearlyIs": ["a squeal"], "property": []},</v>
@@ -15364,8 +16555,11 @@
       <c r="AJ137" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AV137" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="138" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "sap", "group": "_ap", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a tree"], "from": ["a tree"], "is": [], "typeOf": [], "supertypeOf": ["maple syrup"], "nearlyIs": [], "property": []},</v>
@@ -15425,7 +16619,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "gap", "group": "_ap", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an opening"], "typeOf": ["a space"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -15482,7 +16676,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "lap", "group": "_ap", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -15533,7 +16727,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "clap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a noise","two hands"], "in": [], "on": [], "from": ["the audience","an audience"], "is": [], "typeOf": ["a sound"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -15598,8 +16792,11 @@
       <c r="AD141" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AV141" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="142" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "cap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a brim"], "in": [], "on": ["your head","a bottle"], "from": [], "is": [], "typeOf": ["a hat","a lid"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -15664,8 +16861,14 @@
       <c r="AE142" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AV142" t="s">
+        <v>1821</v>
+      </c>
+      <c r="AY142" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="143" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "bap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a filling","bread"], "in": [], "on": [], "from": ["a baker"], "is": [], "typeOf": ["a bun","a bread","a baked good"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -15733,8 +16936,14 @@
       <c r="AF143" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AV143" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AY143" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="144" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "nap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a pillow"], "in": ["bed"], "on": ["the sofa"], "from": [], "is": [], "typeOf": ["a sleep","a rest"], "supertypeOf": [], "nearlyIs": [], "property": ["a sleepy"]},</v>
@@ -15800,10 +17009,10 @@
         <v>1235</v>
       </c>
       <c r="AM144" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="145" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "map", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a landscape","oceans","continents"], "in": ["an atlas"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["an atlas","a globe"], "nearlyIs": ["a plan"], "property": []},</v>
@@ -15874,8 +17083,14 @@
       <c r="AJ145" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV145" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AW145" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="146" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "trap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["bait"], "in": [], "on": [], "from": ["a hunter"], "is": [], "typeOf": [], "supertypeOf": ["a snare","a pit","a pitfall"], "nearlyIs": [], "property": []},</v>
@@ -15941,7 +17156,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "chap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["tophat","monocle"], "in": ["England"], "on": [], "from": ["England"], "is": ["a gent"], "typeOf": ["a person"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -16010,7 +17225,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "snap", "group": "_ap", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a picture"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -16063,8 +17278,11 @@
       <c r="AA148" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV148" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="149" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "jam", "group": "_am", "pos": "Noun", "adult": false, "has": ["fruit","sugar","strawberries"], "in": ["the kitchen","a jar"], "on": ["toast"], "from": [], "is": ["a preserve"], "typeOf": ["a spread"], "supertypeOf": [], "nearlyIs": ["a jelly"], "property": ["a fruity","a sweet"]},</v>
@@ -16142,13 +17360,22 @@
         <v>1242</v>
       </c>
       <c r="AM149" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="AN149" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1730</v>
+      </c>
+      <c r="AV149" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AW149" t="s">
+        <v>1972</v>
+      </c>
+      <c r="AY149" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="150" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "ram", "group": "_am", "pos": "Noun", "adult": false, "has": ["horns","wool","hooves"], "in": ["a field"], "on": [], "from": ["a field","a farm"], "is": [], "typeOf": ["a sheep","a farm animal","an animal"], "supertypeOf": [], "nearlyIs": [], "property": ["a wooly","a horned"]},</v>
@@ -16226,13 +17453,25 @@
         <v>775</v>
       </c>
       <c r="AM150" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="AN150" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1689</v>
+      </c>
+      <c r="AP150" t="s">
+        <v>1861</v>
+      </c>
+      <c r="AS150" t="s">
+        <v>1890</v>
+      </c>
+      <c r="AV150" t="s">
+        <v>1973</v>
+      </c>
+      <c r="AY150" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "tram", "group": "_am", "pos": "Noun", "adult": false, "has": ["passengers","rails"], "in": [], "on": ["rails"], "from": [], "is": [], "typeOf": ["a vehicle"], "supertypeOf": ["a streetcar"], "nearlyIs": ["a train","a carriage"], "property": []},</v>
@@ -16303,8 +17542,20 @@
       <c r="AK151" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP151" t="s">
+        <v>1975</v>
+      </c>
+      <c r="AS151" t="s">
+        <v>1976</v>
+      </c>
+      <c r="AV151" t="s">
+        <v>1977</v>
+      </c>
+      <c r="AW151" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "spam", "group": "_am", "pos": "Noun", "adult": false, "has": [], "in": ["your inbox"], "on": [], "from": ["a scammer"], "is": ["junkmail"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["an email"], "property": ["a canned","a repetetive"]},</v>
@@ -16367,13 +17618,13 @@
         <v>1248</v>
       </c>
       <c r="AM152" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="AN152" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="153" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "slam", "group": "_am", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a smash"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -16427,7 +17678,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "scam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a victim"], "in": [], "on": [], "from": ["a spammer","a conman"], "is": ["a con"], "typeOf": ["a lie","a ploy"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -16496,7 +17747,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "dam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a lot of water"], "in": ["the river","a river"], "on": [], "from": [], "is": [], "typeOf": ["a blockade"], "supertypeOf": [], "nearlyIs": [], "property": ["a blocked"]},</v>
@@ -16559,10 +17810,10 @@
         <v>1254</v>
       </c>
       <c r="AM155" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="156" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "damn", "group": "_am", "pos": "Noun", "adult": true, "has": [], "in": [], "on": [], "from": ["a sinner"], "is": [], "typeOf": ["swearing","a curse"], "supertypeOf": [], "nearlyIs": [], "property": ["a cursed"]},</v>
@@ -16625,10 +17876,10 @@
         <v>1256</v>
       </c>
       <c r="AM156" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="157" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "ham", "group": "_am", "pos": "Noun", "adult": false, "has": ["bone"], "in": ["a sandwich"], "on": [], "from": ["a pig"], "is": [], "typeOf": ["pork","meat"], "supertypeOf": [], "nearlyIs": [], "property": ["a meaty"]},</v>
@@ -16694,10 +17945,10 @@
         <v>1258</v>
       </c>
       <c r="AM157" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="158" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "lamb", "group": "_am", "pos": "Noun", "adult": false, "has": ["wool","hooves"], "in": ["a field"], "on": [], "from": ["a field","a farm"], "is": [], "typeOf": ["sheep","meat","a farm animal"], "supertypeOf": [], "nearlyIs": [], "property": ["a wooly"]},</v>
@@ -16772,10 +18023,10 @@
         <v>1083</v>
       </c>
       <c r="AM158" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="159" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "clam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a shell","a pearl"], "in": ["the ocean","the sea"], "on": [], "from": ["a fishmonger"], "is": [], "typeOf": ["a shellfish","a sea creature","a crustacean"], "supertypeOf": [], "nearlyIs": ["an oyster"], "property": []},</v>
@@ -16853,7 +18104,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "day", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a morning","an afternoon","the sun"], "in": ["the morning","the afternoon"], "on": [], "from": [], "is": [], "typeOf": ["a time period"], "supertypeOf": [], "nearlyIs": ["a morning","an afternoon"], "property": []},</v>
@@ -17192,13 +18443,13 @@
         <v>1272</v>
       </c>
       <c r="AM164" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="AN164" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="AO164" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="165" spans="1:42" x14ac:dyDescent="0.25">
@@ -17762,10 +19013,10 @@
         <v>1291</v>
       </c>
       <c r="AM172" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="AP172" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="173" spans="1:42" x14ac:dyDescent="0.25">
@@ -17969,10 +19220,10 @@
         <v>1294</v>
       </c>
       <c r="AM175" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="AN175" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="176" spans="1:42" x14ac:dyDescent="0.25">
@@ -18125,7 +19376,7 @@
         <v>674</v>
       </c>
       <c r="AM177" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="178" spans="1:42" x14ac:dyDescent="0.25">
@@ -18197,7 +19448,7 @@
         <v>528</v>
       </c>
       <c r="AM178" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="179" spans="1:42" x14ac:dyDescent="0.25">
@@ -18524,7 +19775,7 @@
         <v>1305</v>
       </c>
       <c r="AM183" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="184" spans="1:42" x14ac:dyDescent="0.25">
@@ -18593,7 +19844,7 @@
         <v>1008</v>
       </c>
       <c r="AM184" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="185" spans="1:42" x14ac:dyDescent="0.25">
@@ -18881,7 +20132,7 @@
         <v>394</v>
       </c>
       <c r="AM188" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="189" spans="1:42" x14ac:dyDescent="0.25">
@@ -18956,10 +20207,10 @@
         <v>1317</v>
       </c>
       <c r="AM189" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="AN189" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="190" spans="1:42" x14ac:dyDescent="0.25">
@@ -19031,7 +20282,7 @@
         <v>1318</v>
       </c>
       <c r="AM190" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="191" spans="1:42" x14ac:dyDescent="0.25">
@@ -19100,7 +20351,7 @@
         <v>1320</v>
       </c>
       <c r="AP191" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="192" spans="1:42" x14ac:dyDescent="0.25">
@@ -19304,7 +20555,7 @@
         <v>1326</v>
       </c>
       <c r="AM194" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="195" spans="1:40" x14ac:dyDescent="0.25">
@@ -19577,10 +20828,10 @@
         <v>1336</v>
       </c>
       <c r="AM198" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="AN198" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="199" spans="1:40" x14ac:dyDescent="0.25">
@@ -19658,7 +20909,7 @@
         <v>1125</v>
       </c>
       <c r="AM199" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="200" spans="1:40" x14ac:dyDescent="0.25">
@@ -19781,7 +21032,7 @@
         <v>1343</v>
       </c>
       <c r="AM201" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="202" spans="1:40" x14ac:dyDescent="0.25">
@@ -19907,7 +21158,7 @@
         <v>1346</v>
       </c>
       <c r="AM203" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="204" spans="1:40" x14ac:dyDescent="0.25">
@@ -20093,7 +21344,7 @@
         <v>945</v>
       </c>
       <c r="AM206" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="207" spans="1:40" x14ac:dyDescent="0.25">
@@ -20606,7 +21857,7 @@
         <v>1359</v>
       </c>
       <c r="AM214" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="215" spans="1:40" x14ac:dyDescent="0.25">
@@ -20780,10 +22031,10 @@
         <v>1035</v>
       </c>
       <c r="AM217" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="AN217" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="218" spans="1:40" x14ac:dyDescent="0.25">
@@ -20858,7 +22109,7 @@
         <v>1365</v>
       </c>
       <c r="AM218" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="219" spans="1:40" x14ac:dyDescent="0.25">
@@ -20939,10 +22190,10 @@
         <v>1366</v>
       </c>
       <c r="AM219" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="AN219" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="220" spans="1:40" x14ac:dyDescent="0.25">
@@ -21008,7 +22259,7 @@
         <v>1371</v>
       </c>
       <c r="AM220" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="221" spans="1:40" x14ac:dyDescent="0.25">
@@ -21080,10 +22331,10 @@
         <v>1375</v>
       </c>
       <c r="AM221" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="AN221" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="222" spans="1:40" x14ac:dyDescent="0.25">
@@ -21158,7 +22409,7 @@
         <v>1378</v>
       </c>
       <c r="AM222" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="223" spans="1:40" x14ac:dyDescent="0.25">
@@ -21227,7 +22478,7 @@
         <v>1377</v>
       </c>
       <c r="AM223" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="224" spans="1:40" x14ac:dyDescent="0.25">
@@ -21560,10 +22811,10 @@
         <v>1387</v>
       </c>
       <c r="AM228" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="AN228" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="229" spans="1:40" x14ac:dyDescent="0.25">
@@ -21626,10 +22877,10 @@
         <v>987</v>
       </c>
       <c r="AM229" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="AN229" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="230" spans="1:40" x14ac:dyDescent="0.25">
@@ -21698,10 +22949,10 @@
         <v>1389</v>
       </c>
       <c r="AM230" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="AN230" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="231" spans="1:40" x14ac:dyDescent="0.25">
@@ -21845,10 +23096,10 @@
         <v>1394</v>
       </c>
       <c r="AM232" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="AN232" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="233" spans="1:40" x14ac:dyDescent="0.25">
@@ -21983,7 +23234,7 @@
         <v>749</v>
       </c>
       <c r="AM234" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="AN234" t="s">
         <v>1397</v>
@@ -22043,7 +23294,7 @@
         <v>621</v>
       </c>
       <c r="AM235" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="236" spans="1:40" x14ac:dyDescent="0.25">
@@ -22241,10 +23492,10 @@
         <v>775</v>
       </c>
       <c r="AM238" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="AN238" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="239" spans="1:40" x14ac:dyDescent="0.25">
@@ -22433,7 +23684,7 @@
         <v>1406</v>
       </c>
       <c r="AM241" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="242" spans="1:40" x14ac:dyDescent="0.25">
@@ -22565,7 +23816,7 @@
         <v>1408</v>
       </c>
       <c r="AM243" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="244" spans="1:40" x14ac:dyDescent="0.25">
@@ -22625,7 +23876,7 @@
         <v>1410</v>
       </c>
       <c r="AM244" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="245" spans="1:40" x14ac:dyDescent="0.25">
@@ -22688,7 +23939,7 @@
         <v>1049</v>
       </c>
       <c r="AM245" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="246" spans="1:40" x14ac:dyDescent="0.25">
@@ -23072,7 +24323,7 @@
         <v>647</v>
       </c>
       <c r="AM251" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="252" spans="1:40" x14ac:dyDescent="0.25">
@@ -23264,10 +24515,10 @@
         <v>1418</v>
       </c>
       <c r="AM254" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="AN254" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="255" spans="1:40" x14ac:dyDescent="0.25">
@@ -23471,10 +24722,10 @@
         <v>1240</v>
       </c>
       <c r="AM257" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="AN257" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="258" spans="1:41" x14ac:dyDescent="0.25">
@@ -23546,12 +24797,12 @@
         <v>433</v>
       </c>
       <c r="AM258" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="259" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
-        <f t="shared" ref="A259:A322" si="48">CONCATENATE("{""spelling"": """,L259,""", ""group"": """,K259,""", ""pos"": """,N259,""", ""adult"": ",IF(M259=TRUE,"true","false"),", ""has"": [",B259,"]",", ""in"": [",C259,"]",", ""on"": [",D259,"]",", ""from"": [",E259,"]",", ""is"": [",F259,"]",", ""typeOf"": [",G259,"]",", ""supertypeOf"": [",H259,"]",", ""nearlyIs"": [",I259,"]",", ""property"": [",J259,"]},")</f>
+        <f t="shared" ref="A259:A323" si="48">CONCATENATE("{""spelling"": """,L259,""", ""group"": """,K259,""", ""pos"": """,N259,""", ""adult"": ",IF(M259=TRUE,"true","false"),", ""has"": [",B259,"]",", ""in"": [",C259,"]",", ""on"": [",D259,"]",", ""from"": [",E259,"]",", ""is"": [",F259,"]",", ""typeOf"": [",G259,"]",", ""supertypeOf"": [",H259,"]",", ""nearlyIs"": [",I259,"]",", ""property"": [",J259,"]},")</f>
         <v>{"spelling": "pan", "group": "_an", "pos": "Noun", "adult": false, "has": ["a handle"], "in": ["the kitchen","a kitchen"], "on": ["the stove"], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a wok"], "nearlyIs": ["a pot"], "property": []},</v>
       </c>
       <c r="B259" t="str">
@@ -23587,7 +24838,7 @@
         <v>"a pot"</v>
       </c>
       <c r="J259" t="str">
-        <f t="shared" ref="J259:J322" si="49">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AM259,""",""",AN259,""",""",AO259,""""),",""""",""),"""""","")</f>
+        <f t="shared" ref="J259:J323" si="49">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AM259,""",""",AN259,""",""",AO259,""""),",""""",""),"""""","")</f>
         <v/>
       </c>
       <c r="K259" t="s">
@@ -23624,35 +24875,35 @@
         <v>{"spelling": "fan", "group": "_an", "pos": "Noun", "adult": false, "has": ["blades"], "in": ["the summer"], "on": [], "from": [], "is": [], "typeOf": ["an appliance"], "supertypeOf": [], "nearlyIs": ["an air conditioner"], "property": []},</v>
       </c>
       <c r="B260" t="str">
-        <f t="shared" ref="B260:B301" si="50">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",O260,""",""",P260,""",""",Q260,""""),",""""",""),"""""","")</f>
+        <f t="shared" ref="B260:B302" si="50">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",O260,""",""",P260,""",""",Q260,""""),",""""",""),"""""","")</f>
         <v>"blades"</v>
       </c>
       <c r="C260" t="str">
-        <f t="shared" ref="C260:C301" si="51">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",R260,""",""",S260,""",""",T260,""""),",""""",""),"""""","")</f>
+        <f t="shared" ref="C260:C302" si="51">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",R260,""",""",S260,""",""",T260,""""),",""""",""),"""""","")</f>
         <v>"the summer"</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" ref="D260:D301" si="52">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",U260,""",""",V260,""",""",W260,""""),",""""",""),"""""","")</f>
+        <f t="shared" ref="D260:D302" si="52">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",U260,""",""",V260,""",""",W260,""""),",""""",""),"""""","")</f>
         <v/>
       </c>
       <c r="E260" t="str">
-        <f t="shared" ref="E260:E301" si="53">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",X260,""",""",Y260,""",""",Z260,""""),",""""",""),"""""","")</f>
+        <f t="shared" ref="E260:E302" si="53">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",X260,""",""",Y260,""",""",Z260,""""),",""""",""),"""""","")</f>
         <v/>
       </c>
       <c r="F260" t="str">
-        <f t="shared" ref="F260:F301" si="54">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AA260,""",""",AB260,""",""",AC260,""""),",""""",""),"""""","")</f>
+        <f t="shared" ref="F260:F302" si="54">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AA260,""",""",AB260,""",""",AC260,""""),",""""",""),"""""","")</f>
         <v/>
       </c>
       <c r="G260" t="str">
-        <f t="shared" ref="G260:G301" si="55">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AD260,""",""",AE260,""",""",AF260,""""),",""""",""),"""""","")</f>
+        <f t="shared" ref="G260:G302" si="55">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AD260,""",""",AE260,""",""",AF260,""""),",""""",""),"""""","")</f>
         <v>"an appliance"</v>
       </c>
       <c r="H260" t="str">
-        <f t="shared" ref="H260:H301" si="56">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AG260,""",""",AH260,""",""",AI260,""""),",""""",""),"""""","")</f>
+        <f t="shared" ref="H260:H302" si="56">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AG260,""",""",AH260,""",""",AI260,""""),",""""",""),"""""","")</f>
         <v/>
       </c>
       <c r="I260" t="str">
-        <f t="shared" ref="I260:I301" si="57">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AJ260,""",""",AK260,""",""",AL260,""""),",""""",""),"""""","")</f>
+        <f t="shared" ref="I260:I302" si="57">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AJ260,""",""",AK260,""",""",AL260,""""),",""""",""),"""""","")</f>
         <v>"an air conditioner"</v>
       </c>
       <c r="J260" t="str">
@@ -23813,7 +25064,7 @@
         <v>1408</v>
       </c>
       <c r="AM262" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="263" spans="1:41" x14ac:dyDescent="0.25">
@@ -23888,7 +25139,7 @@
         <v>935</v>
       </c>
       <c r="AM263" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="264" spans="1:41" x14ac:dyDescent="0.25">
@@ -23978,7 +25229,7 @@
         <v>714</v>
       </c>
       <c r="AM264" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="265" spans="1:41" x14ac:dyDescent="0.25">
@@ -24041,7 +25292,7 @@
         <v>1435</v>
       </c>
       <c r="AM265" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="266" spans="1:41" x14ac:dyDescent="0.25">
@@ -24275,7 +25526,7 @@
         <v>1440</v>
       </c>
       <c r="AM268" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="269" spans="1:41" x14ac:dyDescent="0.25">
@@ -24347,7 +25598,7 @@
         <v>1444</v>
       </c>
       <c r="AM269" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="270" spans="1:41" x14ac:dyDescent="0.25">
@@ -24482,13 +25733,13 @@
         <v>855</v>
       </c>
       <c r="AM271" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="AN271" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="AO271" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="272" spans="1:41" x14ac:dyDescent="0.25">
@@ -24581,7 +25832,7 @@
         <v>1359</v>
       </c>
       <c r="AM272" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="273" spans="1:40" x14ac:dyDescent="0.25">
@@ -24641,7 +25892,7 @@
         <v>1449</v>
       </c>
       <c r="AM273" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="274" spans="1:40" x14ac:dyDescent="0.25">
@@ -24764,7 +26015,7 @@
         <v>1451</v>
       </c>
       <c r="AM275" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="276" spans="1:40" x14ac:dyDescent="0.25">
@@ -24887,7 +26138,7 @@
         <v>1454</v>
       </c>
       <c r="AM277" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="278" spans="1:40" x14ac:dyDescent="0.25">
@@ -24980,7 +26231,7 @@
         <v>1359</v>
       </c>
       <c r="AM278" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="279" spans="1:40" x14ac:dyDescent="0.25">
@@ -25322,7 +26573,7 @@
         <v>864</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="N283" t="s">
         <v>217</v>
@@ -25346,7 +26597,7 @@
         <v>1041</v>
       </c>
       <c r="AH283" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="AJ283" t="s">
         <v>1039</v>
@@ -25355,7 +26606,7 @@
         <v>1040</v>
       </c>
       <c r="AM283" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="284" spans="1:40" x14ac:dyDescent="0.25">
@@ -25415,7 +26666,7 @@
         <v>1308</v>
       </c>
       <c r="AM284" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="285" spans="1:40" x14ac:dyDescent="0.25">
@@ -25475,7 +26726,7 @@
         <v>1463</v>
       </c>
       <c r="AM285" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="286" spans="1:40" x14ac:dyDescent="0.25">
@@ -25607,10 +26858,10 @@
         <v>1466</v>
       </c>
       <c r="AM287" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="AN287" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="288" spans="1:40" x14ac:dyDescent="0.25">
@@ -25682,7 +26933,7 @@
         <v>1370</v>
       </c>
       <c r="AM288" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="289" spans="1:41" x14ac:dyDescent="0.25">
@@ -25814,83 +27065,101 @@
         <v>1045</v>
       </c>
       <c r="AM290" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="291" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
-        <f t="shared" si="48"/>
-        <v>{"spelling": "leg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["a foot","a knee","a shin"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a limb","a body part"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <f t="shared" ref="A291" si="66">CONCATENATE("{""spelling"": """,L291,""", ""group"": """,K291,""", ""pos"": """,N291,""", ""adult"": ",IF(M291=TRUE,"true","false"),", ""has"": [",B291,"]",", ""in"": [",C291,"]",", ""on"": [",D291,"]",", ""from"": [",E291,"]",", ""is"": [",F291,"]",", ""typeOf"": [",G291,"]",", ""supertypeOf"": [",H291,"]",", ""nearlyIs"": [",I291,"]",", ""property"": [",J291,"]},")</f>
+        <v>{"spelling": "egg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["a yolk","a shell"], "in": ["a carton","an omlette"], "on": ["toast"], "from": ["a chicken","a farm"], "is": [], "typeOf": ["a food","an ingredient"], "supertypeOf": [], "nearlyIs": [], "property": ["a round","a fragile"]},</v>
       </c>
       <c r="B291" t="str">
-        <f t="shared" si="50"/>
-        <v>"a foot","a knee","a shin"</v>
+        <f t="shared" ref="B291" si="67">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",O291,""",""",P291,""",""",Q291,""""),",""""",""),"""""","")</f>
+        <v>"a yolk","a shell"</v>
       </c>
       <c r="C291" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+        <f t="shared" ref="C291" si="68">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",R291,""",""",S291,""",""",T291,""""),",""""",""),"""""","")</f>
+        <v>"a carton","an omlette"</v>
       </c>
       <c r="D291" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+        <f t="shared" ref="D291" si="69">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",U291,""",""",V291,""",""",W291,""""),",""""",""),"""""","")</f>
+        <v>"toast"</v>
       </c>
       <c r="E291" t="str">
-        <f t="shared" si="53"/>
-        <v/>
+        <f t="shared" ref="E291" si="70">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",X291,""",""",Y291,""",""",Z291,""""),",""""",""),"""""","")</f>
+        <v>"a chicken","a farm"</v>
       </c>
       <c r="F291" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="F291" si="71">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AA291,""",""",AB291,""",""",AC291,""""),",""""",""),"""""","")</f>
         <v/>
       </c>
       <c r="G291" t="str">
-        <f t="shared" si="55"/>
-        <v>"a limb","a body part"</v>
+        <f t="shared" ref="G291" si="72">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AD291,""",""",AE291,""",""",AF291,""""),",""""",""),"""""","")</f>
+        <v>"a food","an ingredient"</v>
       </c>
       <c r="H291" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="H291" si="73">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AG291,""",""",AH291,""",""",AI291,""""),",""""",""),"""""","")</f>
         <v/>
       </c>
       <c r="I291" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="I291" si="74">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AJ291,""",""",AK291,""",""",AL291,""""),",""""",""),"""""","")</f>
         <v/>
       </c>
       <c r="J291" t="str">
-        <f t="shared" si="49"/>
-        <v/>
+        <f t="shared" ref="J291" si="75">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AM291,""",""",AN291,""",""",AO291,""""),",""""",""),"""""","")</f>
+        <v>"a round","a fragile"</v>
       </c>
       <c r="K291" t="s">
         <v>903</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>904</v>
+        <v>1842</v>
       </c>
       <c r="N291" t="s">
         <v>217</v>
       </c>
       <c r="O291" t="s">
-        <v>658</v>
+        <v>1843</v>
       </c>
       <c r="P291" t="s">
-        <v>907</v>
-      </c>
-      <c r="Q291" t="s">
-        <v>908</v>
+        <v>469</v>
+      </c>
+      <c r="R291" t="s">
+        <v>1844</v>
+      </c>
+      <c r="S291" t="s">
+        <v>1845</v>
+      </c>
+      <c r="U291" t="s">
+        <v>722</v>
+      </c>
+      <c r="X291" t="s">
+        <v>1846</v>
+      </c>
+      <c r="Y291" t="s">
+        <v>635</v>
       </c>
       <c r="AD291" t="s">
-        <v>1468</v>
+        <v>1847</v>
       </c>
       <c r="AE291" t="s">
-        <v>1033</v>
+        <v>964</v>
+      </c>
+      <c r="AM291" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AN291" t="s">
+        <v>1848</v>
       </c>
     </row>
     <row r="292" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "peg", "group": "_eg", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a washing line"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <v>{"spelling": "leg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["a foot","a knee","a shin"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a limb","a body part"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B292" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"a foot","a knee","a shin"</v>
       </c>
       <c r="C292" t="str">
         <f t="shared" si="51"/>
@@ -25898,7 +27167,7 @@
       </c>
       <c r="D292" t="str">
         <f t="shared" si="52"/>
-        <v>"a washing line"</v>
+        <v/>
       </c>
       <c r="E292" t="str">
         <f t="shared" si="53"/>
@@ -25910,7 +27179,7 @@
       </c>
       <c r="G292" t="str">
         <f t="shared" si="55"/>
-        <v/>
+        <v>"a limb","a body part"</v>
       </c>
       <c r="H292" t="str">
         <f t="shared" si="56"/>
@@ -25928,43 +27197,55 @@
         <v>903</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N292" t="s">
         <v>217</v>
       </c>
-      <c r="U292" t="s">
-        <v>909</v>
+      <c r="O292" t="s">
+        <v>658</v>
+      </c>
+      <c r="P292" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>908</v>
+      </c>
+      <c r="AD292" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AE292" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="293" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "keg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["beer","ale"], "in": ["a brewery","a pub","a bar"], "on": [], "from": ["a brewery"], "is": ["a cask"], "typeOf": ["a container"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <v>{"spelling": "peg", "group": "_eg", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a washing line"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B293" t="str">
         <f t="shared" si="50"/>
-        <v>"beer","ale"</v>
+        <v/>
       </c>
       <c r="C293" t="str">
         <f t="shared" si="51"/>
-        <v>"a brewery","a pub","a bar"</v>
+        <v/>
       </c>
       <c r="D293" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>"a washing line"</v>
       </c>
       <c r="E293" t="str">
         <f t="shared" si="53"/>
-        <v>"a brewery"</v>
+        <v/>
       </c>
       <c r="F293" t="str">
         <f t="shared" si="54"/>
-        <v>"a cask"</v>
+        <v/>
       </c>
       <c r="G293" t="str">
         <f t="shared" si="55"/>
-        <v>"a container"</v>
+        <v/>
       </c>
       <c r="H293" t="str">
         <f t="shared" si="56"/>
@@ -25982,48 +27263,27 @@
         <v>903</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="N293" t="s">
         <v>217</v>
       </c>
-      <c r="O293" t="s">
-        <v>910</v>
-      </c>
-      <c r="P293" t="s">
-        <v>911</v>
-      </c>
-      <c r="R293" t="s">
-        <v>912</v>
-      </c>
-      <c r="S293" t="s">
-        <v>913</v>
-      </c>
-      <c r="T293" t="s">
-        <v>786</v>
-      </c>
-      <c r="X293" t="s">
-        <v>912</v>
-      </c>
-      <c r="AA293" t="s">
-        <v>1469</v>
-      </c>
-      <c r="AD293" t="s">
-        <v>981</v>
+      <c r="U293" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="294" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "pass", "group": "_ass", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a gap"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <v>{"spelling": "keg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["beer","ale"], "in": ["a brewery","a pub","a bar"], "on": [], "from": ["a brewery"], "is": ["a cask"], "typeOf": ["a container"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B294" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"beer","ale"</v>
       </c>
       <c r="C294" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a brewery","a pub","a bar"</v>
       </c>
       <c r="D294" t="str">
         <f t="shared" si="52"/>
@@ -26031,15 +27291,15 @@
       </c>
       <c r="E294" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>"a brewery"</v>
       </c>
       <c r="F294" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>"a cask"</v>
       </c>
       <c r="G294" t="str">
         <f t="shared" si="55"/>
-        <v>"a gap"</v>
+        <v>"a container"</v>
       </c>
       <c r="H294" t="str">
         <f t="shared" si="56"/>
@@ -26054,30 +27314,51 @@
         <v/>
       </c>
       <c r="K294" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="N294" t="s">
         <v>217</v>
       </c>
+      <c r="O294" t="s">
+        <v>910</v>
+      </c>
+      <c r="P294" t="s">
+        <v>911</v>
+      </c>
+      <c r="R294" t="s">
+        <v>912</v>
+      </c>
+      <c r="S294" t="s">
+        <v>913</v>
+      </c>
+      <c r="T294" t="s">
+        <v>786</v>
+      </c>
+      <c r="X294" t="s">
+        <v>912</v>
+      </c>
+      <c r="AA294" t="s">
+        <v>1469</v>
+      </c>
       <c r="AD294" t="s">
-        <v>1470</v>
+        <v>981</v>
       </c>
     </row>
     <row r="295" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "gas", "group": "_ass", "pos": "Noun", "adult": false, "has": ["a smell"], "in": ["a canister"], "on": [], "from": ["a fart"], "is": [], "typeOf": [], "supertypeOf": ["a fart","a vapour"], "nearlyIs": [], "property": []},</v>
+        <v>{"spelling": "pass", "group": "_ass", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a gap"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B295" t="str">
         <f t="shared" si="50"/>
-        <v>"a smell"</v>
+        <v/>
       </c>
       <c r="C295" t="str">
         <f t="shared" si="51"/>
-        <v>"a canister"</v>
+        <v/>
       </c>
       <c r="D295" t="str">
         <f t="shared" si="52"/>
@@ -26085,7 +27366,7 @@
       </c>
       <c r="E295" t="str">
         <f t="shared" si="53"/>
-        <v>"a fart"</v>
+        <v/>
       </c>
       <c r="F295" t="str">
         <f t="shared" si="54"/>
@@ -26093,11 +27374,11 @@
       </c>
       <c r="G295" t="str">
         <f t="shared" si="55"/>
-        <v/>
+        <v>"a gap"</v>
       </c>
       <c r="H295" t="str">
         <f t="shared" si="56"/>
-        <v>"a fart","a vapour"</v>
+        <v/>
       </c>
       <c r="I295" t="str">
         <f t="shared" si="57"/>
@@ -26111,39 +27392,27 @@
         <v>914</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="N295" t="s">
         <v>217</v>
       </c>
-      <c r="O295" t="s">
-        <v>391</v>
-      </c>
-      <c r="R295" t="s">
-        <v>919</v>
-      </c>
-      <c r="X295" t="s">
-        <v>920</v>
-      </c>
-      <c r="AG295" t="s">
-        <v>920</v>
-      </c>
-      <c r="AH295" t="s">
-        <v>1471</v>
+      <c r="AD295" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="296" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "lass", "group": "_ass", "pos": "Noun", "adult": false, "has": ["a skirt"], "in": ["a dress","a skirt","pigtails"], "on": [], "from": [], "is": ["a girl"], "typeOf": ["a woman"], "supertypeOf": [], "nearlyIs": ["a lady"], "property": ["a female","a feminine"]},</v>
+        <v>{"spelling": "gas", "group": "_ass", "pos": "Noun", "adult": false, "has": ["a smell"], "in": ["a canister"], "on": [], "from": ["a fart"], "is": [], "typeOf": [], "supertypeOf": ["a fart","a vapour"], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B296" t="str">
         <f t="shared" si="50"/>
-        <v>"a skirt"</v>
+        <v>"a smell"</v>
       </c>
       <c r="C296" t="str">
         <f t="shared" si="51"/>
-        <v>"a dress","a skirt","pigtails"</v>
+        <v>"a canister"</v>
       </c>
       <c r="D296" t="str">
         <f t="shared" si="52"/>
@@ -26151,77 +27420,65 @@
       </c>
       <c r="E296" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>"a fart"</v>
       </c>
       <c r="F296" t="str">
         <f t="shared" si="54"/>
-        <v>"a girl"</v>
+        <v/>
       </c>
       <c r="G296" t="str">
         <f t="shared" si="55"/>
-        <v>"a woman"</v>
+        <v/>
       </c>
       <c r="H296" t="str">
         <f t="shared" si="56"/>
-        <v/>
+        <v>"a fart","a vapour"</v>
       </c>
       <c r="I296" t="str">
         <f t="shared" si="57"/>
-        <v>"a lady"</v>
+        <v/>
       </c>
       <c r="J296" t="str">
         <f t="shared" si="49"/>
-        <v>"a female","a feminine"</v>
+        <v/>
       </c>
       <c r="K296" t="s">
         <v>914</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="N296" t="s">
         <v>217</v>
       </c>
       <c r="O296" t="s">
-        <v>921</v>
+        <v>391</v>
       </c>
       <c r="R296" t="s">
-        <v>922</v>
-      </c>
-      <c r="S296" t="s">
-        <v>921</v>
-      </c>
-      <c r="T296" t="s">
-        <v>923</v>
-      </c>
-      <c r="AA296" t="s">
-        <v>936</v>
-      </c>
-      <c r="AD296" t="s">
-        <v>935</v>
-      </c>
-      <c r="AJ296" t="s">
-        <v>1472</v>
-      </c>
-      <c r="AM296" t="s">
-        <v>1743</v>
-      </c>
-      <c r="AN296" t="s">
-        <v>1661</v>
+        <v>919</v>
+      </c>
+      <c r="X296" t="s">
+        <v>920</v>
+      </c>
+      <c r="AG296" t="s">
+        <v>920</v>
+      </c>
+      <c r="AH296" t="s">
+        <v>1471</v>
       </c>
     </row>
     <row r="297" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "mass", "group": "_ass", "pos": "Noun", "adult": false, "has": ["weight"], "in": [], "on": [], "from": [], "is": ["a weight"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a large"]},</v>
+        <v>{"spelling": "lass", "group": "_ass", "pos": "Noun", "adult": false, "has": ["a skirt"], "in": ["a dress","a skirt","pigtails"], "on": [], "from": [], "is": ["a girl"], "typeOf": ["a woman"], "supertypeOf": [], "nearlyIs": ["a lady"], "property": ["a female","a feminine"]},</v>
       </c>
       <c r="B297" t="str">
         <f t="shared" si="50"/>
-        <v>"weight"</v>
+        <v>"a skirt"</v>
       </c>
       <c r="C297" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a dress","a skirt","pigtails"</v>
       </c>
       <c r="D297" t="str">
         <f t="shared" si="52"/>
@@ -26233,11 +27490,11 @@
       </c>
       <c r="F297" t="str">
         <f t="shared" si="54"/>
-        <v>"a weight"</v>
+        <v>"a girl"</v>
       </c>
       <c r="G297" t="str">
         <f t="shared" si="55"/>
-        <v/>
+        <v>"a woman"</v>
       </c>
       <c r="H297" t="str">
         <f t="shared" si="56"/>
@@ -26245,39 +27502,57 @@
       </c>
       <c r="I297" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>"a lady"</v>
       </c>
       <c r="J297" t="str">
         <f t="shared" si="49"/>
-        <v>"a large"</v>
+        <v>"a female","a feminine"</v>
       </c>
       <c r="K297" t="s">
         <v>914</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="N297" t="s">
         <v>217</v>
       </c>
       <c r="O297" t="s">
-        <v>924</v>
+        <v>921</v>
+      </c>
+      <c r="R297" t="s">
+        <v>922</v>
+      </c>
+      <c r="S297" t="s">
+        <v>921</v>
+      </c>
+      <c r="T297" t="s">
+        <v>923</v>
       </c>
       <c r="AA297" t="s">
-        <v>1388</v>
+        <v>936</v>
+      </c>
+      <c r="AD297" t="s">
+        <v>935</v>
+      </c>
+      <c r="AJ297" t="s">
+        <v>1472</v>
       </c>
       <c r="AM297" t="s">
-        <v>1670</v>
+        <v>1744</v>
+      </c>
+      <c r="AN297" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="298" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "port", "group": "_ort", "pos": "Noun", "adult": false, "has": ["ships","boats","yachts"], "in": [], "on": ["the coast"], "from": [], "is": ["a harbour"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a cove"], "property": []},</v>
+        <v>{"spelling": "mass", "group": "_ass", "pos": "Noun", "adult": false, "has": ["weight"], "in": [], "on": [], "from": [], "is": ["a weight"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a large"]},</v>
       </c>
       <c r="B298" t="str">
         <f t="shared" si="50"/>
-        <v>"ships","boats","yachts"</v>
+        <v>"weight"</v>
       </c>
       <c r="C298" t="str">
         <f t="shared" si="51"/>
@@ -26285,7 +27560,7 @@
       </c>
       <c r="D298" t="str">
         <f t="shared" si="52"/>
-        <v>"the coast"</v>
+        <v/>
       </c>
       <c r="E298" t="str">
         <f t="shared" si="53"/>
@@ -26293,7 +27568,7 @@
       </c>
       <c r="F298" t="str">
         <f t="shared" si="54"/>
-        <v>"a harbour"</v>
+        <v>"a weight"</v>
       </c>
       <c r="G298" t="str">
         <f t="shared" si="55"/>
@@ -26305,48 +27580,39 @@
       </c>
       <c r="I298" t="str">
         <f t="shared" si="57"/>
-        <v>"a cove"</v>
+        <v/>
       </c>
       <c r="J298" t="str">
         <f t="shared" si="49"/>
-        <v/>
+        <v>"a large"</v>
       </c>
       <c r="K298" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>627</v>
+        <v>918</v>
       </c>
       <c r="N298" t="s">
         <v>217</v>
       </c>
       <c r="O298" t="s">
-        <v>478</v>
-      </c>
-      <c r="P298" t="s">
-        <v>928</v>
-      </c>
-      <c r="Q298" t="s">
-        <v>929</v>
-      </c>
-      <c r="U298" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="AA298" t="s">
-        <v>1473</v>
-      </c>
-      <c r="AJ298" t="s">
-        <v>737</v>
+        <v>1388</v>
+      </c>
+      <c r="AM298" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="299" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "wart", "group": "_ort", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a blemish"], "supertypeOf": [], "nearlyIs": ["a mole","a spot"], "property": []},</v>
+        <v>{"spelling": "port", "group": "_ort", "pos": "Noun", "adult": false, "has": ["ships","boats","yachts"], "in": [], "on": ["the coast"], "from": [], "is": ["a harbour"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a cove"], "property": []},</v>
       </c>
       <c r="B299" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>"ships","boats","yachts"</v>
       </c>
       <c r="C299" t="str">
         <f t="shared" si="51"/>
@@ -26354,7 +27620,7 @@
       </c>
       <c r="D299" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>"the coast"</v>
       </c>
       <c r="E299" t="str">
         <f t="shared" si="53"/>
@@ -26362,11 +27628,11 @@
       </c>
       <c r="F299" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>"a harbour"</v>
       </c>
       <c r="G299" t="str">
         <f t="shared" si="55"/>
-        <v>"a blemish"</v>
+        <v/>
       </c>
       <c r="H299" t="str">
         <f t="shared" si="56"/>
@@ -26374,7 +27640,7 @@
       </c>
       <c r="I299" t="str">
         <f t="shared" si="57"/>
-        <v>"a mole","a spot"</v>
+        <v>"a cove"</v>
       </c>
       <c r="J299" t="str">
         <f t="shared" si="49"/>
@@ -26384,33 +27650,42 @@
         <v>925</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>926</v>
+        <v>627</v>
       </c>
       <c r="N299" t="s">
         <v>217</v>
       </c>
-      <c r="AD299" t="s">
-        <v>1038</v>
+      <c r="O299" t="s">
+        <v>478</v>
+      </c>
+      <c r="P299" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>929</v>
+      </c>
+      <c r="U299" t="s">
+        <v>930</v>
+      </c>
+      <c r="AA299" t="s">
+        <v>1473</v>
       </c>
       <c r="AJ299" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AK299" t="s">
-        <v>1037</v>
+        <v>737</v>
       </c>
     </row>
     <row r="300" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "fort", "group": "_ort", "pos": "Noun", "adult": false, "has": ["a drawbridge","walls","towers"], "in": ["a castle"], "on": [], "from": [], "is": ["a keep","a castle"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a guardpost"], "property": ["a defensive","a defensible","a fortified"]},</v>
+        <v>{"spelling": "wart", "group": "_ort", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a blemish"], "supertypeOf": [], "nearlyIs": ["a mole","a spot"], "property": []},</v>
       </c>
       <c r="B300" t="str">
         <f t="shared" si="50"/>
-        <v>"a drawbridge","walls","towers"</v>
+        <v/>
       </c>
       <c r="C300" t="str">
         <f t="shared" si="51"/>
-        <v>"a castle"</v>
+        <v/>
       </c>
       <c r="D300" t="str">
         <f t="shared" si="52"/>
@@ -26422,11 +27697,11 @@
       </c>
       <c r="F300" t="str">
         <f t="shared" si="54"/>
-        <v>"a keep","a castle"</v>
+        <v/>
       </c>
       <c r="G300" t="str">
         <f t="shared" si="55"/>
-        <v/>
+        <v>"a blemish"</v>
       </c>
       <c r="H300" t="str">
         <f t="shared" si="56"/>
@@ -26434,64 +27709,43 @@
       </c>
       <c r="I300" t="str">
         <f t="shared" si="57"/>
-        <v>"a guardpost"</v>
+        <v>"a mole","a spot"</v>
       </c>
       <c r="J300" t="str">
         <f t="shared" si="49"/>
-        <v>"a defensive","a defensible","a fortified"</v>
+        <v/>
       </c>
       <c r="K300" t="s">
         <v>925</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N300" t="s">
         <v>217</v>
       </c>
-      <c r="O300" t="s">
-        <v>281</v>
-      </c>
-      <c r="P300" t="s">
-        <v>931</v>
-      </c>
-      <c r="Q300" t="s">
-        <v>932</v>
-      </c>
-      <c r="R300" t="s">
-        <v>631</v>
-      </c>
-      <c r="AA300" t="s">
-        <v>1474</v>
-      </c>
-      <c r="AB300" t="s">
-        <v>631</v>
+      <c r="AD300" t="s">
+        <v>1038</v>
       </c>
       <c r="AJ300" t="s">
-        <v>1475</v>
-      </c>
-      <c r="AM300" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AN300" t="s">
-        <v>1786</v>
-      </c>
-      <c r="AO300" t="s">
-        <v>1787</v>
+        <v>1040</v>
+      </c>
+      <c r="AK300" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="301" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "court", "group": "_ort", "pos": "Noun", "adult": false, "has": ["judges","lawyers"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <v>{"spelling": "fort", "group": "_ort", "pos": "Noun", "adult": false, "has": ["a drawbridge","walls","towers"], "in": ["a castle"], "on": [], "from": [], "is": ["a keep","a castle"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a guardpost"], "property": ["a defensive","a defensible","a fortified"]},</v>
       </c>
       <c r="B301" t="str">
         <f t="shared" si="50"/>
-        <v>"judges","lawyers"</v>
+        <v>"a drawbridge","walls","towers"</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>"a castle"</v>
       </c>
       <c r="D301" t="str">
         <f t="shared" si="52"/>
@@ -26503,7 +27757,7 @@
       </c>
       <c r="F301" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>"a keep","a castle"</v>
       </c>
       <c r="G301" t="str">
         <f t="shared" si="55"/>
@@ -26515,196 +27769,220 @@
       </c>
       <c r="I301" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>"a guardpost"</v>
       </c>
       <c r="J301" t="str">
         <f t="shared" si="49"/>
-        <v/>
+        <v>"a defensive","a defensible","a fortified"</v>
       </c>
       <c r="K301" t="s">
         <v>925</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>799</v>
+        <v>927</v>
       </c>
       <c r="N301" t="s">
         <v>217</v>
       </c>
       <c r="O301" t="s">
-        <v>933</v>
+        <v>281</v>
       </c>
       <c r="P301" t="s">
-        <v>934</v>
+        <v>931</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>932</v>
+      </c>
+      <c r="R301" t="s">
+        <v>631</v>
+      </c>
+      <c r="AA301" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AB301" t="s">
+        <v>631</v>
+      </c>
+      <c r="AJ301" t="s">
+        <v>1475</v>
+      </c>
+      <c r="AM301" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AN301" t="s">
+        <v>1787</v>
+      </c>
+      <c r="AO301" t="s">
+        <v>1788</v>
       </c>
     </row>
     <row r="302" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "sub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["sailors","a periscope"], "in": ["the ocean","the sea"], "on": [], "from": [], "is": [], "typeOf": ["a boat","a ship","a vehicle"], "supertypeOf": [], "nearlyIs": [], "property": ["an underwater"]},</v>
+        <v>{"spelling": "court", "group": "_ort", "pos": "Noun", "adult": false, "has": ["judges","lawyers"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B302" t="str">
-        <f t="shared" ref="B302:B339" si="66">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",O302,""",""",P302,""",""",Q302,""""),",""""",""),"""""","")</f>
-        <v>"sailors","a periscope"</v>
+        <f t="shared" si="50"/>
+        <v>"judges","lawyers"</v>
       </c>
       <c r="C302" t="str">
-        <f t="shared" ref="C302:C339" si="67">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",R302,""",""",S302,""",""",T302,""""),",""""",""),"""""","")</f>
-        <v>"the ocean","the sea"</v>
+        <f t="shared" si="51"/>
+        <v/>
       </c>
       <c r="D302" t="str">
-        <f t="shared" ref="D302:D339" si="68">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",U302,""",""",V302,""",""",W302,""""),",""""",""),"""""","")</f>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="E302" t="str">
-        <f t="shared" ref="E302:E339" si="69">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",X302,""",""",Y302,""",""",Z302,""""),",""""",""),"""""","")</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="F302" t="str">
-        <f t="shared" ref="F302:F339" si="70">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AA302,""",""",AB302,""",""",AC302,""""),",""""",""),"""""","")</f>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="G302" t="str">
-        <f t="shared" ref="G302:G339" si="71">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AD302,""",""",AE302,""",""",AF302,""""),",""""",""),"""""","")</f>
-        <v>"a boat","a ship","a vehicle"</v>
+        <f t="shared" si="55"/>
+        <v/>
       </c>
       <c r="H302" t="str">
-        <f t="shared" ref="H302:H339" si="72">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AG302,""",""",AH302,""",""",AI302,""""),",""""",""),"""""","")</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="I302" t="str">
-        <f t="shared" ref="I302:I339" si="73">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AJ302,""",""",AK302,""",""",AL302,""""),",""""",""),"""""","")</f>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="J302" t="str">
         <f t="shared" si="49"/>
-        <v>"an underwater"</v>
+        <v/>
       </c>
       <c r="K302" t="s">
-        <v>1476</v>
+        <v>925</v>
       </c>
       <c r="L302" s="1" t="s">
-        <v>1477</v>
+        <v>799</v>
       </c>
       <c r="N302" t="s">
         <v>217</v>
       </c>
       <c r="O302" t="s">
-        <v>1485</v>
+        <v>933</v>
       </c>
       <c r="P302" t="s">
-        <v>1486</v>
-      </c>
-      <c r="R302" t="s">
-        <v>587</v>
-      </c>
-      <c r="S302" t="s">
-        <v>588</v>
-      </c>
-      <c r="AD302" t="s">
-        <v>1455</v>
-      </c>
-      <c r="AE302" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AF302" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AM302" t="s">
-        <v>1788</v>
+        <v>934</v>
       </c>
     </row>
     <row r="303" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "tub", "group": "_ub", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a bath"], "typeOf": ["a container"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <v>{"spelling": "sub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["sailors","a periscope"], "in": ["the ocean","the sea"], "on": [], "from": [], "is": [], "typeOf": ["a boat","a ship","a vehicle"], "supertypeOf": [], "nearlyIs": [], "property": ["an underwater"]},</v>
       </c>
       <c r="B303" t="str">
-        <f t="shared" si="66"/>
-        <v/>
+        <f t="shared" ref="B303:B340" si="76">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",O303,""",""",P303,""",""",Q303,""""),",""""",""),"""""","")</f>
+        <v>"sailors","a periscope"</v>
       </c>
       <c r="C303" t="str">
-        <f t="shared" si="67"/>
-        <v/>
+        <f t="shared" ref="C303:C340" si="77">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",R303,""",""",S303,""",""",T303,""""),",""""",""),"""""","")</f>
+        <v>"the ocean","the sea"</v>
       </c>
       <c r="D303" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="D303:D340" si="78">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",U303,""",""",V303,""",""",W303,""""),",""""",""),"""""","")</f>
         <v/>
       </c>
       <c r="E303" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="E303:E340" si="79">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",X303,""",""",Y303,""",""",Z303,""""),",""""",""),"""""","")</f>
         <v/>
       </c>
       <c r="F303" t="str">
-        <f t="shared" si="70"/>
-        <v>"a bath"</v>
+        <f t="shared" ref="F303:F340" si="80">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AA303,""",""",AB303,""",""",AC303,""""),",""""",""),"""""","")</f>
+        <v/>
       </c>
       <c r="G303" t="str">
-        <f t="shared" si="71"/>
-        <v>"a container"</v>
+        <f t="shared" ref="G303:G340" si="81">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AD303,""",""",AE303,""",""",AF303,""""),",""""",""),"""""","")</f>
+        <v>"a boat","a ship","a vehicle"</v>
       </c>
       <c r="H303" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="H303:H340" si="82">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AG303,""",""",AH303,""",""",AI303,""""),",""""",""),"""""","")</f>
         <v/>
       </c>
       <c r="I303" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="I303:I340" si="83">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AJ303,""",""",AK303,""",""",AL303,""""),",""""",""),"""""","")</f>
         <v/>
       </c>
       <c r="J303" t="str">
         <f t="shared" si="49"/>
-        <v/>
+        <v>"an underwater"</v>
       </c>
       <c r="K303" t="s">
         <v>1476</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="N303" t="s">
         <v>217</v>
       </c>
-      <c r="AA303" t="s">
-        <v>1487</v>
+      <c r="O303" t="s">
+        <v>1485</v>
+      </c>
+      <c r="P303" t="s">
+        <v>1486</v>
+      </c>
+      <c r="R303" t="s">
+        <v>587</v>
+      </c>
+      <c r="S303" t="s">
+        <v>588</v>
       </c>
       <c r="AD303" t="s">
-        <v>981</v>
+        <v>1455</v>
+      </c>
+      <c r="AE303" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AF303" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AM303" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="304" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "pub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["drinks","beers","kegs"], "in": [], "on": [], "from": [], "is": ["a bar","a tavern"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a restaurant","a club","a microbrewery"], "property": []},</v>
+        <v>{"spelling": "tub", "group": "_ub", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a bath"], "typeOf": ["a container"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B304" t="str">
-        <f t="shared" si="66"/>
-        <v>"drinks","beers","kegs"</v>
+        <f t="shared" si="76"/>
+        <v/>
       </c>
       <c r="C304" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="D304" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E304" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F304" t="str">
-        <f t="shared" si="70"/>
-        <v>"a bar","a tavern"</v>
+        <f t="shared" si="80"/>
+        <v>"a bath"</v>
       </c>
       <c r="G304" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+        <f t="shared" si="81"/>
+        <v>"a container"</v>
       </c>
       <c r="H304" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="I304" t="str">
-        <f t="shared" si="73"/>
-        <v>"a restaurant","a club","a microbrewery"</v>
+        <f t="shared" si="83"/>
+        <v/>
       </c>
       <c r="J304" t="str">
         <f t="shared" si="49"/>
@@ -26714,341 +27992,341 @@
         <v>1476</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="N304" t="s">
         <v>217</v>
       </c>
-      <c r="O304" t="s">
-        <v>1488</v>
-      </c>
-      <c r="P304" t="s">
-        <v>1489</v>
-      </c>
-      <c r="Q304" t="s">
-        <v>1490</v>
-      </c>
       <c r="AA304" t="s">
-        <v>786</v>
-      </c>
-      <c r="AB304" t="s">
-        <v>1491</v>
-      </c>
-      <c r="AJ304" t="s">
-        <v>746</v>
-      </c>
-      <c r="AK304" t="s">
-        <v>1421</v>
-      </c>
-      <c r="AL304" t="s">
-        <v>1492</v>
+        <v>1487</v>
+      </c>
+      <c r="AD304" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="305" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "hub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["spokes"], "in": [], "on": [], "from": [], "is": ["a center"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a central"]},</v>
+        <v>{"spelling": "pub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["drinks","beers","kegs"], "in": [], "on": [], "from": [], "is": ["a bar","a tavern"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a restaurant","a club","a microbrewery"], "property": []},</v>
       </c>
       <c r="B305" t="str">
-        <f t="shared" si="66"/>
-        <v>"spokes"</v>
+        <f t="shared" si="76"/>
+        <v>"drinks","beers","kegs"</v>
       </c>
       <c r="C305" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="D305" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E305" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F305" t="str">
-        <f t="shared" si="70"/>
-        <v>"a center"</v>
+        <f t="shared" si="80"/>
+        <v>"a bar","a tavern"</v>
       </c>
       <c r="G305" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="H305" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="I305" t="str">
-        <f t="shared" si="73"/>
-        <v/>
+        <f t="shared" si="83"/>
+        <v>"a restaurant","a club","a microbrewery"</v>
       </c>
       <c r="J305" t="str">
         <f t="shared" si="49"/>
-        <v>"a central"</v>
+        <v/>
       </c>
       <c r="K305" t="s">
         <v>1476</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="N305" t="s">
         <v>217</v>
       </c>
       <c r="O305" t="s">
-        <v>1493</v>
+        <v>1488</v>
+      </c>
+      <c r="P305" t="s">
+        <v>1489</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>1490</v>
       </c>
       <c r="AA305" t="s">
-        <v>1494</v>
-      </c>
-      <c r="AM305" t="s">
-        <v>1789</v>
+        <v>786</v>
+      </c>
+      <c r="AB305" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AJ305" t="s">
+        <v>746</v>
+      </c>
+      <c r="AK305" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AL305" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="306" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "cub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["claws","fur"], "in": ["the woods"], "on": [], "from": [], "is": [], "typeOf": ["a bear","a lion","a wolf"], "supertypeOf": [], "nearlyIs": [], "property": ["a young","a furry"]},</v>
+        <v>{"spelling": "hub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["spokes"], "in": [], "on": [], "from": [], "is": ["a center"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a central"]},</v>
       </c>
       <c r="B306" t="str">
-        <f t="shared" si="66"/>
-        <v>"claws","fur"</v>
+        <f t="shared" si="76"/>
+        <v>"spokes"</v>
       </c>
       <c r="C306" t="str">
-        <f t="shared" si="67"/>
-        <v>"the woods"</v>
+        <f t="shared" si="77"/>
+        <v/>
       </c>
       <c r="D306" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E306" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F306" t="str">
-        <f t="shared" si="70"/>
-        <v/>
+        <f t="shared" si="80"/>
+        <v>"a center"</v>
       </c>
       <c r="G306" t="str">
-        <f t="shared" si="71"/>
-        <v>"a bear","a lion","a wolf"</v>
+        <f t="shared" si="81"/>
+        <v/>
       </c>
       <c r="H306" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="I306" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J306" t="str">
         <f t="shared" si="49"/>
-        <v>"a young","a furry"</v>
+        <v>"a central"</v>
       </c>
       <c r="K306" t="s">
         <v>1476</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="N306" t="s">
         <v>217</v>
       </c>
       <c r="O306" t="s">
-        <v>233</v>
-      </c>
-      <c r="P306" t="s">
-        <v>1495</v>
-      </c>
-      <c r="R306" t="s">
-        <v>682</v>
-      </c>
-      <c r="AD306" t="s">
-        <v>1496</v>
-      </c>
-      <c r="AE306" t="s">
-        <v>956</v>
-      </c>
-      <c r="AF306" t="s">
-        <v>1497</v>
+        <v>1493</v>
+      </c>
+      <c r="AA306" t="s">
+        <v>1494</v>
       </c>
       <c r="AM306" t="s">
-        <v>1752</v>
-      </c>
-      <c r="AN306" t="s">
-        <v>1690</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="307" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "club", "group": "_ub", "pos": "Noun", "adult": false, "has": ["drinks","music","a DJ"], "in": [], "on": [], "from": [], "is": ["a bar"], "typeOf": ["a weapon"], "supertypeOf": ["a mace","a maul","a hammer"], "nearlyIs": [], "property": ["a blunt"]},</v>
+        <v>{"spelling": "cub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["claws","fur"], "in": ["the woods"], "on": [], "from": [], "is": [], "typeOf": ["a bear","a lion","a wolf"], "supertypeOf": [], "nearlyIs": [], "property": ["a young","a furry"]},</v>
       </c>
       <c r="B307" t="str">
-        <f t="shared" si="66"/>
-        <v>"drinks","music","a DJ"</v>
+        <f t="shared" si="76"/>
+        <v>"claws","fur"</v>
       </c>
       <c r="C307" t="str">
-        <f t="shared" si="67"/>
-        <v/>
+        <f t="shared" si="77"/>
+        <v>"the woods"</v>
       </c>
       <c r="D307" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E307" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F307" t="str">
-        <f t="shared" si="70"/>
-        <v>"a bar"</v>
+        <f t="shared" si="80"/>
+        <v/>
       </c>
       <c r="G307" t="str">
-        <f t="shared" si="71"/>
-        <v>"a weapon"</v>
+        <f t="shared" si="81"/>
+        <v>"a bear","a lion","a wolf"</v>
       </c>
       <c r="H307" t="str">
-        <f t="shared" si="72"/>
-        <v>"a mace","a maul","a hammer"</v>
+        <f t="shared" si="82"/>
+        <v/>
       </c>
       <c r="I307" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J307" t="str">
         <f t="shared" si="49"/>
-        <v>"a blunt"</v>
+        <v>"a young","a furry"</v>
       </c>
       <c r="K307" t="s">
         <v>1476</v>
       </c>
       <c r="L307" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="N307" t="s">
         <v>217</v>
       </c>
       <c r="O307" t="s">
-        <v>1488</v>
+        <v>233</v>
       </c>
       <c r="P307" t="s">
-        <v>1223</v>
-      </c>
-      <c r="Q307" t="s">
-        <v>1498</v>
-      </c>
-      <c r="AA307" t="s">
-        <v>786</v>
+        <v>1495</v>
+      </c>
+      <c r="R307" t="s">
+        <v>682</v>
       </c>
       <c r="AD307" t="s">
-        <v>1420</v>
-      </c>
-      <c r="AG307" t="s">
-        <v>1499</v>
-      </c>
-      <c r="AH307" t="s">
-        <v>1500</v>
-      </c>
-      <c r="AI307" t="s">
-        <v>1419</v>
+        <v>1496</v>
+      </c>
+      <c r="AE307" t="s">
+        <v>956</v>
+      </c>
+      <c r="AF307" t="s">
+        <v>1497</v>
       </c>
       <c r="AM307" t="s">
-        <v>1790</v>
+        <v>1753</v>
+      </c>
+      <c r="AN307" t="s">
+        <v>1691</v>
       </c>
     </row>
     <row r="308" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "stub", "group": "_ub", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a butt"], "typeOf": ["an end"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <v>{"spelling": "club", "group": "_ub", "pos": "Noun", "adult": false, "has": ["drinks","music","a DJ"], "in": [], "on": [], "from": [], "is": ["a bar"], "typeOf": ["a weapon"], "supertypeOf": ["a mace","a maul","a hammer"], "nearlyIs": [], "property": ["a blunt"]},</v>
       </c>
       <c r="B308" t="str">
-        <f t="shared" si="66"/>
-        <v/>
+        <f t="shared" si="76"/>
+        <v>"drinks","music","a DJ"</v>
       </c>
       <c r="C308" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="D308" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E308" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F308" t="str">
-        <f t="shared" si="70"/>
-        <v>"a butt"</v>
+        <f t="shared" si="80"/>
+        <v>"a bar"</v>
       </c>
       <c r="G308" t="str">
-        <f t="shared" si="71"/>
-        <v>"an end"</v>
+        <f t="shared" si="81"/>
+        <v>"a weapon"</v>
       </c>
       <c r="H308" t="str">
-        <f t="shared" si="72"/>
-        <v/>
+        <f t="shared" si="82"/>
+        <v>"a mace","a maul","a hammer"</v>
       </c>
       <c r="I308" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J308" t="str">
         <f t="shared" si="49"/>
-        <v/>
+        <v>"a blunt"</v>
       </c>
       <c r="K308" t="s">
         <v>1476</v>
       </c>
       <c r="L308" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="N308" t="s">
         <v>217</v>
       </c>
+      <c r="O308" t="s">
+        <v>1488</v>
+      </c>
+      <c r="P308" t="s">
+        <v>1223</v>
+      </c>
+      <c r="Q308" t="s">
+        <v>1498</v>
+      </c>
       <c r="AA308" t="s">
-        <v>1502</v>
+        <v>786</v>
       </c>
       <c r="AD308" t="s">
-        <v>1501</v>
+        <v>1420</v>
+      </c>
+      <c r="AG308" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AH308" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AI308" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AM308" t="s">
+        <v>1791</v>
       </c>
     </row>
     <row r="309" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "nub", "group": "_ub", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a lump"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <v>{"spelling": "stub", "group": "_ub", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a butt"], "typeOf": ["an end"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B309" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="C309" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="D309" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E309" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F309" t="str">
-        <f t="shared" si="70"/>
-        <v/>
+        <f t="shared" si="80"/>
+        <v>"a butt"</v>
       </c>
       <c r="G309" t="str">
-        <f t="shared" si="71"/>
-        <v>"a lump"</v>
+        <f t="shared" si="81"/>
+        <v>"an end"</v>
       </c>
       <c r="H309" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="I309" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J309" t="str">
@@ -27059,50 +28337,53 @@
         <v>1476</v>
       </c>
       <c r="L309" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="N309" t="s">
         <v>217</v>
       </c>
+      <c r="AA309" t="s">
+        <v>1502</v>
+      </c>
       <c r="AD309" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="310" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "for", "group": "_aw", "pos": "Prep", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <v>{"spelling": "nub", "group": "_ub", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a lump"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B310" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="C310" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="D310" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E310" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F310" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G310" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+        <f t="shared" si="81"/>
+        <v>"a lump"</v>
       </c>
       <c r="H310" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="I310" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J310" t="str">
@@ -27110,51 +28391,54 @@
         <v/>
       </c>
       <c r="K310" t="s">
-        <v>348</v>
+        <v>1476</v>
       </c>
       <c r="L310" s="1" t="s">
-        <v>1504</v>
+        <v>1484</v>
       </c>
       <c r="N310" t="s">
-        <v>1512</v>
+        <v>217</v>
+      </c>
+      <c r="AD310" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="311" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "war", "group": "_aw", "pos": "Noun", "adult": false, "has": ["armies","combatants","an opponent"], "in": [], "on": ["campaign"], "from": [], "is": [], "typeOf": ["a conflict","combat"], "supertypeOf": ["a battle","an engagement"], "nearlyIs": ["a fight"], "property": []},</v>
+        <v>{"spelling": "for", "group": "_aw", "pos": "Prep", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B311" t="str">
-        <f t="shared" si="66"/>
-        <v>"armies","combatants","an opponent"</v>
+        <f t="shared" si="76"/>
+        <v/>
       </c>
       <c r="C311" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="D311" t="str">
-        <f t="shared" si="68"/>
-        <v>"campaign"</v>
+        <f t="shared" si="78"/>
+        <v/>
       </c>
       <c r="E311" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F311" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G311" t="str">
-        <f t="shared" si="71"/>
-        <v>"a conflict","combat"</v>
+        <f t="shared" si="81"/>
+        <v/>
       </c>
       <c r="H311" t="str">
-        <f t="shared" si="72"/>
-        <v>"a battle","an engagement"</v>
+        <f t="shared" si="82"/>
+        <v/>
       </c>
       <c r="I311" t="str">
-        <f t="shared" si="73"/>
-        <v>"a fight"</v>
+        <f t="shared" si="83"/>
+        <v/>
       </c>
       <c r="J311" t="str">
         <f t="shared" si="49"/>
@@ -27164,373 +28448,340 @@
         <v>348</v>
       </c>
       <c r="L311" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="N311" t="s">
-        <v>217</v>
-      </c>
-      <c r="O311" t="s">
-        <v>1513</v>
-      </c>
-      <c r="P311" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q311" t="s">
-        <v>1154</v>
-      </c>
-      <c r="U311" t="s">
-        <v>1514</v>
-      </c>
-      <c r="AD311" t="s">
-        <v>1516</v>
-      </c>
-      <c r="AE311" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AG311" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AH311" t="s">
-        <v>1515</v>
-      </c>
-      <c r="AJ311" t="s">
-        <v>977</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="312" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "yore", "group": "_aw", "pos": "Noun", "adult": false, "has": [], "in": ["the past"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a historic","an ancient"]},</v>
+        <v>{"spelling": "war", "group": "_aw", "pos": "Noun", "adult": false, "has": ["armies","combatants","an opponent"], "in": [], "on": ["campaign"], "from": [], "is": [], "typeOf": ["a conflict","combat"], "supertypeOf": ["a battle","an engagement"], "nearlyIs": ["a fight"], "property": []},</v>
       </c>
       <c r="B312" t="str">
-        <f t="shared" si="66"/>
-        <v/>
+        <f t="shared" si="76"/>
+        <v>"armies","combatants","an opponent"</v>
       </c>
       <c r="C312" t="str">
-        <f t="shared" si="67"/>
-        <v>"the past"</v>
+        <f t="shared" si="77"/>
+        <v/>
       </c>
       <c r="D312" t="str">
-        <f t="shared" si="68"/>
-        <v/>
+        <f t="shared" si="78"/>
+        <v>"campaign"</v>
       </c>
       <c r="E312" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F312" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G312" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+        <f t="shared" si="81"/>
+        <v>"a conflict","combat"</v>
       </c>
       <c r="H312" t="str">
-        <f t="shared" si="72"/>
-        <v/>
+        <f t="shared" si="82"/>
+        <v>"a battle","an engagement"</v>
       </c>
       <c r="I312" t="str">
-        <f t="shared" si="73"/>
-        <v/>
+        <f t="shared" si="83"/>
+        <v>"a fight"</v>
       </c>
       <c r="J312" t="str">
         <f t="shared" si="49"/>
-        <v>"a historic","an ancient"</v>
+        <v/>
       </c>
       <c r="K312" t="s">
         <v>348</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="N312" t="s">
         <v>217</v>
       </c>
-      <c r="R312" t="s">
-        <v>1517</v>
-      </c>
-      <c r="AM312" t="s">
-        <v>1791</v>
-      </c>
-      <c r="AN312" t="s">
-        <v>1792</v>
+      <c r="O312" t="s">
+        <v>1513</v>
+      </c>
+      <c r="P312" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q312" t="s">
+        <v>1154</v>
+      </c>
+      <c r="U312" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AD312" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AE312" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AG312" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AH312" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AJ312" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="313" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "pour", "group": "_aw", "pos": "Noun", "adult": false, "has": ["a liquid"], "in": ["a bar","a pub"], "on": [], "from": [], "is": [], "typeOf": ["a measure"], "supertypeOf": ["a shot","a jigger"], "nearlyIs": ["a drink"], "property": []},</v>
+        <v>{"spelling": "yore", "group": "_aw", "pos": "Noun", "adult": false, "has": [], "in": ["the past"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a historic","an ancient"]},</v>
       </c>
       <c r="B313" t="str">
-        <f t="shared" si="66"/>
-        <v>"a liquid"</v>
+        <f t="shared" si="76"/>
+        <v/>
       </c>
       <c r="C313" t="str">
-        <f t="shared" si="67"/>
-        <v>"a bar","a pub"</v>
+        <f t="shared" si="77"/>
+        <v>"the past"</v>
       </c>
       <c r="D313" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E313" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F313" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G313" t="str">
-        <f t="shared" si="71"/>
-        <v>"a measure"</v>
+        <f t="shared" si="81"/>
+        <v/>
       </c>
       <c r="H313" t="str">
-        <f t="shared" si="72"/>
-        <v>"a shot","a jigger"</v>
+        <f t="shared" si="82"/>
+        <v/>
       </c>
       <c r="I313" t="str">
-        <f t="shared" si="73"/>
-        <v>"a drink"</v>
+        <f t="shared" si="83"/>
+        <v/>
       </c>
       <c r="J313" t="str">
         <f t="shared" si="49"/>
-        <v/>
+        <v>"a historic","an ancient"</v>
       </c>
       <c r="K313" t="s">
         <v>348</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="N313" t="s">
         <v>217</v>
       </c>
-      <c r="O313" t="s">
-        <v>1330</v>
-      </c>
       <c r="R313" t="s">
-        <v>786</v>
-      </c>
-      <c r="S313" t="s">
-        <v>913</v>
-      </c>
-      <c r="AD313" t="s">
-        <v>1518</v>
-      </c>
-      <c r="AG313" t="s">
-        <v>1519</v>
-      </c>
-      <c r="AH313" t="s">
-        <v>1520</v>
-      </c>
-      <c r="AJ313" t="s">
-        <v>1376</v>
+        <v>1517</v>
+      </c>
+      <c r="AM313" t="s">
+        <v>1792</v>
+      </c>
+      <c r="AN313" t="s">
+        <v>1793</v>
       </c>
     </row>
     <row r="314" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "door", "group": "_aw", "pos": "Noun", "adult": false, "has": ["a handle","a bell"], "in": ["a house","a hallway"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a gate"], "nearlyIs": [], "property": ["an open","a closed"]},</v>
+        <v>{"spelling": "pour", "group": "_aw", "pos": "Noun", "adult": false, "has": ["a liquid"], "in": ["a bar","a pub"], "on": [], "from": [], "is": [], "typeOf": ["a measure"], "supertypeOf": ["a shot","a jigger"], "nearlyIs": ["a drink"], "property": []},</v>
       </c>
       <c r="B314" t="str">
-        <f t="shared" si="66"/>
-        <v>"a handle","a bell"</v>
+        <f t="shared" si="76"/>
+        <v>"a liquid"</v>
       </c>
       <c r="C314" t="str">
-        <f t="shared" si="67"/>
-        <v>"a house","a hallway"</v>
+        <f t="shared" si="77"/>
+        <v>"a bar","a pub"</v>
       </c>
       <c r="D314" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E314" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F314" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G314" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+        <f t="shared" si="81"/>
+        <v>"a measure"</v>
       </c>
       <c r="H314" t="str">
-        <f t="shared" si="72"/>
-        <v>"a gate"</v>
+        <f t="shared" si="82"/>
+        <v>"a shot","a jigger"</v>
       </c>
       <c r="I314" t="str">
-        <f t="shared" si="73"/>
-        <v/>
+        <f t="shared" si="83"/>
+        <v>"a drink"</v>
       </c>
       <c r="J314" t="str">
         <f t="shared" si="49"/>
-        <v>"an open","a closed"</v>
+        <v/>
       </c>
       <c r="K314" t="s">
         <v>348</v>
       </c>
       <c r="L314" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="N314" t="s">
         <v>217</v>
       </c>
       <c r="O314" t="s">
-        <v>404</v>
-      </c>
-      <c r="P314" t="s">
-        <v>1521</v>
+        <v>1330</v>
       </c>
       <c r="R314" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
       <c r="S314" t="s">
-        <v>1522</v>
+        <v>913</v>
+      </c>
+      <c r="AD314" t="s">
+        <v>1518</v>
       </c>
       <c r="AG314" t="s">
-        <v>1523</v>
-      </c>
-      <c r="AM314" t="s">
-        <v>1793</v>
-      </c>
-      <c r="AN314" t="s">
-        <v>1794</v>
+        <v>1519</v>
+      </c>
+      <c r="AH314" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AJ314" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="315" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "gore", "group": "_aw", "pos": "Noun", "adult": true, "has": ["blood","bones"], "in": ["battle","war","a murder"], "on": [], "from": ["a victim"], "is": [], "typeOf": ["someone's remains"], "supertypeOf": [], "nearlyIs": ["offal"], "property": ["a vicious","a bloody"]},</v>
+        <v>{"spelling": "door", "group": "_aw", "pos": "Noun", "adult": false, "has": ["a handle","a bell"], "in": ["a house","a hallway"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a gate"], "nearlyIs": [], "property": ["an open","a closed"]},</v>
       </c>
       <c r="B315" t="str">
-        <f t="shared" si="66"/>
-        <v>"blood","bones"</v>
+        <f t="shared" si="76"/>
+        <v>"a handle","a bell"</v>
       </c>
       <c r="C315" t="str">
-        <f t="shared" si="67"/>
-        <v>"battle","war","a murder"</v>
+        <f t="shared" si="77"/>
+        <v>"a house","a hallway"</v>
       </c>
       <c r="D315" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E315" t="str">
-        <f t="shared" si="69"/>
-        <v>"a victim"</v>
+        <f t="shared" si="79"/>
+        <v/>
       </c>
       <c r="F315" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G315" t="str">
-        <f t="shared" si="71"/>
-        <v>"someone's remains"</v>
+        <f t="shared" si="81"/>
+        <v/>
       </c>
       <c r="H315" t="str">
-        <f t="shared" si="72"/>
-        <v/>
+        <f t="shared" si="82"/>
+        <v>"a gate"</v>
       </c>
       <c r="I315" t="str">
-        <f t="shared" si="73"/>
-        <v>"offal"</v>
+        <f t="shared" si="83"/>
+        <v/>
       </c>
       <c r="J315" t="str">
         <f t="shared" si="49"/>
-        <v>"a vicious","a bloody"</v>
+        <v>"an open","a closed"</v>
       </c>
       <c r="K315" t="s">
         <v>348</v>
       </c>
       <c r="L315" s="1" t="s">
-        <v>1509</v>
-      </c>
-      <c r="M315" t="b">
-        <v>1</v>
+        <v>1508</v>
       </c>
       <c r="N315" t="s">
         <v>217</v>
       </c>
       <c r="O315" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="P315" t="s">
-        <v>549</v>
+        <v>1521</v>
       </c>
       <c r="R315" t="s">
-        <v>1524</v>
+        <v>808</v>
       </c>
       <c r="S315" t="s">
-        <v>1505</v>
-      </c>
-      <c r="T315" t="s">
-        <v>1525</v>
-      </c>
-      <c r="X315" t="s">
-        <v>465</v>
-      </c>
-      <c r="AD315" t="s">
-        <v>1527</v>
-      </c>
-      <c r="AJ315" t="s">
-        <v>1526</v>
+        <v>1522</v>
+      </c>
+      <c r="AG315" t="s">
+        <v>1523</v>
       </c>
       <c r="AM315" t="s">
+        <v>1794</v>
+      </c>
+      <c r="AN315" t="s">
         <v>1795</v>
-      </c>
-      <c r="AN315" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="316" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "whore", "group": "_aw", "pos": "Noun", "adult": true, "has": ["a pimp","fishnets"], "in": ["a dark alley","a brothel"], "on": ["the streets","a street corner"], "from": ["a brothel"], "is": ["a prostitute","a ho","a hooker"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a slutty","a skanky"]},</v>
+        <v>{"spelling": "gore", "group": "_aw", "pos": "Noun", "adult": true, "has": ["blood","bones"], "in": ["battle","war","a murder"], "on": [], "from": ["a victim"], "is": [], "typeOf": ["someone's remains"], "supertypeOf": [], "nearlyIs": ["offal"], "property": ["a vicious","a bloody"]},</v>
       </c>
       <c r="B316" t="str">
-        <f t="shared" si="66"/>
-        <v>"a pimp","fishnets"</v>
+        <f t="shared" si="76"/>
+        <v>"blood","bones"</v>
       </c>
       <c r="C316" t="str">
-        <f t="shared" si="67"/>
-        <v>"a dark alley","a brothel"</v>
+        <f t="shared" si="77"/>
+        <v>"battle","war","a murder"</v>
       </c>
       <c r="D316" t="str">
-        <f t="shared" si="68"/>
-        <v>"the streets","a street corner"</v>
+        <f t="shared" si="78"/>
+        <v/>
       </c>
       <c r="E316" t="str">
-        <f t="shared" si="69"/>
-        <v>"a brothel"</v>
+        <f t="shared" si="79"/>
+        <v>"a victim"</v>
       </c>
       <c r="F316" t="str">
-        <f t="shared" si="70"/>
-        <v>"a prostitute","a ho","a hooker"</v>
+        <f t="shared" si="80"/>
+        <v/>
       </c>
       <c r="G316" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+        <f t="shared" si="81"/>
+        <v>"someone's remains"</v>
       </c>
       <c r="H316" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="I316" t="str">
-        <f t="shared" si="73"/>
-        <v/>
+        <f t="shared" si="83"/>
+        <v>"offal"</v>
       </c>
       <c r="J316" t="str">
         <f t="shared" si="49"/>
-        <v>"a slutty","a skanky"</v>
+        <v>"a vicious","a bloody"</v>
       </c>
       <c r="K316" t="s">
         <v>348</v>
       </c>
       <c r="L316" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="M316" t="b">
         <v>1</v>
@@ -27539,297 +28790,312 @@
         <v>217</v>
       </c>
       <c r="O316" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="P316" t="s">
-        <v>406</v>
+        <v>549</v>
       </c>
       <c r="R316" t="s">
-        <v>662</v>
+        <v>1524</v>
       </c>
       <c r="S316" t="s">
-        <v>663</v>
-      </c>
-      <c r="U316" t="s">
-        <v>664</v>
-      </c>
-      <c r="V316" t="s">
-        <v>665</v>
+        <v>1505</v>
+      </c>
+      <c r="T316" t="s">
+        <v>1525</v>
       </c>
       <c r="X316" t="s">
-        <v>663</v>
-      </c>
-      <c r="AA316" t="s">
-        <v>736</v>
-      </c>
-      <c r="AB316" t="s">
-        <v>1528</v>
-      </c>
-      <c r="AC316" t="s">
-        <v>754</v>
+        <v>465</v>
+      </c>
+      <c r="AD316" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AJ316" t="s">
+        <v>1526</v>
       </c>
       <c r="AM316" t="s">
-        <v>1700</v>
+        <v>1796</v>
       </c>
       <c r="AN316" t="s">
-        <v>1699</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="317" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "bore", "group": "_aw", "pos": "Noun", "adult": false, "has": ["no friends","no conversation"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <v>{"spelling": "whore", "group": "_aw", "pos": "Noun", "adult": true, "has": ["a pimp","fishnets"], "in": ["a dark alley","a brothel"], "on": ["the streets","a street corner"], "from": ["a brothel"], "is": ["a prostitute","a ho","a hooker"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a slutty","a skanky"]},</v>
       </c>
       <c r="B317" t="str">
-        <f t="shared" si="66"/>
-        <v>"no friends","no conversation"</v>
+        <f t="shared" si="76"/>
+        <v>"a pimp","fishnets"</v>
       </c>
       <c r="C317" t="str">
-        <f t="shared" si="67"/>
-        <v/>
+        <f t="shared" si="77"/>
+        <v>"a dark alley","a brothel"</v>
       </c>
       <c r="D317" t="str">
-        <f t="shared" si="68"/>
-        <v/>
+        <f t="shared" si="78"/>
+        <v>"the streets","a street corner"</v>
       </c>
       <c r="E317" t="str">
-        <f t="shared" si="69"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>"a brothel"</v>
       </c>
       <c r="F317" t="str">
-        <f t="shared" si="70"/>
-        <v/>
+        <f t="shared" si="80"/>
+        <v>"a prostitute","a ho","a hooker"</v>
       </c>
       <c r="G317" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="H317" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="I317" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J317" t="str">
         <f t="shared" si="49"/>
-        <v/>
+        <v>"a slutty","a skanky"</v>
       </c>
       <c r="K317" t="s">
         <v>348</v>
       </c>
       <c r="L317" s="1" t="s">
-        <v>1511</v>
+        <v>1510</v>
+      </c>
+      <c r="M317" t="b">
+        <v>1</v>
       </c>
       <c r="N317" t="s">
         <v>217</v>
       </c>
       <c r="O317" t="s">
-        <v>248</v>
+        <v>405</v>
       </c>
       <c r="P317" t="s">
-        <v>1529</v>
+        <v>406</v>
+      </c>
+      <c r="R317" t="s">
+        <v>662</v>
+      </c>
+      <c r="S317" t="s">
+        <v>663</v>
+      </c>
+      <c r="U317" t="s">
+        <v>664</v>
+      </c>
+      <c r="V317" t="s">
+        <v>665</v>
+      </c>
+      <c r="X317" t="s">
+        <v>663</v>
+      </c>
+      <c r="AA317" t="s">
+        <v>736</v>
+      </c>
+      <c r="AB317" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AC317" t="s">
+        <v>754</v>
+      </c>
+      <c r="AM317" t="s">
+        <v>1701</v>
+      </c>
+      <c r="AN317" t="s">
+        <v>1700</v>
       </c>
     </row>
     <row r="318" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "fish", "group": "_ish", "pos": "Noun", "adult": false, "has": ["scales","fins","gills"], "in": ["the sea","the ocean","a pond"], "on": [], "from": [], "is": [], "typeOf": ["an animal","an aquatic animal"], "supertypeOf": ["a shark","a salmon","a tuna"], "nearlyIs": ["sealife"], "property": ["a scaly","an underwater"]},</v>
+        <v>{"spelling": "bore", "group": "_aw", "pos": "Noun", "adult": false, "has": ["no friends","no conversation"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B318" t="str">
-        <f t="shared" si="66"/>
-        <v>"scales","fins","gills"</v>
+        <f t="shared" si="76"/>
+        <v>"no friends","no conversation"</v>
       </c>
       <c r="C318" t="str">
-        <f t="shared" si="67"/>
-        <v>"the sea","the ocean","a pond"</v>
+        <f t="shared" si="77"/>
+        <v/>
       </c>
       <c r="D318" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E318" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F318" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G318" t="str">
-        <f t="shared" si="71"/>
-        <v>"an animal","an aquatic animal"</v>
+        <f t="shared" si="81"/>
+        <v/>
       </c>
       <c r="H318" t="str">
-        <f t="shared" si="72"/>
-        <v>"a shark","a salmon","a tuna"</v>
+        <f t="shared" si="82"/>
+        <v/>
       </c>
       <c r="I318" t="str">
-        <f t="shared" si="73"/>
-        <v>"sealife"</v>
+        <f t="shared" si="83"/>
+        <v/>
       </c>
       <c r="J318" t="str">
         <f t="shared" si="49"/>
-        <v>"a scaly","an underwater"</v>
+        <v/>
       </c>
       <c r="K318" t="s">
-        <v>1530</v>
+        <v>348</v>
       </c>
       <c r="L318" s="1" t="s">
-        <v>1531</v>
+        <v>1511</v>
       </c>
       <c r="N318" t="s">
         <v>217</v>
       </c>
       <c r="O318" t="s">
-        <v>1534</v>
+        <v>248</v>
       </c>
       <c r="P318" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q318" t="s">
-        <v>476</v>
-      </c>
-      <c r="R318" t="s">
-        <v>588</v>
-      </c>
-      <c r="S318" t="s">
-        <v>587</v>
-      </c>
-      <c r="T318" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AD318" t="s">
-        <v>775</v>
-      </c>
-      <c r="AE318" t="s">
-        <v>1539</v>
-      </c>
-      <c r="AG318" t="s">
-        <v>1536</v>
-      </c>
-      <c r="AH318" t="s">
-        <v>1537</v>
-      </c>
-      <c r="AI318" t="s">
-        <v>1538</v>
-      </c>
-      <c r="AJ318" t="s">
-        <v>1535</v>
-      </c>
-      <c r="AM318" t="s">
-        <v>1797</v>
-      </c>
-      <c r="AN318" t="s">
-        <v>1788</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="319" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "wish", "group": "_ish", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a genie","a fairy godmother"], "is": [], "typeOf": ["a desire","a want","a craving"], "supertypeOf": [], "nearlyIs": ["a hope"], "property": []},</v>
+        <v>{"spelling": "fish", "group": "_ish", "pos": "Noun", "adult": false, "has": ["scales","fins","gills"], "in": ["the sea","the ocean","a pond"], "on": [], "from": [], "is": [], "typeOf": ["an animal","an aquatic animal"], "supertypeOf": ["a shark","a salmon","a tuna"], "nearlyIs": ["sealife"], "property": ["a scaly","an underwater"]},</v>
       </c>
       <c r="B319" t="str">
-        <f t="shared" si="66"/>
-        <v/>
+        <f t="shared" si="76"/>
+        <v>"scales","fins","gills"</v>
       </c>
       <c r="C319" t="str">
-        <f t="shared" si="67"/>
-        <v/>
+        <f t="shared" si="77"/>
+        <v>"the sea","the ocean","a pond"</v>
       </c>
       <c r="D319" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E319" t="str">
-        <f t="shared" si="69"/>
-        <v>"a genie","a fairy godmother"</v>
+        <f t="shared" si="79"/>
+        <v/>
       </c>
       <c r="F319" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G319" t="str">
-        <f t="shared" si="71"/>
-        <v>"a desire","a want","a craving"</v>
+        <f t="shared" si="81"/>
+        <v>"an animal","an aquatic animal"</v>
       </c>
       <c r="H319" t="str">
-        <f t="shared" si="72"/>
-        <v/>
+        <f t="shared" si="82"/>
+        <v>"a shark","a salmon","a tuna"</v>
       </c>
       <c r="I319" t="str">
-        <f t="shared" si="73"/>
-        <v>"a hope"</v>
+        <f t="shared" si="83"/>
+        <v>"sealife"</v>
       </c>
       <c r="J319" t="str">
         <f t="shared" si="49"/>
-        <v/>
+        <v>"a scaly","an underwater"</v>
       </c>
       <c r="K319" t="s">
         <v>1530</v>
       </c>
       <c r="L319" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="N319" t="s">
         <v>217</v>
       </c>
-      <c r="X319" t="s">
-        <v>1379</v>
-      </c>
-      <c r="Y319" t="s">
-        <v>1540</v>
+      <c r="O319" t="s">
+        <v>1534</v>
+      </c>
+      <c r="P319" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>476</v>
+      </c>
+      <c r="R319" t="s">
+        <v>588</v>
+      </c>
+      <c r="S319" t="s">
+        <v>587</v>
+      </c>
+      <c r="T319" t="s">
+        <v>1079</v>
       </c>
       <c r="AD319" t="s">
-        <v>1541</v>
+        <v>775</v>
       </c>
       <c r="AE319" t="s">
-        <v>1542</v>
-      </c>
-      <c r="AF319" t="s">
-        <v>1543</v>
+        <v>1539</v>
+      </c>
+      <c r="AG319" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AH319" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AI319" t="s">
+        <v>1538</v>
       </c>
       <c r="AJ319" t="s">
-        <v>1544</v>
+        <v>1535</v>
+      </c>
+      <c r="AM319" t="s">
+        <v>1798</v>
+      </c>
+      <c r="AN319" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="320" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "dish", "group": "_ish", "pos": "Noun", "adult": false, "has": [], "in": ["a kitchen","a cupboard"], "on": [], "from": [], "is": [], "typeOf": ["china","a platter"], "supertypeOf": [], "nearlyIs": ["a plate","a bowl"], "property": []},</v>
+        <v>{"spelling": "wish", "group": "_ish", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a genie","a fairy godmother"], "is": [], "typeOf": ["a desire","a want","a craving"], "supertypeOf": [], "nearlyIs": ["a hope"], "property": []},</v>
       </c>
       <c r="B320" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="C320" t="str">
-        <f t="shared" si="67"/>
-        <v>"a kitchen","a cupboard"</v>
+        <f t="shared" si="77"/>
+        <v/>
       </c>
       <c r="D320" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E320" t="str">
-        <f t="shared" si="69"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>"a genie","a fairy godmother"</v>
       </c>
       <c r="F320" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G320" t="str">
-        <f t="shared" si="71"/>
-        <v>"china","a platter"</v>
+        <f t="shared" si="81"/>
+        <v>"a desire","a want","a craving"</v>
       </c>
       <c r="H320" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="I320" t="str">
-        <f t="shared" si="73"/>
-        <v>"a plate","a bowl"</v>
+        <f t="shared" si="83"/>
+        <v>"a hope"</v>
       </c>
       <c r="J320" t="str">
         <f t="shared" si="49"/>
@@ -27839,117 +29105,135 @@
         <v>1530</v>
       </c>
       <c r="L320" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="N320" t="s">
         <v>217</v>
       </c>
-      <c r="R320" t="s">
-        <v>486</v>
-      </c>
-      <c r="S320" t="s">
-        <v>1545</v>
+      <c r="X320" t="s">
+        <v>1379</v>
+      </c>
+      <c r="Y320" t="s">
+        <v>1540</v>
       </c>
       <c r="AD320" t="s">
-        <v>1404</v>
+        <v>1541</v>
       </c>
       <c r="AE320" t="s">
-        <v>1546</v>
+        <v>1542</v>
+      </c>
+      <c r="AF320" t="s">
+        <v>1543</v>
       </c>
       <c r="AJ320" t="s">
-        <v>1288</v>
-      </c>
-      <c r="AK320" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="321" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="321" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "super", "group": "_uper", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <v>{"spelling": "dish", "group": "_ish", "pos": "Noun", "adult": false, "has": [], "in": ["a kitchen","a cupboard"], "on": [], "from": [], "is": [], "typeOf": ["china","a platter"], "supertypeOf": [], "nearlyIs": ["a plate","a bowl"], "property": []},</v>
       </c>
       <c r="B321" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="C321" t="str">
-        <f t="shared" si="67"/>
-        <v/>
+        <f t="shared" si="77"/>
+        <v>"a kitchen","a cupboard"</v>
       </c>
       <c r="D321" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E321" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F321" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G321" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+        <f t="shared" si="81"/>
+        <v>"china","a platter"</v>
       </c>
       <c r="H321" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="I321" t="str">
-        <f t="shared" si="73"/>
-        <v/>
+        <f t="shared" si="83"/>
+        <v>"a plate","a bowl"</v>
       </c>
       <c r="J321" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="K321" t="s">
-        <v>1548</v>
+        <v>1530</v>
       </c>
       <c r="L321" s="1" t="s">
-        <v>1549</v>
+        <v>1533</v>
       </c>
       <c r="N321" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="322" spans="1:40" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="R321" t="s">
+        <v>486</v>
+      </c>
+      <c r="S321" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AD321" t="s">
+        <v>1404</v>
+      </c>
+      <c r="AE321" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AJ321" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AK321" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="322" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
         <f t="shared" si="48"/>
-        <v>{"spelling": "trooper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["a gun","a uniform"], "in": ["the army","the police"], "on": ["patrol"], "from": [], "is": [], "typeOf": ["a soldier","a police officer"], "supertypeOf": [], "nearlyIs": ["an officer"], "property": []},</v>
+        <v>{"spelling": "super", "group": "_uper", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B322" t="str">
-        <f t="shared" si="66"/>
-        <v>"a gun","a uniform"</v>
+        <f t="shared" si="76"/>
+        <v/>
       </c>
       <c r="C322" t="str">
-        <f t="shared" si="67"/>
-        <v>"the army","the police"</v>
+        <f t="shared" si="77"/>
+        <v/>
       </c>
       <c r="D322" t="str">
-        <f t="shared" si="68"/>
-        <v>"patrol"</v>
+        <f t="shared" si="78"/>
+        <v/>
       </c>
       <c r="E322" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F322" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G322" t="str">
-        <f t="shared" si="71"/>
-        <v>"a soldier","a police officer"</v>
+        <f t="shared" si="81"/>
+        <v/>
       </c>
       <c r="H322" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="I322" t="str">
-        <f t="shared" si="73"/>
-        <v>"an officer"</v>
+        <f t="shared" si="83"/>
+        <v/>
       </c>
       <c r="J322" t="str">
         <f t="shared" si="49"/>
@@ -27959,1093 +29243,1075 @@
         <v>1548</v>
       </c>
       <c r="L322" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="N322" t="s">
-        <v>217</v>
-      </c>
-      <c r="O322" t="s">
-        <v>1556</v>
-      </c>
-      <c r="P322" t="s">
-        <v>1557</v>
-      </c>
-      <c r="R322" t="s">
-        <v>1558</v>
-      </c>
-      <c r="S322" t="s">
-        <v>1559</v>
-      </c>
-      <c r="U322" t="s">
-        <v>1560</v>
-      </c>
-      <c r="AD322" t="s">
-        <v>1562</v>
-      </c>
-      <c r="AE322" t="s">
-        <v>1563</v>
-      </c>
-      <c r="AJ322" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="323" spans="1:40" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="323" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
-        <f t="shared" ref="A323:A339" si="74">CONCATENATE("{""spelling"": """,L323,""", ""group"": """,K323,""", ""pos"": """,N323,""", ""adult"": ",IF(M323=TRUE,"true","false"),", ""has"": [",B323,"]",", ""in"": [",C323,"]",", ""on"": [",D323,"]",", ""from"": [",E323,"]",", ""is"": [",F323,"]",", ""typeOf"": [",G323,"]",", ""supertypeOf"": [",H323,"]",", ""nearlyIs"": [",I323,"]",", ""property"": [",J323,"]},")</f>
-        <v>{"spelling": "duper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["no morals"], "in": [], "on": [], "from": [], "is": ["a liar"], "typeOf": [], "supertypeOf": ["a con","a conman"], "nearlyIs": ["a lawyer","a politician","a trickster"], "property": ["a deceitful"]},</v>
+        <f t="shared" si="48"/>
+        <v>{"spelling": "trooper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["a gun","a uniform"], "in": ["the army","the police"], "on": ["patrol"], "from": [], "is": [], "typeOf": ["a soldier","a police officer"], "supertypeOf": [], "nearlyIs": ["an officer"], "property": []},</v>
       </c>
       <c r="B323" t="str">
-        <f t="shared" si="66"/>
-        <v>"no morals"</v>
+        <f t="shared" si="76"/>
+        <v>"a gun","a uniform"</v>
       </c>
       <c r="C323" t="str">
-        <f t="shared" si="67"/>
-        <v/>
+        <f t="shared" si="77"/>
+        <v>"the army","the police"</v>
       </c>
       <c r="D323" t="str">
-        <f t="shared" si="68"/>
-        <v/>
+        <f t="shared" si="78"/>
+        <v>"patrol"</v>
       </c>
       <c r="E323" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F323" t="str">
-        <f t="shared" si="70"/>
-        <v>"a liar"</v>
+        <f t="shared" si="80"/>
+        <v/>
       </c>
       <c r="G323" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+        <f t="shared" si="81"/>
+        <v>"a soldier","a police officer"</v>
       </c>
       <c r="H323" t="str">
-        <f t="shared" si="72"/>
-        <v>"a con","a conman"</v>
+        <f t="shared" si="82"/>
+        <v/>
       </c>
       <c r="I323" t="str">
-        <f t="shared" si="73"/>
-        <v>"a lawyer","a politician","a trickster"</v>
+        <f t="shared" si="83"/>
+        <v>"an officer"</v>
       </c>
       <c r="J323" t="str">
-        <f t="shared" ref="J323:J339" si="75">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AM323,""",""",AN323,""",""",AO323,""""),",""""",""),"""""","")</f>
-        <v>"a deceitful"</v>
+        <f t="shared" si="49"/>
+        <v/>
       </c>
       <c r="K323" t="s">
         <v>1548</v>
       </c>
       <c r="L323" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="N323" t="s">
         <v>217</v>
       </c>
       <c r="O323" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA323" t="s">
-        <v>998</v>
-      </c>
-      <c r="AG323" t="s">
-        <v>1251</v>
-      </c>
-      <c r="AH323" t="s">
-        <v>726</v>
+        <v>1556</v>
+      </c>
+      <c r="P323" t="s">
+        <v>1557</v>
+      </c>
+      <c r="R323" t="s">
+        <v>1558</v>
+      </c>
+      <c r="S323" t="s">
+        <v>1559</v>
+      </c>
+      <c r="U323" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AD323" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AE323" t="s">
+        <v>1563</v>
       </c>
       <c r="AJ323" t="s">
-        <v>602</v>
-      </c>
-      <c r="AK323" t="s">
-        <v>755</v>
-      </c>
-      <c r="AL323" t="s">
-        <v>1564</v>
-      </c>
-      <c r="AM323" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="324" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="324" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
-        <f t="shared" si="74"/>
-        <v>{"spelling": "cooper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["tools","barrels"], "in": [], "on": [], "from": [], "is": ["a barrel maker"], "typeOf": ["a craftsman","an artisan"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <f t="shared" ref="A324:A340" si="84">CONCATENATE("{""spelling"": """,L324,""", ""group"": """,K324,""", ""pos"": """,N324,""", ""adult"": ",IF(M324=TRUE,"true","false"),", ""has"": [",B324,"]",", ""in"": [",C324,"]",", ""on"": [",D324,"]",", ""from"": [",E324,"]",", ""is"": [",F324,"]",", ""typeOf"": [",G324,"]",", ""supertypeOf"": [",H324,"]",", ""nearlyIs"": [",I324,"]",", ""property"": [",J324,"]},")</f>
+        <v>{"spelling": "duper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["no morals"], "in": [], "on": [], "from": [], "is": ["a liar"], "typeOf": [], "supertypeOf": ["a con","a conman"], "nearlyIs": ["a lawyer","a politician","a trickster"], "property": ["a deceitful"]},</v>
       </c>
       <c r="B324" t="str">
-        <f t="shared" si="66"/>
-        <v>"tools","barrels"</v>
+        <f t="shared" si="76"/>
+        <v>"no morals"</v>
       </c>
       <c r="C324" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="D324" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E324" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F324" t="str">
-        <f t="shared" si="70"/>
-        <v>"a barrel maker"</v>
+        <f t="shared" si="80"/>
+        <v>"a liar"</v>
       </c>
       <c r="G324" t="str">
-        <f t="shared" si="71"/>
-        <v>"a craftsman","an artisan"</v>
+        <f t="shared" si="81"/>
+        <v/>
       </c>
       <c r="H324" t="str">
-        <f t="shared" si="72"/>
-        <v/>
+        <f t="shared" si="82"/>
+        <v>"a con","a conman"</v>
       </c>
       <c r="I324" t="str">
-        <f t="shared" si="73"/>
-        <v/>
+        <f t="shared" si="83"/>
+        <v>"a lawyer","a politician","a trickster"</v>
       </c>
       <c r="J324" t="str">
-        <f t="shared" si="75"/>
-        <v/>
+        <f t="shared" ref="J324:J340" si="85">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT("""",AM324,""",""",AN324,""",""",AO324,""""),",""""",""),"""""","")</f>
+        <v>"a deceitful"</v>
       </c>
       <c r="K324" t="s">
         <v>1548</v>
       </c>
       <c r="L324" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="N324" t="s">
         <v>217</v>
       </c>
       <c r="O324" t="s">
-        <v>1565</v>
-      </c>
-      <c r="P324" t="s">
-        <v>1566</v>
+        <v>229</v>
       </c>
       <c r="AA324" t="s">
-        <v>1567</v>
-      </c>
-      <c r="AD324" t="s">
-        <v>1568</v>
-      </c>
-      <c r="AE324" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="325" spans="1:40" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+      <c r="AG324" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AH324" t="s">
+        <v>726</v>
+      </c>
+      <c r="AJ324" t="s">
+        <v>602</v>
+      </c>
+      <c r="AK324" t="s">
+        <v>755</v>
+      </c>
+      <c r="AL324" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AM324" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="325" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
-        <f t="shared" si="74"/>
-        <v>{"spelling": "blooper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["mistakes"], "in": [], "on": ["tv","a DVD"], "from": ["a movie","a film"], "is": ["an outtake"], "typeOf": ["a mistake"], "supertypeOf": [], "nearlyIs": [], "property": ["an accidental"]},</v>
+        <f t="shared" si="84"/>
+        <v>{"spelling": "cooper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["tools","barrels"], "in": [], "on": [], "from": [], "is": ["a barrel maker"], "typeOf": ["a craftsman","an artisan"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B325" t="str">
-        <f t="shared" si="66"/>
-        <v>"mistakes"</v>
+        <f t="shared" si="76"/>
+        <v>"tools","barrels"</v>
       </c>
       <c r="C325" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="D325" t="str">
-        <f t="shared" si="68"/>
-        <v>"tv","a DVD"</v>
+        <f t="shared" si="78"/>
+        <v/>
       </c>
       <c r="E325" t="str">
-        <f t="shared" si="69"/>
-        <v>"a movie","a film"</v>
+        <f t="shared" si="79"/>
+        <v/>
       </c>
       <c r="F325" t="str">
-        <f t="shared" si="70"/>
-        <v>"an outtake"</v>
+        <f t="shared" si="80"/>
+        <v>"a barrel maker"</v>
       </c>
       <c r="G325" t="str">
-        <f t="shared" si="71"/>
-        <v>"a mistake"</v>
+        <f t="shared" si="81"/>
+        <v>"a craftsman","an artisan"</v>
       </c>
       <c r="H325" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="I325" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J325" t="str">
-        <f t="shared" si="75"/>
-        <v>"an accidental"</v>
+        <f t="shared" si="85"/>
+        <v/>
       </c>
       <c r="K325" t="s">
         <v>1548</v>
       </c>
       <c r="L325" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="N325" t="s">
         <v>217</v>
       </c>
       <c r="O325" t="s">
-        <v>1571</v>
-      </c>
-      <c r="U325" t="s">
-        <v>623</v>
-      </c>
-      <c r="V325" t="s">
-        <v>1573</v>
-      </c>
-      <c r="X325" t="s">
-        <v>1574</v>
-      </c>
-      <c r="Y325" t="s">
-        <v>1575</v>
+        <v>1565</v>
+      </c>
+      <c r="P325" t="s">
+        <v>1566</v>
       </c>
       <c r="AA325" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="AD325" t="s">
-        <v>1572</v>
-      </c>
-      <c r="AM325" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="326" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1568</v>
+      </c>
+      <c r="AE325" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="326" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
-        <f t="shared" si="74"/>
-        <v>{"spelling": "snooper", "group": "_uper", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an investigator"], "typeOf": [], "supertypeOf": ["a paparazzi","a detective"], "nearlyIs": [], "property": []},</v>
+        <f t="shared" si="84"/>
+        <v>{"spelling": "blooper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["mistakes"], "in": [], "on": ["tv","a DVD"], "from": ["a movie","a film"], "is": ["an outtake"], "typeOf": ["a mistake"], "supertypeOf": [], "nearlyIs": [], "property": ["an accidental"]},</v>
       </c>
       <c r="B326" t="str">
-        <f t="shared" si="66"/>
-        <v/>
+        <f t="shared" si="76"/>
+        <v>"mistakes"</v>
       </c>
       <c r="C326" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="D326" t="str">
-        <f t="shared" si="68"/>
-        <v/>
+        <f t="shared" si="78"/>
+        <v>"tv","a DVD"</v>
       </c>
       <c r="E326" t="str">
-        <f t="shared" si="69"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>"a movie","a film"</v>
       </c>
       <c r="F326" t="str">
-        <f t="shared" si="70"/>
-        <v>"an investigator"</v>
+        <f t="shared" si="80"/>
+        <v>"an outtake"</v>
       </c>
       <c r="G326" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+        <f t="shared" si="81"/>
+        <v>"a mistake"</v>
       </c>
       <c r="H326" t="str">
-        <f t="shared" si="72"/>
-        <v>"a paparazzi","a detective"</v>
+        <f t="shared" si="82"/>
+        <v/>
       </c>
       <c r="I326" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J326" t="str">
-        <f t="shared" si="75"/>
-        <v/>
+        <f t="shared" si="85"/>
+        <v>"an accidental"</v>
       </c>
       <c r="K326" t="s">
         <v>1548</v>
       </c>
       <c r="L326" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="N326" t="s">
         <v>217</v>
       </c>
+      <c r="O326" t="s">
+        <v>1571</v>
+      </c>
+      <c r="U326" t="s">
+        <v>623</v>
+      </c>
+      <c r="V326" t="s">
+        <v>1573</v>
+      </c>
+      <c r="X326" t="s">
+        <v>1574</v>
+      </c>
+      <c r="Y326" t="s">
+        <v>1575</v>
+      </c>
       <c r="AA326" t="s">
-        <v>1576</v>
-      </c>
-      <c r="AG326" t="s">
-        <v>1577</v>
-      </c>
-      <c r="AH326" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="327" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1570</v>
+      </c>
+      <c r="AD326" t="s">
+        <v>1572</v>
+      </c>
+      <c r="AM326" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="327" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
-        <f t="shared" si="74"/>
-        <v>{"spelling": "trouper", "group": "_uper", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an actor"], "typeOf": ["an entertainer"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <f t="shared" si="84"/>
+        <v>{"spelling": "snooper", "group": "_uper", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an investigator"], "typeOf": [], "supertypeOf": ["a paparazzi","a detective"], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B327" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="C327" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="D327" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E327" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F327" t="str">
-        <f t="shared" si="70"/>
-        <v>"an actor"</v>
+        <f t="shared" si="80"/>
+        <v>"an investigator"</v>
       </c>
       <c r="G327" t="str">
-        <f t="shared" si="71"/>
-        <v>"an entertainer"</v>
+        <f t="shared" si="81"/>
+        <v/>
       </c>
       <c r="H327" t="str">
-        <f t="shared" si="72"/>
-        <v/>
+        <f t="shared" si="82"/>
+        <v>"a paparazzi","a detective"</v>
       </c>
       <c r="I327" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J327" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="K327" t="s">
         <v>1548</v>
       </c>
       <c r="L327" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N327" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA327" t="s">
+        <v>1576</v>
+      </c>
+      <c r="AG327" t="s">
+        <v>1577</v>
+      </c>
+      <c r="AH327" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="328" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A328" t="str">
+        <f t="shared" si="84"/>
+        <v>{"spelling": "trouper", "group": "_uper", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an actor"], "typeOf": ["an entertainer"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+      </c>
+      <c r="B328" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="C328" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="D328" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="E328" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="F328" t="str">
+        <f t="shared" si="80"/>
+        <v>"an actor"</v>
+      </c>
+      <c r="G328" t="str">
+        <f t="shared" si="81"/>
+        <v>"an entertainer"</v>
+      </c>
+      <c r="H328" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="I328" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="J328" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="K328" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L328" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="N327" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA327" t="s">
+      <c r="N328" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA328" t="s">
         <v>1579</v>
       </c>
-      <c r="AD327" t="s">
+      <c r="AD328" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="328" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A328" t="str">
-        <f t="shared" si="74"/>
+    <row r="329" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A329" t="str">
+        <f t="shared" si="84"/>
         <v>{"spelling": "line", "group": "_ine", "pos": "Noun", "adult": false, "has": ["a start point","an end point","a gradient"], "in": ["a drawing"], "on": [], "from": [], "is": ["a queue"], "typeOf": ["a shape"], "supertypeOf": ["a tangent","an intersection"], "nearlyIs": ["a stroke"], "property": ["a straight"]},</v>
       </c>
-      <c r="B328" t="str">
-        <f t="shared" si="66"/>
+      <c r="B329" t="str">
+        <f t="shared" si="76"/>
         <v>"a start point","an end point","a gradient"</v>
       </c>
-      <c r="C328" t="str">
-        <f t="shared" si="67"/>
+      <c r="C329" t="str">
+        <f t="shared" si="77"/>
         <v>"a drawing"</v>
       </c>
-      <c r="D328" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-      <c r="E328" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-      <c r="F328" t="str">
-        <f t="shared" si="70"/>
+      <c r="D329" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="E329" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="F329" t="str">
+        <f t="shared" si="80"/>
         <v>"a queue"</v>
       </c>
-      <c r="G328" t="str">
-        <f t="shared" si="71"/>
+      <c r="G329" t="str">
+        <f t="shared" si="81"/>
         <v>"a shape"</v>
       </c>
-      <c r="H328" t="str">
-        <f t="shared" si="72"/>
+      <c r="H329" t="str">
+        <f t="shared" si="82"/>
         <v>"a tangent","an intersection"</v>
       </c>
-      <c r="I328" t="str">
-        <f t="shared" si="73"/>
+      <c r="I329" t="str">
+        <f t="shared" si="83"/>
         <v>"a stroke"</v>
       </c>
-      <c r="J328" t="str">
-        <f t="shared" si="75"/>
+      <c r="J329" t="str">
+        <f t="shared" si="85"/>
         <v>"a straight"</v>
-      </c>
-      <c r="K328" t="s">
-        <v>1581</v>
-      </c>
-      <c r="L328" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="N328" t="s">
-        <v>217</v>
-      </c>
-      <c r="O328" t="s">
-        <v>1588</v>
-      </c>
-      <c r="P328" t="s">
-        <v>1590</v>
-      </c>
-      <c r="Q328" t="s">
-        <v>1591</v>
-      </c>
-      <c r="R328" t="s">
-        <v>1592</v>
-      </c>
-      <c r="AA328" t="s">
-        <v>1589</v>
-      </c>
-      <c r="AD328" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AG328" t="s">
-        <v>1594</v>
-      </c>
-      <c r="AH328" t="s">
-        <v>1595</v>
-      </c>
-      <c r="AJ328" t="s">
-        <v>1593</v>
-      </c>
-      <c r="AM328" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="329" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A329" t="str">
-        <f t="shared" si="74"/>
-        <v>{"spelling": "wine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["alcohol","tannins"], "in": ["a bottle","a glass","a cask"], "on": [], "from": ["a bottle","a cask"], "is": [], "typeOf": ["alcohol","a beverage","a drink"], "supertypeOf": ["a merlot","a chardonnay","a pinot noir"], "nearlyIs": ["champagne"], "property": ["an alcoholic"]},</v>
-      </c>
-      <c r="B329" t="str">
-        <f t="shared" si="66"/>
-        <v>"alcohol","tannins"</v>
-      </c>
-      <c r="C329" t="str">
-        <f t="shared" si="67"/>
-        <v>"a bottle","a glass","a cask"</v>
-      </c>
-      <c r="D329" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-      <c r="E329" t="str">
-        <f t="shared" si="69"/>
-        <v>"a bottle","a cask"</v>
-      </c>
-      <c r="F329" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="G329" t="str">
-        <f t="shared" si="71"/>
-        <v>"alcohol","a beverage","a drink"</v>
-      </c>
-      <c r="H329" t="str">
-        <f t="shared" si="72"/>
-        <v>"a merlot","a chardonnay","a pinot noir"</v>
-      </c>
-      <c r="I329" t="str">
-        <f t="shared" si="73"/>
-        <v>"champagne"</v>
-      </c>
-      <c r="J329" t="str">
-        <f t="shared" si="75"/>
-        <v>"an alcoholic"</v>
       </c>
       <c r="K329" t="s">
         <v>1581</v>
       </c>
       <c r="L329" s="1" t="s">
-        <v>1582</v>
+        <v>852</v>
       </c>
       <c r="N329" t="s">
         <v>217</v>
       </c>
       <c r="O329" t="s">
-        <v>1597</v>
+        <v>1588</v>
       </c>
       <c r="P329" t="s">
-        <v>1598</v>
+        <v>1590</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>1591</v>
       </c>
       <c r="R329" t="s">
-        <v>716</v>
-      </c>
-      <c r="S329" t="s">
-        <v>1403</v>
-      </c>
-      <c r="T329" t="s">
-        <v>1469</v>
-      </c>
-      <c r="X329" t="s">
-        <v>716</v>
-      </c>
-      <c r="Y329" t="s">
-        <v>1469</v>
+        <v>1592</v>
+      </c>
+      <c r="AA329" t="s">
+        <v>1589</v>
       </c>
       <c r="AD329" t="s">
-        <v>1597</v>
-      </c>
-      <c r="AE329" t="s">
-        <v>1599</v>
-      </c>
-      <c r="AF329" t="s">
-        <v>1376</v>
+        <v>1128</v>
       </c>
       <c r="AG329" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="AH329" t="s">
-        <v>1601</v>
-      </c>
-      <c r="AI329" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="AJ329" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
       <c r="AM329" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="330" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="330" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
-        <f t="shared" si="74"/>
-        <v>{"spelling": "pine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["leaves","needles","bark"], "in": ["a forest","a wood","the woods"], "on": [], "from": [], "is": [], "typeOf": ["a tree","an evergreen"], "supertypeOf": ["a fir"], "nearlyIs": [], "property": ["an evergreen"]},</v>
+        <f t="shared" si="84"/>
+        <v>{"spelling": "wine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["alcohol","tannins"], "in": ["a bottle","a glass","a cask"], "on": [], "from": ["a bottle","a cask"], "is": [], "typeOf": ["alcohol","a beverage","a drink"], "supertypeOf": ["a merlot","a chardonnay","a pinot noir"], "nearlyIs": ["champagne"], "property": ["an alcoholic"]},</v>
       </c>
       <c r="B330" t="str">
-        <f t="shared" si="66"/>
-        <v>"leaves","needles","bark"</v>
+        <f t="shared" si="76"/>
+        <v>"alcohol","tannins"</v>
       </c>
       <c r="C330" t="str">
-        <f t="shared" si="67"/>
-        <v>"a forest","a wood","the woods"</v>
+        <f t="shared" si="77"/>
+        <v>"a bottle","a glass","a cask"</v>
       </c>
       <c r="D330" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E330" t="str">
-        <f t="shared" si="69"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>"a bottle","a cask"</v>
       </c>
       <c r="F330" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G330" t="str">
-        <f t="shared" si="71"/>
-        <v>"a tree","an evergreen"</v>
+        <f t="shared" si="81"/>
+        <v>"alcohol","a beverage","a drink"</v>
       </c>
       <c r="H330" t="str">
-        <f t="shared" si="72"/>
-        <v>"a fir"</v>
+        <f t="shared" si="82"/>
+        <v>"a merlot","a chardonnay","a pinot noir"</v>
       </c>
       <c r="I330" t="str">
-        <f t="shared" si="73"/>
-        <v/>
+        <f t="shared" si="83"/>
+        <v>"champagne"</v>
       </c>
       <c r="J330" t="str">
-        <f t="shared" si="75"/>
-        <v>"an evergreen"</v>
+        <f t="shared" si="85"/>
+        <v>"an alcoholic"</v>
       </c>
       <c r="K330" t="s">
         <v>1581</v>
       </c>
       <c r="L330" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="N330" t="s">
         <v>217</v>
       </c>
       <c r="O330" t="s">
-        <v>219</v>
+        <v>1597</v>
       </c>
       <c r="P330" t="s">
-        <v>1604</v>
-      </c>
-      <c r="Q330" t="s">
-        <v>429</v>
+        <v>1598</v>
       </c>
       <c r="R330" t="s">
-        <v>571</v>
+        <v>716</v>
       </c>
       <c r="S330" t="s">
-        <v>681</v>
+        <v>1403</v>
       </c>
       <c r="T330" t="s">
-        <v>682</v>
+        <v>1469</v>
+      </c>
+      <c r="X330" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y330" t="s">
+        <v>1469</v>
       </c>
       <c r="AD330" t="s">
-        <v>596</v>
+        <v>1597</v>
       </c>
       <c r="AE330" t="s">
-        <v>1606</v>
+        <v>1599</v>
+      </c>
+      <c r="AF330" t="s">
+        <v>1376</v>
       </c>
       <c r="AG330" t="s">
-        <v>1605</v>
+        <v>1600</v>
+      </c>
+      <c r="AH330" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AI330" t="s">
+        <v>1602</v>
+      </c>
+      <c r="AJ330" t="s">
+        <v>1603</v>
       </c>
       <c r="AM330" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="331" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="331" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
-        <f t="shared" si="74"/>
-        <v>{"spelling": "sign", "group": "_ine", "pos": "Noun", "adult": false, "has": ["a post","instructions"], "in": [], "on": ["a street"], "from": [], "is": [], "typeOf": ["a mark","a pointer"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <f t="shared" si="84"/>
+        <v>{"spelling": "pine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["leaves","needles","bark"], "in": ["a forest","a wood","the woods"], "on": [], "from": [], "is": [], "typeOf": ["a tree","an evergreen"], "supertypeOf": ["a fir"], "nearlyIs": [], "property": ["an evergreen"]},</v>
       </c>
       <c r="B331" t="str">
-        <f t="shared" si="66"/>
-        <v>"a post","instructions"</v>
+        <f t="shared" si="76"/>
+        <v>"leaves","needles","bark"</v>
       </c>
       <c r="C331" t="str">
-        <f t="shared" si="67"/>
-        <v/>
+        <f t="shared" si="77"/>
+        <v>"a forest","a wood","the woods"</v>
       </c>
       <c r="D331" t="str">
-        <f t="shared" si="68"/>
-        <v>"a street"</v>
+        <f t="shared" si="78"/>
+        <v/>
       </c>
       <c r="E331" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F331" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G331" t="str">
-        <f t="shared" si="71"/>
-        <v>"a mark","a pointer"</v>
+        <f t="shared" si="81"/>
+        <v>"a tree","an evergreen"</v>
       </c>
       <c r="H331" t="str">
-        <f t="shared" si="72"/>
-        <v/>
+        <f t="shared" si="82"/>
+        <v>"a fir"</v>
       </c>
       <c r="I331" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J331" t="str">
-        <f t="shared" si="75"/>
-        <v/>
+        <f t="shared" si="85"/>
+        <v>"an evergreen"</v>
       </c>
       <c r="K331" t="s">
         <v>1581</v>
       </c>
       <c r="L331" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="N331" t="s">
         <v>217</v>
       </c>
       <c r="O331" t="s">
-        <v>1608</v>
+        <v>219</v>
       </c>
       <c r="P331" t="s">
-        <v>1609</v>
-      </c>
-      <c r="U331" t="s">
-        <v>1610</v>
+        <v>1604</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>429</v>
+      </c>
+      <c r="R331" t="s">
+        <v>571</v>
+      </c>
+      <c r="S331" t="s">
+        <v>681</v>
+      </c>
+      <c r="T331" t="s">
+        <v>682</v>
       </c>
       <c r="AD331" t="s">
-        <v>1308</v>
+        <v>596</v>
       </c>
       <c r="AE331" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="332" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1606</v>
+      </c>
+      <c r="AG331" t="s">
+        <v>1605</v>
+      </c>
+      <c r="AM331" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="332" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
-        <f t="shared" si="74"/>
-        <v>{"spelling": "fine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["a cost"], "in": [], "on": [], "from": ["a court","a police officer","a judge"], "is": ["a fee"], "typeOf": ["a punishment","a charge"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <f t="shared" si="84"/>
+        <v>{"spelling": "sign", "group": "_ine", "pos": "Noun", "adult": false, "has": ["a post","instructions"], "in": [], "on": ["a street"], "from": [], "is": [], "typeOf": ["a mark","a pointer"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B332" t="str">
-        <f t="shared" si="66"/>
-        <v>"a cost"</v>
+        <f t="shared" si="76"/>
+        <v>"a post","instructions"</v>
       </c>
       <c r="C332" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="D332" t="str">
-        <f t="shared" si="68"/>
-        <v/>
+        <f t="shared" si="78"/>
+        <v>"a street"</v>
       </c>
       <c r="E332" t="str">
-        <f t="shared" si="69"/>
-        <v>"a court","a police officer","a judge"</v>
+        <f t="shared" si="79"/>
+        <v/>
       </c>
       <c r="F332" t="str">
-        <f t="shared" si="70"/>
-        <v>"a fee"</v>
+        <f t="shared" si="80"/>
+        <v/>
       </c>
       <c r="G332" t="str">
-        <f t="shared" si="71"/>
-        <v>"a punishment","a charge"</v>
+        <f t="shared" si="81"/>
+        <v>"a mark","a pointer"</v>
       </c>
       <c r="H332" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="I332" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J332" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="K332" t="s">
         <v>1581</v>
       </c>
       <c r="L332" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="N332" t="s">
         <v>217</v>
       </c>
       <c r="O332" t="s">
-        <v>1612</v>
-      </c>
-      <c r="X332" t="s">
-        <v>600</v>
-      </c>
-      <c r="Y332" t="s">
-        <v>1563</v>
-      </c>
-      <c r="Z332" t="s">
-        <v>1613</v>
-      </c>
-      <c r="AA332" t="s">
-        <v>1616</v>
+        <v>1608</v>
+      </c>
+      <c r="P332" t="s">
+        <v>1609</v>
+      </c>
+      <c r="U332" t="s">
+        <v>1610</v>
       </c>
       <c r="AD332" t="s">
-        <v>1614</v>
+        <v>1308</v>
       </c>
       <c r="AE332" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="333" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="333" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
-        <f t="shared" si="74"/>
-        <v>{"spelling": "vine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["grapes","leaves","a stem"], "in": ["a field"], "on": ["a wall","a trellis"], "from": [], "is": [], "typeOf": ["a plant"], "supertypeOf": ["a grape"], "nearlyIs": [], "property": []},</v>
+        <f t="shared" si="84"/>
+        <v>{"spelling": "fine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["a cost"], "in": [], "on": [], "from": ["a court","a police officer","a judge"], "is": ["a fee"], "typeOf": ["a punishment","a charge"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B333" t="str">
-        <f t="shared" si="66"/>
-        <v>"grapes","leaves","a stem"</v>
+        <f t="shared" si="76"/>
+        <v>"a cost"</v>
       </c>
       <c r="C333" t="str">
-        <f t="shared" si="67"/>
-        <v>"a field"</v>
+        <f t="shared" si="77"/>
+        <v/>
       </c>
       <c r="D333" t="str">
-        <f t="shared" si="68"/>
-        <v>"a wall","a trellis"</v>
+        <f t="shared" si="78"/>
+        <v/>
       </c>
       <c r="E333" t="str">
-        <f t="shared" si="69"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>"a court","a police officer","a judge"</v>
       </c>
       <c r="F333" t="str">
-        <f t="shared" si="70"/>
-        <v/>
+        <f t="shared" si="80"/>
+        <v>"a fee"</v>
       </c>
       <c r="G333" t="str">
-        <f t="shared" si="71"/>
-        <v>"a plant"</v>
+        <f t="shared" si="81"/>
+        <v>"a punishment","a charge"</v>
       </c>
       <c r="H333" t="str">
-        <f t="shared" si="72"/>
-        <v>"a grape"</v>
+        <f t="shared" si="82"/>
+        <v/>
       </c>
       <c r="I333" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J333" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="K333" t="s">
         <v>1581</v>
       </c>
       <c r="L333" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="N333" t="s">
         <v>217</v>
       </c>
       <c r="O333" t="s">
-        <v>1596</v>
-      </c>
-      <c r="P333" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q333" t="s">
-        <v>1620</v>
-      </c>
-      <c r="R333" t="s">
-        <v>661</v>
-      </c>
-      <c r="U333" t="s">
-        <v>1617</v>
-      </c>
-      <c r="V333" t="s">
-        <v>1618</v>
+        <v>1612</v>
+      </c>
+      <c r="X333" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y333" t="s">
+        <v>1563</v>
+      </c>
+      <c r="Z333" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AA333" t="s">
+        <v>1616</v>
       </c>
       <c r="AD333" t="s">
-        <v>1184</v>
-      </c>
-      <c r="AG333" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="334" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1614</v>
+      </c>
+      <c r="AE333" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="334" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
-        <f t="shared" si="74"/>
-        <v>{"spelling": "mine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["diamonds","a detonator","gold"], "in": ["the mountains"], "on": ["a battlefield"], "from": [], "is": [], "typeOf": ["a pit","an explosive","a bomb"], "supertypeOf": ["a quarry"], "nearlyIs": ["a tripwire"], "property": []},</v>
+        <f t="shared" si="84"/>
+        <v>{"spelling": "vine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["grapes","leaves","a stem"], "in": ["a field"], "on": ["a wall","a trellis"], "from": [], "is": [], "typeOf": ["a plant"], "supertypeOf": ["a grape"], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B334" t="str">
-        <f t="shared" si="66"/>
-        <v>"diamonds","a detonator","gold"</v>
+        <f t="shared" si="76"/>
+        <v>"grapes","leaves","a stem"</v>
       </c>
       <c r="C334" t="str">
-        <f t="shared" si="67"/>
-        <v>"the mountains"</v>
+        <f t="shared" si="77"/>
+        <v>"a field"</v>
       </c>
       <c r="D334" t="str">
-        <f t="shared" si="68"/>
-        <v>"a battlefield"</v>
+        <f t="shared" si="78"/>
+        <v>"a wall","a trellis"</v>
       </c>
       <c r="E334" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F334" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G334" t="str">
-        <f t="shared" si="71"/>
-        <v>"a pit","an explosive","a bomb"</v>
+        <f t="shared" si="81"/>
+        <v>"a plant"</v>
       </c>
       <c r="H334" t="str">
-        <f t="shared" si="72"/>
-        <v>"a quarry"</v>
+        <f t="shared" si="82"/>
+        <v>"a grape"</v>
       </c>
       <c r="I334" t="str">
-        <f t="shared" si="73"/>
-        <v>"a tripwire"</v>
+        <f t="shared" si="83"/>
+        <v/>
       </c>
       <c r="J334" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="K334" t="s">
         <v>1581</v>
       </c>
       <c r="L334" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="N334" t="s">
+        <v>217</v>
+      </c>
+      <c r="O334" t="s">
+        <v>1596</v>
+      </c>
+      <c r="P334" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>1620</v>
+      </c>
+      <c r="R334" t="s">
+        <v>661</v>
+      </c>
+      <c r="U334" t="s">
+        <v>1617</v>
+      </c>
+      <c r="V334" t="s">
+        <v>1618</v>
+      </c>
+      <c r="AD334" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AG334" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="335" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A335" t="str">
+        <f t="shared" si="84"/>
+        <v>{"spelling": "mine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["diamonds","a detonator","gold"], "in": ["the mountains"], "on": ["a battlefield"], "from": [], "is": [], "typeOf": ["a pit","an explosive","a bomb"], "supertypeOf": ["a quarry"], "nearlyIs": ["a tripwire"], "property": []},</v>
+      </c>
+      <c r="B335" t="str">
+        <f t="shared" si="76"/>
+        <v>"diamonds","a detonator","gold"</v>
+      </c>
+      <c r="C335" t="str">
+        <f t="shared" si="77"/>
+        <v>"the mountains"</v>
+      </c>
+      <c r="D335" t="str">
+        <f t="shared" si="78"/>
+        <v>"a battlefield"</v>
+      </c>
+      <c r="E335" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="F335" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="G335" t="str">
+        <f t="shared" si="81"/>
+        <v>"a pit","an explosive","a bomb"</v>
+      </c>
+      <c r="H335" t="str">
+        <f t="shared" si="82"/>
+        <v>"a quarry"</v>
+      </c>
+      <c r="I335" t="str">
+        <f t="shared" si="83"/>
+        <v>"a tripwire"</v>
+      </c>
+      <c r="J335" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="K335" t="s">
+        <v>1581</v>
+      </c>
+      <c r="L335" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="N334" t="s">
-        <v>217</v>
-      </c>
-      <c r="O334" t="s">
+      <c r="N335" t="s">
+        <v>217</v>
+      </c>
+      <c r="O335" t="s">
         <v>1623</v>
       </c>
-      <c r="P334" t="s">
+      <c r="P335" t="s">
         <v>1621</v>
       </c>
-      <c r="Q334" t="s">
+      <c r="Q335" t="s">
         <v>1622</v>
       </c>
-      <c r="R334" t="s">
+      <c r="R335" t="s">
         <v>1624</v>
       </c>
-      <c r="U334" t="s">
+      <c r="U335" t="s">
         <v>1625</v>
       </c>
-      <c r="AD334" t="s">
+      <c r="AD335" t="s">
         <v>291</v>
       </c>
-      <c r="AE334" t="s">
+      <c r="AE335" t="s">
         <v>1626</v>
       </c>
-      <c r="AF334" t="s">
+      <c r="AF335" t="s">
         <v>1627</v>
       </c>
-      <c r="AG334" t="s">
+      <c r="AG335" t="s">
         <v>1628</v>
       </c>
-      <c r="AJ334" t="s">
+      <c r="AJ335" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="335" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A335" t="str">
-        <f t="shared" si="74"/>
+    <row r="336" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A336" t="str">
+        <f t="shared" si="84"/>
         <v>{"spelling": "top", "group": "_op", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a direction","a side"], "supertypeOf": ["a peak","a summit"], "nearlyIs": [], "property": []},</v>
       </c>
-      <c r="B335" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="C335" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-      <c r="D335" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-      <c r="E335" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-      <c r="F335" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="G335" t="str">
-        <f t="shared" si="71"/>
+      <c r="B336" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="C336" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="D336" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="E336" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="F336" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="G336" t="str">
+        <f t="shared" si="81"/>
         <v>"a direction","a side"</v>
       </c>
-      <c r="H335" t="str">
-        <f t="shared" si="72"/>
+      <c r="H336" t="str">
+        <f t="shared" si="82"/>
         <v>"a peak","a summit"</v>
       </c>
-      <c r="I335" t="str">
-        <f t="shared" si="73"/>
-        <v/>
-      </c>
-      <c r="J335" t="str">
-        <f t="shared" si="75"/>
-        <v/>
-      </c>
-      <c r="K335" t="s">
-        <v>1630</v>
-      </c>
-      <c r="L335" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="N335" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD335" t="s">
-        <v>1638</v>
-      </c>
-      <c r="AE335" t="s">
-        <v>1210</v>
-      </c>
-      <c r="AG335" t="s">
-        <v>1636</v>
-      </c>
-      <c r="AH335" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="336" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A336" t="str">
-        <f t="shared" si="74"/>
-        <v>{"spelling": "fop", "group": "_op", "pos": "Noun", "adult": false, "has": ["elaborate clothes"], "in": [], "on": [], "from": [], "is": ["a dandy"], "typeOf": ["a poser"], "supertypeOf": [], "nearlyIs": ["a toff"], "property": ["a posh","a well-dressed"]},</v>
-      </c>
-      <c r="B336" t="str">
-        <f t="shared" si="66"/>
-        <v>"elaborate clothes"</v>
-      </c>
-      <c r="C336" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-      <c r="D336" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-      <c r="E336" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-      <c r="F336" t="str">
-        <f t="shared" si="70"/>
-        <v>"a dandy"</v>
-      </c>
-      <c r="G336" t="str">
-        <f t="shared" si="71"/>
-        <v>"a poser"</v>
-      </c>
-      <c r="H336" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
       <c r="I336" t="str">
-        <f t="shared" si="73"/>
-        <v>"a toff"</v>
+        <f t="shared" si="83"/>
+        <v/>
       </c>
       <c r="J336" t="str">
-        <f t="shared" si="75"/>
-        <v>"a posh","a well-dressed"</v>
+        <f t="shared" si="85"/>
+        <v/>
       </c>
       <c r="K336" t="s">
         <v>1630</v>
       </c>
       <c r="L336" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="N336" t="s">
         <v>217</v>
       </c>
-      <c r="O336" t="s">
+      <c r="AD336" t="s">
         <v>1639</v>
       </c>
-      <c r="AA336" t="s">
-        <v>1640</v>
-      </c>
-      <c r="AD336" t="s">
-        <v>1641</v>
-      </c>
-      <c r="AJ336" t="s">
-        <v>1642</v>
-      </c>
-      <c r="AM336" t="s">
-        <v>1751</v>
-      </c>
-      <c r="AN336" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="337" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AE336" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AG336" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AH336" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="337" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
-        <f t="shared" si="74"/>
-        <v>{"spelling": "hop", "group": "_op", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a rabbit","a kangaroo"], "is": [], "typeOf": ["a jump","a movement","a bounce"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
+        <f t="shared" si="84"/>
+        <v>{"spelling": "fop", "group": "_op", "pos": "Noun", "adult": false, "has": ["elaborate clothes"], "in": [], "on": [], "from": [], "is": ["a dandy"], "typeOf": ["a poser"], "supertypeOf": [], "nearlyIs": ["a toff"], "property": ["a posh","a well-dressed"]},</v>
       </c>
       <c r="B337" t="str">
-        <f t="shared" si="66"/>
-        <v/>
+        <f t="shared" si="76"/>
+        <v>"elaborate clothes"</v>
       </c>
       <c r="C337" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="D337" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E337" t="str">
-        <f t="shared" si="69"/>
-        <v>"a rabbit","a kangaroo"</v>
+        <f t="shared" si="79"/>
+        <v/>
       </c>
       <c r="F337" t="str">
-        <f t="shared" si="70"/>
-        <v/>
+        <f t="shared" si="80"/>
+        <v>"a dandy"</v>
       </c>
       <c r="G337" t="str">
-        <f t="shared" si="71"/>
-        <v>"a jump","a movement","a bounce"</v>
+        <f t="shared" si="81"/>
+        <v>"a poser"</v>
       </c>
       <c r="H337" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="I337" t="str">
-        <f t="shared" si="73"/>
-        <v/>
+        <f t="shared" si="83"/>
+        <v>"a toff"</v>
       </c>
       <c r="J337" t="str">
-        <f t="shared" si="75"/>
-        <v/>
+        <f t="shared" si="85"/>
+        <v>"a posh","a well-dressed"</v>
       </c>
       <c r="K337" t="s">
         <v>1630</v>
@@ -29056,61 +30322,64 @@
       <c r="N337" t="s">
         <v>217</v>
       </c>
-      <c r="X337" t="s">
+      <c r="O337" t="s">
+        <v>1640</v>
+      </c>
+      <c r="AA337" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AD337" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AJ337" t="s">
         <v>1643</v>
       </c>
-      <c r="Y337" t="s">
-        <v>1644</v>
-      </c>
-      <c r="AD337" t="s">
-        <v>1645</v>
-      </c>
-      <c r="AE337" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AF337" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="338" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM337" t="s">
+        <v>1752</v>
+      </c>
+      <c r="AN337" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="338" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
-        <f t="shared" si="74"/>
-        <v>{"spelling": "cop", "group": "_op", "pos": "Noun", "adult": false, "has": ["a uniform","a badge","handcuffs"], "in": ["the police force"], "on": [], "from": [], "is": ["a police officer"], "typeOf": [], "supertypeOf": ["a trooper"], "nearlyIs": [], "property": []},</v>
+        <f t="shared" si="84"/>
+        <v>{"spelling": "hop", "group": "_op", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a rabbit","a kangaroo"], "is": [], "typeOf": ["a jump","a movement","a bounce"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B338" t="str">
-        <f t="shared" si="66"/>
-        <v>"a uniform","a badge","handcuffs"</v>
+        <f t="shared" si="76"/>
+        <v/>
       </c>
       <c r="C338" t="str">
-        <f t="shared" si="67"/>
-        <v>"the police force"</v>
+        <f t="shared" si="77"/>
+        <v/>
       </c>
       <c r="D338" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E338" t="str">
-        <f t="shared" si="69"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>"a rabbit","a kangaroo"</v>
       </c>
       <c r="F338" t="str">
-        <f t="shared" si="70"/>
-        <v>"a police officer"</v>
+        <f t="shared" si="80"/>
+        <v/>
       </c>
       <c r="G338" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+        <f t="shared" si="81"/>
+        <v>"a jump","a movement","a bounce"</v>
       </c>
       <c r="H338" t="str">
-        <f t="shared" si="72"/>
-        <v>"a trooper"</v>
+        <f t="shared" si="82"/>
+        <v/>
       </c>
       <c r="I338" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J338" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="K338" t="s">
@@ -29122,64 +30391,61 @@
       <c r="N338" t="s">
         <v>217</v>
       </c>
-      <c r="O338" t="s">
-        <v>1557</v>
-      </c>
-      <c r="P338" t="s">
+      <c r="X338" t="s">
+        <v>1644</v>
+      </c>
+      <c r="Y338" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AD338" t="s">
+        <v>1646</v>
+      </c>
+      <c r="AE338" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AF338" t="s">
         <v>1647</v>
       </c>
-      <c r="Q338" t="s">
-        <v>1648</v>
-      </c>
-      <c r="R338" t="s">
-        <v>1649</v>
-      </c>
-      <c r="AA338" t="s">
-        <v>1563</v>
-      </c>
-      <c r="AG338" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="339" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
-        <f t="shared" si="74"/>
-        <v>{"spelling": "mop", "group": "_op", "pos": "Noun", "adult": false, "has": ["a handle"], "in": ["a cleaning trolley"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a tool","a cleaning product"], "nearlyIs": ["a broom"], "property": []},</v>
+        <f t="shared" si="84"/>
+        <v>{"spelling": "cop", "group": "_op", "pos": "Noun", "adult": false, "has": ["a uniform","a badge","handcuffs"], "in": ["the police force"], "on": [], "from": [], "is": ["a police officer"], "typeOf": [], "supertypeOf": ["a trooper"], "nearlyIs": [], "property": []},</v>
       </c>
       <c r="B339" t="str">
-        <f t="shared" si="66"/>
-        <v>"a handle"</v>
+        <f t="shared" si="76"/>
+        <v>"a uniform","a badge","handcuffs"</v>
       </c>
       <c r="C339" t="str">
-        <f t="shared" si="67"/>
-        <v>"a cleaning trolley"</v>
+        <f t="shared" si="77"/>
+        <v>"the police force"</v>
       </c>
       <c r="D339" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E339" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F339" t="str">
-        <f t="shared" si="70"/>
-        <v/>
+        <f t="shared" si="80"/>
+        <v>"a police officer"</v>
       </c>
       <c r="G339" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="H339" t="str">
-        <f t="shared" si="72"/>
-        <v>"a tool","a cleaning product"</v>
+        <f t="shared" si="82"/>
+        <v>"a trooper"</v>
       </c>
       <c r="I339" t="str">
-        <f t="shared" si="73"/>
-        <v>"a broom"</v>
+        <f t="shared" si="83"/>
+        <v/>
       </c>
       <c r="J339" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="K339" t="s">
@@ -29192,19 +30458,88 @@
         <v>217</v>
       </c>
       <c r="O339" t="s">
+        <v>1557</v>
+      </c>
+      <c r="P339" t="s">
+        <v>1648</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>1649</v>
+      </c>
+      <c r="R339" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AA339" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AG339" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="340" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A340" t="str">
+        <f t="shared" si="84"/>
+        <v>{"spelling": "mop", "group": "_op", "pos": "Noun", "adult": false, "has": ["a handle"], "in": ["a cleaning trolley"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a tool","a cleaning product"], "nearlyIs": ["a broom"], "property": []},</v>
+      </c>
+      <c r="B340" t="str">
+        <f t="shared" si="76"/>
+        <v>"a handle"</v>
+      </c>
+      <c r="C340" t="str">
+        <f t="shared" si="77"/>
+        <v>"a cleaning trolley"</v>
+      </c>
+      <c r="D340" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="E340" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="F340" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="G340" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="H340" t="str">
+        <f t="shared" si="82"/>
+        <v>"a tool","a cleaning product"</v>
+      </c>
+      <c r="I340" t="str">
+        <f t="shared" si="83"/>
+        <v>"a broom"</v>
+      </c>
+      <c r="J340" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="K340" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L340" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="N340" t="s">
+        <v>217</v>
+      </c>
+      <c r="O340" t="s">
         <v>404</v>
       </c>
-      <c r="R339" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AG339" t="s">
+      <c r="R340" t="s">
+        <v>1652</v>
+      </c>
+      <c r="AG340" t="s">
         <v>1015</v>
       </c>
-      <c r="AH339" t="s">
+      <c r="AH340" t="s">
+        <v>1654</v>
+      </c>
+      <c r="AJ340" t="s">
         <v>1653</v>
-      </c>
-      <c r="AJ339" t="s">
-        <v>1652</v>
       </c>
     </row>
   </sheetData>

--- a/customDIctionary.xlsx
+++ b/customDIctionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\claptrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81166EE5-298B-49C7-9238-7936FD0130EB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEE4EF6-6566-429C-8E58-9521820E5B4F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9375" xr2:uid="{065E9CA2-EFF7-4AAA-8B1A-5CE3FAFF6ACD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="1978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="2133">
   <si>
     <t>Word</t>
   </si>
@@ -5609,6 +5609,9 @@
     <t>perform</t>
   </si>
   <si>
+    <t>sailing</t>
+  </si>
+  <si>
     <t>floats</t>
   </si>
   <si>
@@ -5964,6 +5967,468 @@
   </si>
   <si>
     <t>board</t>
+  </si>
+  <si>
+    <t>fall for</t>
+  </si>
+  <si>
+    <t>a shagged</t>
+  </si>
+  <si>
+    <t>sail into</t>
+  </si>
+  <si>
+    <t>swim in</t>
+  </si>
+  <si>
+    <t>quacks</t>
+  </si>
+  <si>
+    <t>a quacking</t>
+  </si>
+  <si>
+    <t>runs out</t>
+  </si>
+  <si>
+    <t>spend</t>
+  </si>
+  <si>
+    <t>attempt</t>
+  </si>
+  <si>
+    <t>an attempted</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>itches</t>
+  </si>
+  <si>
+    <t>an itching</t>
+  </si>
+  <si>
+    <t>live in</t>
+  </si>
+  <si>
+    <t>colours</t>
+  </si>
+  <si>
+    <t>a deceiving</t>
+  </si>
+  <si>
+    <t>deceives</t>
+  </si>
+  <si>
+    <t>misleads</t>
+  </si>
+  <si>
+    <t>a misleading</t>
+  </si>
+  <si>
+    <t>tell</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>watches</t>
+  </si>
+  <si>
+    <t>a watching</t>
+  </si>
+  <si>
+    <t>blind</t>
+  </si>
+  <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>a ringing</t>
+  </si>
+  <si>
+    <t>tolls</t>
+  </si>
+  <si>
+    <t>a tolling</t>
+  </si>
+  <si>
+    <t>dig</t>
+  </si>
+  <si>
+    <t>wish on</t>
+  </si>
+  <si>
+    <t>shout</t>
+  </si>
+  <si>
+    <t>a shouted</t>
+  </si>
+  <si>
+    <t>scream</t>
+  </si>
+  <si>
+    <t>a screamed</t>
+  </si>
+  <si>
+    <t>launch</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>burns</t>
+  </si>
+  <si>
+    <t>leads</t>
+  </si>
+  <si>
+    <t>a leading</t>
+  </si>
+  <si>
+    <t>a skinned</t>
+  </si>
+  <si>
+    <t>plays</t>
+  </si>
+  <si>
+    <t>a playing</t>
+  </si>
+  <si>
+    <t>teach</t>
+  </si>
+  <si>
+    <t>a taught</t>
+  </si>
+  <si>
+    <t>punctures</t>
+  </si>
+  <si>
+    <t>stab with</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>grants wishes</t>
+  </si>
+  <si>
+    <t>farts</t>
+  </si>
+  <si>
+    <t>a farting</t>
+  </si>
+  <si>
+    <t>poops</t>
+  </si>
+  <si>
+    <t>a pooping</t>
+  </si>
+  <si>
+    <t>wipe</t>
+  </si>
+  <si>
+    <t>a wiped</t>
+  </si>
+  <si>
+    <t>chew</t>
+  </si>
+  <si>
+    <t>a chewed</t>
+  </si>
+  <si>
+    <t>yaps</t>
+  </si>
+  <si>
+    <t>a barking</t>
+  </si>
+  <si>
+    <t>a yapping</t>
+  </si>
+  <si>
+    <t>drink from</t>
+  </si>
+  <si>
+    <t>inhabit</t>
+  </si>
+  <si>
+    <t>an inhabited</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>inspire</t>
+  </si>
+  <si>
+    <t>declaw</t>
+  </si>
+  <si>
+    <t>cuts</t>
+  </si>
+  <si>
+    <t>a cutting</t>
+  </si>
+  <si>
+    <t>sharpen</t>
+  </si>
+  <si>
+    <t>a sharpened</t>
+  </si>
+  <si>
+    <t>chews</t>
+  </si>
+  <si>
+    <t>a chewing</t>
+  </si>
+  <si>
+    <t>swallows</t>
+  </si>
+  <si>
+    <t>a swallowing</t>
+  </si>
+  <si>
+    <t>an eating</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>a built</t>
+  </si>
+  <si>
+    <t>demolish</t>
+  </si>
+  <si>
+    <t>bounces</t>
+  </si>
+  <si>
+    <t>a bouncing</t>
+  </si>
+  <si>
+    <t>a caught</t>
+  </si>
+  <si>
+    <t>swing</t>
+  </si>
+  <si>
+    <t>spins</t>
+  </si>
+  <si>
+    <t>a spinning</t>
+  </si>
+  <si>
+    <t>blows</t>
+  </si>
+  <si>
+    <t>a blowing</t>
+  </si>
+  <si>
+    <t>knits</t>
+  </si>
+  <si>
+    <t>a knitting</t>
+  </si>
+  <si>
+    <t>woofs</t>
+  </si>
+  <si>
+    <t>a woofing</t>
+  </si>
+  <si>
+    <t>oinks</t>
+  </si>
+  <si>
+    <t>an oinking</t>
+  </si>
+  <si>
+    <t>burn</t>
+  </si>
+  <si>
+    <t>a sawn</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>a posted</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>a read</t>
+  </si>
+  <si>
+    <t>cries</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>a crying</t>
+  </si>
+  <si>
+    <t>burp</t>
+  </si>
+  <si>
+    <t>sail</t>
+  </si>
+  <si>
+    <t>a sailed</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>toke</t>
+  </si>
+  <si>
+    <t>sneeze</t>
+  </si>
+  <si>
+    <t>a sneezed</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>a programmed</t>
+  </si>
+  <si>
+    <t>untie</t>
+  </si>
+  <si>
+    <t>drinks whisky</t>
+  </si>
+  <si>
+    <t>plays the bagpipes</t>
+  </si>
+  <si>
+    <t>hatches</t>
+  </si>
+  <si>
+    <t>a hatching</t>
+  </si>
+  <si>
+    <t>crack</t>
+  </si>
+  <si>
+    <t>a laid</t>
+  </si>
+  <si>
+    <t>a tapped</t>
+  </si>
+  <si>
+    <t>protects</t>
+  </si>
+  <si>
+    <t>invade</t>
+  </si>
+  <si>
+    <t>seige</t>
+  </si>
+  <si>
+    <t>a beseiged</t>
+  </si>
+  <si>
+    <t>steer</t>
+  </si>
+  <si>
+    <t>howls</t>
+  </si>
+  <si>
+    <t>a howling</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>opens</t>
+  </si>
+  <si>
+    <t>closes</t>
+  </si>
+  <si>
+    <t>slams</t>
+  </si>
+  <si>
+    <t>a closing</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>drill</t>
+  </si>
+  <si>
+    <t>a drilled</t>
+  </si>
+  <si>
+    <t>swims</t>
+  </si>
+  <si>
+    <t>a swimming</t>
+  </si>
+  <si>
+    <t>comes true</t>
+  </si>
+  <si>
+    <t>patrols</t>
+  </si>
+  <si>
+    <t>a patrolling</t>
+  </si>
+  <si>
+    <t>laugh at</t>
+  </si>
+  <si>
+    <t>acts</t>
+  </si>
+  <si>
+    <t>sings</t>
+  </si>
+  <si>
+    <t>an acting</t>
+  </si>
+  <si>
+    <t>a singing</t>
+  </si>
+  <si>
+    <t>performs</t>
+  </si>
+  <si>
+    <t>a performing</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>a bottled</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>explodes</t>
+  </si>
+  <si>
+    <t>excavate</t>
+  </si>
+  <si>
+    <t>an excavated</t>
+  </si>
+  <si>
+    <t>brew</t>
+  </si>
+  <si>
+    <t>cleans</t>
+  </si>
+  <si>
+    <t>a cleaning</t>
   </si>
 </sst>
 </file>
@@ -6327,9 +6792,9 @@
   <dimension ref="A1:BA340"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AP153" sqref="AP153"/>
+      <selection pane="bottomLeft" activeCell="L340" sqref="L340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6851,7 +7316,7 @@
         <v>1664</v>
       </c>
       <c r="AY6" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
@@ -7076,10 +7541,10 @@
         <v>1811</v>
       </c>
       <c r="AS9" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="AT9" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
@@ -7229,7 +7694,7 @@
         <v>1820</v>
       </c>
       <c r="AY11" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
@@ -7310,7 +7775,7 @@
         <v>1821</v>
       </c>
       <c r="AY12" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
@@ -7697,7 +8162,7 @@
         <v>1824</v>
       </c>
       <c r="AY18" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
@@ -7928,7 +8393,7 @@
         <v>1826</v>
       </c>
       <c r="AY21" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
@@ -8024,10 +8489,10 @@
         <v>1829</v>
       </c>
       <c r="AS22" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="AT22" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="AV22" t="s">
         <v>1828</v>
@@ -8036,10 +8501,10 @@
         <v>585</v>
       </c>
       <c r="AY22" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="AZ22" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
@@ -8609,10 +9074,10 @@
         <v>1811</v>
       </c>
       <c r="AS30" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="AT30" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="AU30" t="s">
         <v>1832</v>
@@ -8924,7 +9389,7 @@
         <v>1709</v>
       </c>
       <c r="AT34" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.25">
@@ -9071,7 +9536,7 @@
         <v>1839</v>
       </c>
       <c r="AS36" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.25">
@@ -9236,10 +9701,10 @@
         <v>1841</v>
       </c>
       <c r="AS38" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="AT38" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
@@ -9635,7 +10100,7 @@
         <v>1632</v>
       </c>
       <c r="AY44" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
@@ -9740,7 +10205,7 @@
         <v>1853</v>
       </c>
       <c r="AS45" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
@@ -10058,16 +10523,16 @@
         <v>1854</v>
       </c>
       <c r="AQ49" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="AS49" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="AV49" t="s">
         <v>1855</v>
       </c>
       <c r="AY49" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
@@ -10277,7 +10742,7 @@
         <v>1858</v>
       </c>
       <c r="AY52" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
@@ -10349,7 +10814,7 @@
         <v>190</v>
       </c>
       <c r="AY53" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
@@ -10445,13 +10910,13 @@
         <v>278</v>
       </c>
       <c r="AQ54" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="AS54" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="AT54" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
@@ -10529,7 +10994,7 @@
         <v>1821</v>
       </c>
       <c r="AY55" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.25">
@@ -10595,7 +11060,7 @@
         <v>1688</v>
       </c>
       <c r="AV56" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.25">
@@ -10670,7 +11135,7 @@
         <v>1081</v>
       </c>
       <c r="AY57" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="AZ57" t="s">
         <v>1690</v>
@@ -10817,10 +11282,10 @@
         <v>1689</v>
       </c>
       <c r="AP59" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="AS59" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.25">
@@ -10892,10 +11357,10 @@
         <v>1087</v>
       </c>
       <c r="AV60" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="AY60" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.25">
@@ -10973,7 +11438,7 @@
         <v>1856</v>
       </c>
       <c r="AW61" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="AY61" t="s">
         <v>1690</v>
@@ -11486,13 +11951,13 @@
         <v>1100</v>
       </c>
       <c r="AV69" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="AW69" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="AY69" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="AZ69" t="s">
         <v>1795</v>
@@ -11636,10 +12101,10 @@
         <v>1692</v>
       </c>
       <c r="AV71" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="AY71" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="72" spans="1:53" x14ac:dyDescent="0.25">
@@ -11801,22 +12266,22 @@
         <v>1694</v>
       </c>
       <c r="AV73" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="AW73" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="AX73" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="AY73" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="AZ73" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="BA73" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.25">
@@ -11891,13 +12356,13 @@
         <v>1695</v>
       </c>
       <c r="AV74" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="AW74" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="AY74" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="75" spans="1:53" x14ac:dyDescent="0.25">
@@ -12035,7 +12500,7 @@
         <v>102</v>
       </c>
       <c r="AY76" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.25">
@@ -12119,10 +12584,10 @@
         <v>1854</v>
       </c>
       <c r="AQ77" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="AS77" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.25">
@@ -12194,10 +12659,10 @@
         <v>1128</v>
       </c>
       <c r="AP78" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="AS78" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="79" spans="1:53" x14ac:dyDescent="0.25">
@@ -12284,19 +12749,19 @@
         <v>1854</v>
       </c>
       <c r="AQ79" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="AR79" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="AS79" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="AT79" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="AV79" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="80" spans="1:53" x14ac:dyDescent="0.25">
@@ -12362,10 +12827,10 @@
         <v>1131</v>
       </c>
       <c r="AV80" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="AW80" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.25">
@@ -12638,7 +13103,7 @@
         <v>1483</v>
       </c>
       <c r="AY84" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.25">
@@ -12776,13 +13241,13 @@
         <v>1138</v>
       </c>
       <c r="AV86" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="AW86" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="AY86" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="87" spans="1:53" x14ac:dyDescent="0.25">
@@ -12956,25 +13421,28 @@
         <v>1701</v>
       </c>
       <c r="AP88" t="s">
+        <v>1917</v>
+      </c>
+      <c r="AQ88" t="s">
+        <v>1918</v>
+      </c>
+      <c r="AR88" t="s">
+        <v>2109</v>
+      </c>
+      <c r="AS88" t="s">
+        <v>1919</v>
+      </c>
+      <c r="AT88" t="s">
+        <v>1920</v>
+      </c>
+      <c r="AV88" t="s">
         <v>1916</v>
-      </c>
-      <c r="AQ88" t="s">
-        <v>1917</v>
-      </c>
-      <c r="AS88" t="s">
-        <v>1918</v>
-      </c>
-      <c r="AT88" t="s">
-        <v>1919</v>
-      </c>
-      <c r="AV88" t="s">
-        <v>1915</v>
       </c>
       <c r="AW88" t="s">
         <v>188</v>
       </c>
       <c r="AX88" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.25">
@@ -13034,16 +13502,16 @@
         <v>407</v>
       </c>
       <c r="AP89" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="AS89" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="AV89" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="AY89" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.25">
@@ -13097,10 +13565,10 @@
         <v>217</v>
       </c>
       <c r="AS90" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="AT90" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="91" spans="1:53" x14ac:dyDescent="0.25">
@@ -13238,13 +13706,13 @@
         <v>1703</v>
       </c>
       <c r="AP92" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="AQ92" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="AV92" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.25">
@@ -13310,10 +13778,10 @@
         <v>1147</v>
       </c>
       <c r="AP93" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="AQ93" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.25">
@@ -13400,19 +13868,19 @@
         <v>1151</v>
       </c>
       <c r="AV94" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="AW94" t="s">
         <v>1858</v>
       </c>
       <c r="AY94" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="AZ94" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="BA94" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="95" spans="1:53" x14ac:dyDescent="0.25">
@@ -13478,7 +13946,7 @@
         <v>1154</v>
       </c>
       <c r="AV95" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="96" spans="1:53" x14ac:dyDescent="0.25">
@@ -13619,7 +14087,7 @@
         <v>1858</v>
       </c>
       <c r="AY97" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.25">
@@ -13802,19 +14270,19 @@
         <v>1694</v>
       </c>
       <c r="AV100" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="AW100" t="s">
         <v>131</v>
       </c>
       <c r="AX100" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="AY100" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="AZ100" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.25">
@@ -13898,7 +14366,7 @@
         <v>317</v>
       </c>
       <c r="AW101" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.25">
@@ -14045,10 +14513,10 @@
         <v>1707</v>
       </c>
       <c r="AP103" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="AQ103" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="AS103" t="s">
         <v>1708</v>
@@ -14057,7 +14525,7 @@
         <v>1710</v>
       </c>
       <c r="AV103" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.25">
@@ -14366,16 +14834,16 @@
         <v>1714</v>
       </c>
       <c r="AP107" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="AQ107" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AS107" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="AT107" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.25">
@@ -14534,10 +15002,10 @@
         <v>1854</v>
       </c>
       <c r="AQ109" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="AS109" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="AV109" t="s">
         <v>1855</v>
@@ -14810,7 +15278,7 @@
         <v>990</v>
       </c>
       <c r="AV113" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="114" spans="1:51" x14ac:dyDescent="0.25">
@@ -15200,16 +15668,16 @@
         <v>691</v>
       </c>
       <c r="AV119" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="AW119" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="AX119" t="s">
         <v>1855</v>
       </c>
       <c r="AY119" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="120" spans="1:51" x14ac:dyDescent="0.25">
@@ -15275,10 +15743,10 @@
         <v>1194</v>
       </c>
       <c r="AV120" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="AY120" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="121" spans="1:51" x14ac:dyDescent="0.25">
@@ -15353,13 +15821,13 @@
         <v>1694</v>
       </c>
       <c r="AV121" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="AW121" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="AY121" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="122" spans="1:51" x14ac:dyDescent="0.25">
@@ -15434,7 +15902,7 @@
         <v>1719</v>
       </c>
       <c r="AP122" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="123" spans="1:51" x14ac:dyDescent="0.25">
@@ -15506,7 +15974,7 @@
         <v>1200</v>
       </c>
       <c r="AV123" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="124" spans="1:51" x14ac:dyDescent="0.25">
@@ -15587,7 +16055,7 @@
         <v>1821</v>
       </c>
       <c r="AY124" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="125" spans="1:51" x14ac:dyDescent="0.25">
@@ -15662,25 +16130,25 @@
         <v>1720</v>
       </c>
       <c r="AP125" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="AQ125" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AS125" t="s">
         <v>1957</v>
       </c>
-      <c r="AS125" t="s">
-        <v>1956</v>
-      </c>
       <c r="AT125" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="AV125" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="AW125" t="s">
         <v>190</v>
       </c>
       <c r="AY125" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="126" spans="1:51" x14ac:dyDescent="0.25">
@@ -15764,13 +16232,13 @@
         <v>1723</v>
       </c>
       <c r="AP126" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="AQ126" t="s">
         <v>1854</v>
       </c>
       <c r="AS126" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="127" spans="1:51" x14ac:dyDescent="0.25">
@@ -15845,7 +16313,7 @@
         <v>1821</v>
       </c>
       <c r="AY127" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="128" spans="1:51" x14ac:dyDescent="0.25">
@@ -15908,10 +16376,10 @@
         <v>1724</v>
       </c>
       <c r="AP128" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="AS128" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="129" spans="1:51" x14ac:dyDescent="0.25">
@@ -16091,7 +16559,7 @@
         <v>1212</v>
       </c>
       <c r="AV131" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="132" spans="1:51" x14ac:dyDescent="0.25">
@@ -16154,7 +16622,7 @@
         <v>1212</v>
       </c>
       <c r="AV132" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="133" spans="1:51" x14ac:dyDescent="0.25">
@@ -16247,13 +16715,13 @@
         <v>548</v>
       </c>
       <c r="AQ133" t="s">
+        <v>1963</v>
+      </c>
+      <c r="AS133" t="s">
         <v>1962</v>
       </c>
-      <c r="AS133" t="s">
-        <v>1961</v>
-      </c>
       <c r="AT133" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="134" spans="1:51" x14ac:dyDescent="0.25">
@@ -16337,13 +16805,13 @@
         <v>1726</v>
       </c>
       <c r="AV134" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="AW134" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AY134" t="s">
         <v>1966</v>
-      </c>
-      <c r="AY134" t="s">
-        <v>1965</v>
       </c>
     </row>
     <row r="135" spans="1:51" x14ac:dyDescent="0.25">
@@ -16418,10 +16886,10 @@
         <v>732</v>
       </c>
       <c r="AV135" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="AW135" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="136" spans="1:51" x14ac:dyDescent="0.25">
@@ -16484,10 +16952,10 @@
         <v>1225</v>
       </c>
       <c r="AP136" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="AS136" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="137" spans="1:51" x14ac:dyDescent="0.25">
@@ -16556,7 +17024,7 @@
         <v>1227</v>
       </c>
       <c r="AV137" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="138" spans="1:51" x14ac:dyDescent="0.25">
@@ -16793,7 +17261,7 @@
         <v>1211</v>
       </c>
       <c r="AV141" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="142" spans="1:51" x14ac:dyDescent="0.25">
@@ -16865,7 +17333,7 @@
         <v>1821</v>
       </c>
       <c r="AY142" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="143" spans="1:51" x14ac:dyDescent="0.25">
@@ -16937,10 +17405,10 @@
         <v>1233</v>
       </c>
       <c r="AV143" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="AY143" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="144" spans="1:51" x14ac:dyDescent="0.25">
@@ -17084,10 +17552,10 @@
         <v>1236</v>
       </c>
       <c r="AV145" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="AW145" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="146" spans="1:51" x14ac:dyDescent="0.25">
@@ -17279,7 +17747,7 @@
         <v>1241</v>
       </c>
       <c r="AV148" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="149" spans="1:51" x14ac:dyDescent="0.25">
@@ -17366,10 +17834,10 @@
         <v>1730</v>
       </c>
       <c r="AV149" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="AW149" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="AY149" t="s">
         <v>1244</v>
@@ -17459,16 +17927,16 @@
         <v>1689</v>
       </c>
       <c r="AP150" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="AS150" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="AV150" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="AY150" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="151" spans="1:51" x14ac:dyDescent="0.25">
@@ -17543,13 +18011,13 @@
         <v>1246</v>
       </c>
       <c r="AP151" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="AS151" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="AV151" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="AW151" t="s">
         <v>305</v>
@@ -17746,6 +18214,9 @@
       <c r="AE154" t="s">
         <v>1253</v>
       </c>
+      <c r="AV154" t="s">
+        <v>1979</v>
+      </c>
     </row>
     <row r="155" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
@@ -17947,6 +18418,9 @@
       <c r="AM157" t="s">
         <v>1720</v>
       </c>
+      <c r="AV157" t="s">
+        <v>1871</v>
+      </c>
     </row>
     <row r="158" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
@@ -18025,6 +18499,21 @@
       <c r="AM158" t="s">
         <v>1731</v>
       </c>
+      <c r="AP158" t="s">
+        <v>1862</v>
+      </c>
+      <c r="AS158" t="s">
+        <v>1891</v>
+      </c>
+      <c r="AV158" t="s">
+        <v>1974</v>
+      </c>
+      <c r="AW158" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AY158" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="159" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
@@ -18103,6 +18592,9 @@
       <c r="AJ159" t="s">
         <v>763</v>
       </c>
+      <c r="AV159" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="160" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
@@ -18179,7 +18671,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "weigh", "group": "_ay", "pos": "Verb", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -18230,7 +18722,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "way", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a signpost"], "in": [], "on": [], "from": [], "is": ["a path","a route","a trail"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -18293,7 +18785,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "ray", "group": "_ay", "pos": "Noun", "adult": false, "has": ["gills"], "in": ["the sea","the ocean"], "on": [], "from": ["the sun","a fishmonger"], "is": [], "typeOf": ["a fish","a beam"], "supertypeOf": ["a sunbeam","a manta"], "nearlyIs": [], "property": []},</v>
@@ -18370,8 +18862,14 @@
       <c r="AH163" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP163" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AS163" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="164" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "fey", "group": "_ay", "pos": "Noun", "adult": false, "has": ["magical powers"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a mythical creature","a legend","a myth"], "supertypeOf": ["an elf","a pixie","a sprite"], "nearlyIs": [], "property": ["a magical","an elfin","a mythical"]},</v>
@@ -18452,7 +18950,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "gay", "group": "_ay", "pos": "Noun", "adult": true, "has": ["a husband"], "in": ["a pride parade"], "on": ["grinder"], "from": [], "is": ["a homosexual"], "typeOf": ["a sexual preference"], "supertypeOf": ["a lesbian"], "nearlyIs": [], "property": []},</v>
@@ -18524,7 +19022,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "hay", "group": "_ay", "pos": "Noun", "adult": false, "has": [], "in": ["a field","a bale"], "on": [], "from": [], "is": [], "typeOf": ["fodder"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -18584,7 +19082,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "hey", "group": "_ay", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a hello","a hi"], "typeOf": ["a salutation"], "supertypeOf": [], "nearlyIs": ["a wave"], "property": []},</v>
@@ -18647,7 +19145,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "lay", "group": "_ay", "pos": "Noun", "adult": true, "has": ["foreplay","a climax","an orgasm"], "in": [], "on": ["tinder"], "from": ["tinder"], "is": ["a shag","a sexual partner","a lay"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -18724,8 +19222,20 @@
       <c r="AC168" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AV168" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AW168" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY168" t="s">
+        <v>1980</v>
+      </c>
+      <c r="AZ168" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="169" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "bay", "group": "_ay", "pos": "Noun", "adult": false, "has": ["ships","a pier","a beach"], "in": ["a cove"], "on": [], "from": [], "is": ["a cove"], "typeOf": ["a coastline"], "supertypeOf": [], "nearlyIs": ["a port"], "property": []},</v>
@@ -18796,8 +19306,14 @@
       <c r="AJ169" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AV169" t="s">
+        <v>1981</v>
+      </c>
+      <c r="AW169" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="170" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "tray", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a rim"], "in": ["front of the tv"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a plate"], "property": []},</v>
@@ -18857,7 +19373,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "stay", "group": "_ay", "pos": "Noun", "adult": false, "has": [], "in": ["a hotel","a hostel","a resort"], "on": ["holiday","vacation"], "from": [], "is": [], "typeOf": ["a holiday","a vacation"], "supertypeOf": ["a hotel","a hostel","a resort"], "nearlyIs": [], "property": []},</v>
@@ -18938,7 +19454,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "duck", "group": "_uck", "pos": "Noun", "adult": false, "has": ["feathers","a beak","wings"], "in": ["the river","a river"], "on": [], "from": [], "is": [], "typeOf": ["a bird","an animal"], "supertypeOf": ["a mallard"], "nearlyIs": [], "property": ["a feathered"]},</v>
@@ -19016,10 +19532,22 @@
         <v>1724</v>
       </c>
       <c r="AP172" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AQ172" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AS172" t="s">
         <v>1709</v>
       </c>
-    </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AT172" t="s">
+        <v>1984</v>
+      </c>
+      <c r="AV172" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="173" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "puck", "group": "_uck", "pos": "Noun", "adult": false, "has": [], "in": ["a hockey match"], "on": ["an ice rink"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -19075,8 +19603,11 @@
       <c r="U173" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AV173" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "fuck", "group": "_uck", "pos": "Noun", "adult": true, "has": ["foreplay","a climax","an orgasm"], "in": [], "on": ["tinder"], "from": ["tinder","a prostitute","a hooker"], "is": ["a shag","a lay","a sexual partner"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -19160,7 +19691,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "luck", "group": "_uck", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["chance"], "typeOf": [], "supertypeOf": ["fortune","misfortune"], "nearlyIs": [], "property": ["a flukey","a risky"]},</v>
@@ -19225,8 +19756,11 @@
       <c r="AN175" t="s">
         <v>1740</v>
       </c>
-    </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP175" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="176" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "cook", "group": "_uck", "pos": "Noun", "adult": false, "has": ["ingredients","knives","a kitchen"], "in": ["the kitchen","a kitchen","a restaurant"], "on": [], "from": [], "is": ["a chef"], "typeOf": [], "supertypeOf": ["a baker"], "nearlyIs": [], "property": []},</v>
@@ -19301,7 +19835,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "buck", "group": "_uck", "pos": "Noun", "adult": false, "has": ["antlers","hooves"], "in": ["the woods","a tip jar"], "on": [], "from": [], "is": ["a dollar"], "typeOf": ["a deer","an animal","a wild animal"], "supertypeOf": [], "nearlyIs": [], "property": ["a horned"]},</v>
@@ -19378,8 +19912,11 @@
       <c r="AM177" t="s">
         <v>1689</v>
       </c>
-    </row>
-    <row r="178" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AV177" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="178" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "muck", "group": "_uck", "pos": "Noun", "adult": false, "has": [], "in": ["a farmyard","a field"], "on": ["the bottom of your shoe"], "from": [], "is": ["dirt"], "typeOf": ["a stain"], "supertypeOf": [], "nearlyIs": ["rubbish"], "property": ["a dirty"]},</v>
@@ -19450,8 +19987,11 @@
       <c r="AM178" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AV178" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="179" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "sky", "group": "_ie", "pos": "Noun", "adult": false, "has": ["clouds","birds","an atmosphere"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["space","the atmosphere"], "property": []},</v>
@@ -19517,7 +20057,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="180" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "rye", "group": "_ie", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a grain","a cereal","a flour"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -19577,7 +20117,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "tie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pattern","a knot"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["clothing","a garment","formal wear"], "supertypeOf": ["a cravat"], "nearlyIs": [], "property": []},</v>
@@ -19645,8 +20185,14 @@
       <c r="AG181" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AV181" t="s">
+        <v>1821</v>
+      </c>
+      <c r="AY181" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="182" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "try", "group": "_ie", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an attempt"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -19699,8 +20245,14 @@
       <c r="AA182" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="183" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AV182" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AY182" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="183" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "pie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a crust","a filling","a baker"], "in": [], "on": [], "from": ["a baker"], "is": [], "typeOf": ["a pastry"], "supertypeOf": [], "nearlyIs": ["a pasty","a tart","a pizza"], "property": ["a delicious"]},</v>
@@ -19777,8 +20329,17 @@
       <c r="AM183" t="s">
         <v>1695</v>
       </c>
-    </row>
-    <row r="184" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AV183" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AW183" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AY183" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="184" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "pi", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a lot of numbers"], "in": ["a textbook","an equation"], "on": ["a calculator"], "from": [], "is": [], "typeOf": ["a number"], "supertypeOf": [], "nearlyIs": [], "property": ["a mathematical"]},</v>
@@ -19847,7 +20408,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="185" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "sigh", "group": "_ie", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a noise","a sound"], "supertypeOf": [], "nearlyIs": ["a gasp","a whisper"], "property": []},</v>
@@ -19909,8 +20470,11 @@
       <c r="AK185" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="186" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AV185" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="186" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "sty", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pig","muck","a trough"], "in": ["a farm"], "on": ["your eye","your eyelid"], "from": [], "is": [], "typeOf": ["a mark","a blemish"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -19985,7 +20549,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="187" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "STI", "group": "_ie", "pos": "Noun", "adult": true, "has": ["pus"], "in": [], "on": ["your genitals"], "from": ["a prostitute","a hooker"], "is": ["a venereal disease","crotch rot"], "typeOf": ["a disease"], "supertypeOf": ["syphillis","chlamydia","herpes"], "nearlyIs": [], "property": []},</v>
@@ -20068,8 +20632,20 @@
       <c r="AI187" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="188" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP187" t="s">
+        <v>1991</v>
+      </c>
+      <c r="AS187" t="s">
+        <v>1992</v>
+      </c>
+      <c r="AV187" t="s">
+        <v>1989</v>
+      </c>
+      <c r="AW187" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="188" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "dye", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a colour"], "in": [], "on": ["your hair"], "from": [], "is": [], "typeOf": ["a colouring"], "supertypeOf": [], "nearlyIs": ["a stain"], "property": ["a colourful"]},</v>
@@ -20134,8 +20710,20 @@
       <c r="AM188" t="s">
         <v>1717</v>
       </c>
-    </row>
-    <row r="189" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP188" t="s">
+        <v>1994</v>
+      </c>
+      <c r="AQ188" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AS188" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AT188" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="189" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "guy", "group": "_ie", "pos": "Noun", "adult": false, "has": ["arms","legs","a body"], "in": [], "on": [], "from": [], "is": ["a man"], "typeOf": ["a person"], "supertypeOf": ["a boy","a lad"], "nearlyIs": [], "property": ["a masculine","a male"]},</v>
@@ -20213,7 +20801,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="190" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "lie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["never happened"], "in": [], "on": [], "from": ["a politician","an advert","a conman"], "is": ["an untruth"], "typeOf": [], "supertypeOf": ["a deception"], "nearlyIs": [], "property": ["a deceitful"]},</v>
@@ -20284,8 +20872,20 @@
       <c r="AM190" t="s">
         <v>1673</v>
       </c>
-    </row>
-    <row r="191" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP190" t="s">
+        <v>1996</v>
+      </c>
+      <c r="AQ190" t="s">
+        <v>1997</v>
+      </c>
+      <c r="AS190" t="s">
+        <v>1995</v>
+      </c>
+      <c r="AT190" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "eye", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pupil","a lens","lashes"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a body part"], "supertypeOf": [], "nearlyIs": ["a centre-point"], "property": []},</v>
@@ -20351,10 +20951,22 @@
         <v>1320</v>
       </c>
       <c r="AP191" t="s">
+        <v>2000</v>
+      </c>
+      <c r="AQ191" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AS191" t="s">
         <v>1745</v>
       </c>
-    </row>
-    <row r="192" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AT191" t="s">
+        <v>2002</v>
+      </c>
+      <c r="AV191" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "bell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["a clapper"], "in": ["a church","a steeple"], "on": [], "from": [], "is": [], "typeOf": ["an instrument"], "supertypeOf": [], "nearlyIs": ["a chime"], "property": []},</v>
@@ -20419,8 +21031,26 @@
       <c r="AJ192" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP192" t="s">
+        <v>839</v>
+      </c>
+      <c r="AQ192" t="s">
+        <v>2006</v>
+      </c>
+      <c r="AS192" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AT192" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AV192" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW192" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="193" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "well", "group": "_ell", "pos": "Noun", "adult": false, "has": ["a bucket","water"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a resevoir"], "property": []},</v>
@@ -20479,8 +21109,14 @@
       <c r="AJ193" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV193" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AW193" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="194" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "yell", "group": "_ell", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a football fan","someone in trouble"], "is": ["a shout"], "typeOf": ["a noise","an exclamation"], "supertypeOf": ["a scream","a screech","a holler"], "nearlyIs": [], "property": ["a loud"]},</v>
@@ -20557,8 +21193,23 @@
       <c r="AM194" t="s">
         <v>1746</v>
       </c>
-    </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV194" t="s">
+        <v>2010</v>
+      </c>
+      <c r="AW194" t="s">
+        <v>2012</v>
+      </c>
+      <c r="AX194" t="s">
+        <v>1969</v>
+      </c>
+      <c r="AY194" t="s">
+        <v>2011</v>
+      </c>
+      <c r="AZ194" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="195" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" ref="A195:A258" si="38">CONCATENATE("{""spelling"": """,L195,""", ""group"": """,K195,""", ""pos"": """,N195,""", ""adult"": ",IF(M195=TRUE,"true","false"),", ""has"": [",B195,"]",", ""in"": [",C195,"]",", ""on"": [",D195,"]",", ""from"": [",E195,"]",", ""is"": [",F195,"]",", ""typeOf"": [",G195,"]",", ""supertypeOf"": [",H195,"]",", ""nearlyIs"": [",I195,"]",", ""property"": [",J195,"]},")</f>
         <v>{"spelling": "sell", "group": "_ell", "pos": "Verb", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -20609,7 +21260,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "shell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["an inside"], "in": ["the sea","the ocean"], "on": ["the beach"], "from": ["an oyster","a clam"], "is": [], "typeOf": ["a casing","an exterior"], "supertypeOf": ["a conch"], "nearlyIs": [], "property": []},</v>
@@ -20686,8 +21337,14 @@
       <c r="AG196" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV196" t="s">
+        <v>2014</v>
+      </c>
+      <c r="AY196" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="197" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "gel", "group": "_ell", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a bottle"], "is": [], "typeOf": [], "supertypeOf": ["a body-wash"], "nearlyIs": ["a liquid","a paste"], "property": []},</v>
@@ -20750,7 +21407,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "hell", "group": "_ell", "pos": "Noun", "adult": true, "has": ["flames","sinners","pitchforks"], "in": [], "on": [], "from": [], "is": ["hades","inferno"], "typeOf": ["a nightmare","an underworld","an afterlife"], "supertypeOf": [], "nearlyIs": [], "property": ["a burning","a nightmarish"]},</v>
@@ -20833,8 +21490,14 @@
       <c r="AN198" t="s">
         <v>1749</v>
       </c>
-    </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP198" t="s">
+        <v>2016</v>
+      </c>
+      <c r="AS198" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="199" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "smell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["an origin"], "in": ["the bathroom","the toilet"], "on": [], "from": [], "is": ["an odour","an odor"], "typeOf": ["an emission"], "supertypeOf": ["a scent","a stench"], "nearlyIs": [], "property": ["a stinky"]},</v>
@@ -20911,8 +21574,14 @@
       <c r="AM199" t="s">
         <v>1747</v>
       </c>
-    </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP199" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AS199" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="200" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "act", "group": "_act", "pos": "Noun", "adult": false, "has": [], "in": ["a play"], "on": ["stage"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a chapter"], "property": []},</v>
@@ -20972,7 +21641,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "tact", "group": "_act", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a diplomat"], "is": [], "typeOf": ["a manner"], "supertypeOf": [], "nearlyIs": ["a politeness"], "property": ["a careful"]},</v>
@@ -21035,7 +21704,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "pact", "group": "_act", "pos": "Noun", "adult": false, "has": ["signatures"], "in": ["writing"], "on": [], "from": ["a diplomat"], "is": [], "typeOf": ["an agreement","a treaty"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -21101,7 +21770,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="203" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "fact", "group": "_act", "pos": "Noun", "adult": false, "has": ["proof"], "in": [], "on": [], "from": [], "is": ["a truth"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["an objective"]},</v>
@@ -21161,7 +21830,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "off", "group": "_off", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -21212,7 +21881,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "cough", "group": "_off", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a patient"], "is": [], "typeOf": ["a sound"], "supertypeOf": [], "nearlyIs": ["a hiccup"], "property": []},</v>
@@ -21272,7 +21941,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "toff", "group": "_off", "pos": "Noun", "adult": false, "has": ["a tophat","riches","a monocle"], "in": ["the upper classes"], "on": [], "from": ["a rich family"], "is": ["a snob"], "typeOf": ["a gentleman"], "supertypeOf": [], "nearlyIs": [], "property": ["a posh"]},</v>
@@ -21347,7 +22016,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "wide", "group": "_ide", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -21398,7 +22067,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "ride", "group": "_ide", "pos": "Noun", "adult": false, "has": ["tracks"], "in": ["a fairground","an amusement park"], "on": [], "from": [], "is": [], "typeOf": ["an attraction"], "supertypeOf": ["a rollercoaster","a log flume"], "nearlyIs": [], "property": []},</v>
@@ -21467,7 +22136,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="209" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "tide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["waves","a lot of water"], "in": ["the ocean"], "on": ["the beach"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a wave"], "property": []},</v>
@@ -21533,7 +22202,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="210" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "side", "group": "_ide", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["an edge"], "property": []},</v>
@@ -21587,7 +22256,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="211" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "pride", "group": "_ide", "pos": "Noun", "adult": false, "has": ["lions"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -21640,8 +22309,11 @@
       <c r="O211" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="212" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV211" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="212" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "guide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["expertise"], "in": [], "on": ["a hike","a tour"], "from": ["a gallery"], "is": [], "typeOf": ["a leader"], "supertypeOf": ["a guru"], "nearlyIs": [], "property": []},</v>
@@ -21709,8 +22381,14 @@
       <c r="AG212" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="213" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP212" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AS212" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="213" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "hide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["hunters"], "in": [], "on": ["an animal"], "from": [], "is": ["a pelt"], "typeOf": ["a covering","a skin"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -21775,8 +22453,14 @@
       <c r="AE213" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="214" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV213" t="s">
+        <v>556</v>
+      </c>
+      <c r="AY213" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="214" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "child", "group": "_ild", "pos": "Noun", "adult": false, "has": ["parents"], "in": ["school","a classroom"], "on": [], "from": [], "is": ["a kid","a youth","a sprog"], "typeOf": ["a person"], "supertypeOf": ["a baby","a toddler","an urchin"], "nearlyIs": [], "property": ["a young"]},</v>
@@ -21859,8 +22543,20 @@
       <c r="AM214" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP214" t="s">
+        <v>2020</v>
+      </c>
+      <c r="AS214" t="s">
+        <v>2021</v>
+      </c>
+      <c r="AV214" t="s">
+        <v>2022</v>
+      </c>
+      <c r="AY214" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="215" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "wild", "group": "_ild", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -21911,7 +22607,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="216" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "fin", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a fish"], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a flipper"], "nearlyIs": ["a wing"], "property": []},</v>
@@ -21971,7 +22667,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="217" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "win", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": ["sports"], "on": [], "from": [], "is": ["a victory"], "typeOf": ["a success"], "supertypeOf": [], "nearlyIs": [], "property": ["a victorious","a successful"]},</v>
@@ -22037,7 +22733,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="218" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "tin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lid","a filling","an opener"], "in": ["the periodic table"], "on": ["the periodic table"], "from": [], "is": ["a can"], "typeOf": ["packaging"], "supertypeOf": [], "nearlyIs": [], "property": ["a metallic"]},</v>
@@ -22111,8 +22807,11 @@
       <c r="AM218" t="s">
         <v>1755</v>
       </c>
-    </row>
-    <row r="219" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV218" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="219" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "pin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a head","a point"], "in": ["a pincushion","a voodoo doll"], "on": [], "from": [], "is": [], "typeOf": ["a spike","a fastening"], "supertypeOf": ["a tack","a thumbtack"], "nearlyIs": ["a needle"], "property": ["a sharp","a pointy"]},</v>
@@ -22195,8 +22894,14 @@
       <c r="AN219" t="s">
         <v>1696</v>
       </c>
-    </row>
-    <row r="220" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP219" t="s">
+        <v>2024</v>
+      </c>
+      <c r="AV219" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="220" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "sin", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a sinner"], "is": [], "typeOf": [], "supertypeOf": ["murder","theft"], "nearlyIs": ["a crime"], "property": ["an immoral"]},</v>
@@ -22262,7 +22967,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="221" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "din", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a drumkit","an accordian","bagpipes"], "is": ["a cacophony"], "typeOf": ["a noise"], "supertypeOf": ["a clatter"], "nearlyIs": [], "property": ["a loud","a noisy"]},</v>
@@ -22336,8 +23041,11 @@
       <c r="AN221" t="s">
         <v>1727</v>
       </c>
-    </row>
-    <row r="222" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV221" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="222" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "gin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lot of alcohol in it","juniper berries"], "in": ["a cocktail","a bar"], "on": [], "from": [], "is": [], "typeOf": ["a drink","a spirit","booze"], "supertypeOf": [], "nearlyIs": [], "property": ["an alcoholic"]},</v>
@@ -22411,8 +23119,11 @@
       <c r="AM222" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV222" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="223" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "djinn", "group": "_in", "pos": "Noun", "adult": false, "has": ["magical powers","a lamp"], "in": ["a lamp"], "on": [], "from": [], "is": ["a genie"], "typeOf": ["a spirit"], "supertypeOf": [], "nearlyIs": [], "property": ["a magical"]},</v>
@@ -22480,8 +23191,11 @@
       <c r="AM223" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="224" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP223" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="224" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "kin", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": ["the family"], "on": [], "from": ["a family"], "is": ["a family member","a relative"], "typeOf": [], "supertypeOf": ["an aunt","an uncle","a cousin"], "nearlyIs": [], "property": []},</v>
@@ -22553,7 +23267,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="225" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "bin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lid","rubbish"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a dumpster","a skip"], "nearlyIs": [], "property": []},</v>
@@ -22616,7 +23330,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="226" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "shin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a bone"], "in": ["your leg","your body"], "on": [], "from": [], "is": [], "typeOf": ["a body part","a bone"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -22682,7 +23396,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="227" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "chin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a beard","a jaw"], "in": [], "on": ["your face"], "from": [], "is": [], "typeOf": ["a body part"], "supertypeOf": [], "nearlyIs": ["a jaw"], "property": []},</v>
@@ -22748,7 +23462,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="228" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "pun", "group": "_un", "pos": "Noun", "adult": false, "has": ["a setup","a punchline"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a joke","a riddle"], "supertypeOf": [], "nearlyIs": [], "property": ["a funny","a hilarious"]},</v>
@@ -22816,8 +23530,11 @@
       <c r="AN228" t="s">
         <v>1687</v>
       </c>
-    </row>
-    <row r="229" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV228" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "ton", "group": "_un", "pos": "Noun", "adult": false, "has": ["a lot in it"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a weight"], "supertypeOf": [], "nearlyIs": ["a lot"], "property": ["a heavy","a weighty"]},</v>
@@ -22883,7 +23600,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="230" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "sun", "group": "_un", "pos": "Noun", "adult": false, "has": ["rays","light"], "in": ["space","the sky"], "on": [], "from": [], "is": [], "typeOf": ["a star"], "supertypeOf": [], "nearlyIs": [], "property": ["a bright","a stellar"]},</v>
@@ -22954,8 +23671,20 @@
       <c r="AN230" t="s">
         <v>1761</v>
       </c>
-    </row>
-    <row r="231" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP230" t="s">
+        <v>2016</v>
+      </c>
+      <c r="AQ230" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AS230" t="s">
+        <v>1748</v>
+      </c>
+      <c r="AT230" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="231" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "bun", "group": "_un", "pos": "Noun", "adult": false, "has": ["currants","dough"], "in": ["the oven"], "on": [], "from": ["the bakery","a baker"], "is": [], "typeOf": ["a bread","a bakery product"], "supertypeOf": ["a bap","a roll"], "nearlyIs": [], "property": []},</v>
@@ -23032,8 +23761,17 @@
       <c r="AH231" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="232" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV231" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AW231" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AY231" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="232" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "mum", "group": "_um", "pos": "Noun", "adult": false, "has": ["a child","kids"], "in": [], "on": [], "from": [], "is": ["a mother"], "typeOf": ["a parent"], "supertypeOf": [], "nearlyIs": [], "property": ["a maternal","a parental"]},</v>
@@ -23102,7 +23840,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="233" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "bum", "group": "_um", "pos": "Noun", "adult": false, "has": ["cheeks"], "in": ["your pants"], "on": [], "from": [], "is": ["a tramp"], "typeOf": ["a body part","a rear"], "supertypeOf": [], "nearlyIs": ["a seat"], "property": []},</v>
@@ -23170,8 +23908,26 @@
       <c r="AJ233" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="234" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP233" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AQ233" t="s">
+        <v>2030</v>
+      </c>
+      <c r="AS233" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AT233" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AV233" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AY233" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="234" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "sum", "group": "_um", "pos": "Noun", "adult": false, "has": ["numbers","an answer"], "in": [], "on": [], "from": [], "is": ["a total"], "typeOf": ["an equation"], "supertypeOf": [], "nearlyIs": [], "property": ["a mathematical","a total"]},</v>
@@ -23240,7 +23996,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="235" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "gum", "group": "_um", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["the bottom of your shoe"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a chewy"]},</v>
@@ -23296,8 +24052,14 @@
       <c r="AM235" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="236" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV235" t="s">
+        <v>2034</v>
+      </c>
+      <c r="AY235" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="236" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "cum", "group": "_um", "pos": "Noun", "adult": true, "has": [], "in": ["a condom"], "on": [], "from": ["your dick","your cock"], "is": ["spunk","jizz","sperm"], "typeOf": ["an emission"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -23372,7 +24134,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="237" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "up", "group": "_up", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -23423,7 +24185,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "pup", "group": "_up", "pos": "Noun", "adult": false, "has": ["a tail","paws"], "in": ["a kennel"], "on": [], "from": [], "is": [], "typeOf": ["a dog","a pet","an animal"], "supertypeOf": [], "nearlyIs": [], "property": ["a fluffy","a canine"]},</v>
@@ -23497,8 +24259,29 @@
       <c r="AN238" t="s">
         <v>1765</v>
       </c>
-    </row>
-    <row r="239" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP238" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AQ238" t="s">
+        <v>2036</v>
+      </c>
+      <c r="AS238" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AT238" t="s">
+        <v>2038</v>
+      </c>
+      <c r="AV238" t="s">
+        <v>1833</v>
+      </c>
+      <c r="AW238" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AX238" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="239" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "cup", "group": "_up", "pos": "Noun", "adult": false, "has": ["a handle","a saucer"], "in": [], "on": [], "from": [], "is": ["a mug"], "typeOf": ["china"], "supertypeOf": [], "nearlyIs": ["a glass"], "property": []},</v>
@@ -23563,8 +24346,11 @@
       <c r="AJ239" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="240" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV239" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="240" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "down", "group": "_own", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -23615,7 +24401,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="241" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "town", "group": "_own", "pos": "Noun", "adult": false, "has": ["inhabitants","buildings","a mayor"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a settlement"], "supertypeOf": [], "nearlyIs": ["a village","a city"], "property": ["a residential"]},</v>
@@ -23686,8 +24472,17 @@
       <c r="AM241" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="242" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV241" t="s">
+        <v>1993</v>
+      </c>
+      <c r="AW241" t="s">
+        <v>2040</v>
+      </c>
+      <c r="AY241" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="242" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "gown", "group": "_own", "pos": "Noun", "adult": false, "has": ["seams","material"], "in": ["a closet","a wardrobe"], "on": [], "from": [], "is": [], "typeOf": ["a garment","clothing"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -23755,8 +24550,14 @@
       <c r="AE242" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="243" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV242" t="s">
+        <v>1821</v>
+      </c>
+      <c r="AY242" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="243" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "law", "group": "_aw", "pos": "Noun", "adult": false, "has": ["rules"], "in": ["court"], "on": [], "from": [], "is": [], "typeOf": ["a rule"], "supertypeOf": [], "nearlyIs": [], "property": ["a legal"]},</v>
@@ -23818,8 +24619,11 @@
       <c r="AM243" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="244" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV243" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="244" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "awe", "group": "_aw", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["amazement"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["worship"], "property": ["an amazing"]},</v>
@@ -23878,8 +24682,11 @@
       <c r="AM244" t="s">
         <v>1767</v>
       </c>
-    </row>
-    <row r="245" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV244" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="245" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "paw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["claws"], "in": [], "on": ["a dog's leg"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a hand"], "property": ["a clawed"]},</v>
@@ -23941,8 +24748,14 @@
       <c r="AM245" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="246" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP245" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV245" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="246" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "saw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth"], "in": ["a toolbox","a workshop"], "on": ["a workbench"], "from": [], "is": [], "typeOf": ["a tool"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -24007,8 +24820,20 @@
       <c r="AD246" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="247" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP246" t="s">
+        <v>2045</v>
+      </c>
+      <c r="AS246" t="s">
+        <v>2046</v>
+      </c>
+      <c r="AV246" t="s">
+        <v>2047</v>
+      </c>
+      <c r="AY246" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="247" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "jaw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth","bones"], "in": [], "on": ["a face"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a mouth","a chin"], "property": []},</v>
@@ -24073,8 +24898,14 @@
       <c r="AK247" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="248" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP247" t="s">
+        <v>2049</v>
+      </c>
+      <c r="AS247" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="248" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "caw", "group": "_aw", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a raven","a crow","a blackbird"], "is": [], "typeOf": ["a noise","a birdcall"], "supertypeOf": [], "nearlyIs": ["a squawk"], "property": []},</v>
@@ -24143,7 +24974,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="249" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "maw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth","a tongue"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a mouth"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -24202,8 +25033,26 @@
       <c r="AD249" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="250" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP249" t="s">
+        <v>2049</v>
+      </c>
+      <c r="AQ249" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AR249" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AS249" t="s">
+        <v>2050</v>
+      </c>
+      <c r="AT249" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AU249" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="250" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "call", "group": "_all", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a noise","a request"], "supertypeOf": [], "nearlyIs": ["a shout"], "property": []},</v>
@@ -24263,7 +25112,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="251" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "wall", "group": "_all", "pos": "Noun", "adult": false, "has": ["bricks","mortar"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a fence"], "nearlyIs": [], "property": ["a brick"]},</v>
@@ -24325,8 +25174,17 @@
       <c r="AM251" t="s">
         <v>1769</v>
       </c>
-    </row>
-    <row r="252" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV251" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AW251" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AY251" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="252" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "drawl", "group": "_all", "pos": "Noun", "adult": false, "has": ["an accent"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["an accent"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -24383,7 +25241,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="253" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "hall", "group": "_all", "pos": "Noun", "adult": false, "has": ["rooms"], "in": ["a house","a mansion"], "on": [], "from": [], "is": [], "typeOf": ["a room"], "supertypeOf": ["a throne-room"], "nearlyIs": [], "property": []},</v>
@@ -24449,7 +25307,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="254" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "ball", "group": "_all", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a pitch","a stadium"], "from": ["a bowler","a pitcher"], "is": [], "typeOf": ["a sphere"], "supertypeOf": [], "nearlyIs": [], "property": ["a round","a spherical"]},</v>
@@ -24520,8 +25378,26 @@
       <c r="AN254" t="s">
         <v>1771</v>
       </c>
-    </row>
-    <row r="255" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP254" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AS254" t="s">
+        <v>2058</v>
+      </c>
+      <c r="AV254" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW254" t="s">
+        <v>1990</v>
+      </c>
+      <c r="AY254" t="s">
+        <v>1913</v>
+      </c>
+      <c r="AZ254" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="255" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "maul", "group": "_all", "pos": "Noun", "adult": false, "has": [], "in": ["an arsenal"], "on": [], "from": [], "is": [], "typeOf": ["a hammer","a weapon","a club"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -24583,8 +25459,11 @@
       <c r="AF255" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="256" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV255" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="256" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "shawl", "group": "_all", "pos": "Noun", "adult": false, "has": ["fabric"], "in": [], "on": ["an old lady"], "from": [], "is": [], "typeOf": ["clothing","a garment"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -24646,8 +25525,14 @@
       <c r="AE256" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="257" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV256" t="s">
+        <v>1821</v>
+      </c>
+      <c r="AY256" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="257" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "man", "group": "_an", "pos": "Noun", "adult": false, "has": ["arms","legs","a body"], "in": [], "on": [], "from": ["Mars"], "is": [], "typeOf": ["a person"], "supertypeOf": ["a boy","a chap","a gent"], "nearlyIs": [], "property": ["a male","a masculine"]},</v>
@@ -24728,7 +25613,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="258" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
         <f t="shared" si="38"/>
         <v>{"spelling": "tan", "group": "_an", "pos": "Noun", "adult": false, "has": ["skin","freckles"], "in": [], "on": [], "from": ["holiday","vacation"], "is": [], "typeOf": ["a colouration","a colour"], "supertypeOf": [], "nearlyIs": [], "property": ["a brown"]},</v>
@@ -24800,7 +25685,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="259" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
         <f t="shared" ref="A259:A323" si="48">CONCATENATE("{""spelling"": """,L259,""", ""group"": """,K259,""", ""pos"": """,N259,""", ""adult"": ",IF(M259=TRUE,"true","false"),", ""has"": [",B259,"]",", ""in"": [",C259,"]",", ""on"": [",D259,"]",", ""from"": [",E259,"]",", ""is"": [",F259,"]",", ""typeOf"": [",G259,"]",", ""supertypeOf"": [",H259,"]",", ""nearlyIs"": [",I259,"]",", ""property"": [",J259,"]},")</f>
         <v>{"spelling": "pan", "group": "_an", "pos": "Noun", "adult": false, "has": ["a handle"], "in": ["the kitchen","a kitchen"], "on": ["the stove"], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a wok"], "nearlyIs": ["a pot"], "property": []},</v>
@@ -24868,8 +25753,11 @@
       <c r="AJ259" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="260" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV259" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="260" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "fan", "group": "_an", "pos": "Noun", "adult": false, "has": ["blades"], "in": ["the summer"], "on": [], "from": [], "is": [], "typeOf": ["an appliance"], "supertypeOf": [], "nearlyIs": ["an air conditioner"], "property": []},</v>
@@ -24931,8 +25819,20 @@
       <c r="AJ260" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="261" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP260" t="s">
+        <v>2061</v>
+      </c>
+      <c r="AQ260" t="s">
+        <v>2063</v>
+      </c>
+      <c r="AS260" t="s">
+        <v>2062</v>
+      </c>
+      <c r="AT260" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="261" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "can", "group": "_an", "pos": "Noun", "adult": false, "has": ["a lid","an opener","a filling"], "in": ["the pantry"], "on": [], "from": [], "is": ["a tin"], "typeOf": ["packaging"], "supertypeOf": [], "nearlyIs": [], "property": ["a tin"]},</v>
@@ -25003,8 +25903,11 @@
       <c r="AM261" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="262" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV261" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="262" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "ban", "group": "_an", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a restriction","a law","a rule"], "supertypeOf": [], "nearlyIs": [], "property": ["a forbidden"]},</v>
@@ -25067,7 +25970,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="263" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "nan", "group": "_an", "pos": "Noun", "adult": false, "has": ["grandchildren","grandkids"], "in": [], "on": [], "from": [], "is": ["a grandma","a grandmother"], "typeOf": ["a grandparent","a relative","a woman"], "supertypeOf": [], "nearlyIs": [], "property": ["an elderly"]},</v>
@@ -25141,8 +26044,14 @@
       <c r="AM263" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="264" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP263" t="s">
+        <v>2065</v>
+      </c>
+      <c r="AS263" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="264" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "dog", "group": "_og", "pos": "Noun", "adult": false, "has": ["a tail","paws","a collar"], "in": ["a kennel","the pound"], "on": [], "from": ["the pound"], "is": ["a hound"], "typeOf": ["a pet","an animal","a mammal"], "supertypeOf": ["a pup","a puppy"], "nearlyIs": [], "property": ["a fluffy"]},</v>
@@ -25231,8 +26140,29 @@
       <c r="AM264" t="s">
         <v>1676</v>
       </c>
-    </row>
-    <row r="265" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP264" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AQ264" t="s">
+        <v>2067</v>
+      </c>
+      <c r="AS264" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AT264" t="s">
+        <v>2068</v>
+      </c>
+      <c r="AV264" t="s">
+        <v>1833</v>
+      </c>
+      <c r="AW264" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AX264" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="265" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "fog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a mist"], "typeOf": [], "supertypeOf": ["a smog"], "nearlyIs": ["a cloud"], "property": ["a misty"]},</v>
@@ -25295,7 +26225,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="266" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "hog", "group": "_og", "pos": "Noun", "adult": false, "has": ["a snout","a curly tail","bristles"], "in": ["a sty","a farmyard","a farm"], "on": [], "from": ["a farmyard","a farm"], "is": ["a pig"], "typeOf": ["an animal","a farm animal","a mammal"], "supertypeOf": ["a piglet","a boar"], "nearlyIs": [], "property": []},</v>
@@ -25387,8 +26317,14 @@
       <c r="AH266" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="267" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP266" t="s">
+        <v>2069</v>
+      </c>
+      <c r="AS266" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="267" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "jog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a run"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -25442,7 +26378,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="268" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A268" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "log", "group": "_og", "pos": "Noun", "adult": false, "has": ["rings","bark"], "in": ["a fireplace","a bonfire"], "on": ["a bonfire","a fire"], "from": ["a woodcutter","a lumberjack"], "is": [], "typeOf": ["wood","firewood"], "supertypeOf": [], "nearlyIs": ["a plank"], "property": ["a wooden"]},</v>
@@ -25528,8 +26464,17 @@
       <c r="AM268" t="s">
         <v>1776</v>
       </c>
-    </row>
-    <row r="269" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV268" t="s">
+        <v>351</v>
+      </c>
+      <c r="AW268" t="s">
+        <v>2071</v>
+      </c>
+      <c r="AY268" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="269" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "cog", "group": "_og", "pos": "Noun", "adult": false, "has": ["teeth"], "in": ["a clock","a machine"], "on": [], "from": [], "is": ["a gear"], "typeOf": ["a wheel","a mechanism"], "supertypeOf": [], "nearlyIs": [], "property": ["a mechanical"]},</v>
@@ -25601,7 +26546,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="270" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "bog", "group": "_og", "pos": "Noun", "adult": false, "has": ["reeds","mosquitos","crocodiles"], "in": [], "on": [], "from": [], "is": ["a swamp","a mire"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -25667,7 +26612,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="271" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "blog", "group": "_og", "pos": "Noun", "adult": false, "has": ["articles","pictures"], "in": [], "on": ["the internet","Wordpress","Tumblr"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["an online","a digital","a written"]},</v>
@@ -25741,8 +26686,26 @@
       <c r="AO271" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="272" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV271" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AW271" t="s">
+        <v>2073</v>
+      </c>
+      <c r="AX271" t="s">
+        <v>2075</v>
+      </c>
+      <c r="AY271" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AZ271" t="s">
+        <v>2074</v>
+      </c>
+      <c r="BA271" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="272" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "sprog", "group": "_og", "pos": "Noun", "adult": false, "has": ["parents","a diaper","a dummy"], "in": ["diapers","school","kindergarten"], "on": [], "from": [], "is": ["a child","a kid","a youth"], "typeOf": ["a person"], "supertypeOf": ["a baby","a toddler","an urchin"], "nearlyIs": [], "property": ["a young"]},</v>
@@ -25834,8 +26797,23 @@
       <c r="AM272" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="273" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP272" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AS272" t="s">
+        <v>2079</v>
+      </c>
+      <c r="AV272" t="s">
+        <v>2078</v>
+      </c>
+      <c r="AW272" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AX272" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="273" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "slog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a drudgery"], "typeOf": ["a hardship"], "supertypeOf": [], "nearlyIs": [], "property": ["a tough"]},</v>
@@ -25895,7 +26873,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="274" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "snog", "group": "_og", "pos": "Noun", "adult": false, "has": ["tongues"], "in": [], "on": [], "from": ["two lovers"], "is": [], "typeOf": ["a kiss"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -25955,7 +26933,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="275" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "smog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a chimney","a factory"], "is": [], "typeOf": ["a fog"], "supertypeOf": [], "nearlyIs": [], "property": ["a polluted"]},</v>
@@ -26018,7 +26996,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="276" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "hot", "group": "_ot", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -26069,7 +27047,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="277" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "watt", "group": "_ot", "pos": "Noun", "adult": false, "has": ["power"], "in": ["a circuit","a wire"], "on": [], "from": ["a generator"], "is": [], "typeOf": ["a measurement","a unit"], "supertypeOf": [], "nearlyIs": [], "property": ["an electrical"]},</v>
@@ -26141,7 +27119,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="278" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "tot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["parents","a diaper","a dummy"], "in": ["diapers","school","kindergarten"], "on": [], "from": [], "is": ["a child","a kid","a youth"], "typeOf": ["a person"], "supertypeOf": ["a baby","a toddler","an urchin"], "nearlyIs": [], "property": ["a young"]},</v>
@@ -26233,8 +27211,23 @@
       <c r="AM278" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="279" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP278" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AS278" t="s">
+        <v>2079</v>
+      </c>
+      <c r="AV278" t="s">
+        <v>2078</v>
+      </c>
+      <c r="AW278" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AX278" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="279" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "yacht", "group": "_ot", "pos": "Noun", "adult": false, "has": ["sails","a mast","a skipper"], "in": ["port"], "on": ["the seas","a lake"], "from": [], "is": [], "typeOf": ["a boat","a ship","a vehicle"], "supertypeOf": [], "nearlyIs": ["a sailboat"], "property": []},</v>
@@ -26314,8 +27307,23 @@
       <c r="AJ279" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="280" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP279" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS279" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AV279" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AW279" t="s">
+        <v>1978</v>
+      </c>
+      <c r="AY279" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="280" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "pot", "group": "_ot", "pos": "Noun", "adult": true, "has": ["a lid","a handle"], "in": ["a kitchen","a bong","a joint"], "on": [], "from": [], "is": ["weed","marijuana"], "typeOf": ["a drug"], "supertypeOf": ["a joint"], "nearlyIs": ["a pan"], "property": []},</v>
@@ -26398,8 +27406,17 @@
       <c r="AJ280" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="281" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV280" t="s">
+        <v>2083</v>
+      </c>
+      <c r="AW280" t="s">
+        <v>1820</v>
+      </c>
+      <c r="AX280" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="281" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "plot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["conspirators"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a plan"], "supertypeOf": ["a scheme"], "nearlyIs": [], "property": []},</v>
@@ -26459,7 +27476,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="282" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "snot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": ["a nostril","a tissue","a nose"], "on": [], "from": ["a nose","a nostril"], "is": [], "typeOf": ["an emission"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -26527,8 +27544,14 @@
       <c r="AD282" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="283" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV282" t="s">
+        <v>2085</v>
+      </c>
+      <c r="AY282" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="283" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "spot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["pus"], "in": [], "on": ["a teenager","your face","your chin"], "from": [], "is": [], "typeOf": ["a blemish"], "supertypeOf": ["a pimple","a zit"], "nearlyIs": ["a wart","a mole"], "property": ["a round"]},</v>
@@ -26608,8 +27631,14 @@
       <c r="AM283" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="284" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV283" t="s">
+        <v>1632</v>
+      </c>
+      <c r="AY283" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="284" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "dot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a spot"], "typeOf": ["a mark"], "supertypeOf": [], "nearlyIs": [], "property": ["a round"]},</v>
@@ -26669,7 +27698,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="285" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "lot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a load","masses"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["an abundant"]},</v>
@@ -26729,7 +27758,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="286" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "cot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["a pillow","a blanker"], "in": ["a bedroom","a jail cell","a prison cell"], "on": [], "from": [], "is": [], "typeOf": ["a bed"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -26798,7 +27827,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="287" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "bot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["AI"], "in": [], "on": [], "from": [], "is": ["an AI","an artificial intelligence"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a digital","a robotic"]},</v>
@@ -26863,8 +27892,14 @@
       <c r="AN287" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="288" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV287" t="s">
+        <v>2087</v>
+      </c>
+      <c r="AY287" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="288" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "knot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": ["a piece of rope","a tie","a string"], "on": [], "from": ["a boyscout"], "is": [], "typeOf": ["a tie","a fastening"], "supertypeOf": [], "nearlyIs": [], "property": ["a tied"]},</v>
@@ -26935,8 +27970,17 @@
       <c r="AM288" t="s">
         <v>1785</v>
       </c>
-    </row>
-    <row r="289" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV288" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW288" t="s">
+        <v>2089</v>
+      </c>
+      <c r="AY288" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="289" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "clot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -26987,7 +28031,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="290" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "Scot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["bagpipes","a tartan","a kilt"], "in": ["Scotland","Edinburgh","Glasgow"], "on": [], "from": ["Scotland"], "is": [], "typeOf": ["a Brit","a European"], "supertypeOf": [], "nearlyIs": [], "property": ["a Gaelic"]},</v>
@@ -27067,8 +28111,14 @@
       <c r="AM290" t="s">
         <v>1786</v>
       </c>
-    </row>
-    <row r="291" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP290" t="s">
+        <v>2090</v>
+      </c>
+      <c r="AQ290" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="291" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
         <f t="shared" ref="A291" si="66">CONCATENATE("{""spelling"": """,L291,""", ""group"": """,K291,""", ""pos"": """,N291,""", ""adult"": ",IF(M291=TRUE,"true","false"),", ""has"": [",B291,"]",", ""in"": [",C291,"]",", ""on"": [",D291,"]",", ""from"": [",E291,"]",", ""is"": [",F291,"]",", ""typeOf"": [",G291,"]",", ""supertypeOf"": [",H291,"]",", ""nearlyIs"": [",I291,"]",", ""property"": [",J291,"]},")</f>
         <v>{"spelling": "egg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["a yolk","a shell"], "in": ["a carton","an omlette"], "on": ["toast"], "from": ["a chicken","a farm"], "is": [], "typeOf": ["a food","an ingredient"], "supertypeOf": [], "nearlyIs": [], "property": ["a round","a fragile"]},</v>
@@ -27151,8 +28201,26 @@
       <c r="AN291" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="292" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP291" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AS291" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AV291" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AW291" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AX291" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY291" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="292" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "leg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["a foot","a knee","a shin"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a limb","a body part"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -27218,7 +28286,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="293" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "peg", "group": "_eg", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a washing line"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -27272,7 +28340,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="294" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "keg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["beer","ale"], "in": ["a brewery","a pub","a bar"], "on": [], "from": ["a brewery"], "is": ["a cask"], "typeOf": ["a container"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -27346,8 +28414,14 @@
       <c r="AD294" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="295" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV294" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY294" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="295" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "pass", "group": "_ass", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a gap"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -27401,7 +28475,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="296" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "gas", "group": "_ass", "pos": "Noun", "adult": false, "has": ["a smell"], "in": ["a canister"], "on": [], "from": ["a fart"], "is": [], "typeOf": [], "supertypeOf": ["a fart","a vapour"], "nearlyIs": [], "property": []},</v>
@@ -27466,8 +28540,20 @@
       <c r="AH296" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="297" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP296" t="s">
+        <v>1873</v>
+      </c>
+      <c r="AQ296" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AS296" t="s">
+        <v>1888</v>
+      </c>
+      <c r="AV296" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="297" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "lass", "group": "_ass", "pos": "Noun", "adult": false, "has": ["a skirt"], "in": ["a dress","a skirt","pigtails"], "on": [], "from": [], "is": ["a girl"], "typeOf": ["a woman"], "supertypeOf": [], "nearlyIs": ["a lady"], "property": ["a female","a feminine"]},</v>
@@ -27545,7 +28631,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="298" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "mass", "group": "_ass", "pos": "Noun", "adult": false, "has": ["weight"], "in": [], "on": [], "from": [], "is": ["a weight"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a large"]},</v>
@@ -27605,7 +28691,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="299" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "port", "group": "_ort", "pos": "Noun", "adult": false, "has": ["ships","boats","yachts"], "in": [], "on": ["the coast"], "from": [], "is": ["a harbour"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a cove"], "property": []},</v>
@@ -27673,8 +28759,11 @@
       <c r="AJ299" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="300" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV299" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="300" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "wart", "group": "_ort", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a blemish"], "supertypeOf": [], "nearlyIs": ["a mole","a spot"], "property": []},</v>
@@ -27734,7 +28823,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="301" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "fort", "group": "_ort", "pos": "Noun", "adult": false, "has": ["a drawbridge","walls","towers"], "in": ["a castle"], "on": [], "from": [], "is": ["a keep","a castle"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a guardpost"], "property": ["a defensive","a defensible","a fortified"]},</v>
@@ -27814,8 +28903,20 @@
       <c r="AO301" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="302" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP301" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AV301" t="s">
+        <v>2098</v>
+      </c>
+      <c r="AW301" t="s">
+        <v>2099</v>
+      </c>
+      <c r="AY301" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="302" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "court", "group": "_ort", "pos": "Noun", "adult": false, "has": ["judges","lawyers"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -27872,7 +28973,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="303" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "sub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["sailors","a periscope"], "in": ["the ocean","the sea"], "on": [], "from": [], "is": [], "typeOf": ["a boat","a ship","a vehicle"], "supertypeOf": [], "nearlyIs": [], "property": ["an underwater"]},</v>
@@ -27946,8 +29047,20 @@
       <c r="AM303" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="304" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP303" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS303" t="s">
+        <v>1859</v>
+      </c>
+      <c r="AV303" t="s">
+        <v>1978</v>
+      </c>
+      <c r="AW303" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="304" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "tub", "group": "_ub", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a bath"], "typeOf": ["a container"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -28004,7 +29117,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="305" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "pub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["drinks","beers","kegs"], "in": [], "on": [], "from": [], "is": ["a bar","a tavern"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a restaurant","a club","a microbrewery"], "property": []},</v>
@@ -28079,7 +29192,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="306" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "hub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["spokes"], "in": [], "on": [], "from": [], "is": ["a center"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a central"]},</v>
@@ -28139,7 +29252,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="307" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "cub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["claws","fur"], "in": ["the woods"], "on": [], "from": [], "is": [], "typeOf": ["a bear","a lion","a wolf"], "supertypeOf": [], "nearlyIs": [], "property": ["a young","a furry"]},</v>
@@ -28213,8 +29326,14 @@
       <c r="AN307" t="s">
         <v>1691</v>
       </c>
-    </row>
-    <row r="308" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP307" t="s">
+        <v>2102</v>
+      </c>
+      <c r="AS307" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="308" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "club", "group": "_ub", "pos": "Noun", "adult": false, "has": ["drinks","music","a DJ"], "in": [], "on": [], "from": [], "is": ["a bar"], "typeOf": ["a weapon"], "supertypeOf": ["a mace","a maul","a hammer"], "nearlyIs": [], "property": ["a blunt"]},</v>
@@ -28291,8 +29410,11 @@
       <c r="AM308" t="s">
         <v>1791</v>
       </c>
-    </row>
-    <row r="309" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV308" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="309" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "stub", "group": "_ub", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a butt"], "typeOf": ["an end"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -28349,7 +29471,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="310" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "nub", "group": "_ub", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a lump"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -28403,7 +29525,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="311" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "for", "group": "_aw", "pos": "Prep", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -28454,7 +29576,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="312" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "war", "group": "_aw", "pos": "Noun", "adult": false, "has": ["armies","combatants","an opponent"], "in": [], "on": ["campaign"], "from": [], "is": [], "typeOf": ["a conflict","combat"], "supertypeOf": ["a battle","an engagement"], "nearlyIs": ["a fight"], "property": []},</v>
@@ -28531,8 +29653,11 @@
       <c r="AJ312" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="313" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP312" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="313" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "yore", "group": "_aw", "pos": "Noun", "adult": false, "has": [], "in": ["the past"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a historic","an ancient"]},</v>
@@ -28592,7 +29717,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="314" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "pour", "group": "_aw", "pos": "Noun", "adult": false, "has": ["a liquid"], "in": ["a bar","a pub"], "on": [], "from": [], "is": [], "typeOf": ["a measure"], "supertypeOf": ["a shot","a jigger"], "nearlyIs": ["a drink"], "property": []},</v>
@@ -28664,7 +29789,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="315" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "door", "group": "_aw", "pos": "Noun", "adult": false, "has": ["a handle","a bell"], "in": ["a house","a hallway"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a gate"], "nearlyIs": [], "property": ["an open","a closed"]},</v>
@@ -28735,8 +29860,32 @@
       <c r="AN315" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="316" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP315" t="s">
+        <v>2105</v>
+      </c>
+      <c r="AQ315" t="s">
+        <v>2106</v>
+      </c>
+      <c r="AR315" t="s">
+        <v>2107</v>
+      </c>
+      <c r="AS315" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AT315" t="s">
+        <v>2108</v>
+      </c>
+      <c r="AV315" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AW315" t="s">
+        <v>1866</v>
+      </c>
+      <c r="AX315" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="316" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "gore", "group": "_aw", "pos": "Noun", "adult": true, "has": ["blood","bones"], "in": ["battle","war","a murder"], "on": [], "from": ["a victim"], "is": [], "typeOf": ["someone's remains"], "supertypeOf": [], "nearlyIs": ["offal"], "property": ["a vicious","a bloody"]},</v>
@@ -28820,7 +29969,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="317" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "whore", "group": "_aw", "pos": "Noun", "adult": true, "has": ["a pimp","fishnets"], "in": ["a dark alley","a brothel"], "on": ["the streets","a street corner"], "from": ["a brothel"], "is": ["a prostitute","a ho","a hooker"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a slutty","a skanky"]},</v>
@@ -28909,8 +30058,32 @@
       <c r="AN317" t="s">
         <v>1700</v>
       </c>
-    </row>
-    <row r="318" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP317" t="s">
+        <v>1917</v>
+      </c>
+      <c r="AQ317" t="s">
+        <v>2109</v>
+      </c>
+      <c r="AR317" t="s">
+        <v>1918</v>
+      </c>
+      <c r="AS317" t="s">
+        <v>1919</v>
+      </c>
+      <c r="AT317" t="s">
+        <v>1920</v>
+      </c>
+      <c r="AV317" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AW317" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX317" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="318" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "bore", "group": "_aw", "pos": "Noun", "adult": false, "has": ["no friends","no conversation"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -28966,8 +30139,14 @@
       <c r="P318" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="319" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV318" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AY318" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="319" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "fish", "group": "_ish", "pos": "Noun", "adult": false, "has": ["scales","fins","gills"], "in": ["the sea","the ocean","a pond"], "on": [], "from": [], "is": [], "typeOf": ["an animal","an aquatic animal"], "supertypeOf": ["a shark","a salmon","a tuna"], "nearlyIs": ["sealife"], "property": ["a scaly","an underwater"]},</v>
@@ -29059,8 +30238,20 @@
       <c r="AN319" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="320" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP319" t="s">
+        <v>2112</v>
+      </c>
+      <c r="AS319" t="s">
+        <v>2113</v>
+      </c>
+      <c r="AV319" t="s">
+        <v>1990</v>
+      </c>
+      <c r="AW319" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="320" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "wish", "group": "_ish", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a genie","a fairy godmother"], "is": [], "typeOf": ["a desire","a want","a craving"], "supertypeOf": [], "nearlyIs": ["a hope"], "property": []},</v>
@@ -29128,8 +30319,11 @@
       <c r="AJ320" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="321" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AP320" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="321" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "dish", "group": "_ish", "pos": "Noun", "adult": false, "has": [], "in": ["a kitchen","a cupboard"], "on": [], "from": [], "is": [], "typeOf": ["china","a platter"], "supertypeOf": [], "nearlyIs": ["a plate","a bowl"], "property": []},</v>
@@ -29198,7 +30392,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="322" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "super", "group": "_uper", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -29249,7 +30443,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="323" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
         <f t="shared" si="48"/>
         <v>{"spelling": "trooper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["a gun","a uniform"], "in": ["the army","the police"], "on": ["patrol"], "from": [], "is": [], "typeOf": ["a soldier","a police officer"], "supertypeOf": [], "nearlyIs": ["an officer"], "property": []},</v>
@@ -29323,8 +30517,14 @@
       <c r="AJ323" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="324" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AP323" t="s">
+        <v>2115</v>
+      </c>
+      <c r="AS323" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="324" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
         <f t="shared" ref="A324:A340" si="84">CONCATENATE("{""spelling"": """,L324,""", ""group"": """,K324,""", ""pos"": """,N324,""", ""adult"": ",IF(M324=TRUE,"true","false"),", ""has"": [",B324,"]",", ""in"": [",C324,"]",", ""on"": [",D324,"]",", ""from"": [",E324,"]",", ""is"": [",F324,"]",", ""typeOf"": [",G324,"]",", ""supertypeOf"": [",H324,"]",", ""nearlyIs"": [",I324,"]",", ""property"": [",J324,"]},")</f>
         <v>{"spelling": "duper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["no morals"], "in": [], "on": [], "from": [], "is": ["a liar"], "typeOf": [], "supertypeOf": ["a con","a conman"], "nearlyIs": ["a lawyer","a politician","a trickster"], "property": ["a deceitful"]},</v>
@@ -29398,8 +30598,20 @@
       <c r="AM324" t="s">
         <v>1673</v>
       </c>
-    </row>
-    <row r="325" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AP324" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AQ324" t="s">
+        <v>1996</v>
+      </c>
+      <c r="AS324" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AT324" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="325" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "cooper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["tools","barrels"], "in": [], "on": [], "from": [], "is": ["a barrel maker"], "typeOf": ["a craftsman","an artisan"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -29465,7 +30677,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="326" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "blooper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["mistakes"], "in": [], "on": ["tv","a DVD"], "from": ["a movie","a film"], "is": ["an outtake"], "typeOf": ["a mistake"], "supertypeOf": [], "nearlyIs": [], "property": ["an accidental"]},</v>
@@ -29539,8 +30751,17 @@
       <c r="AM326" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="327" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AV326" t="s">
+        <v>1933</v>
+      </c>
+      <c r="AW326" t="s">
+        <v>2117</v>
+      </c>
+      <c r="AY326" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="327" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "snooper", "group": "_uper", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an investigator"], "typeOf": [], "supertypeOf": ["a paparazzi","a detective"], "nearlyIs": [], "property": []},</v>
@@ -29600,7 +30821,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="328" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "trouper", "group": "_uper", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an actor"], "typeOf": ["an entertainer"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -29656,8 +30877,26 @@
       <c r="AD328" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="329" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AP328" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AQ328" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AR328" t="s">
+        <v>2122</v>
+      </c>
+      <c r="AS328" t="s">
+        <v>2120</v>
+      </c>
+      <c r="AT328" t="s">
+        <v>2121</v>
+      </c>
+      <c r="AU328" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="329" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "line", "group": "_ine", "pos": "Noun", "adult": false, "has": ["a start point","an end point","a gradient"], "in": ["a drawing"], "on": [], "from": [], "is": ["a queue"], "typeOf": ["a shape"], "supertypeOf": ["a tangent","an intersection"], "nearlyIs": ["a stroke"], "property": ["a straight"]},</v>
@@ -29737,8 +30976,14 @@
       <c r="AM329" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="330" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AV329" t="s">
+        <v>1869</v>
+      </c>
+      <c r="AY329" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="330" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "wine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["alcohol","tannins"], "in": ["a bottle","a glass","a cask"], "on": [], "from": ["a bottle","a cask"], "is": [], "typeOf": ["alcohol","a beverage","a drink"], "supertypeOf": ["a merlot","a chardonnay","a pinot noir"], "nearlyIs": ["champagne"], "property": ["an alcoholic"]},</v>
@@ -29833,8 +31078,17 @@
       <c r="AM330" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="331" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AV330" t="s">
+        <v>2026</v>
+      </c>
+      <c r="AW330" t="s">
+        <v>2124</v>
+      </c>
+      <c r="AY330" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="331" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "pine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["leaves","needles","bark"], "in": ["a forest","a wood","the woods"], "on": [], "from": [], "is": [], "typeOf": ["a tree","an evergreen"], "supertypeOf": ["a fir"], "nearlyIs": [], "property": ["an evergreen"]},</v>
@@ -29914,8 +31168,11 @@
       <c r="AM331" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="332" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AV331" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="332" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "sign", "group": "_ine", "pos": "Noun", "adult": false, "has": ["a post","instructions"], "in": [], "on": ["a street"], "from": [], "is": [], "typeOf": ["a mark","a pointer"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -29980,8 +31237,11 @@
       <c r="AE332" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="333" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AV332" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="333" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "fine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["a cost"], "in": [], "on": [], "from": ["a court","a police officer","a judge"], "is": ["a fee"], "typeOf": ["a punishment","a charge"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -30052,8 +31312,11 @@
       <c r="AE333" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="334" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AV333" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="334" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "vine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["grapes","leaves","a stem"], "in": ["a field"], "on": ["a wall","a trellis"], "from": [], "is": [], "typeOf": ["a plant"], "supertypeOf": ["a grape"], "nearlyIs": [], "property": []},</v>
@@ -30128,7 +31391,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="335" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "mine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["diamonds","a detonator","gold"], "in": ["the mountains"], "on": ["a battlefield"], "from": [], "is": [], "typeOf": ["a pit","an explosive","a bomb"], "supertypeOf": ["a quarry"], "nearlyIs": ["a tripwire"], "property": []},</v>
@@ -30208,8 +31471,26 @@
       <c r="AJ335" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="336" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AP335" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AV335" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW335" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AX335" t="s">
+        <v>2128</v>
+      </c>
+      <c r="AY335" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AZ335" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="336" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "top", "group": "_op", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a direction","a side"], "supertypeOf": ["a peak","a summit"], "nearlyIs": [], "property": []},</v>
@@ -30272,7 +31553,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="337" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "fop", "group": "_op", "pos": "Noun", "adult": false, "has": ["elaborate clothes"], "in": [], "on": [], "from": [], "is": ["a dandy"], "typeOf": ["a poser"], "supertypeOf": [], "nearlyIs": ["a toff"], "property": ["a posh","a well-dressed"]},</v>
@@ -30341,7 +31622,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="338" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "hop", "group": "_op", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a rabbit","a kangaroo"], "is": [], "typeOf": ["a jump","a movement","a bounce"], "supertypeOf": [], "nearlyIs": [], "property": []},</v>
@@ -30406,8 +31687,11 @@
       <c r="AF338" t="s">
         <v>1647</v>
       </c>
-    </row>
-    <row r="339" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AV338" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="339" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "cop", "group": "_op", "pos": "Noun", "adult": false, "has": ["a uniform","a badge","handcuffs"], "in": ["the police force"], "on": [], "from": [], "is": ["a police officer"], "typeOf": [], "supertypeOf": ["a trooper"], "nearlyIs": [], "property": []},</v>
@@ -30475,8 +31759,14 @@
       <c r="AG339" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="340" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AP339" t="s">
+        <v>2115</v>
+      </c>
+      <c r="AS339" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="340" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "mop", "group": "_op", "pos": "Noun", "adult": false, "has": ["a handle"], "in": ["a cleaning trolley"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a tool","a cleaning product"], "nearlyIs": ["a broom"], "property": []},</v>
@@ -30540,6 +31830,12 @@
       </c>
       <c r="AJ340" t="s">
         <v>1653</v>
+      </c>
+      <c r="AP340" t="s">
+        <v>2131</v>
+      </c>
+      <c r="AS340" t="s">
+        <v>2132</v>
       </c>
     </row>
   </sheetData>

--- a/customDIctionary.xlsx
+++ b/customDIctionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\claptrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B98669-DD85-4DB7-ABB8-41781DBDCB6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C403C0-2E5A-4926-A050-F8F2D7571E4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9375" xr2:uid="{065E9CA2-EFF7-4AAA-8B1A-5CE3FAFF6ACD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{065E9CA2-EFF7-4AAA-8B1A-5CE3FAFF6ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6557,11 +6557,6 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03EA1964-9959-4DA9-8B2A-D399BC4B8CF8}" name="Table1" displayName="Table1" ref="A1:BF351" totalsRowShown="0">
   <autoFilter ref="A1:BF351" xr:uid="{DC25ED75-BBD1-453B-9995-DFC1E3E09EA4}">
-    <filterColumn colId="15">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <filterColumn colId="18">
       <filters>
         <filter val="Noun"/>
@@ -6963,9 +6958,9 @@
   <dimension ref="A1:BF351"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6988,10 +6983,11 @@
     <col min="16" max="16" width="13.28515625" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="1"/>
     <col min="18" max="19" width="9.140625" customWidth="1"/>
-    <col min="20" max="22" width="18.42578125" customWidth="1"/>
-    <col min="23" max="26" width="9.140625" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" customWidth="1"/>
-    <col min="28" max="34" width="9.140625" customWidth="1"/>
+    <col min="20" max="22" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="28" max="31" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="32" max="34" width="9.140625" customWidth="1"/>
     <col min="35" max="37" width="9.28515625" customWidth="1"/>
     <col min="38" max="40" width="9.140625" customWidth="1"/>
     <col min="41" max="43" width="11.5703125" customWidth="1"/>
@@ -7247,7 +7243,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "dad", "group": "_ad", "pos": "Noun", "adult": false, "has": ["a child","kids"], "in": [], "on": [], "from": [], "is": ["a father"], "typeOf": ["a parent"], "supertypeOf": [], "nearlyIs": [], "property": ["paternal","parental"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -7563,7 +7559,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="7" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "her", "group": "_er", "pos": "Noun", "adult": false, "has": ["a gender"], "in": [], "on": [], "from": ["Venus"], "is": ["a woman"], "typeOf": [], "supertypeOf": ["a girl"], "nearlyIs": [], "property": ["a feminine","a female"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -7648,7 +7644,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="8" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "fir", "group": "_er", "pos": "Noun", "adult": false, "has": ["leaves","pinecones","bark"], "in": ["a forest","a wood","the woods"], "on": [], "from": [], "is": [], "typeOf": ["a tree","an evergreen","a pine"], "supertypeOf": [], "nearlyIs": [], "property": ["an evergreen"], "acts": [], "actsCont": [], "recipient": ["chop down"], "recipientPast": []},</v>
@@ -7748,7 +7744,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="9" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "purr", "group": "_er", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a cat","a kitten"], "is": ["a meow"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -7824,7 +7820,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="10" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "burr", "group": "_er", "pos": "Noun", "adult": false, "has": ["spikes"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a spiky"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -7897,7 +7893,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="11" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "sir", "group": "_er", "pos": "Noun", "adult": false, "has": ["a knighthood","a sword","manners"], "in": [], "on": [], "from": [], "is": ["a knight","a gentleman"], "typeOf": ["a man"], "supertypeOf": [], "nearlyIs": [], "property": ["an honorable"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": ["a knighted"]},</v>
@@ -7988,7 +7984,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="12" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "year", "group": "_er", "pos": "Noun", "adult": false, "has": ["a date","dates","time"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -8064,7 +8060,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "cur", "group": "_er", "pos": "Noun", "adult": false, "has": ["a bad attitude","no morals","no breeding"], "in": [], "on": [], "from": [], "is": ["a swine","a scoundrel"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a dog"], "property": ["a despicable","a mangy"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -8155,7 +8151,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="14" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "cat", "group": "_at", "pos": "Noun", "adult": false, "has": ["whiskers","a tail","claws"], "in": [], "on": [], "from": [], "is": ["a feline"], "typeOf": ["a mammal","an animal"], "supertypeOf": ["a kitten","a lion","a tiger"], "nearlyIs": [], "property": ["a feline"], "acts": ["meows","purrs"], "actsCont": ["a meowing","a purring"], "recipient": [], "recipientPast": []},</v>
@@ -8264,7 +8260,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="15" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "bat", "group": "_at", "pos": "Noun", "adult": false, "has": ["good hearing"], "in": ["a cave"], "on": [], "from": [], "is": [], "typeOf": ["an animal"], "supertypeOf": [], "nearlyIs": ["a vampire"], "property": [], "acts": ["flies"], "actsCont": ["a flying"], "recipient": [], "recipientPast": []},</v>
@@ -8349,7 +8345,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="16" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "fat", "group": "_at", "pos": "Noun", "adult": false, "has": [], "in": ["a recipe","the kitchen"], "on": [], "from": [], "is": ["grease"], "typeOf": ["an ingredient"], "supertypeOf": ["lard","butter"], "nearlyIs": ["oil"], "property": ["a greasy"], "acts": [], "actsCont": [], "recipient": ["cook with"], "recipientPast": ["a cooked with"]},</v>
@@ -8446,7 +8442,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="17" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "hat", "group": "_at", "pos": "Noun", "adult": false, "has": ["a brim"], "in": [], "on": ["a head","your head"], "from": [], "is": [], "typeOf": ["clothing","headgear"], "supertypeOf": ["a cap","a beanie","a beret"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["wear"], "recipientPast": ["a worn"]},</v>
@@ -8543,7 +8539,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="18" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "that", "group": "_at", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a thing","an item","an object"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -8619,7 +8615,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="19" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "pat", "group": "_at", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a touch"], "supertypeOf": [], "nearlyIs": ["a fondle"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -8692,10 +8688,10 @@
         <v>969</v>
       </c>
     </row>
-    <row r="20" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>{"spelling": "prat", "group": "_at", "pos": "Noun", "adult": true, "has": ["no brains","bad ideas"], "in": [], "on": [], "from": [], "is": ["an idiot","a moron","a jackass"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["an idiotic","a stupid","an annoying"], "acts": ["acts stupid","says stupid things"], "actsCont": [], "recipient": [], "recipientPast": []},</v>
+        <v>{"spelling": "prat", "group": "_at", "pos": "Noun", "adult": false, "has": ["no brains","bad ideas"], "in": [], "on": [], "from": [], "is": ["an idiot","a moron","a jackass"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["an idiotic","a stupid","an annoying"], "acts": ["acts stupid","says stupid things"], "actsCont": [], "recipient": [], "recipientPast": []},</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
@@ -8755,9 +8751,6 @@
       <c r="Q20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R20" t="b">
-        <v>1</v>
-      </c>
       <c r="S20" t="s">
         <v>217</v>
       </c>
@@ -8792,7 +8785,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="21" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "at", "group": "_at", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -8859,7 +8852,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "spat", "group": "_at", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a domestic"], "typeOf": ["a fight","an argument"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -9005,7 +8998,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="24" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "vat", "group": "_at", "pos": "Noun", "adult": false, "has": ["a lot in it"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a container","a lot"], "supertypeOf": [], "nearlyIs": ["a pan"], "property": ["a large","a huge"], "acts": [], "actsCont": [], "recipient": ["fill"], "recipientPast": ["a filled"]},</v>
@@ -9096,7 +9089,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="25" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE("{""spelling"": """,Q25,""", ""group"": """,O25,""", ""pos"": """,S25,""", ""adult"": ",IF(R25=TRUE,"true","false"),", ""has"": [",B25,"]",", ""in"": [",C25,"]",", ""on"": [",D25,"]",", ""from"": [",E25,"]",", ""is"": [",F25,"]",", ""typeOf"": [",G25,"]",", ""supertypeOf"": [",H25,"]",", ""nearlyIs"": [",I25,"]",", ""property"": [",J25,"]",", ""acts"": [",K25,"]",", ""actsCont"": [",L25,"]",", ""recipient"": [",M25,"]",", ""recipientPast"": [",N25,"]},")</f>
         <v>{"spelling": "mat", "group": "_at", "pos": "Noun", "adult": false, "has": [], "in": ["front of a door"], "on": [], "from": [], "is": [], "typeOf": ["furniture"], "supertypeOf": [], "nearlyIs": ["a rug"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -9172,7 +9165,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="26" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "gnat", "group": "_at", "pos": "Noun", "adult": false, "has": ["wings"], "in": [], "on": ["your leg"], "from": [], "is": [], "typeOf": ["a fly","an insect"], "supertypeOf": ["a midgey","a mosquito"], "nearlyIs": [], "property": [], "acts": ["flies"], "actsCont": ["a flying"], "recipient": ["swat"], "recipientPast": []},</v>
@@ -9266,7 +9259,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="27" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "twat", "group": "_at", "pos": "Noun", "adult": true, "has": ["labia","bad ideas","a clitoris"], "in": [], "on": [], "from": [], "is": ["an idiot","a moron","a jackass"], "typeOf": ["genitalia","a body part"], "supertypeOf": [], "nearlyIs": ["a pussy","a vagina"], "property": [], "acts": [], "actsCont": [], "recipient": ["fuck"], "recipientPast": ["a fucked"]},</v>
@@ -9372,7 +9365,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="28" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "con", "group": "_on", "pos": "Noun", "adult": false, "has": ["people confused","a jail sentence"], "in": ["jail","prison"], "on": [], "from": ["prison","jail"], "is": ["a scoundrel","a prisoner"], "typeOf": ["a criminal","a liar"], "supertypeOf": [], "nearlyIs": [], "property": ["a deceitful","a criminal"], "acts": ["lies","schemes"], "actsCont": ["a lying","a scheming"], "recipient": ["imprison","jail"], "recipientPast": ["an imprisoned","a jailed"]},</v>
@@ -9569,7 +9562,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="30" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "don", "group": "_on", "pos": "Noun", "adult": false, "has": ["mafiosos","a horses head","hired goons"], "in": ["the mafia"], "on": [], "from": ["the mafia"], "is": ["a crime lord","a king pin","a mob boss"], "typeOf": ["a criminal","a mafioso","a gang member"], "supertypeOf": [], "nearlyIs": [], "property": ["a criminal"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -9672,7 +9665,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="31" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "none", "group": "_on", "pos": "Noun", "adult": false, "has": ["nothing","nobody"], "in": [], "on": [], "from": [], "is": ["nothing"], "typeOf": ["an amount"], "supertypeOf": [], "nearlyIs": ["an emptyness","an absence","a lack"], "property": ["an empty"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -9763,7 +9756,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="32" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "one", "group": "_on", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a single"], "typeOf": ["a number","a digit"], "supertypeOf": [], "nearlyIs": [], "property": ["a single"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -9842,7 +9835,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "son", "group": "_un", "pos": "Noun", "adult": false, "has": ["parents"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a child","a kid"], "supertypeOf": [], "nearlyIs": ["a firstborn"], "property": ["a male"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -9924,7 +9917,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "net", "group": "_et", "pos": "Noun", "adult": false, "has": ["fish in it"], "in": ["the ocean","the sea","a river"], "on": [], "from": [], "is": [], "typeOf": ["a tool"], "supertypeOf": ["a web"], "nearlyIs": [], "property": [], "acts": ["catches fish"], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -10012,7 +10005,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="35" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "pet", "group": "_et", "pos": "Noun", "adult": false, "has": ["an owner","a tail"], "in": ["a kennel"], "on": ["your sofa"], "from": ["the pound"], "is": [], "typeOf": ["an animal"], "supertypeOf": ["a cat","a dog","a goldfish"], "nearlyIs": [], "property": ["a fluffy","a canine","a feline"], "acts": ["meows","barks","purrs"], "actsCont": ["a meowing","a purring","barking"], "recipient": ["play with","feed","walk"], "recipientPast": []},</v>
@@ -10142,7 +10135,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "set", "group": "_et", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a group"], "typeOf": ["a collection"], "supertypeOf": [], "nearlyIs": ["a list"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -10218,7 +10211,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="37" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "vet", "group": "_et", "pos": "Noun", "adult": false, "has": ["animals","tiny bandages","medical training"], "in": ["a clinic"], "on": [], "from": [], "is": [], "typeOf": ["a clinician","a medical proffesional"], "supertypeOf": ["a horse doctor"], "nearlyIs": ["a doctor"], "property": [], "acts": ["treats animals"], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -10312,7 +10305,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "bet", "group": "_et", "pos": "Noun", "adult": false, "has": ["money on it","a risk","a chance of winning"], "in": ["a casino","a racecourse"], "on": [], "from": [], "is": ["a stake","a gamble"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a risk","a chance"], "property": [], "acts": [], "actsCont": [], "recipient": ["place"], "recipientPast": []},</v>
@@ -10409,10 +10402,10 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>{"spelling": "jay", "group": "_et", "pos": "Noun", "adult": false, "has": ["a beak","a nest"], "in": ["a tree","the sky"], "on": [], "from": [], "is": [], "typeOf": ["a bird","an animal"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": ["flies","caws"], "actsCont": ["a flying","a cawing"], "recipient": [], "recipientPast": []},</v>
+        <v>{"spelling": "jay", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a beak","a nest"], "in": ["a tree","the sky"], "on": [], "from": [], "is": [], "typeOf": ["a bird","an animal"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": ["flies","caws"], "actsCont": ["a flying","a cawing"], "recipient": [], "recipientPast": []},</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
@@ -10467,7 +10460,7 @@
         <v/>
       </c>
       <c r="O39" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>255</v>
@@ -10506,7 +10499,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="40" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "kit", "group": "_it", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["equipment"], "supertypeOf": [], "nearlyIs": ["a toolbox"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -10579,7 +10572,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="41" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "wit", "group": "_it", "pos": "Noun", "adult": false, "has": ["funny ideas","good conversation"], "in": [], "on": ["a panel show","stage"], "from": [], "is": ["a comedian"], "typeOf": ["a writer","an author"], "supertypeOf": [], "nearlyIs": ["a joker"], "property": ["an intelligent","a funny","a smart"], "acts": ["jokes"], "actsCont": ["a joking"], "recipient": [], "recipientPast": []},</v>
@@ -10685,7 +10678,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "writ", "group": "_it", "pos": "Noun", "adult": false, "has": ["a signature","legal groundings"], "in": ["a court","a courtroom"], "on": [], "from": [], "is": [], "typeOf": ["a court order"], "supertypeOf": ["a summons","a subpoena"], "nearlyIs": [], "property": ["a legal"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -10776,7 +10769,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="43" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "tit", "group": "_it", "pos": "Noun", "adult": true, "has": ["a nipple","a bra"], "in": ["a bra"], "on": ["your chest"], "from": [], "is": ["a breast","a boob"], "typeOf": ["genitalia","a body part"], "supertypeOf": [], "nearlyIs": [], "property": ["a perky"], "acts": ["lactates","jiggles"], "actsCont": ["a lactating","a jiggling"], "recipient": [], "recipientPast": []},</v>
@@ -10885,7 +10878,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "pit", "group": "_it", "pos": "Noun", "adult": false, "has": ["spikes in it"], "in": ["a date","an olive"], "on": ["the ground"], "from": [], "is": [], "typeOf": ["a hole","a trap"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["fall in to"], "recipientPast": []},</v>
@@ -10973,7 +10966,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="45" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "it", "group": "_it", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a thing","an item","an object"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -11049,7 +11042,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="46" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "fit", "group": "_it", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -11116,7 +11109,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "git", "group": "_it", "pos": "Noun", "adult": true, "has": ["no friends","a bad attitude"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -11192,7 +11185,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "hit", "group": "_it", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["target"], "from": ["a good shot"], "is": [], "typeOf": ["a success","a collision"], "supertypeOf": [], "nearlyIs": [], "property": ["a successful"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -11274,7 +11267,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="49" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "zit", "group": "_it", "pos": "Noun", "adult": false, "has": ["pus"], "in": [], "on": ["a teenager","your face","your chin"], "from": [], "is": ["a pimple"], "typeOf": ["a spot","a blemish"], "supertypeOf": [], "nearlyIs": ["a wart","a mole"], "property": ["a spotty"], "acts": [], "actsCont": [], "recipient": ["pop"], "recipientPast": ["a popped"]},</v>
@@ -11377,7 +11370,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="50" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "Brit", "group": "_it", "pos": "Noun", "adult": false, "has": ["a drinking problem","bad teeth","a great accent"], "in": ["England","the UK","Britain"], "on": [], "from": ["England","the UK","Britain"], "is": [], "typeOf": ["a European"], "supertypeOf": ["an Englishman","a Scotsman","a Welshman"], "nearlyIs": [], "property": ["an English"], "acts": ["drinks tea","talks about the weather","queues"], "actsCont": ["a queuing"], "recipient": [], "recipientPast": []},</v>
@@ -11498,7 +11491,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="51" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "twit", "group": "_it", "pos": "Noun", "adult": true, "has": ["bad ideas"], "in": [], "on": [], "from": [], "is": ["an idiot","a moron","a jackass"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["an idiotic","a stupid","an annoying"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -11589,7 +11582,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="52" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "nit", "group": "_it", "pos": "Noun", "adult": false, "has": [], "in": ["your hair","your head"], "on": ["a kid's head"], "from": [], "is": [], "typeOf": ["an insect","a pest","a hair problem"], "supertypeOf": [], "nearlyIs": [], "property": ["an itchy"], "acts": [], "actsCont": [], "recipient": ["scratch"], "recipientPast": []},</v>
@@ -11680,7 +11673,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="53" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "mit", "group": "_it", "pos": "Noun", "adult": false, "has": ["fingers"], "in": [], "on": ["your hand"], "from": [], "is": [], "typeOf": ["a hand","a glove"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -11759,7 +11752,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="54" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "shit", "group": "_it", "pos": "Noun", "adult": true, "has": ["a bad smell","a bit of sweetcorn in it"], "in": ["the toilet"], "on": ["the bottom of your shoe"], "from": ["an arse"], "is": ["a turd","a crap","faeces"], "typeOf": ["a dump","a floater","a bodily function"], "supertypeOf": ["diarrhea"], "nearlyIs": ["rubbish","junk"], "property": ["a smelly"], "acts": ["stinks","smells"], "actsCont": ["a stinking"], "recipient": ["flush"], "recipientPast": ["a flushed"]},</v>
@@ -11889,7 +11882,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="55" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "chit", "group": "_it", "pos": "Noun", "adult": false, "has": ["a signature"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["write"], "recipientPast": ["a written"]},</v>
@@ -11965,7 +11958,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="56" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "spit", "group": "_it", "pos": "Noun", "adult": false, "has": [], "in": ["your mouth"], "on": [], "from": ["your mouth"], "is": [], "typeOf": ["an emission","a bodily function"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -12044,7 +12037,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="57" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "skit", "group": "_it", "pos": "Noun", "adult": false, "has": ["comedians in it","an audience"], "in": [], "on": ["stage","tv"], "from": [], "is": [], "typeOf": ["a sketch","a parody"], "supertypeOf": [], "nearlyIs": ["a joke"], "property": ["a funny","a hilarious"], "acts": [], "actsCont": [], "recipient": ["perform"], "recipientPast": ["a performed"]},</v>
@@ -12214,7 +12207,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="59" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "watt", "group": "_ot", "pos": "Noun", "adult": false, "has": ["power"], "in": ["a circuit","a wire"], "on": [], "from": ["a generator"], "is": [], "typeOf": ["a measurement","a unit"], "supertypeOf": [], "nearlyIs": [], "property": ["an electrical"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -12302,7 +12295,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="60" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "tot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["parents","a diaper","a dummy"], "in": ["diapers","school","kindergarten"], "on": [], "from": [], "is": ["a child","a kid","a youth"], "typeOf": ["a person"], "supertypeOf": ["a baby","a toddler","an urchin"], "nearlyIs": [], "property": ["a young"], "acts": ["cries"], "actsCont": ["a crying"], "recipient": ["change","feed","burp"], "recipientPast": []},</v>
@@ -12426,7 +12419,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="61" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "yacht", "group": "_ot", "pos": "Noun", "adult": false, "has": ["sails","a mast","a skipper"], "in": ["port"], "on": ["the seas","a lake"], "from": [], "is": [], "typeOf": ["a boat","a ship","a vehicle"], "supertypeOf": [], "nearlyIs": ["a sailboat"], "property": [], "acts": ["sails"], "actsCont": ["a sailing"], "recipient": ["sail","board"], "recipientPast": ["a sailed"]},</v>
@@ -12538,7 +12531,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="62" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "pot", "group": "_ot", "pos": "Noun", "adult": true, "has": ["a lid","a handle"], "in": ["a kitchen","a bong","a joint"], "on": [], "from": [], "is": ["weed","marijuana"], "typeOf": ["a drug"], "supertypeOf": ["a joint"], "nearlyIs": ["a pan"], "property": [], "acts": [], "actsCont": [], "recipient": ["smoke","cook with","toke"], "recipientPast": []},</v>
@@ -12647,7 +12640,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="63" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "plot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["conspirators"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a plan"], "supertypeOf": ["a scheme"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -12793,7 +12786,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="65" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "snot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": ["a nostril","a tissue","a nose"], "on": [], "from": ["a nose","a nostril"], "is": [], "typeOf": ["an emission"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["sneeze"], "recipientPast": ["a sneezed"]},</v>
@@ -12884,7 +12877,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="66" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "spot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["pus"], "in": [], "on": ["a teenager","your face","your chin"], "from": [], "is": [], "typeOf": ["a blemish"], "supertypeOf": ["a pimple","a zit"], "nearlyIs": ["a wart","a mole"], "property": ["a round"], "acts": [], "actsCont": [], "recipient": ["pop"], "recipientPast": ["a popped"]},</v>
@@ -12987,7 +12980,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="67" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "dot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a spot"], "typeOf": ["a mark"], "supertypeOf": [], "nearlyIs": [], "property": ["a round"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -13063,7 +13056,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="68" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "lot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a load","masses"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["an abundant"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -13139,7 +13132,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="69" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "cot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["a pillow","a blanker"], "in": ["a bedroom","a jail cell","a prison cell"], "on": [], "from": [], "is": [], "typeOf": ["a bed"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -13224,7 +13217,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="70" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "bait", "group": "_ate", "pos": "Noun", "adult": false, "has": [], "in": ["a trap"], "on": ["a fishing hook","a hook"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -13300,7 +13293,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="71" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "date", "group": "_ate", "pos": "Noun", "adult": false, "has": ["a pit"], "in": [], "on": ["valentine's day","a tree"], "from": [], "is": [], "typeOf": ["a time period","a fruit"], "supertypeOf": [], "nearlyIs": ["a prune"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -13385,7 +13378,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="72" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "fate", "group": "_ate", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an outcome"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -13455,7 +13448,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="73" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "gait", "group": "_ate", "pos": "Noun", "adult": false, "has": ["a funny way of walking","taken steps"], "in": [], "on": [], "from": [], "is": ["a walk"], "typeOf": ["a movement"], "supertypeOf": [], "nearlyIs": ["a step"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -13537,7 +13530,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="74" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "gate", "group": "_ate", "pos": "Noun", "adult": false, "has": ["a handle","a fence"], "in": ["a fence"], "on": [], "from": [], "is": [], "typeOf": ["an entrance","a door"], "supertypeOf": ["a portcullis"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["open","close"], "recipientPast": ["an opened","a closed"]},</v>
@@ -13634,7 +13627,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="75" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "wait", "group": "_ate", "pos": "Noun", "adult": false, "has": ["a pause","time"], "in": [], "on": [], "from": [], "is": ["a pause"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -13710,7 +13703,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "mate", "group": "_ate", "pos": "Noun", "adult": false, "has": ["friends","a friend","pals"], "in": [], "on": [], "from": [], "is": ["a friend","a pal","a buddy"], "typeOf": [], "supertypeOf": ["a BFF"], "nearlyIs": ["an aquaintance"], "property": ["a friendly"], "acts": [], "actsCont": [], "recipient": ["befriend"], "recipientPast": ["a befriended"]},</v>
@@ -13810,7 +13803,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="77" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "state", "group": "_ate", "pos": "Noun", "adult": false, "has": ["a capital"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a region","an area","a place"], "supertypeOf": [], "nearlyIs": ["a situation","a case"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -13895,7 +13888,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="78" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "art", "group": "_art", "pos": "Noun", "adult": false, "has": ["brush strokes","a frame"], "in": ["a gallery"], "on": ["the wall"], "from": ["a gallery","a painter","an artist"], "is": ["a decoration"], "typeOf": [], "supertypeOf": ["a painting","a statue","a mural"], "nearlyIs": [], "property": ["a decorative","a beautiful"], "acts": [], "actsCont": [], "recipient": ["paint","draw","sculpt"], "recipientPast": ["a painted","a drawn","a sculpted"]},</v>
@@ -14019,7 +14012,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="79" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "tart", "group": "_art", "pos": "Noun", "adult": false, "has": ["a filling","pastry"], "in": [], "on": [], "from": ["a baker"], "is": [], "typeOf": ["a cake","a dessert"], "supertypeOf": [], "nearlyIs": ["a pie"], "property": ["a delicious"], "acts": [], "actsCont": [], "recipient": ["eat","bake"], "recipientPast": ["a baked"]},</v>
@@ -14116,7 +14109,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="80" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "part", "group": "_art", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a section","a component","a segment"], "typeOf": [], "supertypeOf": ["a half","a quarter"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -14198,7 +14191,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="81" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "dart", "group": "_art", "pos": "Noun", "adult": false, "has": ["a board","fins","a tip"], "in": [], "on": ["a dartboard"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a pointy"], "acts": [], "actsCont": [], "recipient": ["throw"], "recipientPast": ["a thrown"]},</v>
@@ -14286,7 +14279,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="82" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "fart", "group": "_art", "pos": "Noun", "adult": true, "has": ["a smell","a bad smell"], "in": [], "on": [], "from": ["an arse","a lot of beans"], "is": [], "typeOf": ["a gas","wind","a stench"], "supertypeOf": [], "nearlyIs": [], "property": ["a smelly"], "acts": ["stinks","smells"], "actsCont": ["a stinking"], "recipient": [], "recipientPast": []},</v>
@@ -14389,7 +14382,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="83" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "heart", "group": "_art", "pos": "Noun", "adult": false, "has": ["blood","ventricles"], "in": ["your torso","your chest"], "on": [], "from": [], "is": [], "typeOf": ["an organ","a shape"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": ["beats"], "actsCont": ["a beating"], "recipient": [], "recipientPast": []},</v>
@@ -14480,7 +14473,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="84" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "shart", "group": "_art", "pos": "Noun", "adult": true, "has": ["a smell","a bad smell","a stain"], "in": ["your trousers"], "on": [], "from": ["an arse","a curry","mexican food"], "is": [], "typeOf": ["an accident"], "supertypeOf": [], "nearlyIs": [], "property": ["a smelly"], "acts": ["stinks","smells","stains"], "actsCont": ["a stinking","a staining"], "recipient": ["clean up"], "recipientPast": []},</v>
@@ -14595,7 +14588,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="85" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "mart", "group": "_art", "pos": "Noun", "adult": false, "has": ["a shopkeeper","goods"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a shop","a store"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["shop at","buy from"], "recipientPast": []},</v>
@@ -14680,7 +14673,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="86" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "start", "group": "_art", "pos": "Noun", "adult": false, "has": [], "in": ["the beginning"], "on": [], "from": ["the beginning"], "is": ["a beginning"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["an opening"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -14759,7 +14752,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="87" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "woe", "group": "_o", "pos": "Noun", "adult": false, "has": ["depression","tears"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a problem"], "supertypeOf": [], "nearlyIs": [], "property": ["a depressing","a sad"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -14841,7 +14834,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="88" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "roe", "group": "_o", "pos": "Noun", "adult": false, "has": ["eggs","a fishy smell"], "in": [], "on": [], "from": ["a fish"], "is": ["fish eggs"], "typeOf": ["seafood","eggs"], "supertypeOf": [], "nearlyIs": [], "property": ["a fishy"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -14929,7 +14922,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="89" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "toe", "group": "_o", "pos": "Noun", "adult": false, "has": ["a nail"], "in": ["a shoe"], "on": ["a foot"], "from": [], "is": [], "typeOf": ["a body part"], "supertypeOf": [], "nearlyIs": ["a finger"], "property": [], "acts": [], "actsCont": [], "recipient": ["stub"], "recipientPast": ["a stubbed"]},</v>
@@ -15017,7 +15010,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="90" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "doe", "group": "_o", "pos": "Noun", "adult": false, "has": ["hooves"], "in": [], "on": [], "from": [], "is": ["a female deer"], "typeOf": ["a deer","an animal","a mammal"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -15099,7 +15092,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="91" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "dough", "group": "_o", "pos": "Noun", "adult": false, "has": ["yeast","flour"], "in": ["a bakery"], "on": [], "from": ["a baker"], "is": [], "typeOf": ["an ingredient"], "supertypeOf": [], "nearlyIs": ["a batter"], "property": [], "acts": [], "actsCont": [], "recipient": ["knead","bake"], "recipientPast": ["a kneaded"]},</v>
@@ -15193,7 +15186,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="92" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "hoe", "group": "_o", "pos": "Noun", "adult": false, "has": ["a handle"], "in": ["a farm","a farmyard","a field"], "on": [], "from": ["a farm","a farmyard","a field"], "is": [], "typeOf": ["a tool","a farm tool"], "supertypeOf": [], "nearlyIs": ["a plough"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -15290,7 +15283,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="93" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "ho", "group": "_o", "pos": "Noun", "adult": true, "has": ["a pimp","fishnets"], "in": ["a dark alley","a brothel"], "on": ["the streets","a street corner"], "from": ["a brothel"], "is": ["a prostitute","a slag","a hooker"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a skanky","a slutty"], "acts": ["shags","fucks","sucks"], "actsCont": ["a shagging","a fucking"], "recipient": ["shag","fuck","sleep with"], "recipientPast": []},</v>
@@ -15420,7 +15413,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="94" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "beau", "group": "_o", "pos": "Noun", "adult": false, "has": ["a lover"], "in": [], "on": [], "from": [], "is": ["a lover"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": ["loves"], "actsCont": ["a loving"], "recipient": ["love"], "recipientPast": ["a beloved"]},</v>
@@ -15505,7 +15498,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="95" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "no", "group": "_o", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": ["a missing","a lacking"], "recipient": [], "recipientPast": []},</v>
@@ -15648,7 +15641,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="97" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "mo", "group": "_o", "pos": "Noun", "adult": false, "has": [], "in": ["a moment"], "on": [], "from": [], "is": ["a moment","a second"], "typeOf": ["a time period"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -15727,7 +15720,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="98" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "snow", "group": "_o", "pos": "Noun", "adult": false, "has": [], "in": ["winter"], "on": ["a mountain"], "from": [], "is": [], "typeOf": ["weather","precipitation"], "supertypeOf": [], "nearlyIs": ["ice"], "property": ["a cold","a chilly"], "acts": ["thaws","freezes"], "actsCont": [], "recipient": ["forecast"], "recipientPast": []},</v>
@@ -15824,7 +15817,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="99" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "throw", "group": "_o", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a pitcher","a bowler"], "is": [], "typeOf": ["an action"], "supertypeOf": ["a launch"], "nearlyIs": [], "property": [], "acts": ["hits","misses"], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -15909,7 +15902,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="100" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "show", "group": "_o", "pos": "Noun", "adult": false, "has": ["actors","an audience","a stage"], "in": [], "on": ["stage","tv","Broadway"], "from": [], "is": ["a presentation"], "typeOf": ["an event"], "supertypeOf": ["a play","an opera","a circus"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["watch","perform"], "recipientPast": ["a watched","an acted","a performed"]},</v>
@@ -16024,7 +16017,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="101" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "foe", "group": "_o", "pos": "Noun", "adult": false, "has": ["a vendetta"], "in": [], "on": [], "from": [], "is": ["an enemy","an adversary","an opponent"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["defeat"], "recipientPast": []},</v>
@@ -16106,7 +16099,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="102" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "rite", "group": "_ite", "pos": "Noun", "adult": false, "has": ["candles","cultists","a sacrifice"], "in": [], "on": ["an altar"], "from": [], "is": [], "typeOf": ["a ceremony"], "supertypeOf": ["a sacrifice","a blood sacrifice","a funeral"], "nearlyIs": ["a spell"], "property": ["a ceremonial","a religious"], "acts": [], "actsCont": [], "recipient": ["perform"], "recipientPast": ["a performed"]},</v>
@@ -16212,7 +16205,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="103" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "right", "group": "_ite", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a permission"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -16282,7 +16275,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="104" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "site", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a location","a URL"], "in": [], "on": [], "from": [], "is": ["a plot"], "typeOf": ["an area"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -16361,7 +16354,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="105" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "sight", "group": "_ite", "pos": "Noun", "adult": false, "has": ["eyes"], "in": [], "on": [], "from": [], "is": ["a view"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a scene"], "property": ["a beautiful"], "acts": [], "actsCont": [], "recipient": ["see","view","watch"], "recipientPast": ["a viewed","a watched"]},</v>
@@ -16455,7 +16448,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="106" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "fight", "group": "_ite", "pos": "Noun", "adult": false, "has": ["combatants","warriors","punches"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["an argument","a disagreement"], "supertypeOf": ["a battle","a spat","combat"], "nearlyIs": [], "property": ["an aggressive"], "acts": [], "actsCont": [], "recipient": ["win","lose"], "recipientPast": []},</v>
@@ -16555,7 +16548,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="107" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "kite", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a string"], "in": ["the sky"], "on": [], "from": [], "is": [], "typeOf": ["a toy","a bird"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": ["flies"], "actsCont": ["a flying"], "recipient": [], "recipientPast": []},</v>
@@ -16640,7 +16633,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="108" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "light", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a switch"], "in": [], "on": [], "from": ["the sun","a lamp","a torch"], "is": [], "typeOf": [], "supertypeOf": ["a lantern","a torch","a lamp"], "nearlyIs": [], "property": ["a bright"], "acts": ["shines","glows"], "actsCont": ["a shining","a glowing"], "recipient": ["put out"], "recipientPast": []},</v>
@@ -16746,7 +16739,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="109" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "bite", "group": "_ite", "pos": "Noun", "adult": false, "has": ["teeth","teethmarks"], "in": [], "on": [], "from": ["a wild animal","a dog"], "is": [], "typeOf": [], "supertypeOf": ["a chomp"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -16898,7 +16891,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="111" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "byte", "group": "_ite", "pos": "Noun", "adult": false, "has": ["data","memory"], "in": ["a computer"], "on": ["the computer"], "from": [], "is": [], "typeOf": ["memory"], "supertypeOf": [], "nearlyIs": [], "property": ["an electronic"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -16983,7 +16976,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="112" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "night", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a moon","stars"], "in": ["the evening"], "on": [], "from": [], "is": [], "typeOf": ["a time period"], "supertypeOf": ["an evening"], "nearlyIs": ["darkness","a sunset"], "property": ["a dark"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -17074,7 +17067,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="113" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "knight", "group": "_ite", "pos": "Noun", "adult": false, "has": ["a horse","a sword","a shield"], "in": ["the middle ages","a joust"], "on": ["a chess-board","a horse"], "from": ["the middle ages"], "is": ["a sir"], "typeOf": ["a warrior"], "supertypeOf": ["a cavalier"], "nearlyIs": ["a gentleman"], "property": ["an honorable","a medieval","an armoured"], "acts": ["fights","rides"], "actsCont": ["a fighting","a riding"], "recipient": [], "recipientPast": []},</v>
@@ -17268,7 +17261,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="115" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "mite", "group": "_ite", "pos": "Noun", "adult": false, "has": ["lots of legs"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["an insect"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -17341,7 +17334,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="116" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "shite", "group": "_ite", "pos": "Noun", "adult": true, "has": ["a bad smell","a bit of sweetcorn in it"], "in": ["the toilet"], "on": [], "from": [], "is": ["a turd","a crap","faeces"], "typeOf": ["a dump","a floater","a bodily function"], "supertypeOf": ["diarrhea"], "nearlyIs": ["rubbish","junk"], "property": ["a smelly","a rubbish"], "acts": ["stinks","smells"], "actsCont": ["a stinking"], "recipient": ["flush"], "recipientPast": []},</v>
@@ -17465,7 +17458,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="117" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "two", "group": "_ew", "pos": "Noun", "adult": false, "has": [], "in": ["pairs"], "on": [], "from": [], "is": ["a pair","a duo","a couple"], "typeOf": ["a number"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -17547,7 +17540,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="118" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "yew", "group": "_ew", "pos": "Noun", "adult": false, "has": ["leaves","bark","branches"], "in": ["a forest","a wood","the woods"], "on": [], "from": [], "is": [], "typeOf": ["a tree","a plant"], "supertypeOf": [], "nearlyIs": [], "property": ["a leafy"], "acts": [], "actsCont": [], "recipient": ["chop down"], "recipientPast": []},</v>
@@ -17644,7 +17637,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="119" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "pew", "group": "_ew", "pos": "Noun", "adult": false, "has": ["bibles"], "in": ["a church","a chapel"], "on": [], "from": [], "is": [], "typeOf": ["a seat","a bench","furniture"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["sit on"], "recipientPast": []},</v>
@@ -17732,7 +17725,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="120" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "dew", "group": "_ew", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["the grass","the morning"], "from": [], "is": [], "typeOf": ["water","precipitation"], "supertypeOf": [], "nearlyIs": ["a mist"], "property": ["a damp"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -17817,7 +17810,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="121" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "few", "group": "_ew", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a handful"], "typeOf": ["an amount","a number"], "supertypeOf": [], "nearlyIs": ["a couple"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -17896,7 +17889,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="122" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" ref="A122:A185" si="28">CONCATENATE("{""spelling"": """,Q122,""", ""group"": """,O122,""", ""pos"": """,S122,""", ""adult"": ",IF(R122=TRUE,"true","false"),", ""has"": [",B122,"]",", ""in"": [",C122,"]",", ""on"": [",D122,"]",", ""from"": [",E122,"]",", ""is"": [",F122,"]",", ""typeOf"": [",G122,"]",", ""supertypeOf"": [",H122,"]",", ""nearlyIs"": [",I122,"]",", ""property"": [",J122,"]",", ""acts"": [",K122,"]",", ""actsCont"": [",L122,"]",", ""recipient"": [",M122,"]",", ""recipientPast"": [",N122,"]},")</f>
         <v>{"spelling": "hue", "group": "_ew", "pos": "Noun", "adult": false, "has": [], "in": ["a colour palette"], "on": [], "from": [], "is": [], "typeOf": ["a colour","a shade"], "supertypeOf": [], "nearlyIs": [], "property": ["a colourful"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -17975,7 +17968,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="123" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "jew", "group": "_ew", "pos": "Noun", "adult": true, "has": ["a circumcision"], "in": ["a synagogue"], "on": [], "from": ["Israel"], "is": ["a jewish person"], "typeOf": ["a believer"], "supertypeOf": ["a Rabbi"], "nearlyIs": [], "property": ["a religious"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -18066,7 +18059,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="124" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "loo", "group": "_ew", "pos": "Noun", "adult": false, "has": ["a flush"], "in": ["a bathroom","a restroom"], "on": [], "from": [], "is": ["a toilet","a bathroom"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["pee in","poop on","flush"], "recipientPast": ["a flushed"]},</v>
@@ -18160,7 +18153,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="125" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "zoo", "group": "_ew", "pos": "Noun", "adult": false, "has": ["animals","lions","tigers"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a stable"], "property": [], "acts": [], "actsCont": [], "recipient": ["visit"], "recipientPast": ["a visited"]},</v>
@@ -18245,7 +18238,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="126" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "view", "group": "_ew", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a mountain top"], "from": ["an overlook","a beauty spot","a skyscraper"], "is": ["a sight"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a scene"], "property": ["a beautiful"], "acts": [], "actsCont": [], "recipient": ["see","look at"], "recipientPast": ["a seen"]},</v>
@@ -18342,7 +18335,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="127" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "boo", "group": "_ew", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a ghost"], "is": [], "typeOf": ["a fright","a scare"], "supertypeOf": [], "nearlyIs": ["a scream","a shout"], "property": ["a frightful","a scary"], "acts": ["scares people"], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -18433,7 +18426,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="128" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "spew", "group": "_ew", "pos": "Noun", "adult": true, "has": ["a bit of sweetcorn in it","a bad smell"], "in": [], "on": ["the pavement"], "from": ["a drunk"], "is": ["vomit"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["clean up"], "recipientPast": []},</v>
@@ -18521,7 +18514,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="129" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "shoe", "group": "_ew", "pos": "Noun", "adult": false, "has": ["laces","a sole"], "in": [], "on": ["your foot","a foot"], "from": [], "is": [], "typeOf": ["footwear"], "supertypeOf": ["a sandal","a high heel","a slipper"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["wear"], "recipientPast": ["a worn"]},</v>
@@ -18618,7 +18611,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="130" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "stew", "group": "_ew", "pos": "Noun", "adult": false, "has": ["meat in it","carrots"], "in": [], "on": [], "from": ["a kitchen","the kitchen"], "is": [], "typeOf": ["a meal","a main course"], "supertypeOf": [], "nearlyIs": [], "property": ["a meaty"], "acts": ["simmers","boils"], "actsCont": ["a simmering","a boiling"], "recipient": ["eat","cook"], "recipientPast": ["a cooked"]},</v>
@@ -18727,7 +18720,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="131" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "you", "group": "_ew", "pos": "Noun", "adult": false, "has": ["no friends","a bad attitude","a bad smell"], "in": ["terrible shape"], "on": [], "from": [], "is": ["an idiot","a moron","a jerk"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a terrible","an awful","an ugly"], "acts": ["smells","stinks"], "actsCont": ["a stinking"], "recipient": [], "recipientPast": []},</v>
@@ -18833,7 +18826,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="132" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "ring", "group": "_ing", "pos": "Noun", "adult": false, "has": ["an inscription"], "in": [], "on": ["your finger","a finger"], "from": ["a jewellers"], "is": [], "typeOf": ["jewellery"], "supertypeOf": [], "nearlyIs": ["a circle"], "property": [], "acts": [], "actsCont": [], "recipient": ["wear"], "recipientPast": ["a worn"]},</v>
@@ -18924,7 +18917,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="133" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "wing", "group": "_ing", "pos": "Noun", "adult": false, "has": ["feathers"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a side"], "property": ["a feathered"], "acts": ["flaps"], "actsCont": ["a flapping"], "recipient": [], "recipientPast": []},</v>
@@ -19006,7 +18999,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="134" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "thing", "group": "_ing", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an item","an object"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -19079,7 +19072,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="135" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "ying", "group": "_ing", "pos": "Noun", "adult": false, "has": ["a yang"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -19149,7 +19142,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="136" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "ping", "group": "_ing", "pos": "Noun", "adult": false, "has": ["lag"], "in": [], "on": ["a network"], "from": [], "is": [], "typeOf": ["a noise","a sound","an alert"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["hear"], "recipientPast": []},</v>
@@ -19234,7 +19227,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="137" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "ding", "group": "_ing", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a noise","a sound","an alert"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["hear"], "recipientPast": []},</v>
@@ -19313,7 +19306,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="138" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "king", "group": "_ing", "pos": "Noun", "adult": false, "has": ["subjects","a country","a crown"], "in": ["the throne room","the palace"], "on": ["a throne"], "from": ["the palace"], "is": ["a monarch"], "typeOf": ["a ruler"], "supertypeOf": [], "nearlyIs": ["an emperor","a prince"], "property": ["a royal"], "acts": ["rules","reigns"], "actsCont": ["a ruling","a reigning"], "recipient": [], "recipientPast": []},</v>
@@ -19428,7 +19421,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="139" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "app", "group": "_ap", "pos": "Noun", "adult": false, "has": ["developers","a developer"], "in": [], "on": ["your phone","a phone"], "from": [], "is": ["an application"], "typeOf": ["a program"], "supertypeOf": ["a mobile game","WhatsApp"], "nearlyIs": ["a game"], "property": ["a digital"], "acts": [], "actsCont": [], "recipient": ["install","uninstall"], "recipientPast": ["an installed"]},</v>
@@ -19534,7 +19527,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="140" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "rap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["lyrics"], "in": [], "on": ["the radio","Spotify"], "from": [], "is": [], "typeOf": ["music","singing"], "supertypeOf": [], "nearlyIs": ["a song"], "property": ["a musical"], "acts": [], "actsCont": [], "recipient": ["listen to","hear"], "recipientPast": []},</v>
@@ -19628,7 +19621,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="141" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "tap", "group": "_ap", "pos": "Noun", "adult": false, "has": [], "in": ["the kitchen"], "on": [], "from": [], "is": [], "typeOf": ["a touch"], "supertypeOf": [], "nearlyIs": ["a prod"], "property": [], "acts": ["drips"], "actsCont": ["a dripping"], "recipient": [], "recipientPast": []},</v>
@@ -19710,7 +19703,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="142" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "yap", "group": "_ap", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a small dog","a puppy","a dog"], "is": [], "typeOf": ["a bark"], "supertypeOf": [], "nearlyIs": ["a squeal"], "property": [], "acts": [], "actsCont": [], "recipient": ["hear"], "recipientPast": []},</v>
@@ -19795,7 +19788,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="143" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "sap", "group": "_ap", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a tree"], "from": ["a tree"], "is": [], "typeOf": [], "supertypeOf": ["maple syrup"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -19871,7 +19864,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="144" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "gap", "group": "_ap", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an opening"], "typeOf": ["a space"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -19944,7 +19937,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="145" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "lap", "group": "_ap", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -20011,7 +20004,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="146" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "clap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a noise","two hands"], "in": [], "on": [], "from": ["the audience","an audience"], "is": [], "typeOf": ["a sound"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["hear"], "recipientPast": []},</v>
@@ -20096,7 +20089,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="147" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "cap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a brim"], "in": [], "on": ["your head","a bottle"], "from": [], "is": [], "typeOf": ["a hat","a lid"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["wear"], "recipientPast": ["a worn"]},</v>
@@ -20184,7 +20177,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="148" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "bap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a filling","bread"], "in": [], "on": [], "from": ["a baker"], "is": [], "typeOf": ["a bun","a bread","a baked good"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["bake"], "recipientPast": ["a baked"]},</v>
@@ -20275,7 +20268,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="149" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "nap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a pillow"], "in": ["bed"], "on": ["the sofa"], "from": [], "is": [], "typeOf": ["a sleep","a rest"], "supertypeOf": [], "nearlyIs": [], "property": ["a sleepy"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -20360,7 +20353,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="150" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "map", "group": "_ap", "pos": "Noun", "adult": false, "has": ["a landscape","oceans","continents"], "in": ["an atlas"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["an atlas","a globe"], "nearlyIs": ["a plan"], "property": [], "acts": [], "actsCont": [], "recipient": ["draw","navigate with"], "recipientPast": []},</v>
@@ -20454,7 +20447,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="151" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "trap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["bait"], "in": [], "on": [], "from": ["a hunter"], "is": [], "typeOf": [], "supertypeOf": ["a snare","a pit","a pitfall"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -20536,7 +20529,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="152" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "chap", "group": "_ap", "pos": "Noun", "adult": false, "has": ["tophat","monocle"], "in": ["England"], "on": [], "from": ["England"], "is": ["a gent"], "typeOf": ["a person"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -20621,7 +20614,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="153" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "snap", "group": "_ap", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a picture"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["hear"], "recipientPast": []},</v>
@@ -20694,7 +20687,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="154" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "jam", "group": "_am", "pos": "Noun", "adult": false, "has": ["fruit","sugar","strawberries"], "in": ["the kitchen","a jar"], "on": ["toast"], "from": [], "is": ["a preserve"], "typeOf": ["a spread"], "supertypeOf": [], "nearlyIs": ["a jelly"], "property": ["a fruity","a sweet"], "acts": [], "actsCont": [], "recipient": ["eat","spread"], "recipientPast": ["a spread"]},</v>
@@ -20803,7 +20796,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="155" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "ram", "group": "_am", "pos": "Noun", "adult": false, "has": ["horns","wool","hooves"], "in": ["a field"], "on": [], "from": ["a field","a farm"], "is": [], "typeOf": ["a sheep","a farm animal","an animal"], "supertypeOf": [], "nearlyIs": [], "property": ["a wooly","a horned"], "acts": ["bleats"], "actsCont": ["a bleating"], "recipient": ["shear"], "recipientPast": ["a sheared"]},</v>
@@ -20915,7 +20908,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="156" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "tram", "group": "_am", "pos": "Noun", "adult": false, "has": ["passengers","rails"], "in": [], "on": ["rails"], "from": [], "is": [], "typeOf": ["a vehicle"], "supertypeOf": ["a streetcar"], "nearlyIs": ["a train","a carriage"], "property": [], "acts": ["drives"], "actsCont": ["a driving"], "recipient": ["board","ride"], "recipientPast": []},</v>
@@ -21015,7 +21008,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="157" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "spam", "group": "_am", "pos": "Noun", "adult": false, "has": [], "in": ["your inbox"], "on": [], "from": ["a scammer"], "is": ["junkmail"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["an email"], "property": ["a canned","a repetetive"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -21100,7 +21093,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="158" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "slam", "group": "_am", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a smash"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -21170,7 +21163,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="159" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "scam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a victim"], "in": [], "on": [], "from": ["a spammer","a conman"], "is": ["a con"], "typeOf": ["a lie","a ploy"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["fall for"], "recipientPast": []},</v>
@@ -21258,7 +21251,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="160" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "dam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a lot of water"], "in": ["the river","a river"], "on": [], "from": [], "is": [], "typeOf": ["a blockade"], "supertypeOf": [], "nearlyIs": [], "property": ["a blocked"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -21407,7 +21400,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="162" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "damn", "group": "_am", "pos": "Noun", "adult": true, "has": [], "in": [], "on": [], "from": ["a sinner"], "is": [], "typeOf": ["swearing","a curse"], "supertypeOf": [], "nearlyIs": [], "property": ["a cursed"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -21489,7 +21482,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="163" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "ham", "group": "_am", "pos": "Noun", "adult": false, "has": ["bone"], "in": ["a sandwich"], "on": [], "from": ["a pig"], "is": [], "typeOf": ["pork","meat"], "supertypeOf": [], "nearlyIs": [], "property": ["a meaty"], "acts": [], "actsCont": [], "recipient": ["eat"], "recipientPast": []},</v>
@@ -21577,7 +21570,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="164" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "lamb", "group": "_am", "pos": "Noun", "adult": false, "has": ["wool","hooves"], "in": ["a field"], "on": [], "from": ["a field","a farm"], "is": [], "typeOf": ["sheep","meat","a farm animal"], "supertypeOf": [], "nearlyIs": [], "property": ["a wooly"], "acts": ["bleats"], "actsCont": ["a bleating"], "recipient": ["shear","eat"], "recipientPast": ["a sheared"]},</v>
@@ -21686,7 +21679,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="165" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "clam", "group": "_am", "pos": "Noun", "adult": false, "has": ["a shell","a pearl"], "in": ["the ocean","the sea"], "on": [], "from": ["a fishmonger"], "is": [], "typeOf": ["a shellfish","a sea creature","a crustacean"], "supertypeOf": [], "nearlyIs": ["an oyster"], "property": [], "acts": [], "actsCont": [], "recipient": ["shell"], "recipientPast": []},</v>
@@ -21783,7 +21776,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="166" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "day", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a morning","an afternoon","the sun"], "in": ["the morning","the afternoon"], "on": [], "from": [], "is": [], "typeOf": ["a time period"], "supertypeOf": [], "nearlyIs": ["a morning","an afternoon"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -21874,7 +21867,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="167" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "way", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a signpost"], "in": [], "on": [], "from": [], "is": ["a path","a route","a trail"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -21953,7 +21946,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="168" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "ray", "group": "_ay", "pos": "Noun", "adult": false, "has": ["gills"], "in": ["the sea","the ocean"], "on": [], "from": ["the sun","a fishmonger"], "is": [], "typeOf": ["a fish","a beam"], "supertypeOf": ["a sunbeam","a manta"], "nearlyIs": [], "property": [], "acts": ["shines"], "actsCont": ["a shining"], "recipient": [], "recipientPast": []},</v>
@@ -22053,7 +22046,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="169" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "fey", "group": "_ay", "pos": "Noun", "adult": false, "has": ["magical powers"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a mythical creature","a legend","a myth"], "supertypeOf": ["an elf","a pixie","a sprite"], "nearlyIs": [], "property": ["a magical","an elfin","a mythical"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -22150,7 +22143,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="170" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "gay", "group": "_ay", "pos": "Noun", "adult": true, "has": ["a husband"], "in": ["a pride parade"], "on": ["grinder"], "from": [], "is": ["a homosexual"], "typeOf": ["a sexual preference"], "supertypeOf": ["a lesbian"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -22238,7 +22231,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="171" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "hay", "group": "_ay", "pos": "Noun", "adult": false, "has": [], "in": ["a field","a bale"], "on": [], "from": [], "is": [], "typeOf": ["fodder"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -22314,7 +22307,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="172" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "hey", "group": "_ay", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a hello","a hi"], "typeOf": ["a salutation"], "supertypeOf": [], "nearlyIs": ["a wave"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -22393,7 +22386,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="173" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "lay", "group": "_ay", "pos": "Noun", "adult": true, "has": ["foreplay","a climax","an orgasm"], "in": [], "on": ["tinder"], "from": ["tinder"], "is": ["a shag","a sexual partner","a lay"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["shag","fuck"], "recipientPast": ["a shagged","a fucked"]},</v>
@@ -22499,7 +22492,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="174" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "bay", "group": "_ay", "pos": "Noun", "adult": false, "has": ["ships","a pier","a beach"], "in": ["a cove"], "on": [], "from": [], "is": ["a cove"], "typeOf": ["a coastline"], "supertypeOf": [], "nearlyIs": ["a port"], "property": [], "acts": [], "actsCont": [], "recipient": ["sail into","swim in"], "recipientPast": []},</v>
@@ -22593,7 +22586,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="175" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "tray", "group": "_ay", "pos": "Noun", "adult": false, "has": ["a rim"], "in": ["front of the tv"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a plate"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -22669,7 +22662,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="176" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "stay", "group": "_ay", "pos": "Noun", "adult": false, "has": [], "in": ["a hotel","a hostel","a resort"], "on": ["holiday","vacation"], "from": [], "is": [], "typeOf": ["a holiday","a vacation"], "supertypeOf": ["a hotel","a hostel","a resort"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -22766,7 +22759,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="177" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "bot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["AI"], "in": [], "on": [], "from": [], "is": ["an AI","an artificial intelligence"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a digital","a robotic"], "acts": [], "actsCont": [], "recipient": ["program"], "recipientPast": ["a programmed"]},</v>
@@ -22854,7 +22847,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="178" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "knot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": ["a piece of rope","a tie","a string"], "on": [], "from": ["a boyscout"], "is": [], "typeOf": ["a tie","a fastening"], "supertypeOf": [], "nearlyIs": [], "property": ["a tied"], "acts": [], "actsCont": [], "recipient": ["tie","untie"], "recipientPast": ["a tied"]},</v>
@@ -22951,7 +22944,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="179" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "clot", "group": "_ot", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -23018,7 +23011,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="180" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "Scot", "group": "_ot", "pos": "Noun", "adult": false, "has": ["bagpipes","a tartan","a kilt"], "in": ["Scotland","Edinburgh","Glasgow"], "on": [], "from": ["Scotland"], "is": [], "typeOf": ["a Brit","a European"], "supertypeOf": [], "nearlyIs": [], "property": ["a Gaelic"], "acts": ["drinks whisky","plays the bagpipes"], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -23121,7 +23114,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="181" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "oat", "group": "_ote", "pos": "Noun", "adult": false, "has": [], "in": ["your porridge","a flapjack","granola"], "on": [], "from": [], "is": [], "typeOf": ["a grain","a cereal"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["cook"], "recipientPast": ["a cooked"]},</v>
@@ -23209,7 +23202,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="182" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "boat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a mast","sails","a captain"], "in": ["port","a lake"], "on": ["the high seas","a lake"], "from": ["a shipwright"], "is": ["a ship"], "typeOf": ["a vehicle"], "supertypeOf": ["a yacht","a dinghy","a canoe"], "nearlyIs": [], "property": [], "acts": ["sails","floats"], "actsCont": ["a sailing","a floating"], "recipient": [], "recipientPast": []},</v>
@@ -23327,7 +23320,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="183" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "coat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a zip","a hood"], "in": [], "on": [], "from": [], "is": ["a jacket"], "typeOf": ["a garment","clothing"], "supertypeOf": ["an anorak"], "nearlyIs": ["a fleece"], "property": [], "acts": [], "actsCont": [], "recipient": ["wear"], "recipientPast": ["a worn"]},</v>
@@ -23421,7 +23414,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="184" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "sky", "group": "_ie", "pos": "Noun", "adult": false, "has": ["clouds","birds","an atmosphere"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["space","the atmosphere"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -23503,7 +23496,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="185" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "rye", "group": "_ie", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a grain","a cereal","a flour"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -23579,7 +23572,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="186" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" ref="A186:A249" si="42">CONCATENATE("{""spelling"": """,Q186,""", ""group"": """,O186,""", ""pos"": """,S186,""", ""adult"": ",IF(R186=TRUE,"true","false"),", ""has"": [",B186,"]",", ""in"": [",C186,"]",", ""on"": [",D186,"]",", ""from"": [",E186,"]",", ""is"": [",F186,"]",", ""typeOf"": [",G186,"]",", ""supertypeOf"": [",H186,"]",", ""nearlyIs"": [",I186,"]",", ""property"": [",J186,"]",", ""acts"": [",K186,"]",", ""actsCont"": [",L186,"]",", ""recipient"": [",M186,"]",", ""recipientPast"": [",N186,"]},")</f>
         <v>{"spelling": "tie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pattern","a knot"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["clothing","a garment","formal wear"], "supertypeOf": ["a cravat"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["wear"], "recipientPast": ["a worn"]},</v>
@@ -23670,7 +23663,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="187" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "try", "group": "_ie", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an attempt"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["attempt"], "recipientPast": ["an attempted"]},</v>
@@ -23746,7 +23739,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="188" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "pie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a crust","a filling","a baker"], "in": [], "on": [], "from": ["a baker"], "is": [], "typeOf": ["a pastry"], "supertypeOf": [], "nearlyIs": ["a pasty","a tart","a pizza"], "property": ["a delicious"], "acts": [], "actsCont": [], "recipient": ["eat","bake"], "recipientPast": ["a baked"]},</v>
@@ -23849,7 +23842,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="189" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "pi", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a lot of numbers"], "in": ["a textbook","an equation"], "on": ["a calculator"], "from": [], "is": [], "typeOf": ["a number"], "supertypeOf": [], "nearlyIs": [], "property": ["a mathematical"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -23934,7 +23927,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="190" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "sigh", "group": "_ie", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a noise","a sound"], "supertypeOf": [], "nearlyIs": ["a gasp","a whisper"], "property": [], "acts": [], "actsCont": [], "recipient": ["hear"], "recipientPast": []},</v>
@@ -24016,7 +24009,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="191" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "sty", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pig","muck","a trough"], "in": ["a farm"], "on": ["your eye","your eyelid"], "from": [], "is": [], "typeOf": ["a mark","a blemish"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -24107,7 +24100,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="192" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "STI", "group": "_ie", "pos": "Noun", "adult": true, "has": ["pus"], "in": [], "on": ["your genitals"], "from": ["a prostitute","a hooker"], "is": ["a venereal disease","crotch rot"], "typeOf": ["a disease"], "supertypeOf": ["syphillis","chlamydia","herpes"], "nearlyIs": [], "property": [], "acts": ["itches"], "actsCont": ["an itching"], "recipient": ["cure","catch"], "recipientPast": []},</v>
@@ -24219,7 +24212,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="193" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "dye", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a colour"], "in": [], "on": ["your hair"], "from": [], "is": [], "typeOf": ["a colouring"], "supertypeOf": [], "nearlyIs": ["a stain"], "property": ["a colourful"], "acts": ["colours","stains"], "actsCont": ["a colouring","a staining"], "recipient": [], "recipientPast": []},</v>
@@ -24313,7 +24306,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="194" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "guy", "group": "_ie", "pos": "Noun", "adult": false, "has": ["arms","legs","a body"], "in": [], "on": [], "from": [], "is": ["a man"], "typeOf": ["a person"], "supertypeOf": ["a boy","a lad"], "nearlyIs": [], "property": ["a masculine","a male"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -24477,7 +24470,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="196" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "lie", "group": "_ie", "pos": "Noun", "adult": false, "has": ["never happened"], "in": [], "on": [], "from": ["a politician","an advert","a conman"], "is": ["an untruth"], "typeOf": [], "supertypeOf": ["a deception"], "nearlyIs": [], "property": ["a deceitful"], "acts": ["deceives","misleads"], "actsCont": ["a deceiving","a misleading"], "recipient": [], "recipientPast": []},</v>
@@ -24577,7 +24570,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="197" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "eye", "group": "_ie", "pos": "Noun", "adult": false, "has": ["a pupil","a lens","lashes"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a body part"], "supertypeOf": [], "nearlyIs": ["a centre-point"], "property": [], "acts": ["sees","watches"], "actsCont": ["a seeing","a watching"], "recipient": ["blind"], "recipientPast": []},</v>
@@ -24674,7 +24667,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="198" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "bell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["a clapper"], "in": ["a church","a steeple"], "on": [], "from": [], "is": [], "typeOf": ["an instrument"], "supertypeOf": [], "nearlyIs": ["a chime"], "property": [], "acts": ["rings","tolls"], "actsCont": ["a ringing","a tolling"], "recipient": ["ring","toll"], "recipientPast": []},</v>
@@ -24774,7 +24767,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="199" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "well", "group": "_ell", "pos": "Noun", "adult": false, "has": ["a bucket","water"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a resevoir"], "property": [], "acts": [], "actsCont": [], "recipient": ["dig","wish on"], "recipientPast": []},</v>
@@ -24856,7 +24849,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="200" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "yell", "group": "_ell", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a football fan","someone in trouble"], "is": ["a shout"], "typeOf": ["a noise","an exclamation"], "supertypeOf": ["a scream","a screech","a holler"], "nearlyIs": [], "property": ["a loud"], "acts": [], "actsCont": [], "recipient": ["shout","scream","hear"], "recipientPast": ["a shouted","a screamed"]},</v>
@@ -24965,7 +24958,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="201" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "shell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["an inside"], "in": ["the sea","the ocean"], "on": ["the beach"], "from": ["an oyster","a clam"], "is": [], "typeOf": ["a casing","an exterior"], "supertypeOf": ["a conch"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["launch"], "recipientPast": ["launched"]},</v>
@@ -25065,7 +25058,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="202" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "gel", "group": "_ell", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a bottle"], "is": [], "typeOf": [], "supertypeOf": ["a body-wash"], "nearlyIs": ["a liquid","a paste"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -25144,7 +25137,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="203" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "hell", "group": "_ell", "pos": "Noun", "adult": true, "has": ["flames","sinners","pitchforks"], "in": [], "on": [], "from": [], "is": ["hades","an inferno"], "typeOf": ["a nightmare","an underworld","an afterlife"], "supertypeOf": [], "nearlyIs": [], "property": ["a burning","a nightmarish"], "acts": ["burns"], "actsCont": ["a burning"], "recipient": [], "recipientPast": []},</v>
@@ -25320,7 +25313,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="205" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "smell", "group": "_ell", "pos": "Noun", "adult": false, "has": ["an origin"], "in": ["the bathroom","the toilet"], "on": [], "from": [], "is": ["an odour","an odor"], "typeOf": ["an emission"], "supertypeOf": ["a scent","a stench"], "nearlyIs": [], "property": ["a stinky"], "acts": ["stinks"], "actsCont": ["a stinking"], "recipient": [], "recipientPast": []},</v>
@@ -25420,7 +25413,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="206" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "act", "group": "_act", "pos": "Noun", "adult": false, "has": [], "in": ["a play"], "on": ["stage"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a chapter"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -25566,7 +25559,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="208" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "tact", "group": "_act", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a diplomat"], "is": [], "typeOf": ["manners"], "supertypeOf": [], "nearlyIs": ["a politeness"], "property": ["a careful"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -25645,7 +25638,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="209" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "pact", "group": "_act", "pos": "Noun", "adult": false, "has": ["signatures"], "in": ["writing"], "on": [], "from": ["a diplomat"], "is": [], "typeOf": ["an agreement","a treaty"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -25727,7 +25720,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="210" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "fact", "group": "_act", "pos": "Noun", "adult": false, "has": ["proof"], "in": [], "on": [], "from": [], "is": ["a truth"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["an objective"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -25803,7 +25796,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="211" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "cough", "group": "_off", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a patient"], "is": [], "typeOf": ["a sound"], "supertypeOf": [], "nearlyIs": ["a hiccup"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -25879,7 +25872,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="212" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "toff", "group": "_off", "pos": "Noun", "adult": false, "has": ["a tophat","riches","a monocle"], "in": ["the upper classes"], "on": [], "from": ["a rich family"], "is": ["a snob"], "typeOf": ["a gentleman"], "supertypeOf": [], "nearlyIs": [], "property": ["a posh"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -25970,7 +25963,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="213" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "ride", "group": "_ide", "pos": "Noun", "adult": false, "has": ["tracks"], "in": ["a fairground","an amusement park"], "on": [], "from": [], "is": [], "typeOf": ["an attraction"], "supertypeOf": ["a rollercoaster","a log flume"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -26055,7 +26048,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="214" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "tide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["waves","a lot of water"], "in": ["the ocean"], "on": ["the beach"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a wave"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -26207,7 +26200,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="216" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "side", "group": "_ide", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["an edge"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -26277,7 +26270,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="217" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "pride", "group": "_ide", "pos": "Noun", "adult": false, "has": ["lions"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["inspire"], "recipientPast": []},</v>
@@ -26350,7 +26343,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="218" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "guide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["expertise"], "in": [], "on": ["a hike","a tour"], "from": ["a gallery"], "is": [], "typeOf": ["a leader"], "supertypeOf": ["a guru"], "nearlyIs": [], "property": [], "acts": ["leads"], "actsCont": ["a leading"], "recipient": [], "recipientPast": []},</v>
@@ -26441,7 +26434,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="219" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "hide", "group": "_ide", "pos": "Noun", "adult": false, "has": ["hunters"], "in": [], "on": ["an animal"], "from": [], "is": ["a pelt"], "typeOf": ["a covering","a skin"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["skin"], "recipientPast": ["a skinned"]},</v>
@@ -26529,7 +26522,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="220" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "child", "group": "_ild", "pos": "Noun", "adult": false, "has": ["parents"], "in": ["school","a classroom"], "on": [], "from": [], "is": ["a kid","a youth","a sprog"], "typeOf": ["a person"], "supertypeOf": ["a baby","a toddler","an urchin"], "nearlyIs": [], "property": ["a young"], "acts": ["plays"], "actsCont": ["a playing"], "recipient": ["teach"], "recipientPast": ["a taught"]},</v>
@@ -26641,7 +26634,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="221" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "fin", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a fish"], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a flipper"], "nearlyIs": ["a wing"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -26717,7 +26710,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="222" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "win", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": ["sports"], "on": [], "from": [], "is": ["a victory"], "typeOf": ["a success"], "supertypeOf": [], "nearlyIs": [], "property": ["a victorious","a successful"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -26799,7 +26792,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="223" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "tin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lid","a filling","an opener"], "in": ["the periodic table"], "on": ["the periodic table"], "from": [], "is": ["a can"], "typeOf": ["packaging"], "supertypeOf": [], "nearlyIs": [], "property": ["a metallic"], "acts": [], "actsCont": [], "recipient": ["open"], "recipientPast": []},</v>
@@ -26893,7 +26886,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="224" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "pin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a head","a point"], "in": ["a pincushion","a voodoo doll"], "on": [], "from": [], "is": [], "typeOf": ["a spike","a fastening"], "supertypeOf": ["a tack","a thumbtack"], "nearlyIs": ["a needle"], "property": ["a sharp","a pointy"], "acts": ["punctures"], "actsCont": [], "recipient": ["stab with"], "recipientPast": []},</v>
@@ -26999,7 +26992,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="225" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "sin", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a sinner"], "is": [], "typeOf": [], "supertypeOf": ["murder","theft"], "nearlyIs": ["a crime"], "property": ["an immoral"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -27081,7 +27074,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="226" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "din", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a drumkit","an accordian","bagpipes"], "is": ["a cacophony"], "typeOf": ["a noise"], "supertypeOf": ["a clatter"], "nearlyIs": [], "property": ["a loud","a noisy"], "acts": [], "actsCont": [], "recipient": ["hear"], "recipientPast": []},</v>
@@ -27175,7 +27168,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="227" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "gin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lot of alcohol in it","juniper berries"], "in": ["a cocktail","a bar"], "on": [], "from": [], "is": [], "typeOf": ["a drink","a spirit","booze"], "supertypeOf": [], "nearlyIs": [], "property": ["an alcoholic"], "acts": [], "actsCont": [], "recipient": ["drink"], "recipientPast": []},</v>
@@ -27269,7 +27262,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="228" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "djinn", "group": "_in", "pos": "Noun", "adult": false, "has": ["magical powers","a lamp"], "in": ["a lamp"], "on": [], "from": [], "is": ["a genie"], "typeOf": ["a spirit"], "supertypeOf": [], "nearlyIs": [], "property": ["a magical"], "acts": ["grants wishes"], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -27357,7 +27350,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="229" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "kin", "group": "_in", "pos": "Noun", "adult": false, "has": [], "in": ["the family"], "on": [], "from": ["a family"], "is": ["a family member","a relative"], "typeOf": [], "supertypeOf": ["an aunt","an uncle","a cousin"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -27445,7 +27438,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="230" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "bin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a lid","rubbish"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a dumpster","a skip"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -27524,7 +27517,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="231" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "shin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a bone"], "in": ["your leg","your body"], "on": [], "from": [], "is": [], "typeOf": ["a body part","a bone"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -27606,7 +27599,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="232" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "chin", "group": "_in", "pos": "Noun", "adult": false, "has": ["a beard","a jaw"], "in": [], "on": ["your face"], "from": [], "is": [], "typeOf": ["a body part"], "supertypeOf": [], "nearlyIs": ["a jaw"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -27688,7 +27681,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="233" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "moat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a drawbridge"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a body of water"], "supertypeOf": [], "nearlyIs": ["a pond"], "property": ["a defensive"], "acts": [], "actsCont": [], "recipient": ["cross"], "recipientPast": []},</v>
@@ -27770,7 +27763,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="234" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "quote", "group": "_ote", "pos": "Noun", "adult": false, "has": ["been written down","an attribution"], "in": ["writing"], "on": [], "from": ["Shakespeare","an author","a guru"], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a saying"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": ["a spoken","a written"]},</v>
@@ -27864,7 +27857,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="235" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "tote", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a drawstring","clothes in it"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a bag"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -27940,7 +27933,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="236" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "goat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["horns","hooves"], "in": [], "on": [], "from": ["a farm","a farmyard"], "is": [], "typeOf": ["an animal","a farm animal","a mammal"], "supertypeOf": ["a kid"], "nearlyIs": ["a sheep"], "property": ["a horned"], "acts": ["bleats"], "actsCont": ["a bleating"], "recipient": [], "recipientPast": []},</v>
@@ -28043,7 +28036,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="237" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "vote", "group": "_ote", "pos": "Noun", "adult": false, "has": ["a party","political leanings"], "in": ["a ballot box"], "on": [], "from": [], "is": ["a ballot","a poll"], "typeOf": [], "supertypeOf": ["a secret ballot"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["cast"], "recipientPast": ["a cast"]},</v>
@@ -28134,7 +28127,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="238" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "note", "group": "_ote", "pos": "Noun", "adult": false, "has": ["an author"], "in": [], "on": ["paper"], "from": ["a secret admirer"], "is": [], "typeOf": ["writing"], "supertypeOf": ["a memo"], "nearlyIs": ["a letter"], "property": ["a written"], "acts": [], "actsCont": [], "recipient": ["write","send"], "recipientPast": ["a written"]},</v>
@@ -28231,7 +28224,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="239" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "mote", "group": "_ote", "pos": "Noun", "adult": false, "has": [], "in": ["the air"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -28301,7 +28294,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="240" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "stoat", "group": "_ote", "pos": "Noun", "adult": false, "has": ["whiskers","a tail"], "in": ["a burrow","the countryside"], "on": [], "from": [], "is": [], "typeOf": ["vermin","an animal","a mammal"], "supertypeOf": [], "nearlyIs": ["a ferret"], "property": ["a furry"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -28465,7 +28458,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="242" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "town", "group": "_own", "pos": "Noun", "adult": false, "has": ["inhabitants","buildings","a mayor"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a settlement"], "supertypeOf": [], "nearlyIs": ["a village","a city"], "property": ["a residential"], "acts": [], "actsCont": [], "recipient": ["live in","inhabit"], "recipientPast": ["an inhabited"]},</v>
@@ -28562,7 +28555,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="243" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "gown", "group": "_own", "pos": "Noun", "adult": false, "has": ["seams","material"], "in": ["a closet","a wardrobe"], "on": [], "from": [], "is": [], "typeOf": ["a garment","clothing"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["wear"], "recipientPast": ["a worn"]},</v>
@@ -28653,7 +28646,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="244" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "sub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["sailors","a periscope"], "in": ["the ocean","the sea"], "on": [], "from": [], "is": [], "typeOf": ["a boat","a ship","a vehicle"], "supertypeOf": [], "nearlyIs": [], "property": ["an underwater"], "acts": ["sails"], "actsCont": ["sailing"], "recipient": ["board","steer"], "recipientPast": []},</v>
@@ -28756,7 +28749,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="245" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "tub", "group": "_ub", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a bath"], "typeOf": ["a container"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -28829,7 +28822,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="246" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "pub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["drinks","beers","kegs"], "in": [], "on": [], "from": [], "is": ["a bar","a tavern"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a restaurant","a club","a microbrewery"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -28920,7 +28913,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="247" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "hub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["spokes"], "in": [], "on": [], "from": [], "is": ["a center"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a central"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -28996,7 +28989,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="248" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "law", "group": "_aw", "pos": "Noun", "adult": false, "has": ["rules"], "in": ["court"], "on": [], "from": [], "is": [], "typeOf": ["a rule"], "supertypeOf": [], "nearlyIs": [], "property": ["a legal"], "acts": [], "actsCont": [], "recipient": ["break"], "recipientPast": []},</v>
@@ -29078,7 +29071,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="249" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "awe", "group": "_aw", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["amazement"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["worship"], "property": ["an amazing"], "acts": [], "actsCont": [], "recipient": ["inspire"], "recipientPast": []},</v>
@@ -29157,7 +29150,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="250" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
         <f t="shared" ref="A250:A313" si="56">CONCATENATE("{""spelling"": """,Q250,""", ""group"": """,O250,""", ""pos"": """,S250,""", ""adult"": ",IF(R250=TRUE,"true","false"),", ""has"": [",B250,"]",", ""in"": [",C250,"]",", ""on"": [",D250,"]",", ""from"": [",E250,"]",", ""is"": [",F250,"]",", ""typeOf"": [",G250,"]",", ""supertypeOf"": [",H250,"]",", ""nearlyIs"": [",I250,"]",", ""property"": [",J250,"]",", ""acts"": [",K250,"]",", ""actsCont"": [",L250,"]",", ""recipient"": [",M250,"]",", ""recipientPast"": [",N250,"]},")</f>
         <v>{"spelling": "paw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["claws"], "in": [], "on": ["a dog's leg"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a hand"], "property": ["a clawed"], "acts": ["claws"], "actsCont": [], "recipient": ["declaw"], "recipientPast": []},</v>
@@ -29242,7 +29235,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="251" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "saw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth"], "in": ["a toolbox","a workshop"], "on": ["a workbench"], "from": [], "is": [], "typeOf": ["a tool"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": ["cuts"], "actsCont": ["a cutting"], "recipient": ["sharpen"], "recipientPast": ["a sharpened"]},</v>
@@ -29336,7 +29329,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="252" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "jaw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth","bones"], "in": [], "on": ["a face"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a mouth","a chin"], "property": [], "acts": ["chews"], "actsCont": ["a chewing"], "recipient": [], "recipientPast": []},</v>
@@ -29424,7 +29417,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="253" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "caw", "group": "_aw", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a raven","a crow","a blackbird"], "is": [], "typeOf": ["a noise","a birdcall"], "supertypeOf": [], "nearlyIs": ["a squawk"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -29509,7 +29502,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="254" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "maw", "group": "_aw", "pos": "Noun", "adult": false, "has": ["teeth","a tongue"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a mouth"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": ["chews","swallows","eat"], "actsCont": ["a chewing","a swallowing","an eating"], "recipient": [], "recipientPast": []},</v>
@@ -29603,7 +29596,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="255" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "call", "group": "_all", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a noise","a request"], "supertypeOf": [], "nearlyIs": ["a shout"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -29679,7 +29672,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="256" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "wall", "group": "_all", "pos": "Noun", "adult": false, "has": ["bricks","mortar"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a fence"], "nearlyIs": [], "property": ["a brick"], "acts": [], "actsCont": [], "recipient": ["build","demolish"], "recipientPast": ["a built"]},</v>
@@ -29767,7 +29760,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="257" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "drawl", "group": "_all", "pos": "Noun", "adult": false, "has": ["an accent"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["an accent"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -29840,7 +29833,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="258" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "hall", "group": "_all", "pos": "Noun", "adult": false, "has": ["rooms"], "in": ["a house","a mansion"], "on": [], "from": [], "is": [], "typeOf": ["a room"], "supertypeOf": ["a throne-room"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -29922,7 +29915,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="259" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "ball", "group": "_all", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a pitch","a stadium"], "from": ["a bowler","a pitcher"], "is": [], "typeOf": ["a sphere"], "supertypeOf": [], "nearlyIs": [], "property": ["a round","a spherical"], "acts": ["bounces"], "actsCont": ["a bouncing"], "recipient": ["throw","catch"], "recipientPast": ["a thrown","a caught"]},</v>
@@ -30028,7 +30021,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="260" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "maul", "group": "_all", "pos": "Noun", "adult": false, "has": [], "in": ["an arsenal"], "on": [], "from": [], "is": [], "typeOf": ["a hammer","a weapon","a club"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["swing"], "recipientPast": []},</v>
@@ -30110,7 +30103,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="261" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "shawl", "group": "_all", "pos": "Noun", "adult": false, "has": ["fabric"], "in": [], "on": ["an old lady"], "from": [], "is": [], "typeOf": ["clothing","a garment"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["wear"], "recipientPast": ["a worn"]},</v>
@@ -30195,7 +30188,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="262" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "man", "group": "_an", "pos": "Noun", "adult": false, "has": ["arms","legs","a body"], "in": [], "on": [], "from": ["Mars"], "is": [], "typeOf": ["a person"], "supertypeOf": ["a boy","a chap","a gent"], "nearlyIs": [], "property": ["a male","a masculine"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -30292,7 +30285,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="263" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "tan", "group": "_an", "pos": "Noun", "adult": false, "has": ["skin","freckles"], "in": [], "on": [], "from": ["holiday","vacation"], "is": [], "typeOf": ["a colouration","a colour"], "supertypeOf": [], "nearlyIs": [], "property": ["a brown"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -30380,7 +30373,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="264" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "pan", "group": "_an", "pos": "Noun", "adult": false, "has": ["a handle"], "in": ["the kitchen","a kitchen"], "on": ["the stove"], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a wok"], "nearlyIs": ["a pot"], "property": [], "acts": [], "actsCont": [], "recipient": ["cook with"], "recipientPast": []},</v>
@@ -30468,7 +30461,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="265" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "fan", "group": "_an", "pos": "Noun", "adult": false, "has": ["blades"], "in": ["the summer"], "on": [], "from": [], "is": [], "typeOf": ["an appliance"], "supertypeOf": [], "nearlyIs": ["an air conditioner"], "property": [], "acts": ["spins","blows"], "actsCont": ["a spinning","a blowing"], "recipient": [], "recipientPast": []},</v>
@@ -30559,7 +30552,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="266" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "can", "group": "_an", "pos": "Noun", "adult": false, "has": ["a lid","an opener","a filling"], "in": ["the pantry"], "on": [], "from": [], "is": ["a tin"], "typeOf": ["packaging"], "supertypeOf": [], "nearlyIs": [], "property": ["a tin"], "acts": [], "actsCont": [], "recipient": ["open"], "recipientPast": []},</v>
@@ -30650,7 +30643,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="267" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "ban", "group": "_an", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a restriction","a law","a rule"], "supertypeOf": [], "nearlyIs": [], "property": ["a forbidden"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -30729,7 +30722,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="268" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A268" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "nan", "group": "_an", "pos": "Noun", "adult": false, "has": ["grandchildren","grandkids"], "in": [], "on": [], "from": [], "is": ["a grandma","a grandmother"], "typeOf": ["a grandparent","a relative","a woman"], "supertypeOf": [], "nearlyIs": [], "property": ["an elderly"], "acts": ["knits"], "actsCont": ["a knitting"], "recipient": [], "recipientPast": []},</v>
@@ -30826,7 +30819,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="269" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "dog", "group": "_og", "pos": "Noun", "adult": false, "has": ["a tail","paws","a collar"], "in": ["a kennel","the pound"], "on": [], "from": ["the pound"], "is": ["a hound"], "typeOf": ["a pet","an animal","a mammal"], "supertypeOf": ["a pup","a puppy"], "nearlyIs": [], "property": ["a fluffy"], "acts": ["barks","woofs"], "actsCont": ["a barking","a woofing"], "recipient": ["play with","feed","walk"], "recipientPast": []},</v>
@@ -30953,7 +30946,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="270" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "fog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a mist"], "typeOf": [], "supertypeOf": ["a smog"], "nearlyIs": ["a cloud"], "property": ["a misty"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -31032,7 +31025,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="271" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "hog", "group": "_og", "pos": "Noun", "adult": false, "has": ["a snout","a curly tail","bristles"], "in": ["a sty","a farmyard","a farm"], "on": [], "from": ["a farmyard","a farm"], "is": ["a pig"], "typeOf": ["an animal","a farm animal","a mammal"], "supertypeOf": ["a piglet","a boar"], "nearlyIs": [], "property": [], "acts": ["oinks"], "actsCont": ["an oinking"], "recipient": [], "recipientPast": []},</v>
@@ -31147,7 +31140,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="272" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "jog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a run"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -31217,7 +31210,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="273" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "log", "group": "_og", "pos": "Noun", "adult": false, "has": ["rings","bark"], "in": ["a fireplace","a bonfire"], "on": ["a bonfire","a fire"], "from": ["a woodcutter","a lumberjack"], "is": [], "typeOf": ["wood","firewood"], "supertypeOf": [], "nearlyIs": ["a plank"], "property": ["a wooden"], "acts": [], "actsCont": [], "recipient": ["saw","burn"], "recipientPast": ["a sawn"]},</v>
@@ -31329,7 +31322,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="274" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "cog", "group": "_og", "pos": "Noun", "adult": false, "has": ["teeth"], "in": ["a clock","a machine"], "on": [], "from": [], "is": ["a gear"], "typeOf": ["a wheel","a mechanism"], "supertypeOf": [], "nearlyIs": [], "property": ["a mechanical"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -31417,7 +31410,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="275" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "bog", "group": "_og", "pos": "Noun", "adult": false, "has": ["reeds","mosquitos","crocodiles"], "in": [], "on": [], "from": [], "is": ["a swamp","a mire"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -31499,7 +31492,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="276" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "cub", "group": "_ub", "pos": "Noun", "adult": false, "has": ["claws","fur"], "in": ["the woods"], "on": [], "from": [], "is": [], "typeOf": ["a bear","a lion","a wolf"], "supertypeOf": [], "nearlyIs": [], "property": ["a young","a furry"], "acts": ["howls"], "actsCont": ["a howling"], "recipient": [], "recipientPast": []},</v>
@@ -31596,7 +31589,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="277" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "blog", "group": "_og", "pos": "Noun", "adult": false, "has": ["articles","pictures"], "in": [], "on": ["the internet","Wordpress","Tumblr"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["an online","a digital","a written"], "acts": [], "actsCont": [], "recipient": ["write","post","read"], "recipientPast": ["a written","a posted","a read"]},</v>
@@ -31705,7 +31698,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="278" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "sprog", "group": "_og", "pos": "Noun", "adult": false, "has": ["parents","a diaper","a dummy"], "in": ["diapers","school","kindergarten"], "on": [], "from": [], "is": ["a child","a kid","a youth"], "typeOf": ["a person"], "supertypeOf": ["a baby","a toddler","an urchin"], "nearlyIs": [], "property": ["a young"], "acts": ["cries"], "actsCont": ["a crying"], "recipient": ["change","feed","burp"], "recipientPast": []},</v>
@@ -31829,7 +31822,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="279" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "slog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a drudgery"], "typeOf": ["a hardship"], "supertypeOf": [], "nearlyIs": [], "property": ["a tough"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -31905,7 +31898,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="280" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "snog", "group": "_og", "pos": "Noun", "adult": false, "has": ["tongues"], "in": [], "on": [], "from": ["two lovers"], "is": [], "typeOf": ["a kiss"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -31981,7 +31974,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="281" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "smog", "group": "_og", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a chimney","a factory"], "is": [], "typeOf": ["a fog"], "supertypeOf": [], "nearlyIs": [], "property": ["a polluted"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -32060,7 +32053,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="282" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "club", "group": "_ub", "pos": "Noun", "adult": false, "has": ["drinks","music","a DJ"], "in": [], "on": [], "from": [], "is": ["a bar"], "typeOf": ["a weapon"], "supertypeOf": ["a mace","a maul","a hammer"], "nearlyIs": [], "property": ["a blunt"], "acts": [], "actsCont": [], "recipient": ["swing"], "recipientPast": []},</v>
@@ -32157,7 +32150,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="283" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "stub", "group": "_ub", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["a butt"], "typeOf": ["an end"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -32230,7 +32223,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="284" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "nub", "group": "_ub", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a lump"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -32300,7 +32293,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="285" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "duck", "group": "_uck", "pos": "Noun", "adult": false, "has": ["feathers","a beak","wings"], "in": ["the river","a river"], "on": [], "from": [], "is": [], "typeOf": ["a bird","an animal"], "supertypeOf": ["a mallard"], "nearlyIs": [], "property": ["a feathered"], "acts": ["flies","quacks"], "actsCont": ["a flying","a quacking"], "recipient": ["eat"], "recipientPast": []},</v>
@@ -32409,7 +32402,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="286" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "puck", "group": "_uck", "pos": "Noun", "adult": false, "has": [], "in": ["a hockey match"], "on": ["an ice rink"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["hit"], "recipientPast": []},</v>
@@ -32485,7 +32478,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "fuck", "group": "_uck", "pos": "Noun", "adult": true, "has": ["foreplay","a climax","an orgasm"], "in": [], "on": ["tinder"], "from": ["tinder","a prostitute","a hooker"], "is": ["a shag","a lay","a sexual partner"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -32585,7 +32578,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="288" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "luck", "group": "_uck", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["chance"], "typeOf": [], "supertypeOf": ["fortune","misfortune"], "nearlyIs": [], "property": ["a flukey","a risky"], "acts": ["runs out"], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -32670,7 +32663,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="289" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "cook", "group": "_uck", "pos": "Noun", "adult": false, "has": ["ingredients","knives","a kitchen"], "in": ["the kitchen","a kitchen","a restaurant"], "on": [], "from": [], "is": ["a chef"], "typeOf": [], "supertypeOf": ["a baker"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -32761,7 +32754,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="290" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "buck", "group": "_uck", "pos": "Noun", "adult": false, "has": ["antlers","hooves"], "in": ["the woods","a tip jar"], "on": [], "from": [], "is": ["a dollar"], "typeOf": ["a deer","an animal","a wild animal"], "supertypeOf": [], "nearlyIs": [], "property": ["a horned"], "acts": [], "actsCont": [], "recipient": ["spend"], "recipientPast": []},</v>
@@ -32858,7 +32851,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="291" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "muck", "group": "_uck", "pos": "Noun", "adult": false, "has": [], "in": ["a farmyard","a field"], "on": ["the bottom of your shoe"], "from": [], "is": ["dirt"], "typeOf": ["a stain"], "supertypeOf": [], "nearlyIs": ["rubbish"], "property": ["a dirty"], "acts": [], "actsCont": [], "recipient": ["clean up"], "recipientPast": []},</v>
@@ -32949,7 +32942,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="292" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "mum", "group": "_um", "pos": "Noun", "adult": false, "has": ["a child","kids"], "in": [], "on": [], "from": [], "is": ["a mother"], "typeOf": ["a parent"], "supertypeOf": [], "nearlyIs": [], "property": ["a maternal","a parental"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -33034,7 +33027,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="293" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "bum", "group": "_um", "pos": "Noun", "adult": false, "has": ["cheeks"], "in": ["your pants"], "on": [], "from": [], "is": ["a tramp"], "typeOf": ["a body part","a rear"], "supertypeOf": [], "nearlyIs": ["a seat"], "property": [], "acts": ["farts","poops"], "actsCont": ["a farting","a pooping"], "recipient": ["wipe"], "recipientPast": ["a wiped"]},</v>
@@ -33137,7 +33130,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="294" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "sum", "group": "_um", "pos": "Noun", "adult": false, "has": ["numbers","an answer"], "in": [], "on": [], "from": [], "is": ["a total"], "typeOf": ["an equation"], "supertypeOf": [], "nearlyIs": [], "property": ["a mathematical","a total"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -33222,7 +33215,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="295" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "gum", "group": "_um", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["the bottom of your shoe"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a chewy"], "acts": [], "actsCont": [], "recipient": ["chew"], "recipientPast": ["a chewed"]},</v>
@@ -33301,7 +33294,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="296" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "egg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["a yolk","a shell"], "in": ["a carton","an omlette"], "on": ["toast"], "from": ["a chicken","a farm"], "is": [], "typeOf": ["a food","an ingredient"], "supertypeOf": [], "nearlyIs": [], "property": ["a round","a fragile"], "acts": ["hatches"], "actsCont": ["a hatching"], "recipient": ["eat","crack","lay"], "recipientPast": ["a laid"]},</v>
@@ -33419,7 +33412,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="297" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "leg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["a foot","a knee","a shin"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a limb","a body part"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -33501,7 +33494,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="298" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "peg", "group": "_eg", "pos": "Noun", "adult": false, "has": [], "in": [], "on": ["a washing line"], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -33571,7 +33564,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="299" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "keg", "group": "_eg", "pos": "Noun", "adult": false, "has": ["beer","ale"], "in": ["a brewery","a pub","a bar"], "on": [], "from": ["a brewery"], "is": ["a cask"], "typeOf": ["a container"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["tap"], "recipientPast": ["a tapped"]},</v>
@@ -33668,7 +33661,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="300" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "pass", "group": "_ass", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a gap"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -33738,7 +33731,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="301" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "gas", "group": "_ass", "pos": "Noun", "adult": false, "has": ["a smell"], "in": ["a canister"], "on": [], "from": ["a fart"], "is": [], "typeOf": [], "supertypeOf": ["a fart","a vapour"], "nearlyIs": [], "property": [], "acts": ["smells","stinks"], "actsCont": ["a stinking"], "recipient": ["smell"], "recipientPast": []},</v>
@@ -33832,7 +33825,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="302" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "lass", "group": "_ass", "pos": "Noun", "adult": false, "has": ["a skirt"], "in": ["a dress","a skirt","pigtails"], "on": [], "from": [], "is": ["a girl"], "typeOf": ["a woman"], "supertypeOf": [], "nearlyIs": ["a lady"], "property": ["a female","a feminine"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -33926,7 +33919,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="303" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "mass", "group": "_ass", "pos": "Noun", "adult": false, "has": ["weight"], "in": [], "on": [], "from": [], "is": ["a weight"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a large"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -34002,7 +33995,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="304" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "port", "group": "_ort", "pos": "Noun", "adult": false, "has": ["ships","boats","yachts"], "in": [], "on": ["the coast"], "from": [], "is": ["a harbour"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a cove"], "property": [], "acts": [], "actsCont": [], "recipient": ["sail into"], "recipientPast": []},</v>
@@ -34090,7 +34083,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="305" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "wart", "group": "_ort", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a blemish"], "supertypeOf": [], "nearlyIs": ["a mole","a spot"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -34166,7 +34159,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="306" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "fort", "group": "_ort", "pos": "Noun", "adult": false, "has": ["a drawbridge","walls","towers"], "in": ["a castle"], "on": [], "from": [], "is": ["a keep","a castle"], "typeOf": [], "supertypeOf": [], "nearlyIs": ["a guardpost"], "property": ["a defensive","a defensible","a fortified"], "acts": ["protects"], "actsCont": [], "recipient": ["invade","seige"], "recipientPast": ["a beseiged"]},</v>
@@ -34275,7 +34268,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="307" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "court", "group": "_ort", "pos": "Noun", "adult": false, "has": ["judges","lawyers"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -34348,7 +34341,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="308" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "cum", "group": "_um", "pos": "Noun", "adult": true, "has": [], "in": ["a condom"], "on": [], "from": ["your dick","your cock"], "is": ["spunk","jizz","sperm"], "typeOf": ["an emission"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -34439,7 +34432,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="309" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "pun", "group": "_un", "pos": "Noun", "adult": false, "has": ["a setup","a punchline"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a joke","a riddle"], "supertypeOf": [], "nearlyIs": [], "property": ["a funny","a hilarious"], "acts": [], "actsCont": [], "recipient": ["tell"], "recipientPast": []},</v>
@@ -34527,7 +34520,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="310" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "ton", "group": "_un", "pos": "Noun", "adult": false, "has": ["a lot in it"], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a weight"], "supertypeOf": [], "nearlyIs": ["a lot"], "property": ["a heavy","a weighty"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -34679,7 +34672,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="312" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "sun", "group": "_un", "pos": "Noun", "adult": false, "has": ["rays","light"], "in": ["space","the sky"], "on": [], "from": [], "is": [], "typeOf": ["a star"], "supertypeOf": [], "nearlyIs": [], "property": ["a bright","a stellar"], "acts": ["burns","shines"], "actsCont": ["a burning","a shining"], "recipient": [], "recipientPast": []},</v>
@@ -34779,7 +34772,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="313" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "bun", "group": "_un", "pos": "Noun", "adult": false, "has": ["currants","dough"], "in": ["the oven"], "on": [], "from": ["the bakery","a baker"], "is": [], "typeOf": ["a bread","a bakery product"], "supertypeOf": ["a bap","a roll"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["eat","bake"], "recipientPast": ["a baked"]},</v>
@@ -34884,7 +34877,7 @@
     </row>
     <row r="314" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
-        <f t="shared" ref="A314:A377" si="70">CONCATENATE("{""spelling"": """,Q314,""", ""group"": """,O314,""", ""pos"": """,S314,""", ""adult"": ",IF(R314=TRUE,"true","false"),", ""has"": [",B314,"]",", ""in"": [",C314,"]",", ""on"": [",D314,"]",", ""from"": [",E314,"]",", ""is"": [",F314,"]",", ""typeOf"": [",G314,"]",", ""supertypeOf"": [",H314,"]",", ""nearlyIs"": [",I314,"]",", ""property"": [",J314,"]",", ""acts"": [",K314,"]",", ""actsCont"": [",L314,"]",", ""recipient"": [",M314,"]",", ""recipientPast"": [",N314,"]},")</f>
+        <f t="shared" ref="A314:A333" si="70">CONCATENATE("{""spelling"": """,Q314,""", ""group"": """,O314,""", ""pos"": """,S314,""", ""adult"": ",IF(R314=TRUE,"true","false"),", ""has"": [",B314,"]",", ""in"": [",C314,"]",", ""on"": [",D314,"]",", ""from"": [",E314,"]",", ""is"": [",F314,"]",", ""typeOf"": [",G314,"]",", ""supertypeOf"": [",H314,"]",", ""nearlyIs"": [",I314,"]",", ""property"": [",J314,"]",", ""acts"": [",K314,"]",", ""actsCont"": [",L314,"]",", ""recipient"": [",M314,"]",", ""recipientPast"": [",N314,"]},")</f>
         <v>{"spelling": "up", "group": "_up", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
       </c>
       <c r="B314" t="str">
@@ -34952,7 +34945,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="315" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "pup", "group": "_up", "pos": "Noun", "adult": false, "has": ["a tail","paws"], "in": ["a kennel"], "on": [], "from": [], "is": [], "typeOf": ["a dog","a pet","an animal"], "supertypeOf": [], "nearlyIs": [], "property": ["a fluffy","a canine"], "acts": ["barks","yaps"], "actsCont": ["a barking","a yapping"], "recipient": ["play with","feed","walk"], "recipientPast": []},</v>
@@ -35064,7 +35057,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="316" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "cup", "group": "_up", "pos": "Noun", "adult": false, "has": ["a handle","a saucer"], "in": [], "on": [], "from": [], "is": ["a mug"], "typeOf": ["china"], "supertypeOf": [], "nearlyIs": ["a glass"], "property": [], "acts": [], "actsCont": [], "recipient": ["drink from"], "recipientPast": []},</v>
@@ -35149,7 +35142,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="317" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "war", "group": "_aw", "pos": "Noun", "adult": false, "has": ["armies","combatants","an opponent"], "in": [], "on": ["campaign"], "from": [], "is": [], "typeOf": ["a conflict","combat"], "supertypeOf": ["a battle","an engagement"], "nearlyIs": ["a fight"], "property": [], "acts": ["kills"], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -35246,7 +35239,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="318" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "yore", "group": "_aw", "pos": "Noun", "adult": false, "has": [], "in": ["the past"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a historic","an ancient"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -35322,7 +35315,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="319" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "pour", "group": "_aw", "pos": "Noun", "adult": false, "has": ["a liquid"], "in": ["a bar","a pub"], "on": [], "from": [], "is": [], "typeOf": ["a measure"], "supertypeOf": ["a shot","a jigger"], "nearlyIs": ["a drink"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -35410,7 +35403,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="320" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "door", "group": "_aw", "pos": "Noun", "adult": false, "has": ["a handle","a bell"], "in": ["a house","a hallway"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a gate"], "nearlyIs": [], "property": ["an open","a closed"], "acts": ["opens","closes","slams"], "actsCont": ["an opening","a closing"], "recipient": ["open","close","slam"], "recipientPast": []},</v>
@@ -35522,7 +35515,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="321" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "gore", "group": "_aw", "pos": "Noun", "adult": true, "has": ["blood","bones"], "in": ["battle","war","a murder"], "on": [], "from": ["a victim"], "is": [], "typeOf": ["someone's remains"], "supertypeOf": [], "nearlyIs": ["offal"], "property": ["a vicious","a bloody"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -35692,7 +35685,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="323" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "whore", "group": "_aw", "pos": "Noun", "adult": true, "has": ["a pimp","fishnets"], "in": ["a dark alley","a brothel"], "on": ["the streets","a street corner"], "from": ["a brothel"], "is": ["a prostitute","a ho","a hooker"], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": ["a slutty","a skanky"], "acts": ["shags","sucks","fucks"], "actsCont": ["a shagging","a fucking"], "recipient": ["shag","fuck","sleep with"], "recipientPast": []},</v>
@@ -35822,7 +35815,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="324" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "bore", "group": "_aw", "pos": "Noun", "adult": false, "has": ["no friends","no conversation"], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["drill"], "recipientPast": ["a drilled"]},</v>
@@ -35901,7 +35894,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="325" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "fish", "group": "_ish", "pos": "Noun", "adult": false, "has": ["scales","fins","gills"], "in": ["the sea","the ocean","a pond"], "on": [], "from": [], "is": [], "typeOf": ["an animal","an aquatic animal"], "supertypeOf": ["a shark","a salmon","a tuna"], "nearlyIs": ["sealife"], "property": ["a scaly","an underwater"], "acts": ["swims"], "actsCont": ["a swimming"], "recipient": ["catch","eat"], "recipientPast": []},</v>
@@ -36022,7 +36015,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="326" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "wish", "group": "_ish", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a genie","a fairy godmother"], "is": [], "typeOf": ["a desire","a want","a craving"], "supertypeOf": [], "nearlyIs": ["a hope"], "property": [], "acts": ["comes true"], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -36110,7 +36103,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="327" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "dish", "group": "_ish", "pos": "Noun", "adult": false, "has": [], "in": ["a kitchen","a cupboard"], "on": [], "from": [], "is": [], "typeOf": ["china","a platter"], "supertypeOf": [], "nearlyIs": ["a plate","a bowl"], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -36195,7 +36188,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="328" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "trooper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["a gun","a uniform"], "in": ["the army","the police"], "on": ["patrol"], "from": [], "is": [], "typeOf": ["a soldier","a police officer"], "supertypeOf": [], "nearlyIs": ["an officer"], "property": [], "acts": ["patrols"], "actsCont": ["a patrolling"], "recipient": [], "recipientPast": []},</v>
@@ -36292,7 +36285,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="329" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "duper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["no morals"], "in": [], "on": [], "from": [], "is": ["a liar"], "typeOf": [], "supertypeOf": ["a con","a conman"], "nearlyIs": ["a lawyer","a politician","a trickster"], "property": ["a deceitful"], "acts": ["lies","deceives"], "actsCont": ["a lying","a deceiving"], "recipient": [], "recipientPast": []},</v>
@@ -36395,7 +36388,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="330" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "cooper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["tools","barrels"], "in": [], "on": [], "from": [], "is": ["a barrel maker"], "typeOf": ["a craftsman","an artisan"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -36477,7 +36470,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="331" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "blooper", "group": "_uper", "pos": "Noun", "adult": false, "has": ["mistakes"], "in": [], "on": ["tv","a DVD"], "from": ["a movie","a film"], "is": ["an outtake"], "typeOf": ["a mistake"], "supertypeOf": [], "nearlyIs": [], "property": ["an accidental"], "acts": [], "actsCont": [], "recipient": ["watch","laugh at"], "recipientPast": ["a watched"]},</v>
@@ -36577,7 +36570,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="332" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "snooper", "group": "_uper", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an investigator"], "typeOf": [], "supertypeOf": ["a paparazzi","a detective"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -36653,7 +36646,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="333" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "trouper", "group": "_uper", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": ["an actor"], "typeOf": ["an entertainer"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": ["acts","sings","performs"], "actsCont": ["an acting","a singing","a performing"], "recipient": [], "recipientPast": []},</v>
@@ -36744,7 +36737,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="334" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
         <f t="shared" ref="A334:A346" si="84">CONCATENATE("{""spelling"": """,Q334,""", ""group"": """,O334,""", ""pos"": """,S334,""", ""adult"": ",IF(R334=TRUE,"true","false"),", ""has"": [",B334,"]",", ""in"": [",C334,"]",", ""on"": [",D334,"]",", ""from"": [",E334,"]",", ""is"": [",F334,"]",", ""typeOf"": [",G334,"]",", ""supertypeOf"": [",H334,"]",", ""nearlyIs"": [",I334,"]",", ""property"": [",J334,"]",", ""acts"": [",K334,"]",", ""actsCont"": [",L334,"]",", ""recipient"": [",M334,"]",", ""recipientPast"": [",N334,"]},")</f>
         <v>{"spelling": "line", "group": "_ine", "pos": "Noun", "adult": false, "has": ["a start point","an end point","a gradient"], "in": ["a drawing"], "on": [], "from": [], "is": ["a queue"], "typeOf": ["a shape"], "supertypeOf": ["a tangent","an intersection"], "nearlyIs": ["a stroke"], "property": ["a straight"], "acts": [], "actsCont": [], "recipient": ["draw"], "recipientPast": ["a drawn"]},</v>
@@ -36847,7 +36840,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="335" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "wine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["alcohol","tannins"], "in": ["a bottle","a glass","a cask"], "on": [], "from": ["a bottle","a cask"], "is": [], "typeOf": ["alcohol","a beverage","a drink"], "supertypeOf": ["a merlot","a chardonnay","a pinot noir"], "nearlyIs": ["champagne"], "property": ["an alcoholic"], "acts": [], "actsCont": [], "recipient": ["drink","bottle"], "recipientPast": ["a bottled"]},</v>
@@ -36968,7 +36961,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="336" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "pine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["leaves","needles","bark"], "in": ["a forest","a wood","the woods"], "on": [], "from": [], "is": [], "typeOf": ["a tree","an evergreen"], "supertypeOf": ["a fir"], "nearlyIs": [], "property": ["an evergreen"], "acts": [], "actsCont": [], "recipient": ["chop down"], "recipientPast": []},</v>
@@ -37068,7 +37061,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="337" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "sign", "group": "_ine", "pos": "Noun", "adult": false, "has": ["a post","instructions"], "in": [], "on": ["a street"], "from": [], "is": [], "typeOf": ["a mark","a pointer"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["read"], "recipientPast": []},</v>
@@ -37153,7 +37146,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="338" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "fine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["a cost"], "in": [], "on": [], "from": ["a court","a police officer","a judge"], "is": ["a fee"], "typeOf": ["a punishment","a charge"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["pay"], "recipientPast": []},</v>
@@ -37244,7 +37237,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="339" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "vine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["grapes","leaves","a stem"], "in": ["a field"], "on": ["a wall","a trellis"], "from": [], "is": [], "typeOf": ["a plant"], "supertypeOf": ["a grape"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -37335,7 +37328,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="340" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "mine", "group": "_ine", "pos": "Noun", "adult": false, "has": ["diamonds","a detonator","gold"], "in": ["the mountains"], "on": ["a battlefield"], "from": [], "is": [], "typeOf": ["a pit","an explosive","a bomb"], "supertypeOf": ["a quarry"], "nearlyIs": ["a tripwire"], "property": [], "acts": ["explodes"], "actsCont": [], "recipient": ["lay","dig","excavate"], "recipientPast": ["a laid","an excavated"]},</v>
@@ -37520,7 +37513,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="342" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A342" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "top", "group": "_op", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": ["a direction","a side"], "supertypeOf": ["a peak","a summit"], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -37599,7 +37592,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="343" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A343" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "fop", "group": "_op", "pos": "Noun", "adult": false, "has": ["elaborate clothes"], "in": [], "on": [], "from": [], "is": ["a dandy"], "typeOf": ["a poser"], "supertypeOf": [], "nearlyIs": ["a toff"], "property": ["a posh","a well-dressed"], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -37684,7 +37677,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="344" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "hop", "group": "_op", "pos": "Noun", "adult": false, "has": [], "in": [], "on": [], "from": ["a rabbit","a kangaroo"], "is": [], "typeOf": ["a jump","a movement","a bounce"], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": ["brew"], "recipientPast": []},</v>
@@ -37769,7 +37762,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="345" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "cop", "group": "_op", "pos": "Noun", "adult": false, "has": ["a uniform","a badge","handcuffs"], "in": ["the police force"], "on": [], "from": [], "is": ["a police officer"], "typeOf": [], "supertypeOf": ["a trooper"], "nearlyIs": [], "property": [], "acts": ["patrols"], "actsCont": ["a patrolling"], "recipient": [], "recipientPast": []},</v>
@@ -37860,7 +37853,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="346" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "mop", "group": "_op", "pos": "Noun", "adult": false, "has": ["a handle"], "in": ["a cleaning trolley"], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": ["a tool","a cleaning product"], "nearlyIs": ["a broom"], "property": [], "acts": ["cleans"], "actsCont": ["a cleaning"], "recipient": [], "recipientPast": []},</v>

--- a/customDIctionary.xlsx
+++ b/customDIctionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\claptrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C403C0-2E5A-4926-A050-F8F2D7571E4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6446108C-B334-4803-81C8-A0290455752B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{065E9CA2-EFF7-4AAA-8B1A-5CE3FAFF6ACD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{065E9CA2-EFF7-4AAA-8B1A-5CE3FAFF6ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6556,13 +6556,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03EA1964-9959-4DA9-8B2A-D399BC4B8CF8}" name="Table1" displayName="Table1" ref="A1:BF351" totalsRowShown="0">
-  <autoFilter ref="A1:BF351" xr:uid="{DC25ED75-BBD1-453B-9995-DFC1E3E09EA4}">
-    <filterColumn colId="18">
-      <filters>
-        <filter val="Noun"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:BF351" xr:uid="{DC25ED75-BBD1-453B-9995-DFC1E3E09EA4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:BF333">
     <sortCondition ref="O1:O351"/>
   </sortState>
@@ -6958,9 +6952,9 @@
   <dimension ref="A1:BF351"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="R22" sqref="R22"/>
+      <selection pane="bottomLeft" activeCell="Q323" sqref="Q323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7461,9 +7455,6 @@
       <c r="O5" t="s">
         <v>2127</v>
       </c>
-      <c r="P5" t="b">
-        <v>1</v>
-      </c>
       <c r="Q5" s="1" t="s">
         <v>2132</v>
       </c>
@@ -7546,9 +7537,6 @@
       <c r="O6" t="s">
         <v>2127</v>
       </c>
-      <c r="P6" t="b">
-        <v>1</v>
-      </c>
       <c r="Q6" s="1" t="s">
         <v>2133</v>
       </c>
@@ -8928,7 +8916,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="23" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "on", "group": "_on", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -9492,7 +9480,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="29" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>{"spelling": "wet", "group": "_et", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -12137,7 +12125,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="58" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" ref="A58:A121" si="14">CONCATENATE("{""spelling"": """,Q58,""", ""group"": """,O58,""", ""pos"": """,S58,""", ""adult"": ",IF(R58=TRUE,"true","false"),", ""has"": [",B58,"]",", ""in"": [",C58,"]",", ""on"": [",D58,"]",", ""from"": [",E58,"]",", ""is"": [",F58,"]",", ""typeOf"": [",G58,"]",", ""supertypeOf"": [",H58,"]",", ""nearlyIs"": [",I58,"]",", ""property"": [",J58,"]",", ""acts"": [",K58,"]",", ""actsCont"": [",L58,"]",", ""recipient"": [",M58,"]",", ""recipientPast"": [",N58,"]},")</f>
         <v>{"spelling": "hot", "group": "_ot", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -12716,7 +12704,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="64" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "ate", "group": "_ate", "pos": "Verb", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -15571,7 +15559,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="96" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "white", "group": "_ite", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -16821,7 +16809,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="110" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "new", "group": "_ew", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -17191,7 +17179,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="114" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="14"/>
         <v>{"spelling": "sue", "group": "_ew", "pos": "Verb", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -21333,7 +21321,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="161" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="28"/>
         <v>{"spelling": "weigh", "group": "_ay", "pos": "Verb", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -24400,7 +24388,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="195" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "sell", "group": "_ell", "pos": "Verb", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -25243,7 +25231,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="204" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "off", "group": "_off", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -25489,7 +25477,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="207" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "wide", "group": "_ide", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -26130,7 +26118,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="215" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "wild", "group": "_ild", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -28388,7 +28376,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="241" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="42"/>
         <v>{"spelling": "down", "group": "_own", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -34602,7 +34590,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="311" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
         <f t="shared" si="56"/>
         <v>{"spelling": "for", "group": "_aw", "pos": "Prep", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -34875,7 +34863,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="314" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
         <f t="shared" ref="A314:A333" si="70">CONCATENATE("{""spelling"": """,Q314,""", ""group"": """,O314,""", ""pos"": """,S314,""", ""adult"": ",IF(R314=TRUE,"true","false"),", ""has"": [",B314,"]",", ""in"": [",C314,"]",", ""on"": [",D314,"]",", ""from"": [",E314,"]",", ""is"": [",F314,"]",", ""typeOf"": [",G314,"]",", ""supertypeOf"": [",H314,"]",", ""nearlyIs"": [",I314,"]",", ""property"": [",J314,"]",", ""acts"": [",K314,"]",", ""actsCont"": [",L314,"]",", ""recipient"": [",M314,"]",", ""recipientPast"": [",N314,"]},")</f>
         <v>{"spelling": "up", "group": "_up", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -35615,7 +35603,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="322" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
         <f t="shared" si="70"/>
         <v>{"spelling": "super", "group": "_uper", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -37443,7 +37431,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="341" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
         <f t="shared" si="84"/>
         <v>{"spelling": "bad", "group": "_ad", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -37941,7 +37929,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="347" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
         <f t="shared" ref="A347:A351" si="98">CONCATENATE("{""spelling"": """,Q347,""", ""group"": """,O347,""", ""pos"": """,S347,""", ""adult"": ",IF(R347=TRUE,"true","false"),", ""has"": [",B347,"]",", ""in"": [",C347,"]",", ""on"": [",D347,"]",", ""from"": [",E347,"]",", ""is"": [",F347,"]",", ""typeOf"": [",G347,"]",", ""supertypeOf"": [",H347,"]",", ""nearlyIs"": [",I347,"]",", ""property"": [",J347,"]",", ""acts"": [",K347,"]",", ""actsCont"": [",L347,"]",", ""recipient"": [",M347,"]",", ""recipientPast"": [",N347,"]},")</f>
         <v>{"spelling": "mad", "group": "_ad", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -38011,7 +37999,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="348" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A348" t="str">
         <f t="shared" si="98"/>
         <v>{"spelling": "rad", "group": "_ad", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -38081,7 +38069,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="349" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
         <f t="shared" si="98"/>
         <v>{"spelling": "tad", "group": "_ad", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -38151,7 +38139,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="350" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A350" t="str">
         <f t="shared" si="98"/>
         <v>{"spelling": "clad", "group": "_ad", "pos": "Adj", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
@@ -38221,7 +38209,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="351" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A351" t="str">
         <f t="shared" si="98"/>
         <v>{"spelling": "add", "group": "_ad", "pos": "Verb", "adult": false, "has": [], "in": [], "on": [], "from": [], "is": [], "typeOf": [], "supertypeOf": [], "nearlyIs": [], "property": [], "acts": [], "actsCont": [], "recipient": [], "recipientPast": []},</v>
